--- a/Assets/06.Table/WeeklyBoss.xlsx
+++ b/Assets/06.Table/WeeklyBoss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7F3CEF-4A35-4883-A906-A16325A56178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA2EA24-CFE9-40D8-ACF9-4FB9B7390A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="111">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,27 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000000000,100000000,10000,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>11000000000,200000000,15000,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>12000000000,300000000,20000,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>13000000000,400000000,25000,1000,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>14000000000,500000000,30000,1100,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>15000000000,600000000,35000,1200,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>16000000000,700000000,40000,1300,10000,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>등급1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,115 +245,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>2,5,46,9016,9026,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>2,5,46,9016,9026,9032,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>2,5,46,9016,9026,9032,9043,-1,-1,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>2,5,46,9016,9026,9032,9043,9023,-1,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>2,5,46,9016,9026,9032,9043,9023,9017,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,-1,-1</t>
-  </si>
-  <si>
-    <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,-1</t>
-  </si>
-  <si>
-    <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055</t>
-  </si>
-  <si>
-    <t>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</t>
-  </si>
-  <si>
-    <t>17000000000,800000000,45000,1400,11000,1000000,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>18000000000,900000000,50000,1500,12000,1100000,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>19000000000,1000000000,55000,1600,13000,1200000,100000,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>20000000000,1100000000,60000,1700,14000,1300000,110000,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>21000000000,1200000000,65000,1800,15000,1400000,120000,1,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>22000000000,1300000000,70000,1900,16000,1500000,130000,1,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>23000000000,1400000000,75000,2000,17000,1600000,140000,1,1,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>24000000000,1500000000,80000,2100,18000,1700000,150000,1,1,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>25000000000,1600000000,85000,2200,19000,1800000,160000,1,1,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>26000000000,1700000000,90000,2300,20000,1900000,170000,1,1,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>27000000000,1800000000,95000,2400,21000,2000000,180000,1,1,1,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>28000000000,1900000000,100000,2500,22000,2100000,190000,1,1,1,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>29000000000,2000000000,105000,2600,23000,2200000,200000,1,1,1,1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>30000000000,2100000000,110000,2700,24000,2300000,210000,1,1,1,1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>31000000000,2200000000,115000,2800,25000,2400000,220000,2,1,1,1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>32000000000,2300000000,120000,2900,26000,2500000,230000,2,1,1,1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>33000000000,2400000000,125000,3000,27000,2600000,240000,2,2,1,1,1,1,1,0</t>
-  </si>
-  <si>
-    <t>34000000000,2500000000,130000,3100,28000,2700000,250000,2,2,1,1,1,1,1,0</t>
-  </si>
-  <si>
-    <t>35000000000,2600000000,135000,3200,29000,2800000,260000,2,2,2,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>36000000000,2700000000,140000,3300,30000,2900000,270000,2,2,2,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>37000000000,2800000000,145000,3400,31000,3000000,280000,2,2,2,2,1,1,1,1</t>
-  </si>
-  <si>
-    <t>38000000000,2900000000,150000,3500,32000,3100000,290000,2,2,2,2,1,1,1,1</t>
-  </si>
-  <si>
-    <t>39000000000,3000000000,155000,3600,33000,3200000,300000,2,2,2,2,2,1,1,1</t>
+    <t>보상16</t>
+  </si>
+  <si>
+    <t>이름16</t>
+  </si>
+  <si>
+    <t>수량16</t>
+  </si>
+  <si>
+    <t>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>10000000000,100000000,10000,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</t>
+  </si>
+  <si>
+    <t>11000000000,200000000,15000,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>12000000000,300000000,20000,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>13000000000,400000000,25000,1000,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>14000000000,500000000,30000,1100,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>15000000000,600000000,35000,1200,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,5,46,9016,9026,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>16000000000,700000000,40000,1300,10000,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,5,46,9016,9026,9032,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>17000000000,800000000,45000,1400,11000,1000000,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>18000000000,900000000,50000,1500,12000,1100000,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,5,46,9016,9026,9032,9043,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>19000000000,1000000000,55000,1600,13000,1200000,100000,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>20000000000,1100000000,60000,1700,14000,1300000,110000,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,5,46,9016,9026,9032,9043,9023,-1,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>21000000000,1200000000,65000,1800,15000,1400000,120000,1,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>22000000000,1300000000,70000,1900,16000,1500000,130000,1,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,5,46,9016,9026,9032,9043,9023,9017,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>23000000000,1400000000,75000,2000,17000,1600000,140000,1,1,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>24000000000,1500000000,80000,2100,18000,1700000,150000,1,1,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>25000000000,1600000000,85000,2200,19000,1800000,160000,1,1,1,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>26000000000,1700000000,90000,2300,20000,1900000,170000,1,1,1,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>27000000000,1800000000,95000,2400,21000,2000000,180000,1,1,1,1,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>28000000000,1900000000,100000,2500,22000,2100000,190000,1,1,1,1,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>29000000000,2000000000,105000,2600,23000,2200000,200000,1,1,1,1,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>30000000000,2100000000,110000,2700,24000,2300000,210000,1,1,1,1,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>31000000000,2200000000,115000,2800,25000,2400000,220000,2,1,1,1,1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>32000000000,2300000000,120000,2900,26000,2500000,230000,2,1,1,1,1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,-1,-1</t>
+  </si>
+  <si>
+    <t>33000000000,2400000000,125000,3000,27000,2600000,240000,2,2,1,1,1,1,1,0,0</t>
+  </si>
+  <si>
+    <t>34000000000,2500000000,130000,3100,28000,2700000,250000,2,2,1,1,1,1,1,0,0</t>
+  </si>
+  <si>
+    <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</t>
+  </si>
+  <si>
+    <t>35000000000,2600000000,135000,3200,29000,2800000,260000,2,2,2,1,1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>36000000000,2700000000,140000,3300,30000,2900000,270000,2,2,2,1,1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>37000000000,2800000000,145000,3400,31000,3000000,280000,2,2,2,2,1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</t>
+  </si>
+  <si>
+    <t>40000000000,3100000000,160000,3700,34000,3300000,310000,2,2,2,2,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>38000000000,2900000000,150000,3500,32000,3100000,290000,2,2,2,2,1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>39000000000,3000000000,155000,3600,33000,3200000,300000,2,2,2,2,2,1,1,1,0</t>
   </si>
 </sst>
 </file>
@@ -903,326 +918,374 @@
           </cell>
         </row>
         <row r="45">
+          <cell r="C45">
+            <v>9061</v>
+          </cell>
           <cell r="D45" t="str">
-            <v>명상(수련-명상)</v>
+            <v>적안 마수 소탕권</v>
           </cell>
         </row>
         <row r="46">
+          <cell r="C46">
+            <v>9062</v>
+          </cell>
           <cell r="D46" t="str">
-            <v>여우 정수(메뉴-특수성장)</v>
+            <v>사신수 기운</v>
           </cell>
         </row>
         <row r="47">
+          <cell r="C47">
+            <v>9063</v>
+          </cell>
           <cell r="D47" t="str">
-            <v>야차 강화(메뉴-특수성장)</v>
+            <v>사신수 영약</v>
           </cell>
         </row>
         <row r="48">
+          <cell r="C48">
+            <v>9064</v>
+          </cell>
           <cell r="D48" t="str">
-            <v>귀문 개방(메뉴-특수성장)</v>
+            <v>수련서</v>
           </cell>
         </row>
         <row r="49">
           <cell r="D49" t="str">
-            <v>도술(메뉴-특수성장)</v>
+            <v>명상(수련-명상)</v>
           </cell>
         </row>
         <row r="50">
           <cell r="C50"/>
           <cell r="D50" t="str">
-            <v>유물 복원(메뉴-특수성장)</v>
+            <v>여우 정수(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="51">
           <cell r="D51" t="str">
-            <v>태극 심법(메뉴-특수성장)</v>
+            <v>야차 강화(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="52">
           <cell r="D52" t="str">
-            <v>환골 탈태(메뉴-특수성장)</v>
+            <v>귀문 개방(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="53">
           <cell r="D53" t="str">
-            <v>요도 해방(메뉴-특수성장)</v>
+            <v>도술(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="54">
           <cell r="D54" t="str">
-            <v>요력 개방(메뉴-특수성장)</v>
+            <v>유물 복원(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="55">
           <cell r="D55" t="str">
-            <v>환수파견(메뉴)</v>
+            <v>태극 심법(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="56">
           <cell r="D56" t="str">
-            <v>강철이전(메뉴)</v>
+            <v>환골 탈태(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="57">
           <cell r="D57" t="str">
-            <v>푸른 강철이(메뉴)</v>
+            <v>요도 해방(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="58">
           <cell r="D58" t="str">
-            <v>비무대회(메뉴)</v>
+            <v>제자(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="59">
           <cell r="D59" t="str">
-            <v>검의 산(가방 )</v>
+            <v>요력 개방(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="60">
           <cell r="D60" t="str">
-            <v>검의 영혼(가방)</v>
+            <v>사신수의 힘(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="61">
           <cell r="D61" t="str">
-            <v>노리개 수호령(가방)</v>
+            <v>환수파견(메뉴)</v>
           </cell>
         </row>
         <row r="62">
           <cell r="D62" t="str">
-            <v>붉은구미호전(문파)</v>
+            <v>강철이전(메뉴)</v>
           </cell>
         </row>
         <row r="63">
           <cell r="D63" t="str">
-            <v>대산군(문파)</v>
+            <v>푸른 강철이(메뉴)</v>
           </cell>
         </row>
         <row r="64">
           <cell r="D64" t="str">
-            <v>문파 동굴(문파)</v>
+            <v>적안 마수(메뉴)</v>
           </cell>
         </row>
         <row r="65">
-          <cell r="C65">
-            <v>0</v>
-          </cell>
+          <cell r="C65"/>
           <cell r="D65" t="str">
-            <v>반딧불전(요괴사냥-한계돌파)</v>
+            <v>비무대회(메뉴)</v>
           </cell>
         </row>
         <row r="66">
           <cell r="D66" t="str">
-            <v>요괴도장(요괴사냥-한계돌파)</v>
+            <v>검의 산(가방 )</v>
           </cell>
         </row>
         <row r="67">
           <cell r="D67" t="str">
-            <v>고양이요괴전(요괴사냥-보스도전)</v>
+            <v>검의 영혼(가방)</v>
           </cell>
         </row>
         <row r="68">
           <cell r="D68" t="str">
-            <v>도깨비전(요괴사냥-한계돌파)</v>
+            <v>노리개 수호령(가방)</v>
           </cell>
         </row>
         <row r="69">
           <cell r="D69" t="str">
-            <v>도깨비 대장간(요괴사냥-한계돌파)</v>
+            <v>붉은구미호전(문파)</v>
           </cell>
         </row>
         <row r="70">
           <cell r="D70" t="str">
-            <v>영혼의숲(요괴사냥-한계돌파)</v>
+            <v>대산군(문파)</v>
           </cell>
         </row>
         <row r="71">
           <cell r="D71" t="str">
-            <v>태극도장(요괴사냥-한계돌파)</v>
+            <v>문파 동굴(문파)</v>
           </cell>
         </row>
         <row r="72">
+          <cell r="C72">
+            <v>0</v>
+          </cell>
           <cell r="D72" t="str">
-            <v>12요괴전(요괴사냥-보스도전)</v>
+            <v>반딧불전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="73">
           <cell r="D73" t="str">
-            <v>백귀야행(요괴사냥-한계돌파)</v>
+            <v>요괴도장(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="74">
           <cell r="D74" t="str">
-            <v>구미호전(요괴사냥-보스도전)</v>
+            <v>고양이요괴전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="75">
           <cell r="D75" t="str">
-            <v>부처님전(요괴사냥-한계돌파)</v>
+            <v>도깨비전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="76">
           <cell r="D76" t="str">
-            <v>악귀퇴치/악의씨앗(요괴사냥-한계돌파)</v>
+            <v>도깨비 대장간(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="77">
           <cell r="D77" t="str">
-            <v>신요괴전(요괴사냥-보스도전)</v>
+            <v>영혼의숲(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="78">
           <cell r="D78" t="str">
-            <v>요괴탈/귀신나무(요괴사냥-한계돌파)</v>
+            <v>태극도장(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="79">
           <cell r="D79" t="str">
-            <v>수호신(요괴사냥-보스도전)</v>
+            <v>12요괴전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="80">
           <cell r="D80" t="str">
-            <v>요괴지옥(요괴사냥-삼천세계)</v>
+            <v>백귀야행(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="81">
           <cell r="D81" t="str">
-            <v>십만대산(요괴사냥)</v>
+            <v>구미호전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="82">
           <cell r="D82" t="str">
-            <v>천상계(요괴사냥-삼천세계)</v>
+            <v>부처님전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="83">
           <cell r="D83" t="str">
-            <v>왕의 시련(요괴사냥-한계돌파)</v>
+            <v>악귀퇴치/악의씨앗(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="84">
           <cell r="D84" t="str">
-            <v>사냥꾼시험(요괴사냥-한계돌파)</v>
+            <v>신요괴전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="85">
           <cell r="D85" t="str">
-            <v>비전 전수(요괴사냥-한계돌파)</v>
+            <v>요괴탈/귀신나무(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="86">
           <cell r="D86" t="str">
-            <v>도깨비나라(요괴사냥-삼천세계)</v>
+            <v>수호신(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="87">
           <cell r="D87" t="str">
-            <v>사신수별자리(요괴사냥-보스도전)</v>
+            <v>요괴지옥(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="88">
           <cell r="D88" t="str">
-            <v>수호동물전(요괴사냥-한계돌파)</v>
+            <v>십만대산(요괴사냥)</v>
           </cell>
         </row>
         <row r="89">
           <cell r="D89" t="str">
-            <v>여우굴(요괴사냥-한계돌파)</v>
+            <v>천상계(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="90">
           <cell r="D90" t="str">
-            <v>초월동굴(요괴사냥-한계돌파)</v>
+            <v>왕의 시련(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="91">
           <cell r="D91" t="str">
-            <v>사흉수(요괴사냥-보스도전)</v>
+            <v>사냥꾼시험(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="92">
           <cell r="D92" t="str">
-            <v>수미산(요괴사냥-삼천세계)</v>
+            <v>비전 전수(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="93">
           <cell r="D93" t="str">
-            <v>신의 시련(요괴사냥-한계돌파)</v>
+            <v>도깨비나라(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="94">
           <cell r="D94" t="str">
-            <v>사룡전(요괴사냥-보스도전)</v>
+            <v>사신수별자리(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="95">
           <cell r="D95" t="str">
-            <v>단전강화(요괴사냥-한계돌파)</v>
+            <v>수호동물전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="96">
           <cell r="D96" t="str">
-            <v>여우전(요괴사냥-보스도전)</v>
+            <v>여우굴(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="97">
           <cell r="D97" t="str">
-            <v>도적단(요괴사냥-삼천세계)</v>
+            <v>초월동굴(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="98">
           <cell r="D98" t="str">
-            <v>심연(요괴사냥-삼천세계)</v>
+            <v>사흉수(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="99">
           <cell r="D99" t="str">
-            <v>폐관수련(요괴사냥-한계돌파)</v>
+            <v>수미산(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="100">
           <cell r="D100" t="str">
-            <v>산군전(요괴사냥-보스도전)</v>
+            <v>신의 시련(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="101">
           <cell r="D101" t="str">
-            <v>검은구미호전(요괴사냥-한계돌파)</v>
+            <v>사룡전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="102">
           <cell r="D102" t="str">
-            <v>천구전(요괴사냥-보스도전)</v>
+            <v>단전강화(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="103">
           <cell r="D103" t="str">
-            <v>수인전(요괴사냥-보스도전)</v>
+            <v>여우전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="104">
           <cell r="D104" t="str">
-            <v>수호의 시련(요괴사냥-보스도전)</v>
+            <v>도적단(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="105">
           <cell r="D105" t="str">
-            <v>신선계(요괴사냥-삼천세계)</v>
+            <v>심연(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="106">
           <cell r="D106" t="str">
-            <v>현상수배(요괴사냥)</v>
+            <v>폐관수련(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="107">
           <cell r="D107" t="str">
-            <v>데미지 단위</v>
+            <v>산군전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="108">
           <cell r="D108" t="str">
+            <v>검은구미호전(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="D109" t="str">
+            <v>천구전(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="D110" t="str">
+            <v>수인전(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="D111" t="str">
+            <v>수호의 시련(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="D112" t="str">
+            <v>신선계(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="D113" t="str">
+            <v>현상수배(요괴사냥)</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="D114" t="str">
+            <v>데미지 단위</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="D115" t="str">
             <v>스테이지</v>
           </cell>
         </row>
@@ -1529,11 +1592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1583,13 +1646,13 @@
         <v>2000</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1600,19 +1663,20 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
+        <f>C2*10000</f>
         <v>9.9999999999999989E+75</v>
       </c>
       <c r="D3">
         <v>2200</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1623,19 +1687,20 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
+        <f t="shared" ref="C4:C32" si="0">C3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
         <v>2400</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1646,6 +1711,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999984E+83</v>
       </c>
       <c r="D5">
@@ -1655,10 +1721,10 @@
         <v>70</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1669,6 +1735,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999978E+87</v>
       </c>
       <c r="D6">
@@ -1678,10 +1745,10 @@
         <v>70</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1692,6 +1759,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999975E+91</v>
       </c>
       <c r="D7">
@@ -1701,10 +1769,10 @@
         <v>70</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1715,19 +1783,20 @@
         <v>5</v>
       </c>
       <c r="C8" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999981E+95</v>
       </c>
       <c r="D8">
         <v>3200</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1738,19 +1807,20 @@
         <v>6</v>
       </c>
       <c r="C9" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999982E+99</v>
       </c>
       <c r="D9">
         <v>3400</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1761,19 +1831,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999984E+103</v>
       </c>
       <c r="D10">
         <v>3600</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1784,19 +1855,20 @@
         <v>6</v>
       </c>
       <c r="C11" s="4">
+        <f t="shared" si="0"/>
         <v>9.999999999999999E+107</v>
       </c>
       <c r="D11">
         <v>3800</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1807,19 +1879,20 @@
         <v>5</v>
       </c>
       <c r="C12" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D12">
         <v>4000</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1830,19 +1903,20 @@
         <v>6</v>
       </c>
       <c r="C13" s="4">
+        <f t="shared" si="0"/>
         <v>1E+116</v>
       </c>
       <c r="D13">
         <v>4200</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1853,19 +1927,20 @@
         <v>6</v>
       </c>
       <c r="C14" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D14">
         <v>4400</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1876,19 +1951,20 @@
         <v>6</v>
       </c>
       <c r="C15" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D15">
         <v>4600</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1899,19 +1975,20 @@
         <v>6</v>
       </c>
       <c r="C16" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999988E+127</v>
       </c>
       <c r="D16">
         <v>4800</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1922,19 +1999,20 @@
         <v>6</v>
       </c>
       <c r="C17" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999983E+131</v>
       </c>
       <c r="D17">
         <v>5000</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1945,19 +2023,20 @@
         <v>6</v>
       </c>
       <c r="C18" s="4">
+        <f t="shared" si="0"/>
         <v>9.999999999999998E+135</v>
       </c>
       <c r="D18">
         <v>5200</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1968,19 +2047,20 @@
         <v>6</v>
       </c>
       <c r="C19" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999985E+139</v>
       </c>
       <c r="D19">
         <v>5400</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1991,19 +2071,20 @@
         <v>6</v>
       </c>
       <c r="C20" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999985E+143</v>
       </c>
       <c r="D20">
         <v>5600</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2014,19 +2095,20 @@
         <v>6</v>
       </c>
       <c r="C21" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999991E+147</v>
       </c>
       <c r="D21">
         <v>5800</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2037,19 +2119,20 @@
         <v>6</v>
       </c>
       <c r="C22" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999993E+151</v>
       </c>
       <c r="D22">
         <v>6000</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -2060,19 +2143,20 @@
         <v>6</v>
       </c>
       <c r="C23" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="D23">
         <v>6200</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2083,19 +2167,20 @@
         <v>6</v>
       </c>
       <c r="C24" s="4">
+        <f t="shared" si="0"/>
         <v>1E+160</v>
       </c>
       <c r="D24">
         <v>6400</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2106,19 +2191,20 @@
         <v>6</v>
       </c>
       <c r="C25" s="4">
+        <f t="shared" si="0"/>
         <v>1E+164</v>
       </c>
       <c r="D25">
         <v>6600</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2129,19 +2215,20 @@
         <v>6</v>
       </c>
       <c r="C26" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="D26">
         <v>6800</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2152,19 +2239,20 @@
         <v>6</v>
       </c>
       <c r="C27" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999991E+171</v>
       </c>
       <c r="D27">
         <v>7000</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2175,19 +2263,20 @@
         <v>6</v>
       </c>
       <c r="C28" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999987E+175</v>
       </c>
       <c r="D28">
         <v>7200</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2198,19 +2287,20 @@
         <v>6</v>
       </c>
       <c r="C29" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999989E+179</v>
       </c>
       <c r="D29">
         <v>7400</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2221,19 +2311,20 @@
         <v>6</v>
       </c>
       <c r="C30" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999983E+183</v>
       </c>
       <c r="D30">
         <v>7600</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2244,24 +2335,49 @@
         <v>6</v>
       </c>
       <c r="C31" s="4">
+        <f t="shared" si="0"/>
         <v>9.9999999999999987E+187</v>
       </c>
       <c r="D31">
         <v>7800</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999991E+191</v>
+      </c>
+      <c r="D32">
+        <v>8000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:D31">
+  <conditionalFormatting sqref="C2:D32">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -2273,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6DE2D-0EDB-49C4-8B38-79FA81476413}">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BT32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="E2:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2300,7 +2416,7 @@
     <col min="62" max="62" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2332,7 +2448,7 @@
         <v>13</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s">
         <v>14</v>
@@ -2344,7 +2460,7 @@
         <v>16</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="Q1" t="s">
         <v>17</v>
@@ -2502,8 +2618,20 @@
       <c r="BP1" t="s">
         <v>57</v>
       </c>
+      <c r="BQ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2514,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E31" si="0">I2&amp;","&amp;M2&amp;","&amp;Q2&amp;","&amp;U2&amp;","&amp;Y2&amp;","&amp;AC2&amp;","&amp;AG2&amp;","&amp;AK2&amp;","&amp;AO2&amp;","&amp;AS2&amp;","&amp;AW2&amp;","&amp;BA2&amp;","&amp;BE2&amp;","&amp;BI2&amp;","&amp;BM2</f>
-        <v>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
+        <f t="shared" ref="E2:E31" si="0">I2&amp;","&amp;M2&amp;","&amp;Q2&amp;","&amp;U2&amp;","&amp;Y2&amp;","&amp;AC2&amp;","&amp;AG2&amp;","&amp;AK2&amp;","&amp;AO2&amp;","&amp;AS2&amp;","&amp;AW2&amp;","&amp;BA2&amp;","&amp;BE2&amp;","&amp;BI2&amp;","&amp;BM2&amp;","&amp;BQ2</f>
+        <v>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F31" si="1">K2&amp;","&amp;O2&amp;","&amp;S2&amp;","&amp;W2&amp;","&amp;AA2&amp;","&amp;AE2&amp;","&amp;AI2&amp;","&amp;AM2&amp;","&amp;AQ2&amp;","&amp;AU2&amp;","&amp;AY2&amp;","&amp;BC2&amp;","&amp;BG2&amp;","&amp;BK2&amp;","&amp;BO2</f>
-        <v>10000000000,100000000,10000,0,0,0,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" ref="F2:F31" si="1">K2&amp;","&amp;O2&amp;","&amp;S2&amp;","&amp;W2&amp;","&amp;AA2&amp;","&amp;AE2&amp;","&amp;AI2&amp;","&amp;AM2&amp;","&amp;AQ2&amp;","&amp;AU2&amp;","&amp;AY2&amp;","&amp;BC2&amp;","&amp;BG2&amp;","&amp;BK2&amp;","&amp;BO2&amp;","&amp;BS2</f>
+        <v>10000000000,100000000,10000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G31" si="2">L2&amp;","&amp;P2&amp;","&amp;T2&amp;","&amp;X2&amp;","&amp;AB2&amp;","&amp;AF2&amp;","&amp;AJ2&amp;","&amp;AN2&amp;","&amp;AR2&amp;","&amp;AV2&amp;","&amp;AZ2&amp;","&amp;BD2&amp;","&amp;BH2&amp;","&amp;BL2&amp;","&amp;BP2</f>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <f t="shared" ref="G2:G31" si="2">L2&amp;","&amp;P2&amp;","&amp;T2&amp;","&amp;X2&amp;","&amp;AB2&amp;","&amp;AF2&amp;","&amp;AJ2&amp;","&amp;AN2&amp;","&amp;AR2&amp;","&amp;AV2&amp;","&amp;AZ2&amp;","&amp;BD2&amp;","&amp;BH2&amp;","&amp;BL2&amp;","&amp;BP2&amp;","&amp;BT2</f>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>10</v>
@@ -2709,8 +2837,20 @@
       <c r="BP2" s="2">
         <v>4</v>
       </c>
+      <c r="BQ2">
+        <v>-1</v>
+      </c>
+      <c r="BR2">
+        <v>-1</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2723,15 +2863,15 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="1"/>
-        <v>11000000000,200000000,15000,0,0,0,0,0,0,0,0,0,0,0,0</v>
+        <v>11000000000,200000000,15000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>10</v>
@@ -2918,13 +3058,25 @@
       <c r="BP3" s="2">
         <v>4</v>
       </c>
+      <c r="BQ3">
+        <v>-1</v>
+      </c>
+      <c r="BR3">
+        <v>-1</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B31" si="3">B3*10000</f>
+        <f t="shared" ref="B4:B32" si="3">B3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -2932,15 +3084,15 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
-        <v>12000000000,300000000,20000,0,0,0,0,0,0,0,0,0,0,0,0</v>
+        <v>12000000000,300000000,20000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>10</v>
@@ -3127,8 +3279,20 @@
       <c r="BP4" s="2">
         <v>4</v>
       </c>
+      <c r="BQ4">
+        <v>-1</v>
+      </c>
+      <c r="BR4">
+        <v>-1</v>
+      </c>
+      <c r="BS4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3141,15 +3305,15 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>13000000000,400000000,25000,1000,0,0,0,0,0,0,0,0,0,0,0</v>
+        <v>13000000000,400000000,25000,1000,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>10</v>
@@ -3337,8 +3501,20 @@
       <c r="BP5" s="2">
         <v>4</v>
       </c>
+      <c r="BQ5">
+        <v>-1</v>
+      </c>
+      <c r="BR5">
+        <v>-1</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3351,15 +3527,15 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>14000000000,500000000,30000,1100,0,0,0,0,0,0,0,0,0,0,0</v>
+        <v>14000000000,500000000,30000,1100,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>10</v>
@@ -3547,8 +3723,20 @@
       <c r="BP6" s="2">
         <v>4</v>
       </c>
+      <c r="BQ6">
+        <v>-1</v>
+      </c>
+      <c r="BR6">
+        <v>-1</v>
+      </c>
+      <c r="BS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3561,15 +3749,15 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>15000000000,600000000,35000,1200,0,0,0,0,0,0,0,0,0,0,0</v>
+        <v>15000000000,600000000,35000,1200,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>10</v>
@@ -3757,8 +3945,20 @@
       <c r="BP7" s="2">
         <v>4</v>
       </c>
+      <c r="BQ7">
+        <v>-1</v>
+      </c>
+      <c r="BR7">
+        <v>-1</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3771,15 +3971,15 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>16000000000,700000000,40000,1300,10000,0,0,0,0,0,0,0,0,0,0</v>
+        <v>16000000000,700000000,40000,1300,10000,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>10</v>
@@ -3968,8 +4168,20 @@
       <c r="BP8" s="2">
         <v>4</v>
       </c>
+      <c r="BQ8">
+        <v>-1</v>
+      </c>
+      <c r="BR8">
+        <v>-1</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3982,15 +4194,15 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>17000000000,800000000,45000,1400,11000,1000000,0,0,0,0,0,0,0,0,0</v>
+        <v>17000000000,800000000,45000,1400,11000,1000000,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>10</v>
@@ -4180,8 +4392,20 @@
       <c r="BP9" s="2">
         <v>4</v>
       </c>
+      <c r="BQ9">
+        <v>-1</v>
+      </c>
+      <c r="BR9">
+        <v>-1</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -4194,15 +4418,15 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>18000000000,900000000,50000,1500,12000,1100000,0,0,0,0,0,0,0,0,0</v>
+        <v>18000000000,900000000,50000,1500,12000,1100000,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>10</v>
@@ -4392,8 +4616,20 @@
       <c r="BP10" s="2">
         <v>4</v>
       </c>
+      <c r="BQ10">
+        <v>-1</v>
+      </c>
+      <c r="BR10">
+        <v>-1</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4406,15 +4642,15 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,-1,-1,-1,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>19000000000,1000000000,55000,1600,13000,1200000,100000,0,0,0,0,0,0,0,0</v>
+        <v>19000000000,1000000000,55000,1600,13000,1200000,100000,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>10</v>
@@ -4605,8 +4841,20 @@
       <c r="BP11" s="2">
         <v>4</v>
       </c>
+      <c r="BQ11">
+        <v>-1</v>
+      </c>
+      <c r="BR11">
+        <v>-1</v>
+      </c>
+      <c r="BS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4619,15 +4867,15 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,-1,-1,-1,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>20000000000,1100000000,60000,1700,14000,1300000,110000,0,0,0,0,0,0,0,0</v>
+        <v>20000000000,1100000000,60000,1700,14000,1300000,110000,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>10</v>
@@ -4818,8 +5066,20 @@
       <c r="BP12" s="2">
         <v>4</v>
       </c>
+      <c r="BQ12">
+        <v>-1</v>
+      </c>
+      <c r="BR12">
+        <v>-1</v>
+      </c>
+      <c r="BS12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4832,15 +5092,15 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,-1,-1,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>21000000000,1200000000,65000,1800,15000,1400000,120000,1,0,0,0,0,0,0,0</v>
+        <v>21000000000,1200000000,65000,1800,15000,1400000,120000,1,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>10</v>
@@ -5032,8 +5292,20 @@
       <c r="BP13" s="2">
         <v>4</v>
       </c>
+      <c r="BQ13">
+        <v>-1</v>
+      </c>
+      <c r="BR13">
+        <v>-1</v>
+      </c>
+      <c r="BS13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5046,15 +5318,15 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,-1,-1,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>22000000000,1300000000,70000,1900,16000,1500000,130000,1,0,0,0,0,0,0,0</v>
+        <v>22000000000,1300000000,70000,1900,16000,1500000,130000,1,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>10</v>
@@ -5246,8 +5518,20 @@
       <c r="BP14" s="2">
         <v>4</v>
       </c>
+      <c r="BQ14">
+        <v>-1</v>
+      </c>
+      <c r="BR14">
+        <v>-1</v>
+      </c>
+      <c r="BS14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT14" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5260,15 +5544,15 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,-1,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>23000000000,1400000000,75000,2000,17000,1600000,140000,1,1,0,0,0,0,0,0</v>
+        <v>23000000000,1400000000,75000,2000,17000,1600000,140000,1,1,0,0,0,0,0,0,0</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>10</v>
@@ -5461,8 +5745,20 @@
       <c r="BP15" s="2">
         <v>4</v>
       </c>
+      <c r="BQ15">
+        <v>-1</v>
+      </c>
+      <c r="BR15">
+        <v>-1</v>
+      </c>
+      <c r="BS15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5475,15 +5771,15 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,-1,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>24000000000,1500000000,80000,2100,18000,1700000,150000,1,1,0,0,0,0,0,0</v>
+        <v>24000000000,1500000000,80000,2100,18000,1700000,150000,1,1,0,0,0,0,0,0,0</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>10</v>
@@ -5676,8 +5972,20 @@
       <c r="BP16" s="2">
         <v>4</v>
       </c>
+      <c r="BQ16">
+        <v>-1</v>
+      </c>
+      <c r="BR16">
+        <v>-1</v>
+      </c>
+      <c r="BS16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT16" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5690,15 +5998,15 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>25000000000,1600000000,85000,2200,19000,1800000,160000,1,1,1,0,0,0,0,0</v>
+        <v>25000000000,1600000000,85000,2200,19000,1800000,160000,1,1,1,0,0,0,0,0,0</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>10</v>
@@ -5892,8 +6200,20 @@
       <c r="BP17" s="2">
         <v>4</v>
       </c>
+      <c r="BQ17">
+        <v>-1</v>
+      </c>
+      <c r="BR17">
+        <v>-1</v>
+      </c>
+      <c r="BS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5906,15 +6226,15 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,-1,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>26000000000,1700000000,90000,2300,20000,1900000,170000,1,1,1,0,0,0,0,0</v>
+        <v>26000000000,1700000000,90000,2300,20000,1900000,170000,1,1,1,0,0,0,0,0,0</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>10</v>
@@ -6108,8 +6428,20 @@
       <c r="BP18" s="2">
         <v>4</v>
       </c>
+      <c r="BQ18">
+        <v>-1</v>
+      </c>
+      <c r="BR18">
+        <v>-1</v>
+      </c>
+      <c r="BS18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6122,15 +6454,15 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>27000000000,1800000000,95000,2400,21000,2000000,180000,1,1,1,1,0,0,0,0</v>
+        <v>27000000000,1800000000,95000,2400,21000,2000000,180000,1,1,1,1,0,0,0,0,0</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>10</v>
@@ -6325,8 +6657,20 @@
       <c r="BP19" s="2">
         <v>4</v>
       </c>
+      <c r="BQ19">
+        <v>-1</v>
+      </c>
+      <c r="BR19">
+        <v>-1</v>
+      </c>
+      <c r="BS19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT19" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6339,15 +6683,15 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,-1,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>28000000000,1900000000,100000,2500,22000,2100000,190000,1,1,1,1,0,0,0,0</v>
+        <v>28000000000,1900000000,100000,2500,22000,2100000,190000,1,1,1,1,0,0,0,0,0</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>10</v>
@@ -6542,8 +6886,20 @@
       <c r="BP20" s="2">
         <v>4</v>
       </c>
+      <c r="BQ20">
+        <v>-1</v>
+      </c>
+      <c r="BR20">
+        <v>-1</v>
+      </c>
+      <c r="BS20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT20" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6556,15 +6912,15 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,-1,-1,-1,-1</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>29000000000,2000000000,105000,2600,23000,2200000,200000,1,1,1,1,1,0,0,0</v>
+        <v>29000000000,2000000000,105000,2600,23000,2200000,200000,1,1,1,1,1,0,0,0,0</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>10</v>
@@ -6760,8 +7116,20 @@
       <c r="BP21" s="2">
         <v>4</v>
       </c>
+      <c r="BQ21">
+        <v>-1</v>
+      </c>
+      <c r="BR21">
+        <v>-1</v>
+      </c>
+      <c r="BS21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6774,15 +7142,15 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,-1,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,-1,-1,-1,-1</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>30000000000,2100000000,110000,2700,24000,2300000,210000,1,1,1,1,1,0,0,0</v>
+        <v>30000000000,2100000000,110000,2700,24000,2300000,210000,1,1,1,1,1,0,0,0,0</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>10</v>
@@ -6978,8 +7346,20 @@
       <c r="BP22" s="2">
         <v>4</v>
       </c>
+      <c r="BQ22">
+        <v>-1</v>
+      </c>
+      <c r="BR22">
+        <v>-1</v>
+      </c>
+      <c r="BS22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT22" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6992,15 +7372,15 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,-1,-1,-1</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>31000000000,2200000000,115000,2800,25000,2400000,220000,2,1,1,1,1,1,0,0</v>
+        <v>31000000000,2200000000,115000,2800,25000,2400000,220000,2,1,1,1,1,1,0,0,0</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>10</v>
@@ -7198,8 +7578,20 @@
       <c r="BP23" s="2">
         <v>4</v>
       </c>
+      <c r="BQ23">
+        <v>-1</v>
+      </c>
+      <c r="BR23">
+        <v>-1</v>
+      </c>
+      <c r="BS23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT23" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7212,15 +7604,15 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,-1,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,-1,-1,-1</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>32000000000,2300000000,120000,2900,26000,2500000,230000,2,1,1,1,1,1,0,0</v>
+        <v>32000000000,2300000000,120000,2900,26000,2500000,230000,2,1,1,1,1,1,0,0,0</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>10</v>
@@ -7323,7 +7715,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" ref="AM24:AM31" si="4">AM14+1</f>
+        <f t="shared" ref="AM24:AM32" si="4">AM14+1</f>
         <v>2</v>
       </c>
       <c r="AN24" s="2">
@@ -7418,8 +7810,20 @@
       <c r="BP24" s="2">
         <v>4</v>
       </c>
+      <c r="BQ24">
+        <v>-1</v>
+      </c>
+      <c r="BR24">
+        <v>-1</v>
+      </c>
+      <c r="BS24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7432,15 +7836,15 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,-1,-1</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>33000000000,2400000000,125000,3000,27000,2600000,240000,2,2,1,1,1,1,1,0</v>
+        <v>33000000000,2400000000,125000,3000,27000,2600000,240000,2,2,1,1,1,1,1,0,0</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>10</v>
@@ -7640,8 +8044,20 @@
       <c r="BP25" s="2">
         <v>4</v>
       </c>
+      <c r="BQ25">
+        <v>-1</v>
+      </c>
+      <c r="BR25">
+        <v>-1</v>
+      </c>
+      <c r="BS25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -7654,15 +8070,15 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,-1</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,-1,-1</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>34000000000,2500000000,130000,3100,28000,2700000,250000,2,2,1,1,1,1,1,0</v>
+        <v>34000000000,2500000000,130000,3100,28000,2700000,250000,2,2,1,1,1,1,1,0,0</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>10</v>
@@ -7779,7 +8195,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ26" s="2">
-        <f t="shared" ref="AQ26:AQ31" si="5">AQ16+1</f>
+        <f t="shared" ref="AQ26:AQ32" si="5">AQ16+1</f>
         <v>2</v>
       </c>
       <c r="AR26" s="2">
@@ -7862,8 +8278,20 @@
       <c r="BP26" s="2">
         <v>4</v>
       </c>
+      <c r="BQ26">
+        <v>-1</v>
+      </c>
+      <c r="BR26">
+        <v>-1</v>
+      </c>
+      <c r="BS26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -7876,15 +8304,15 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
-        <v>35000000000,2600000000,135000,3200,29000,2800000,260000,2,2,2,1,1,1,1,1</v>
+        <v>35000000000,2600000000,135000,3200,29000,2800000,260000,2,2,2,1,1,1,1,1,0</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>10</v>
@@ -8086,8 +8514,20 @@
       <c r="BP27" s="2">
         <v>4</v>
       </c>
+      <c r="BQ27">
+        <v>-1</v>
+      </c>
+      <c r="BR27">
+        <v>-1</v>
+      </c>
+      <c r="BS27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT27" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8100,15 +8540,15 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>36000000000,2700000000,140000,3300,30000,2900000,270000,2,2,2,1,1,1,1,1</v>
+        <v>36000000000,2700000000,140000,3300,30000,2900000,270000,2,2,2,1,1,1,1,1,0</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>10</v>
@@ -8239,7 +8679,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU28" s="2">
-        <f t="shared" ref="AU28:AU31" si="6">AU18+1</f>
+        <f t="shared" ref="AU28:AU32" si="6">AU18+1</f>
         <v>2</v>
       </c>
       <c r="AV28" s="2">
@@ -8310,8 +8750,20 @@
       <c r="BP28" s="2">
         <v>4</v>
       </c>
+      <c r="BQ28">
+        <v>-1</v>
+      </c>
+      <c r="BR28">
+        <v>-1</v>
+      </c>
+      <c r="BS28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT28" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8324,15 +8776,15 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>37000000000,2800000000,145000,3400,31000,3000000,280000,2,2,2,2,1,1,1,1</v>
+        <v>37000000000,2800000000,145000,3400,31000,3000000,280000,2,2,2,2,1,1,1,1,0</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>10</v>
@@ -8535,8 +8987,20 @@
       <c r="BP29" s="2">
         <v>4</v>
       </c>
+      <c r="BQ29">
+        <v>-1</v>
+      </c>
+      <c r="BR29">
+        <v>-1</v>
+      </c>
+      <c r="BS29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT29" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8549,15 +9013,15 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>38000000000,2900000000,150000,3500,32000,3100000,290000,2,2,2,2,1,1,1,1</v>
+        <v>38000000000,2900000000,150000,3500,32000,3100000,290000,2,2,2,2,1,1,1,1,0</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>10</v>
@@ -8702,7 +9166,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY30" s="2">
-        <f t="shared" ref="AY30:AY31" si="7">AY20+1</f>
+        <f t="shared" ref="AY30:AY32" si="7">AY20+1</f>
         <v>2</v>
       </c>
       <c r="AZ30" s="2">
@@ -8760,8 +9224,20 @@
       <c r="BP30" s="2">
         <v>4</v>
       </c>
+      <c r="BQ30">
+        <v>-1</v>
+      </c>
+      <c r="BR30">
+        <v>-1</v>
+      </c>
+      <c r="BS30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT30" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8774,15 +9250,15 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055</v>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>39000000000,3000000000,155000,3600,33000,3200000,300000,2,2,2,2,2,1,1,1</v>
+        <v>39000000000,3000000000,155000,3600,33000,3200000,300000,2,2,2,2,2,1,1,1,0</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4</v>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>10</v>
@@ -8984,6 +9460,257 @@
         <v>1</v>
       </c>
       <c r="BP31" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ31">
+        <v>-1</v>
+      </c>
+      <c r="BR31">
+        <v>-1</v>
+      </c>
+      <c r="BS31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999991E+191</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32" t="str">
+        <f>I32&amp;","&amp;M32&amp;","&amp;Q32&amp;","&amp;U32&amp;","&amp;Y32&amp;","&amp;AC32&amp;","&amp;AG32&amp;","&amp;AK32&amp;","&amp;AO32&amp;","&amp;AS32&amp;","&amp;AW32&amp;","&amp;BA32&amp;","&amp;BE32&amp;","&amp;BI32&amp;","&amp;BM32&amp;","&amp;BQ32</f>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F32" t="str">
+        <f>K32&amp;","&amp;O32&amp;","&amp;S32&amp;","&amp;W32&amp;","&amp;AA32&amp;","&amp;AE32&amp;","&amp;AI32&amp;","&amp;AM32&amp;","&amp;AQ32&amp;","&amp;AU32&amp;","&amp;AY32&amp;","&amp;BC32&amp;","&amp;BG32&amp;","&amp;BK32&amp;","&amp;BO32&amp;","&amp;BS32</f>
+        <v>40000000000,3100000000,160000,3700,34000,3300000,310000,2,2,2,2,2,1,1,1,1</v>
+      </c>
+      <c r="G32" t="str">
+        <f>L32&amp;","&amp;P32&amp;","&amp;T32&amp;","&amp;X32&amp;","&amp;AB32&amp;","&amp;AF32&amp;","&amp;AJ32&amp;","&amp;AN32&amp;","&amp;AR32&amp;","&amp;AV32&amp;","&amp;AZ32&amp;","&amp;BD32&amp;","&amp;BH32&amp;","&amp;BL32&amp;","&amp;BP32&amp;","&amp;BT32</f>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32" t="str">
+        <f>VLOOKUP(I32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K32" s="2">
+        <v>40000000000</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>59</v>
+      </c>
+      <c r="O32" s="2">
+        <v>3100000000</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>46</v>
+      </c>
+      <c r="R32" t="str">
+        <f>VLOOKUP(Q32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S32" s="2">
+        <v>160000</v>
+      </c>
+      <c r="T32" s="2">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>9016</v>
+      </c>
+      <c r="V32" t="str">
+        <f>VLOOKUP(U32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W32" s="2">
+        <v>3700</v>
+      </c>
+      <c r="X32" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>9026</v>
+      </c>
+      <c r="Z32" t="str">
+        <f>VLOOKUP(Y32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>34000</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>9032</v>
+      </c>
+      <c r="AD32" t="str">
+        <f>VLOOKUP(AC32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>3300000</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG32">
+        <v>9043</v>
+      </c>
+      <c r="AH32" t="str">
+        <f>VLOOKUP(AG32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>310000</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK32">
+        <v>9023</v>
+      </c>
+      <c r="AL32" t="str">
+        <f>VLOOKUP(AK32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM32" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>9017</v>
+      </c>
+      <c r="AP32" t="str">
+        <f>VLOOKUP(AO32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ32" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS32">
+        <v>9027</v>
+      </c>
+      <c r="AT32" t="str">
+        <f>VLOOKUP(AS32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU32" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AV32" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW32">
+        <v>9033</v>
+      </c>
+      <c r="AX32" t="str">
+        <f>VLOOKUP(AW32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY32" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AZ32" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA32">
+        <v>9044</v>
+      </c>
+      <c r="BB32" t="str">
+        <f>VLOOKUP(BA32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC32" s="2">
+        <f>BC22+1</f>
+        <v>2</v>
+      </c>
+      <c r="BD32" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE32">
+        <v>9050</v>
+      </c>
+      <c r="BF32" t="str">
+        <f>VLOOKUP(BE32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH32" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI32">
+        <v>9053</v>
+      </c>
+      <c r="BJ32" t="str">
+        <f>VLOOKUP(BI32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL32" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM32">
+        <v>9055</v>
+      </c>
+      <c r="BN32" t="str">
+        <f>VLOOKUP(BM32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP32" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ32" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR32" t="str">
+        <f>VLOOKUP(BQ32,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT32" s="2">
         <v>4</v>
       </c>
     </row>

--- a/Assets/06.Table/WeeklyBoss.xlsx
+++ b/Assets/06.Table/WeeklyBoss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA2EA24-CFE9-40D8-ACF9-4FB9B7390A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C2F9C1-675B-4E32-8230-964C16B1C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="113">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>39000000000,3000000000,155000,3600,33000,3200000,300000,2,2,2,2,2,1,1,1,0</t>
+  </si>
+  <si>
+    <t>41000000000,3200000000,165000,3800,35000,3400000,320000,3,2,2,2,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>42000000000,3300000000,170000,3900,36000,3500000,330000,3,2,2,2,2,1,1,1,1</t>
   </si>
 </sst>
 </file>
@@ -496,7 +502,95 @@
     <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1012,280 +1106,286 @@
         </row>
         <row r="61">
           <cell r="D61" t="str">
-            <v>환수파견(메뉴)</v>
+            <v>업적(메뉴)</v>
           </cell>
         </row>
         <row r="62">
           <cell r="D62" t="str">
-            <v>강철이전(메뉴)</v>
+            <v>환수파견(메뉴)</v>
           </cell>
         </row>
         <row r="63">
           <cell r="D63" t="str">
-            <v>푸른 강철이(메뉴)</v>
+            <v>강철이전(메뉴)</v>
           </cell>
         </row>
         <row r="64">
           <cell r="D64" t="str">
-            <v>적안 마수(메뉴)</v>
+            <v>푸른 강철이(메뉴)</v>
           </cell>
         </row>
         <row r="65">
           <cell r="C65"/>
           <cell r="D65" t="str">
-            <v>비무대회(메뉴)</v>
+            <v>적안 마수(메뉴)</v>
           </cell>
         </row>
         <row r="66">
           <cell r="D66" t="str">
-            <v>검의 산(가방 )</v>
+            <v>비무대회(메뉴)</v>
           </cell>
         </row>
         <row r="67">
           <cell r="D67" t="str">
-            <v>검의 영혼(가방)</v>
+            <v>검의 산(가방 )</v>
           </cell>
         </row>
         <row r="68">
           <cell r="D68" t="str">
-            <v>노리개 수호령(가방)</v>
+            <v>검의 영혼(가방)</v>
           </cell>
         </row>
         <row r="69">
           <cell r="D69" t="str">
-            <v>붉은구미호전(문파)</v>
+            <v>노리개 수호령(가방)</v>
           </cell>
         </row>
         <row r="70">
           <cell r="D70" t="str">
-            <v>대산군(문파)</v>
+            <v>붉은구미호전(문파)</v>
           </cell>
         </row>
         <row r="71">
           <cell r="D71" t="str">
+            <v>대산군(문파)</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72"/>
+          <cell r="D72" t="str">
             <v>문파 동굴(문파)</v>
           </cell>
         </row>
-        <row r="72">
-          <cell r="C72">
+        <row r="73">
+          <cell r="C73">
             <v>0</v>
           </cell>
-          <cell r="D72" t="str">
+          <cell r="D73" t="str">
             <v>반딧불전(요괴사냥-한계돌파)</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73" t="str">
-            <v>요괴도장(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="74">
           <cell r="D74" t="str">
-            <v>고양이요괴전(요괴사냥-보스도전)</v>
+            <v>요괴도장(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="75">
           <cell r="D75" t="str">
-            <v>도깨비전(요괴사냥-한계돌파)</v>
+            <v>고양이요괴전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="76">
           <cell r="D76" t="str">
-            <v>도깨비 대장간(요괴사냥-한계돌파)</v>
+            <v>도깨비전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="77">
           <cell r="D77" t="str">
-            <v>영혼의숲(요괴사냥-한계돌파)</v>
+            <v>도깨비 대장간(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="78">
           <cell r="D78" t="str">
-            <v>태극도장(요괴사냥-한계돌파)</v>
+            <v>영혼의숲(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="79">
           <cell r="D79" t="str">
-            <v>12요괴전(요괴사냥-보스도전)</v>
+            <v>태극도장(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="80">
           <cell r="D80" t="str">
-            <v>백귀야행(요괴사냥-한계돌파)</v>
+            <v>12요괴전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="81">
           <cell r="D81" t="str">
-            <v>구미호전(요괴사냥-보스도전)</v>
+            <v>백귀야행(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="82">
           <cell r="D82" t="str">
-            <v>부처님전(요괴사냥-한계돌파)</v>
+            <v>구미호전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="83">
           <cell r="D83" t="str">
-            <v>악귀퇴치/악의씨앗(요괴사냥-한계돌파)</v>
+            <v>부처님전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="84">
           <cell r="D84" t="str">
-            <v>신요괴전(요괴사냥-보스도전)</v>
+            <v>악귀퇴치/악의씨앗(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="85">
           <cell r="D85" t="str">
-            <v>요괴탈/귀신나무(요괴사냥-한계돌파)</v>
+            <v>신요괴전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="86">
           <cell r="D86" t="str">
-            <v>수호신(요괴사냥-보스도전)</v>
+            <v>요괴탈/귀신나무(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="87">
           <cell r="D87" t="str">
-            <v>요괴지옥(요괴사냥-삼천세계)</v>
+            <v>수호신(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="88">
           <cell r="D88" t="str">
-            <v>십만대산(요괴사냥)</v>
+            <v>요괴지옥(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="89">
           <cell r="D89" t="str">
-            <v>천상계(요괴사냥-삼천세계)</v>
+            <v>십만대산(요괴사냥)</v>
           </cell>
         </row>
         <row r="90">
           <cell r="D90" t="str">
-            <v>왕의 시련(요괴사냥-한계돌파)</v>
+            <v>천상계(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="91">
           <cell r="D91" t="str">
-            <v>사냥꾼시험(요괴사냥-한계돌파)</v>
+            <v>왕의 시련(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="92">
           <cell r="D92" t="str">
-            <v>비전 전수(요괴사냥-한계돌파)</v>
+            <v>사냥꾼시험(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="93">
           <cell r="D93" t="str">
-            <v>도깨비나라(요괴사냥-삼천세계)</v>
+            <v>비전 전수(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="94">
           <cell r="D94" t="str">
-            <v>사신수별자리(요괴사냥-보스도전)</v>
+            <v>도깨비나라(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="95">
           <cell r="D95" t="str">
-            <v>수호동물전(요괴사냥-한계돌파)</v>
+            <v>사신수별자리(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="96">
           <cell r="D96" t="str">
-            <v>여우굴(요괴사냥-한계돌파)</v>
+            <v>수호동물전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="97">
           <cell r="D97" t="str">
-            <v>초월동굴(요괴사냥-한계돌파)</v>
+            <v>여우굴(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="98">
           <cell r="D98" t="str">
-            <v>사흉수(요괴사냥-보스도전)</v>
+            <v>초월동굴(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="99">
           <cell r="D99" t="str">
-            <v>수미산(요괴사냥-삼천세계)</v>
+            <v>사흉수(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="100">
           <cell r="D100" t="str">
-            <v>신의 시련(요괴사냥-한계돌파)</v>
+            <v>수미산(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="101">
           <cell r="D101" t="str">
-            <v>사룡전(요괴사냥-보스도전)</v>
+            <v>신의 시련(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="102">
           <cell r="D102" t="str">
-            <v>단전강화(요괴사냥-한계돌파)</v>
+            <v>사룡전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="103">
           <cell r="D103" t="str">
-            <v>여우전(요괴사냥-보스도전)</v>
+            <v>단전강화(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="104">
           <cell r="D104" t="str">
-            <v>도적단(요괴사냥-삼천세계)</v>
+            <v>여우전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="105">
           <cell r="D105" t="str">
-            <v>심연(요괴사냥-삼천세계)</v>
+            <v>도적단(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="106">
           <cell r="D106" t="str">
-            <v>폐관수련(요괴사냥-한계돌파)</v>
+            <v>심연(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="107">
           <cell r="D107" t="str">
-            <v>산군전(요괴사냥-보스도전)</v>
+            <v>폐관수련(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="108">
           <cell r="D108" t="str">
-            <v>검은구미호전(요괴사냥-한계돌파)</v>
+            <v>산군전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="109">
           <cell r="D109" t="str">
-            <v>천구전(요괴사냥-보스도전)</v>
+            <v>검은구미호전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="110">
           <cell r="D110" t="str">
-            <v>수인전(요괴사냥-보스도전)</v>
+            <v>천구전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="111">
           <cell r="D111" t="str">
-            <v>수호의 시련(요괴사냥-보스도전)</v>
+            <v>수인전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="112">
           <cell r="D112" t="str">
-            <v>신선계(요괴사냥-삼천세계)</v>
+            <v>수호의 시련(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="113">
           <cell r="D113" t="str">
-            <v>현상수배(요괴사냥)</v>
+            <v>신선계(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="114">
           <cell r="D114" t="str">
-            <v>데미지 단위</v>
+            <v>현상수배(요괴사냥)</v>
           </cell>
         </row>
         <row r="115">
           <cell r="D115" t="str">
+            <v>데미지 단위</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="D116" t="str">
             <v>스테이지</v>
           </cell>
         </row>
@@ -1592,11 +1692,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1687,7 +1787,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C32" si="0">C3*10000</f>
+        <f t="shared" ref="C4:C36" si="0">C3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -2375,10 +2475,68 @@
         <v>67</v>
       </c>
     </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="D33">
+        <v>8000</v>
+      </c>
+      <c r="E33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="D34">
+        <v>8000</v>
+      </c>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:D32">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>#REF!=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:D33">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>#REF!=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:D34">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2389,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6DE2D-0EDB-49C4-8B38-79FA81476413}">
-  <dimension ref="A1:BT32"/>
+  <dimension ref="A1:BT34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="E2:G32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3076,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B32" si="3">B3*10000</f>
+        <f t="shared" ref="B4:B34" si="3">B3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -7715,7 +7873,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" ref="AM24:AM32" si="4">AM14+1</f>
+        <f t="shared" ref="AM24:AM34" si="4">AM14+1</f>
         <v>2</v>
       </c>
       <c r="AN24" s="2">
@@ -8195,7 +8353,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ26" s="2">
-        <f t="shared" ref="AQ26:AQ32" si="5">AQ16+1</f>
+        <f t="shared" ref="AQ26:AQ34" si="5">AQ16+1</f>
         <v>2</v>
       </c>
       <c r="AR26" s="2">
@@ -8679,7 +8837,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU28" s="2">
-        <f t="shared" ref="AU28:AU32" si="6">AU18+1</f>
+        <f t="shared" ref="AU28:AU34" si="6">AU18+1</f>
         <v>2</v>
       </c>
       <c r="AV28" s="2">
@@ -9166,7 +9324,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY30" s="2">
-        <f t="shared" ref="AY30:AY32" si="7">AY20+1</f>
+        <f t="shared" ref="AY30:AY34" si="7">AY20+1</f>
         <v>2</v>
       </c>
       <c r="AZ30" s="2">
@@ -9714,10 +9872,482 @@
         <v>4</v>
       </c>
     </row>
+    <row r="33" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" ref="E33:E34" si="8">I33&amp;","&amp;M33&amp;","&amp;Q33&amp;","&amp;U33&amp;","&amp;Y33&amp;","&amp;AC33&amp;","&amp;AG33&amp;","&amp;AK33&amp;","&amp;AO33&amp;","&amp;AS33&amp;","&amp;AW33&amp;","&amp;BA33&amp;","&amp;BE33&amp;","&amp;BI33&amp;","&amp;BM33&amp;","&amp;BQ33</f>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" ref="F33:F34" si="9">K33&amp;","&amp;O33&amp;","&amp;S33&amp;","&amp;W33&amp;","&amp;AA33&amp;","&amp;AE33&amp;","&amp;AI33&amp;","&amp;AM33&amp;","&amp;AQ33&amp;","&amp;AU33&amp;","&amp;AY33&amp;","&amp;BC33&amp;","&amp;BG33&amp;","&amp;BK33&amp;","&amp;BO33&amp;","&amp;BS33</f>
+        <v>41000000000,3200000000,165000,3800,35000,3400000,320000,3,2,2,2,2,1,1,1,1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" ref="G33:G34" si="10">L33&amp;","&amp;P33&amp;","&amp;T33&amp;","&amp;X33&amp;","&amp;AB33&amp;","&amp;AF33&amp;","&amp;AJ33&amp;","&amp;AN33&amp;","&amp;AR33&amp;","&amp;AV33&amp;","&amp;AZ33&amp;","&amp;BD33&amp;","&amp;BH33&amp;","&amp;BL33&amp;","&amp;BP33&amp;","&amp;BT33</f>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" t="str">
+        <f>VLOOKUP(I33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K33" s="2">
+        <v>41000000000</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>59</v>
+      </c>
+      <c r="O33" s="2">
+        <v>3200000000</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>46</v>
+      </c>
+      <c r="R33" t="str">
+        <f>VLOOKUP(Q33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S33" s="2">
+        <v>165000</v>
+      </c>
+      <c r="T33" s="2">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>9016</v>
+      </c>
+      <c r="V33" t="str">
+        <f>VLOOKUP(U33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W33" s="2">
+        <v>3800</v>
+      </c>
+      <c r="X33" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>9026</v>
+      </c>
+      <c r="Z33" t="str">
+        <f>VLOOKUP(Y33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>35000</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC33">
+        <v>9032</v>
+      </c>
+      <c r="AD33" t="str">
+        <f>VLOOKUP(AC33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>3400000</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG33">
+        <v>9043</v>
+      </c>
+      <c r="AH33" t="str">
+        <f>VLOOKUP(AG33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>320000</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK33">
+        <v>9023</v>
+      </c>
+      <c r="AL33" t="str">
+        <f>VLOOKUP(AK33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM33" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>9017</v>
+      </c>
+      <c r="AP33" t="str">
+        <f>VLOOKUP(AO33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ33" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AR33" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS33">
+        <v>9027</v>
+      </c>
+      <c r="AT33" t="str">
+        <f>VLOOKUP(AS33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU33" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AV33" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW33">
+        <v>9033</v>
+      </c>
+      <c r="AX33" t="str">
+        <f>VLOOKUP(AW33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY33" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AZ33" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA33">
+        <v>9044</v>
+      </c>
+      <c r="BB33" t="str">
+        <f>VLOOKUP(BA33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC33" s="2">
+        <f>BC23+1</f>
+        <v>2</v>
+      </c>
+      <c r="BD33" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE33">
+        <v>9050</v>
+      </c>
+      <c r="BF33" t="str">
+        <f>VLOOKUP(BE33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH33" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI33">
+        <v>9053</v>
+      </c>
+      <c r="BJ33" t="str">
+        <f>VLOOKUP(BI33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL33" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM33">
+        <v>9055</v>
+      </c>
+      <c r="BN33" t="str">
+        <f>VLOOKUP(BM33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP33" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ33" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR33" t="str">
+        <f>VLOOKUP(BQ33,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34" t="str">
+        <f>I34&amp;","&amp;M34&amp;","&amp;Q34&amp;","&amp;U34&amp;","&amp;Y34&amp;","&amp;AC34&amp;","&amp;AG34&amp;","&amp;AK34&amp;","&amp;AO34&amp;","&amp;AS34&amp;","&amp;AW34&amp;","&amp;BA34&amp;","&amp;BE34&amp;","&amp;BI34&amp;","&amp;BM34&amp;","&amp;BQ34</f>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F34" t="str">
+        <f>K34&amp;","&amp;O34&amp;","&amp;S34&amp;","&amp;W34&amp;","&amp;AA34&amp;","&amp;AE34&amp;","&amp;AI34&amp;","&amp;AM34&amp;","&amp;AQ34&amp;","&amp;AU34&amp;","&amp;AY34&amp;","&amp;BC34&amp;","&amp;BG34&amp;","&amp;BK34&amp;","&amp;BO34&amp;","&amp;BS34</f>
+        <v>42000000000,3300000000,170000,3900,36000,3500000,330000,3,2,2,2,2,1,1,1,1</v>
+      </c>
+      <c r="G34" t="str">
+        <f>L34&amp;","&amp;P34&amp;","&amp;T34&amp;","&amp;X34&amp;","&amp;AB34&amp;","&amp;AF34&amp;","&amp;AJ34&amp;","&amp;AN34&amp;","&amp;AR34&amp;","&amp;AV34&amp;","&amp;AZ34&amp;","&amp;BD34&amp;","&amp;BH34&amp;","&amp;BL34&amp;","&amp;BP34&amp;","&amp;BT34</f>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="str">
+        <f>VLOOKUP(I34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K34" s="2">
+        <v>42000000000</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>59</v>
+      </c>
+      <c r="O34" s="2">
+        <v>3300000000</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>46</v>
+      </c>
+      <c r="R34" t="str">
+        <f>VLOOKUP(Q34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S34" s="2">
+        <v>170000</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>9016</v>
+      </c>
+      <c r="V34" t="str">
+        <f>VLOOKUP(U34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W34" s="2">
+        <v>3900</v>
+      </c>
+      <c r="X34" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <v>9026</v>
+      </c>
+      <c r="Z34" t="str">
+        <f>VLOOKUP(Y34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>36000</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC34">
+        <v>9032</v>
+      </c>
+      <c r="AD34" t="str">
+        <f>VLOOKUP(AC34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>3500000</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG34">
+        <v>9043</v>
+      </c>
+      <c r="AH34" t="str">
+        <f>VLOOKUP(AG34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>330000</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK34">
+        <v>9023</v>
+      </c>
+      <c r="AL34" t="str">
+        <f>VLOOKUP(AK34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM34" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>9017</v>
+      </c>
+      <c r="AP34" t="str">
+        <f>VLOOKUP(AO34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ34" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AR34" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS34">
+        <v>9027</v>
+      </c>
+      <c r="AT34" t="str">
+        <f>VLOOKUP(AS34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU34" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AV34" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>9033</v>
+      </c>
+      <c r="AX34" t="str">
+        <f>VLOOKUP(AW34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY34" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AZ34" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA34">
+        <v>9044</v>
+      </c>
+      <c r="BB34" t="str">
+        <f>VLOOKUP(BA34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC34" s="2">
+        <f>BC24+1</f>
+        <v>2</v>
+      </c>
+      <c r="BD34" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE34">
+        <v>9050</v>
+      </c>
+      <c r="BF34" t="str">
+        <f>VLOOKUP(BE34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH34" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI34">
+        <v>9053</v>
+      </c>
+      <c r="BJ34" t="str">
+        <f>VLOOKUP(BI34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL34" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM34">
+        <v>9055</v>
+      </c>
+      <c r="BN34" t="str">
+        <f>VLOOKUP(BM34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP34" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ34" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR34" t="str">
+        <f>VLOOKUP(BQ34,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT34" s="2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/WeeklyBoss.xlsx
+++ b/Assets/06.Table/WeeklyBoss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C2F9C1-675B-4E32-8230-964C16B1C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5201B62-B761-46F1-ACA5-B30A009BAA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="114">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,9 @@
   <si>
     <t>42000000000,3300000000,170000,3900,36000,3500000,330000,3,2,2,2,2,1,1,1,1</t>
   </si>
+  <si>
+    <t>43000000000,3400000000,175000,4000,37000,3600000,340000,3,3,2,2,2,1,1,1,1</t>
+  </si>
 </sst>
 </file>
 
@@ -502,51 +505,7 @@
     <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -1396,9 +1355,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1436,7 +1395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1542,7 +1501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1684,7 +1643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1692,11 +1651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1787,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C36" si="0">C3*10000</f>
+        <f t="shared" ref="C4:C35" si="0">C3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -2523,20 +2482,44 @@
         <v>67</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="D35">
+        <v>8000</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:D32">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:D33">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="C33:D33 C35:D35">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D34">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2547,10 +2530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6DE2D-0EDB-49C4-8B38-79FA81476413}">
-  <dimension ref="A1:BT34"/>
+  <dimension ref="A1:BT49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:G34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3234,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B34" si="3">B3*10000</f>
+        <f t="shared" ref="B4:B49" si="3">B3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -7873,7 +7856,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" ref="AM24:AM34" si="4">AM14+1</f>
+        <f t="shared" ref="AM24:AM49" si="4">AM14+1</f>
         <v>2</v>
       </c>
       <c r="AN24" s="2">
@@ -8353,7 +8336,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ26" s="2">
-        <f t="shared" ref="AQ26:AQ34" si="5">AQ16+1</f>
+        <f t="shared" ref="AQ26:AQ49" si="5">AQ16+1</f>
         <v>2</v>
       </c>
       <c r="AR26" s="2">
@@ -8837,7 +8820,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU28" s="2">
-        <f t="shared" ref="AU28:AU34" si="6">AU18+1</f>
+        <f t="shared" ref="AU28:AU49" si="6">AU18+1</f>
         <v>2</v>
       </c>
       <c r="AV28" s="2">
@@ -9324,7 +9307,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY30" s="2">
-        <f t="shared" ref="AY30:AY34" si="7">AY20+1</f>
+        <f t="shared" ref="AY30:AY49" si="7">AY20+1</f>
         <v>2</v>
       </c>
       <c r="AZ30" s="2">
@@ -9884,15 +9867,15 @@
         <v>31</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" ref="E33:E34" si="8">I33&amp;","&amp;M33&amp;","&amp;Q33&amp;","&amp;U33&amp;","&amp;Y33&amp;","&amp;AC33&amp;","&amp;AG33&amp;","&amp;AK33&amp;","&amp;AO33&amp;","&amp;AS33&amp;","&amp;AW33&amp;","&amp;BA33&amp;","&amp;BE33&amp;","&amp;BI33&amp;","&amp;BM33&amp;","&amp;BQ33</f>
+        <f t="shared" ref="E33" si="8">I33&amp;","&amp;M33&amp;","&amp;Q33&amp;","&amp;U33&amp;","&amp;Y33&amp;","&amp;AC33&amp;","&amp;AG33&amp;","&amp;AK33&amp;","&amp;AO33&amp;","&amp;AS33&amp;","&amp;AW33&amp;","&amp;BA33&amp;","&amp;BE33&amp;","&amp;BI33&amp;","&amp;BM33&amp;","&amp;BQ33</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" ref="F33:F34" si="9">K33&amp;","&amp;O33&amp;","&amp;S33&amp;","&amp;W33&amp;","&amp;AA33&amp;","&amp;AE33&amp;","&amp;AI33&amp;","&amp;AM33&amp;","&amp;AQ33&amp;","&amp;AU33&amp;","&amp;AY33&amp;","&amp;BC33&amp;","&amp;BG33&amp;","&amp;BK33&amp;","&amp;BO33&amp;","&amp;BS33</f>
+        <f t="shared" ref="F33" si="9">K33&amp;","&amp;O33&amp;","&amp;S33&amp;","&amp;W33&amp;","&amp;AA33&amp;","&amp;AE33&amp;","&amp;AI33&amp;","&amp;AM33&amp;","&amp;AQ33&amp;","&amp;AU33&amp;","&amp;AY33&amp;","&amp;BC33&amp;","&amp;BG33&amp;","&amp;BK33&amp;","&amp;BO33&amp;","&amp;BS33</f>
         <v>41000000000,3200000000,165000,3800,35000,3400000,320000,3,2,2,2,2,1,1,1,1</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" ref="G33:G34" si="10">L33&amp;","&amp;P33&amp;","&amp;T33&amp;","&amp;X33&amp;","&amp;AB33&amp;","&amp;AF33&amp;","&amp;AJ33&amp;","&amp;AN33&amp;","&amp;AR33&amp;","&amp;AV33&amp;","&amp;AZ33&amp;","&amp;BD33&amp;","&amp;BH33&amp;","&amp;BL33&amp;","&amp;BP33&amp;","&amp;BT33</f>
+        <f t="shared" ref="G33" si="10">L33&amp;","&amp;P33&amp;","&amp;T33&amp;","&amp;X33&amp;","&amp;AB33&amp;","&amp;AF33&amp;","&amp;AJ33&amp;","&amp;AN33&amp;","&amp;AR33&amp;","&amp;AV33&amp;","&amp;AZ33&amp;","&amp;BD33&amp;","&amp;BH33&amp;","&amp;BL33&amp;","&amp;BP33&amp;","&amp;BT33</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I33">
@@ -10344,10 +10327,3550 @@
         <v>4</v>
       </c>
     </row>
+    <row r="35" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" ref="E35:E49" si="11">I35&amp;","&amp;M35&amp;","&amp;Q35&amp;","&amp;U35&amp;","&amp;Y35&amp;","&amp;AC35&amp;","&amp;AG35&amp;","&amp;AK35&amp;","&amp;AO35&amp;","&amp;AS35&amp;","&amp;AW35&amp;","&amp;BA35&amp;","&amp;BE35&amp;","&amp;BI35&amp;","&amp;BM35&amp;","&amp;BQ35</f>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" ref="F35:F49" si="12">K35&amp;","&amp;O35&amp;","&amp;S35&amp;","&amp;W35&amp;","&amp;AA35&amp;","&amp;AE35&amp;","&amp;AI35&amp;","&amp;AM35&amp;","&amp;AQ35&amp;","&amp;AU35&amp;","&amp;AY35&amp;","&amp;BC35&amp;","&amp;BG35&amp;","&amp;BK35&amp;","&amp;BO35&amp;","&amp;BS35</f>
+        <v>43000000000,3400000000,175000,4000,37000,3600000,340000,3,3,2,2,2,1,1,1,1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" ref="G35:G49" si="13">L35&amp;","&amp;P35&amp;","&amp;T35&amp;","&amp;X35&amp;","&amp;AB35&amp;","&amp;AF35&amp;","&amp;AJ35&amp;","&amp;AN35&amp;","&amp;AR35&amp;","&amp;AV35&amp;","&amp;AZ35&amp;","&amp;BD35&amp;","&amp;BH35&amp;","&amp;BL35&amp;","&amp;BP35&amp;","&amp;BT35</f>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="str">
+        <f>VLOOKUP(I35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K35" s="2">
+        <v>43000000000</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>59</v>
+      </c>
+      <c r="O35" s="2">
+        <v>3400000000</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>46</v>
+      </c>
+      <c r="R35" t="str">
+        <f>VLOOKUP(Q35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S35" s="2">
+        <v>175000</v>
+      </c>
+      <c r="T35" s="2">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>9016</v>
+      </c>
+      <c r="V35" t="str">
+        <f>VLOOKUP(U35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W35" s="2">
+        <v>4000</v>
+      </c>
+      <c r="X35" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y35">
+        <v>9026</v>
+      </c>
+      <c r="Z35" t="str">
+        <f>VLOOKUP(Y35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>37000</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC35">
+        <v>9032</v>
+      </c>
+      <c r="AD35" t="str">
+        <f>VLOOKUP(AC35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>3600000</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG35">
+        <v>9043</v>
+      </c>
+      <c r="AH35" t="str">
+        <f>VLOOKUP(AG35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>340000</v>
+      </c>
+      <c r="AJ35" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK35">
+        <v>9023</v>
+      </c>
+      <c r="AL35" t="str">
+        <f>VLOOKUP(AK35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM35" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>9017</v>
+      </c>
+      <c r="AP35" t="str">
+        <f>VLOOKUP(AO35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ35" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AR35" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS35">
+        <v>9027</v>
+      </c>
+      <c r="AT35" t="str">
+        <f>VLOOKUP(AS35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU35" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AV35" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW35">
+        <v>9033</v>
+      </c>
+      <c r="AX35" t="str">
+        <f>VLOOKUP(AW35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY35" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AZ35" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA35">
+        <v>9044</v>
+      </c>
+      <c r="BB35" t="str">
+        <f>VLOOKUP(BA35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC35" s="2">
+        <f t="shared" ref="BC35:BC49" si="14">BC25+1</f>
+        <v>2</v>
+      </c>
+      <c r="BD35" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE35">
+        <v>9050</v>
+      </c>
+      <c r="BF35" t="str">
+        <f>VLOOKUP(BE35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH35" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI35">
+        <v>9053</v>
+      </c>
+      <c r="BJ35" t="str">
+        <f>VLOOKUP(BI35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL35" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM35">
+        <v>9055</v>
+      </c>
+      <c r="BN35" t="str">
+        <f>VLOOKUP(BM35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP35" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ35" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR35" t="str">
+        <f>VLOOKUP(BQ35,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="11"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="12"/>
+        <v>44000000000,3500000000,180000,4100,38000,3700000,350000,3,3,2,2,2,1,1,1,1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="13"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="str">
+        <f>VLOOKUP(I36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K36" s="2">
+        <v>44000000000</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>59</v>
+      </c>
+      <c r="O36" s="2">
+        <v>3500000000</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>46</v>
+      </c>
+      <c r="R36" t="str">
+        <f>VLOOKUP(Q36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S36" s="2">
+        <v>180000</v>
+      </c>
+      <c r="T36" s="2">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>9016</v>
+      </c>
+      <c r="V36" t="str">
+        <f>VLOOKUP(U36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W36" s="2">
+        <v>4100</v>
+      </c>
+      <c r="X36" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y36">
+        <v>9026</v>
+      </c>
+      <c r="Z36" t="str">
+        <f>VLOOKUP(Y36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>38000</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC36">
+        <v>9032</v>
+      </c>
+      <c r="AD36" t="str">
+        <f>VLOOKUP(AC36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>3700000</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG36">
+        <v>9043</v>
+      </c>
+      <c r="AH36" t="str">
+        <f>VLOOKUP(AG36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>350000</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK36">
+        <v>9023</v>
+      </c>
+      <c r="AL36" t="str">
+        <f>VLOOKUP(AK36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM36" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO36">
+        <v>9017</v>
+      </c>
+      <c r="AP36" t="str">
+        <f>VLOOKUP(AO36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ36" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AR36" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS36">
+        <v>9027</v>
+      </c>
+      <c r="AT36" t="str">
+        <f>VLOOKUP(AS36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU36" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AV36" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW36">
+        <v>9033</v>
+      </c>
+      <c r="AX36" t="str">
+        <f>VLOOKUP(AW36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY36" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AZ36" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA36">
+        <v>9044</v>
+      </c>
+      <c r="BB36" t="str">
+        <f>VLOOKUP(BA36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC36" s="2">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="BD36" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE36">
+        <v>9050</v>
+      </c>
+      <c r="BF36" t="str">
+        <f>VLOOKUP(BE36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH36" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI36">
+        <v>9053</v>
+      </c>
+      <c r="BJ36" t="str">
+        <f>VLOOKUP(BI36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL36" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM36">
+        <v>9055</v>
+      </c>
+      <c r="BN36" t="str">
+        <f>VLOOKUP(BM36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP36" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ36" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR36" t="str">
+        <f>VLOOKUP(BQ36,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="11"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="12"/>
+        <v>45000000000,3600000000,185000,4200,39000,3800000,360000,3,3,3,2,2,1,1,1,1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="13"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" t="str">
+        <f>VLOOKUP(I37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K37" s="2">
+        <v>45000000000</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>59</v>
+      </c>
+      <c r="O37" s="2">
+        <v>3600000000</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>46</v>
+      </c>
+      <c r="R37" t="str">
+        <f>VLOOKUP(Q37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S37" s="2">
+        <v>185000</v>
+      </c>
+      <c r="T37" s="2">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>9016</v>
+      </c>
+      <c r="V37" t="str">
+        <f>VLOOKUP(U37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W37" s="2">
+        <v>4200</v>
+      </c>
+      <c r="X37" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y37">
+        <v>9026</v>
+      </c>
+      <c r="Z37" t="str">
+        <f>VLOOKUP(Y37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>39000</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC37">
+        <v>9032</v>
+      </c>
+      <c r="AD37" t="str">
+        <f>VLOOKUP(AC37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>3800000</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG37">
+        <v>9043</v>
+      </c>
+      <c r="AH37" t="str">
+        <f>VLOOKUP(AG37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>360000</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK37">
+        <v>9023</v>
+      </c>
+      <c r="AL37" t="str">
+        <f>VLOOKUP(AK37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM37" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO37">
+        <v>9017</v>
+      </c>
+      <c r="AP37" t="str">
+        <f>VLOOKUP(AO37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ37" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AR37" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS37">
+        <v>9027</v>
+      </c>
+      <c r="AT37" t="str">
+        <f>VLOOKUP(AS37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU37" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AV37" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW37">
+        <v>9033</v>
+      </c>
+      <c r="AX37" t="str">
+        <f>VLOOKUP(AW37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY37" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AZ37" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA37">
+        <v>9044</v>
+      </c>
+      <c r="BB37" t="str">
+        <f>VLOOKUP(BA37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC37" s="2">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="BD37" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE37">
+        <v>9050</v>
+      </c>
+      <c r="BF37" t="str">
+        <f>VLOOKUP(BE37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH37" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI37">
+        <v>9053</v>
+      </c>
+      <c r="BJ37" t="str">
+        <f>VLOOKUP(BI37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL37" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM37">
+        <v>9055</v>
+      </c>
+      <c r="BN37" t="str">
+        <f>VLOOKUP(BM37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP37" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ37" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR37" t="str">
+        <f>VLOOKUP(BQ37,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999987E+215</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="11"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="12"/>
+        <v>46000000000,3700000000,190000,4300,40000,3900000,370000,3,3,3,2,2,1,1,1,1</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="13"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="str">
+        <f>VLOOKUP(I38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K38" s="2">
+        <v>46000000000</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>59</v>
+      </c>
+      <c r="O38" s="2">
+        <v>3700000000</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>46</v>
+      </c>
+      <c r="R38" t="str">
+        <f>VLOOKUP(Q38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S38" s="2">
+        <v>190000</v>
+      </c>
+      <c r="T38" s="2">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>9016</v>
+      </c>
+      <c r="V38" t="str">
+        <f>VLOOKUP(U38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W38" s="2">
+        <v>4300</v>
+      </c>
+      <c r="X38" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y38">
+        <v>9026</v>
+      </c>
+      <c r="Z38" t="str">
+        <f>VLOOKUP(Y38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>40000</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC38">
+        <v>9032</v>
+      </c>
+      <c r="AD38" t="str">
+        <f>VLOOKUP(AC38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>3900000</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG38">
+        <v>9043</v>
+      </c>
+      <c r="AH38" t="str">
+        <f>VLOOKUP(AG38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>370000</v>
+      </c>
+      <c r="AJ38" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK38">
+        <v>9023</v>
+      </c>
+      <c r="AL38" t="str">
+        <f>VLOOKUP(AK38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM38" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>9017</v>
+      </c>
+      <c r="AP38" t="str">
+        <f>VLOOKUP(AO38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ38" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AR38" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS38">
+        <v>9027</v>
+      </c>
+      <c r="AT38" t="str">
+        <f>VLOOKUP(AS38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU38" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AV38" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW38">
+        <v>9033</v>
+      </c>
+      <c r="AX38" t="str">
+        <f>VLOOKUP(AW38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY38" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AZ38" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA38">
+        <v>9044</v>
+      </c>
+      <c r="BB38" t="str">
+        <f>VLOOKUP(BA38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC38" s="2">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="BD38" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE38">
+        <v>9050</v>
+      </c>
+      <c r="BF38" t="str">
+        <f>VLOOKUP(BE38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG38" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH38" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI38">
+        <v>9053</v>
+      </c>
+      <c r="BJ38" t="str">
+        <f>VLOOKUP(BI38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK38" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL38" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM38">
+        <v>9055</v>
+      </c>
+      <c r="BN38" t="str">
+        <f>VLOOKUP(BM38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO38" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP38" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ38" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR38" t="str">
+        <f>VLOOKUP(BQ38,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS38" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT38" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999987E+219</v>
+      </c>
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="11"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="12"/>
+        <v>47000000000,3800000000,195000,4400,41000,4000000,380000,3,3,3,3,2,1,1,1,1</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="13"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="str">
+        <f>VLOOKUP(I39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K39" s="2">
+        <v>47000000000</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>59</v>
+      </c>
+      <c r="O39" s="2">
+        <v>3800000000</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>46</v>
+      </c>
+      <c r="R39" t="str">
+        <f>VLOOKUP(Q39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S39" s="2">
+        <v>195000</v>
+      </c>
+      <c r="T39" s="2">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>9016</v>
+      </c>
+      <c r="V39" t="str">
+        <f>VLOOKUP(U39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W39" s="2">
+        <v>4400</v>
+      </c>
+      <c r="X39" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y39">
+        <v>9026</v>
+      </c>
+      <c r="Z39" t="str">
+        <f>VLOOKUP(Y39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>41000</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>9032</v>
+      </c>
+      <c r="AD39" t="str">
+        <f>VLOOKUP(AC39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG39">
+        <v>9043</v>
+      </c>
+      <c r="AH39" t="str">
+        <f>VLOOKUP(AG39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>380000</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK39">
+        <v>9023</v>
+      </c>
+      <c r="AL39" t="str">
+        <f>VLOOKUP(AK39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM39" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>9017</v>
+      </c>
+      <c r="AP39" t="str">
+        <f>VLOOKUP(AO39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ39" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AR39" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS39">
+        <v>9027</v>
+      </c>
+      <c r="AT39" t="str">
+        <f>VLOOKUP(AS39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU39" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AV39" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW39">
+        <v>9033</v>
+      </c>
+      <c r="AX39" t="str">
+        <f>VLOOKUP(AW39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY39" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AZ39" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA39">
+        <v>9044</v>
+      </c>
+      <c r="BB39" t="str">
+        <f>VLOOKUP(BA39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC39" s="2">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="BD39" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE39">
+        <v>9050</v>
+      </c>
+      <c r="BF39" t="str">
+        <f>VLOOKUP(BE39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH39" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI39">
+        <v>9053</v>
+      </c>
+      <c r="BJ39" t="str">
+        <f>VLOOKUP(BI39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL39" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM39">
+        <v>9055</v>
+      </c>
+      <c r="BN39" t="str">
+        <f>VLOOKUP(BM39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP39" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ39" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR39" t="str">
+        <f>VLOOKUP(BQ39,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT39" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="11"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="12"/>
+        <v>48000000000,3900000000,200000,4500,42000,4100000,390000,3,3,3,3,2,1,1,1,1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="13"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" t="str">
+        <f>VLOOKUP(I40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K40" s="2">
+        <v>48000000000</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>59</v>
+      </c>
+      <c r="O40" s="2">
+        <v>3900000000</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>46</v>
+      </c>
+      <c r="R40" t="str">
+        <f>VLOOKUP(Q40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S40" s="2">
+        <v>200000</v>
+      </c>
+      <c r="T40" s="2">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>9016</v>
+      </c>
+      <c r="V40" t="str">
+        <f>VLOOKUP(U40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W40" s="2">
+        <v>4500</v>
+      </c>
+      <c r="X40" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y40">
+        <v>9026</v>
+      </c>
+      <c r="Z40" t="str">
+        <f>VLOOKUP(Y40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>42000</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC40">
+        <v>9032</v>
+      </c>
+      <c r="AD40" t="str">
+        <f>VLOOKUP(AC40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>4100000</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG40">
+        <v>9043</v>
+      </c>
+      <c r="AH40" t="str">
+        <f>VLOOKUP(AG40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>390000</v>
+      </c>
+      <c r="AJ40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK40">
+        <v>9023</v>
+      </c>
+      <c r="AL40" t="str">
+        <f>VLOOKUP(AK40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM40" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>9017</v>
+      </c>
+      <c r="AP40" t="str">
+        <f>VLOOKUP(AO40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ40" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AR40" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS40">
+        <v>9027</v>
+      </c>
+      <c r="AT40" t="str">
+        <f>VLOOKUP(AS40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU40" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AV40" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>9033</v>
+      </c>
+      <c r="AX40" t="str">
+        <f>VLOOKUP(AW40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY40" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AZ40" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA40">
+        <v>9044</v>
+      </c>
+      <c r="BB40" t="str">
+        <f>VLOOKUP(BA40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC40" s="2">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="BD40" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE40">
+        <v>9050</v>
+      </c>
+      <c r="BF40" t="str">
+        <f>VLOOKUP(BE40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG40" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH40" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI40">
+        <v>9053</v>
+      </c>
+      <c r="BJ40" t="str">
+        <f>VLOOKUP(BI40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK40" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL40" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM40">
+        <v>9055</v>
+      </c>
+      <c r="BN40" t="str">
+        <f>VLOOKUP(BM40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO40" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP40" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ40" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR40" t="str">
+        <f>VLOOKUP(BQ40,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS40" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="11"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="12"/>
+        <v>49000000000,4000000000,205000,4600,43000,4200000,400000,3,3,3,3,3,1,1,1,1</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="13"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" t="str">
+        <f>VLOOKUP(I41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K41" s="2">
+        <v>49000000000</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>59</v>
+      </c>
+      <c r="O41" s="2">
+        <v>4000000000</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>46</v>
+      </c>
+      <c r="R41" t="str">
+        <f>VLOOKUP(Q41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S41" s="2">
+        <v>205000</v>
+      </c>
+      <c r="T41" s="2">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>9016</v>
+      </c>
+      <c r="V41" t="str">
+        <f>VLOOKUP(U41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W41" s="2">
+        <v>4600</v>
+      </c>
+      <c r="X41" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>9026</v>
+      </c>
+      <c r="Z41" t="str">
+        <f>VLOOKUP(Y41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>43000</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC41">
+        <v>9032</v>
+      </c>
+      <c r="AD41" t="str">
+        <f>VLOOKUP(AC41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>4200000</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG41">
+        <v>9043</v>
+      </c>
+      <c r="AH41" t="str">
+        <f>VLOOKUP(AG41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI41" s="2">
+        <v>400000</v>
+      </c>
+      <c r="AJ41" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK41">
+        <v>9023</v>
+      </c>
+      <c r="AL41" t="str">
+        <f>VLOOKUP(AK41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM41" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO41">
+        <v>9017</v>
+      </c>
+      <c r="AP41" t="str">
+        <f>VLOOKUP(AO41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ41" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AR41" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS41">
+        <v>9027</v>
+      </c>
+      <c r="AT41" t="str">
+        <f>VLOOKUP(AS41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU41" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AV41" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW41">
+        <v>9033</v>
+      </c>
+      <c r="AX41" t="str">
+        <f>VLOOKUP(AW41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY41" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AZ41" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA41">
+        <v>9044</v>
+      </c>
+      <c r="BB41" t="str">
+        <f>VLOOKUP(BA41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC41" s="2">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BD41" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE41">
+        <v>9050</v>
+      </c>
+      <c r="BF41" t="str">
+        <f>VLOOKUP(BE41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG41" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH41" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI41">
+        <v>9053</v>
+      </c>
+      <c r="BJ41" t="str">
+        <f>VLOOKUP(BI41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK41" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL41" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM41">
+        <v>9055</v>
+      </c>
+      <c r="BN41" t="str">
+        <f>VLOOKUP(BM41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO41" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP41" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ41" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR41" t="str">
+        <f>VLOOKUP(BQ41,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS41" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999992E+231</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="11"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="12"/>
+        <v>50000000000,4100000000,210000,4700,44000,4300000,410000,3,3,3,3,3,1,1,1,1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="13"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42" t="str">
+        <f>VLOOKUP(I42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K42" s="2">
+        <v>50000000000</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>59</v>
+      </c>
+      <c r="O42" s="2">
+        <v>4100000000</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>46</v>
+      </c>
+      <c r="R42" t="str">
+        <f>VLOOKUP(Q42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S42" s="2">
+        <v>210000</v>
+      </c>
+      <c r="T42" s="2">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>9016</v>
+      </c>
+      <c r="V42" t="str">
+        <f>VLOOKUP(U42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W42" s="2">
+        <v>4700</v>
+      </c>
+      <c r="X42" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y42">
+        <v>9026</v>
+      </c>
+      <c r="Z42" t="str">
+        <f>VLOOKUP(Y42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>44000</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC42">
+        <v>9032</v>
+      </c>
+      <c r="AD42" t="str">
+        <f>VLOOKUP(AC42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>4300000</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG42">
+        <v>9043</v>
+      </c>
+      <c r="AH42" t="str">
+        <f>VLOOKUP(AG42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI42" s="2">
+        <v>410000</v>
+      </c>
+      <c r="AJ42" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK42">
+        <v>9023</v>
+      </c>
+      <c r="AL42" t="str">
+        <f>VLOOKUP(AK42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM42" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <v>9017</v>
+      </c>
+      <c r="AP42" t="str">
+        <f>VLOOKUP(AO42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ42" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AR42" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS42">
+        <v>9027</v>
+      </c>
+      <c r="AT42" t="str">
+        <f>VLOOKUP(AS42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU42" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AV42" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>9033</v>
+      </c>
+      <c r="AX42" t="str">
+        <f>VLOOKUP(AW42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY42" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AZ42" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA42">
+        <v>9044</v>
+      </c>
+      <c r="BB42" t="str">
+        <f>VLOOKUP(BA42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC42" s="2">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BD42" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE42">
+        <v>9050</v>
+      </c>
+      <c r="BF42" t="str">
+        <f>VLOOKUP(BE42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH42" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI42">
+        <v>9053</v>
+      </c>
+      <c r="BJ42" t="str">
+        <f>VLOOKUP(BI42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL42" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM42">
+        <v>9055</v>
+      </c>
+      <c r="BN42" t="str">
+        <f>VLOOKUP(BM42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP42" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ42" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR42" t="str">
+        <f>VLOOKUP(BQ42,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT42" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999994E+235</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="11"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="12"/>
+        <v>51000000000,4200000000,215000,4800,45000,4400000,420000,4,3,3,3,3,1,1,1,1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="13"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43" t="str">
+        <f>VLOOKUP(I43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K43" s="2">
+        <v>51000000000</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>59</v>
+      </c>
+      <c r="O43" s="2">
+        <v>4200000000</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>46</v>
+      </c>
+      <c r="R43" t="str">
+        <f>VLOOKUP(Q43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S43" s="2">
+        <v>215000</v>
+      </c>
+      <c r="T43" s="2">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>9016</v>
+      </c>
+      <c r="V43" t="str">
+        <f>VLOOKUP(U43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W43" s="2">
+        <v>4800</v>
+      </c>
+      <c r="X43" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y43">
+        <v>9026</v>
+      </c>
+      <c r="Z43" t="str">
+        <f>VLOOKUP(Y43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>45000</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC43">
+        <v>9032</v>
+      </c>
+      <c r="AD43" t="str">
+        <f>VLOOKUP(AC43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>4400000</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG43">
+        <v>9043</v>
+      </c>
+      <c r="AH43" t="str">
+        <f>VLOOKUP(AG43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI43" s="2">
+        <v>420000</v>
+      </c>
+      <c r="AJ43" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK43">
+        <v>9023</v>
+      </c>
+      <c r="AL43" t="str">
+        <f>VLOOKUP(AK43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM43" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>9017</v>
+      </c>
+      <c r="AP43" t="str">
+        <f>VLOOKUP(AO43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ43" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AR43" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS43">
+        <v>9027</v>
+      </c>
+      <c r="AT43" t="str">
+        <f>VLOOKUP(AS43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU43" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AV43" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW43">
+        <v>9033</v>
+      </c>
+      <c r="AX43" t="str">
+        <f>VLOOKUP(AW43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY43" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AZ43" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA43">
+        <v>9044</v>
+      </c>
+      <c r="BB43" t="str">
+        <f>VLOOKUP(BA43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC43" s="2">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BD43" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE43">
+        <v>9050</v>
+      </c>
+      <c r="BF43" t="str">
+        <f>VLOOKUP(BE43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG43" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH43" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI43">
+        <v>9053</v>
+      </c>
+      <c r="BJ43" t="str">
+        <f>VLOOKUP(BI43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK43" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL43" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM43">
+        <v>9055</v>
+      </c>
+      <c r="BN43" t="str">
+        <f>VLOOKUP(BM43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO43" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP43" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ43" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR43" t="str">
+        <f>VLOOKUP(BQ43,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS43" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT43" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4">
+        <f t="shared" si="3"/>
+        <v>1E+240</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="11"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="12"/>
+        <v>52000000000,4300000000,220000,4900,46000,4500000,430000,4,3,3,3,3,1,1,1,1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="13"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44" t="str">
+        <f>VLOOKUP(I44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K44" s="2">
+        <v>52000000000</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>59</v>
+      </c>
+      <c r="O44" s="2">
+        <v>4300000000</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>46</v>
+      </c>
+      <c r="R44" t="str">
+        <f>VLOOKUP(Q44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S44" s="2">
+        <v>220000</v>
+      </c>
+      <c r="T44" s="2">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>9016</v>
+      </c>
+      <c r="V44" t="str">
+        <f>VLOOKUP(U44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W44" s="2">
+        <v>4900</v>
+      </c>
+      <c r="X44" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y44">
+        <v>9026</v>
+      </c>
+      <c r="Z44" t="str">
+        <f>VLOOKUP(Y44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>46000</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC44">
+        <v>9032</v>
+      </c>
+      <c r="AD44" t="str">
+        <f>VLOOKUP(AC44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>4500000</v>
+      </c>
+      <c r="AF44" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG44">
+        <v>9043</v>
+      </c>
+      <c r="AH44" t="str">
+        <f>VLOOKUP(AG44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI44" s="2">
+        <v>430000</v>
+      </c>
+      <c r="AJ44" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK44">
+        <v>9023</v>
+      </c>
+      <c r="AL44" t="str">
+        <f>VLOOKUP(AK44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM44" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AN44" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <v>9017</v>
+      </c>
+      <c r="AP44" t="str">
+        <f>VLOOKUP(AO44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ44" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AR44" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS44">
+        <v>9027</v>
+      </c>
+      <c r="AT44" t="str">
+        <f>VLOOKUP(AS44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU44" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AV44" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW44">
+        <v>9033</v>
+      </c>
+      <c r="AX44" t="str">
+        <f>VLOOKUP(AW44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY44" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AZ44" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA44">
+        <v>9044</v>
+      </c>
+      <c r="BB44" t="str">
+        <f>VLOOKUP(BA44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC44" s="2">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BD44" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE44">
+        <v>9050</v>
+      </c>
+      <c r="BF44" t="str">
+        <f>VLOOKUP(BE44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG44" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH44" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI44">
+        <v>9053</v>
+      </c>
+      <c r="BJ44" t="str">
+        <f>VLOOKUP(BI44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK44" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL44" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM44">
+        <v>9055</v>
+      </c>
+      <c r="BN44" t="str">
+        <f>VLOOKUP(BM44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO44" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP44" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ44" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR44" t="str">
+        <f>VLOOKUP(BQ44,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS44" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT44" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="11"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="12"/>
+        <v>53000000000,4400000000,225000,5000,47000,4600000,440000,4,4,3,3,3,1,1,1,1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="13"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" t="str">
+        <f>VLOOKUP(I45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K45" s="2">
+        <v>53000000000</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>59</v>
+      </c>
+      <c r="O45" s="2">
+        <v>4400000000</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>46</v>
+      </c>
+      <c r="R45" t="str">
+        <f>VLOOKUP(Q45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S45" s="2">
+        <v>225000</v>
+      </c>
+      <c r="T45" s="2">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>9016</v>
+      </c>
+      <c r="V45" t="str">
+        <f>VLOOKUP(U45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W45" s="2">
+        <v>5000</v>
+      </c>
+      <c r="X45" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y45">
+        <v>9026</v>
+      </c>
+      <c r="Z45" t="str">
+        <f>VLOOKUP(Y45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>47000</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC45">
+        <v>9032</v>
+      </c>
+      <c r="AD45" t="str">
+        <f>VLOOKUP(AC45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>4600000</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG45">
+        <v>9043</v>
+      </c>
+      <c r="AH45" t="str">
+        <f>VLOOKUP(AG45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI45" s="2">
+        <v>440000</v>
+      </c>
+      <c r="AJ45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK45">
+        <v>9023</v>
+      </c>
+      <c r="AL45" t="str">
+        <f>VLOOKUP(AK45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM45" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AN45" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>9017</v>
+      </c>
+      <c r="AP45" t="str">
+        <f>VLOOKUP(AO45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ45" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AR45" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS45">
+        <v>9027</v>
+      </c>
+      <c r="AT45" t="str">
+        <f>VLOOKUP(AS45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU45" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AV45" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW45">
+        <v>9033</v>
+      </c>
+      <c r="AX45" t="str">
+        <f>VLOOKUP(AW45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY45" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AZ45" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA45">
+        <v>9044</v>
+      </c>
+      <c r="BB45" t="str">
+        <f>VLOOKUP(BA45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC45" s="2">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BD45" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE45">
+        <v>9050</v>
+      </c>
+      <c r="BF45" t="str">
+        <f>VLOOKUP(BE45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG45" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH45" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI45">
+        <v>9053</v>
+      </c>
+      <c r="BJ45" t="str">
+        <f>VLOOKUP(BI45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK45" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL45" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM45">
+        <v>9055</v>
+      </c>
+      <c r="BN45" t="str">
+        <f>VLOOKUP(BM45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO45" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP45" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ45" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR45" t="str">
+        <f>VLOOKUP(BQ45,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS45" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4">
+        <f t="shared" si="3"/>
+        <v>1E+248</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="11"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="12"/>
+        <v>54000000000,4500000000,230000,5100,48000,4700000,450000,4,4,3,3,3,1,1,1,1</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="13"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46" t="str">
+        <f>VLOOKUP(I46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K46" s="2">
+        <v>54000000000</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>59</v>
+      </c>
+      <c r="O46" s="2">
+        <v>4500000000</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>46</v>
+      </c>
+      <c r="R46" t="str">
+        <f>VLOOKUP(Q46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S46" s="2">
+        <v>230000</v>
+      </c>
+      <c r="T46" s="2">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>9016</v>
+      </c>
+      <c r="V46" t="str">
+        <f>VLOOKUP(U46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W46" s="2">
+        <v>5100</v>
+      </c>
+      <c r="X46" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y46">
+        <v>9026</v>
+      </c>
+      <c r="Z46" t="str">
+        <f>VLOOKUP(Y46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>48000</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC46">
+        <v>9032</v>
+      </c>
+      <c r="AD46" t="str">
+        <f>VLOOKUP(AC46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>4700000</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG46">
+        <v>9043</v>
+      </c>
+      <c r="AH46" t="str">
+        <f>VLOOKUP(AG46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI46" s="2">
+        <v>450000</v>
+      </c>
+      <c r="AJ46" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK46">
+        <v>9023</v>
+      </c>
+      <c r="AL46" t="str">
+        <f>VLOOKUP(AK46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM46" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AN46" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>9017</v>
+      </c>
+      <c r="AP46" t="str">
+        <f>VLOOKUP(AO46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ46" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AR46" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS46">
+        <v>9027</v>
+      </c>
+      <c r="AT46" t="str">
+        <f>VLOOKUP(AS46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU46" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AV46" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW46">
+        <v>9033</v>
+      </c>
+      <c r="AX46" t="str">
+        <f>VLOOKUP(AW46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY46" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AZ46" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA46">
+        <v>9044</v>
+      </c>
+      <c r="BB46" t="str">
+        <f>VLOOKUP(BA46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC46" s="2">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BD46" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE46">
+        <v>9050</v>
+      </c>
+      <c r="BF46" t="str">
+        <f>VLOOKUP(BE46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG46" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH46" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI46">
+        <v>9053</v>
+      </c>
+      <c r="BJ46" t="str">
+        <f>VLOOKUP(BI46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK46" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL46" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM46">
+        <v>9055</v>
+      </c>
+      <c r="BN46" t="str">
+        <f>VLOOKUP(BM46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO46" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP46" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ46" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR46" t="str">
+        <f>VLOOKUP(BQ46,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS46" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT46" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="11"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="12"/>
+        <v>55000000000,4600000000,235000,5200,49000,4800000,460000,4,4,4,3,3,1,1,1,1</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="13"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47" t="str">
+        <f>VLOOKUP(I47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K47" s="2">
+        <v>55000000000</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>59</v>
+      </c>
+      <c r="O47" s="2">
+        <v>4600000000</v>
+      </c>
+      <c r="P47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>46</v>
+      </c>
+      <c r="R47" t="str">
+        <f>VLOOKUP(Q47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S47" s="2">
+        <v>235000</v>
+      </c>
+      <c r="T47" s="2">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>9016</v>
+      </c>
+      <c r="V47" t="str">
+        <f>VLOOKUP(U47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W47" s="2">
+        <v>5200</v>
+      </c>
+      <c r="X47" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y47">
+        <v>9026</v>
+      </c>
+      <c r="Z47" t="str">
+        <f>VLOOKUP(Y47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>49000</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC47">
+        <v>9032</v>
+      </c>
+      <c r="AD47" t="str">
+        <f>VLOOKUP(AC47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>4800000</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG47">
+        <v>9043</v>
+      </c>
+      <c r="AH47" t="str">
+        <f>VLOOKUP(AG47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI47" s="2">
+        <v>460000</v>
+      </c>
+      <c r="AJ47" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK47">
+        <v>9023</v>
+      </c>
+      <c r="AL47" t="str">
+        <f>VLOOKUP(AK47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM47" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO47">
+        <v>9017</v>
+      </c>
+      <c r="AP47" t="str">
+        <f>VLOOKUP(AO47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ47" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AR47" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS47">
+        <v>9027</v>
+      </c>
+      <c r="AT47" t="str">
+        <f>VLOOKUP(AS47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU47" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AV47" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW47">
+        <v>9033</v>
+      </c>
+      <c r="AX47" t="str">
+        <f>VLOOKUP(AW47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY47" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AZ47" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA47">
+        <v>9044</v>
+      </c>
+      <c r="BB47" t="str">
+        <f>VLOOKUP(BA47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC47" s="2">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BD47" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE47">
+        <v>9050</v>
+      </c>
+      <c r="BF47" t="str">
+        <f>VLOOKUP(BE47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG47" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH47" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI47">
+        <v>9053</v>
+      </c>
+      <c r="BJ47" t="str">
+        <f>VLOOKUP(BI47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK47" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL47" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM47">
+        <v>9055</v>
+      </c>
+      <c r="BN47" t="str">
+        <f>VLOOKUP(BM47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO47" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP47" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ47" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR47" t="str">
+        <f>VLOOKUP(BQ47,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS47" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4">
+        <f t="shared" si="3"/>
+        <v>1E+256</v>
+      </c>
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="11"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="12"/>
+        <v>56000000000,4700000000,240000,5300,50000,4900000,470000,4,4,4,3,3,1,1,1,1</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="13"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48" t="str">
+        <f>VLOOKUP(I48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K48" s="2">
+        <v>56000000000</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>59</v>
+      </c>
+      <c r="O48" s="2">
+        <v>4700000000</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>46</v>
+      </c>
+      <c r="R48" t="str">
+        <f>VLOOKUP(Q48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S48" s="2">
+        <v>240000</v>
+      </c>
+      <c r="T48" s="2">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>9016</v>
+      </c>
+      <c r="V48" t="str">
+        <f>VLOOKUP(U48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W48" s="2">
+        <v>5300</v>
+      </c>
+      <c r="X48" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y48">
+        <v>9026</v>
+      </c>
+      <c r="Z48" t="str">
+        <f>VLOOKUP(Y48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC48">
+        <v>9032</v>
+      </c>
+      <c r="AD48" t="str">
+        <f>VLOOKUP(AC48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>4900000</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG48">
+        <v>9043</v>
+      </c>
+      <c r="AH48" t="str">
+        <f>VLOOKUP(AG48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI48" s="2">
+        <v>470000</v>
+      </c>
+      <c r="AJ48" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK48">
+        <v>9023</v>
+      </c>
+      <c r="AL48" t="str">
+        <f>VLOOKUP(AK48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM48" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AN48" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO48">
+        <v>9017</v>
+      </c>
+      <c r="AP48" t="str">
+        <f>VLOOKUP(AO48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ48" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AR48" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS48">
+        <v>9027</v>
+      </c>
+      <c r="AT48" t="str">
+        <f>VLOOKUP(AS48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU48" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AV48" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW48">
+        <v>9033</v>
+      </c>
+      <c r="AX48" t="str">
+        <f>VLOOKUP(AW48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY48" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AZ48" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA48">
+        <v>9044</v>
+      </c>
+      <c r="BB48" t="str">
+        <f>VLOOKUP(BA48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC48" s="2">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BD48" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE48">
+        <v>9050</v>
+      </c>
+      <c r="BF48" t="str">
+        <f>VLOOKUP(BE48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG48" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH48" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI48">
+        <v>9053</v>
+      </c>
+      <c r="BJ48" t="str">
+        <f>VLOOKUP(BI48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK48" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL48" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM48">
+        <v>9055</v>
+      </c>
+      <c r="BN48" t="str">
+        <f>VLOOKUP(BM48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO48" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP48" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ48" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR48" t="str">
+        <f>VLOOKUP(BQ48,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS48" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT48" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="11"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="12"/>
+        <v>57000000000,4800000000,245000,5400,51000,5000000,480000,4,4,4,4,3,1,1,1,1</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="13"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" t="str">
+        <f>VLOOKUP(I49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K49" s="2">
+        <v>57000000000</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>59</v>
+      </c>
+      <c r="O49" s="2">
+        <v>4800000000</v>
+      </c>
+      <c r="P49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>46</v>
+      </c>
+      <c r="R49" t="str">
+        <f>VLOOKUP(Q49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S49" s="2">
+        <v>245000</v>
+      </c>
+      <c r="T49" s="2">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>9016</v>
+      </c>
+      <c r="V49" t="str">
+        <f>VLOOKUP(U49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W49" s="2">
+        <v>5400</v>
+      </c>
+      <c r="X49" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y49">
+        <v>9026</v>
+      </c>
+      <c r="Z49" t="str">
+        <f>VLOOKUP(Y49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>51000</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC49">
+        <v>9032</v>
+      </c>
+      <c r="AD49" t="str">
+        <f>VLOOKUP(AC49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG49">
+        <v>9043</v>
+      </c>
+      <c r="AH49" t="str">
+        <f>VLOOKUP(AG49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI49" s="2">
+        <v>480000</v>
+      </c>
+      <c r="AJ49" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK49">
+        <v>9023</v>
+      </c>
+      <c r="AL49" t="str">
+        <f>VLOOKUP(AK49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM49" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO49">
+        <v>9017</v>
+      </c>
+      <c r="AP49" t="str">
+        <f>VLOOKUP(AO49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ49" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AR49" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS49">
+        <v>9027</v>
+      </c>
+      <c r="AT49" t="str">
+        <f>VLOOKUP(AS49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU49" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AV49" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW49">
+        <v>9033</v>
+      </c>
+      <c r="AX49" t="str">
+        <f>VLOOKUP(AW49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY49" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AZ49" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA49">
+        <v>9044</v>
+      </c>
+      <c r="BB49" t="str">
+        <f>VLOOKUP(BA49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC49" s="2">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BD49" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE49">
+        <v>9050</v>
+      </c>
+      <c r="BF49" t="str">
+        <f>VLOOKUP(BE49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH49" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI49">
+        <v>9053</v>
+      </c>
+      <c r="BJ49" t="str">
+        <f>VLOOKUP(BI49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL49" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM49">
+        <v>9055</v>
+      </c>
+      <c r="BN49" t="str">
+        <f>VLOOKUP(BM49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP49" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ49" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR49" t="str">
+        <f>VLOOKUP(BQ49,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT49" s="2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/WeeklyBoss.xlsx
+++ b/Assets/06.Table/WeeklyBoss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5201B62-B761-46F1-ACA5-B30A009BAA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5A8140-3FF6-45CA-A769-BF05B492EC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeeklyBoss" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="116">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +400,12 @@
   <si>
     <t>43000000000,3400000000,175000,4000,37000,3600000,340000,3,3,2,2,2,1,1,1,1</t>
   </si>
+  <si>
+    <t>44000000000,3500000000,180000,4100,38000,3700000,350000,3,3,2,2,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>45000000000,3600000000,185000,4200,39000,3800000,360000,3,3,3,2,2,1,1,1,1</t>
+  </si>
 </sst>
 </file>
 
@@ -1651,11 +1657,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1746,7 +1752,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C35" si="0">C3*10000</f>
+        <f t="shared" ref="C4:C37" si="0">C3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -2503,6 +2509,54 @@
         <v>113</v>
       </c>
       <c r="G35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="D36">
+        <v>8000</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="D37">
+        <v>8000</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2513,12 +2567,12 @@
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:D33 C35:D35">
+  <conditionalFormatting sqref="C33:D33 C35:D35 C37:D37">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:D34">
+  <conditionalFormatting sqref="C34:D34 C36:D36">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -2532,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6DE2D-0EDB-49C4-8B38-79FA81476413}">
   <dimension ref="A1:BT49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E2:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/WeeklyBoss.xlsx
+++ b/Assets/06.Table/WeeklyBoss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5A8140-3FF6-45CA-A769-BF05B492EC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC10745-15C2-42EB-B746-0227C068F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeeklyBoss" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="118">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,6 +406,12 @@
   <si>
     <t>45000000000,3600000000,185000,4200,39000,3800000,360000,3,3,3,2,2,1,1,1,1</t>
   </si>
+  <si>
+    <t>46000000000,3700000000,190000,4300,40000,3900000,370000,3,3,3,2,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>47000000000,3800000000,195000,4400,41000,4000000,380000,3,3,3,3,2,1,1,1,1</t>
+  </si>
 </sst>
 </file>
 
@@ -1657,11 +1663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1752,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C37" si="0">C3*10000</f>
+        <f t="shared" ref="C4:C39" si="0">C3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -2452,7 +2458,7 @@
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="D33">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E33" t="s">
         <v>107</v>
@@ -2476,7 +2482,7 @@
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="D34">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="E34" t="s">
         <v>107</v>
@@ -2500,7 +2506,7 @@
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="D35">
-        <v>8000</v>
+        <v>8600</v>
       </c>
       <c r="E35" t="s">
         <v>107</v>
@@ -2524,7 +2530,7 @@
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="D36">
-        <v>8000</v>
+        <v>8800</v>
       </c>
       <c r="E36" t="s">
         <v>107</v>
@@ -2548,7 +2554,7 @@
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="D37">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="E37" t="s">
         <v>107</v>
@@ -2557,22 +2563,70 @@
         <v>115</v>
       </c>
       <c r="G37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999987E+215</v>
+      </c>
+      <c r="D38">
+        <v>9200</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999987E+219</v>
+      </c>
+      <c r="D39">
+        <v>9400</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:D32">
+  <conditionalFormatting sqref="C2:D31 C32 D32:D39">
     <cfRule type="expression" dxfId="3" priority="8">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:D33 C35:D35 C37:D37">
+  <conditionalFormatting sqref="C33 C35 C37 C39">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:D34 C36:D36">
+  <conditionalFormatting sqref="C34 C36 C38">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -2586,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6DE2D-0EDB-49C4-8B38-79FA81476413}">
   <dimension ref="A1:BT49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E2:G37"/>
+    <sheetView topLeftCell="I28" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/WeeklyBoss.xlsx
+++ b/Assets/06.Table/WeeklyBoss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC10745-15C2-42EB-B746-0227C068F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73A39D7-4527-4EE5-9E84-40CD0D2A8E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="119">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,9 @@
   <si>
     <t>47000000000,3800000000,195000,4400,41000,4000000,380000,3,3,3,3,2,1,1,1,1</t>
   </si>
+  <si>
+    <t>48000000000,3900000000,200000,4500,42000,4100000,390000,3,3,3,3,2,1,1,1,1</t>
+  </si>
 </sst>
 </file>
 
@@ -1663,11 +1666,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1758,7 +1761,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C39" si="0">C3*10000</f>
+        <f t="shared" ref="C4:C40" si="0">C3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -2614,20 +2617,44 @@
         <v>67</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="D40">
+        <v>9600</v>
+      </c>
+      <c r="E40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:D31 C32 D32:D39">
-    <cfRule type="expression" dxfId="3" priority="8">
+  <conditionalFormatting sqref="C33 C35 C37 C39">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33 C35 C37 C39">
-    <cfRule type="expression" dxfId="2" priority="2">
+  <conditionalFormatting sqref="C34 C36 C38 C40">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34 C36 C38">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="C2:D31 C32 D32:D40">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2640,8 +2667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6DE2D-0EDB-49C4-8B38-79FA81476413}">
   <dimension ref="A1:BT49"/>
   <sheetViews>
-    <sheetView topLeftCell="I28" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E2:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/WeeklyBoss.xlsx
+++ b/Assets/06.Table/WeeklyBoss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73A39D7-4527-4EE5-9E84-40CD0D2A8E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20511C8C-8D9A-4496-ACCA-0F6D140310AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="120">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +415,9 @@
   <si>
     <t>48000000000,3900000000,200000,4500,42000,4100000,390000,3,3,3,3,2,1,1,1,1</t>
   </si>
+  <si>
+    <t>49000000000,4000000000,205000,4600,43000,4200000,400000,3,3,3,3,3,2,1,1,1</t>
+  </si>
 </sst>
 </file>
 
@@ -1666,11 +1669,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1761,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C40" si="0">C3*10000</f>
+        <f t="shared" ref="C4:C41" si="0">C3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -2641,9 +2644,33 @@
         <v>67</v>
       </c>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="D41">
+        <v>9800</v>
+      </c>
+      <c r="E41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C33 C35 C37 C39">
+  <conditionalFormatting sqref="C33 C35 C37 C39 C41">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -2653,7 +2680,7 @@
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D31 C32 D32:D40">
+  <conditionalFormatting sqref="C2:D31 C32 D32:D41">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -2668,7 +2695,7 @@
   <dimension ref="A1:BT49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E2:G40"/>
+      <selection activeCell="E41" sqref="E2:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11895,7 +11922,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="12"/>
-        <v>49000000000,4000000000,205000,4600,43000,4200000,400000,3,3,3,3,3,1,1,1,1</v>
+        <v>49000000000,4000000000,205000,4600,43000,4200000,400000,3,3,3,3,3,2,1,1,1</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="13"/>
@@ -12069,7 +12096,8 @@
         <v>태극 영약</v>
       </c>
       <c r="BG41" s="2">
-        <v>1</v>
+        <f>BG23+1</f>
+        <v>2</v>
       </c>
       <c r="BH41" s="2">
         <v>4</v>
@@ -12131,7 +12159,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="12"/>
-        <v>50000000000,4100000000,210000,4700,44000,4300000,410000,3,3,3,3,3,1,1,1,1</v>
+        <v>50000000000,4100000000,210000,4700,44000,4300000,410000,3,3,3,3,3,2,2,1,1</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="13"/>
@@ -12305,7 +12333,8 @@
         <v>태극 영약</v>
       </c>
       <c r="BG42" s="2">
-        <v>1</v>
+        <f t="shared" ref="BG42:BG49" si="15">BG24+1</f>
+        <v>2</v>
       </c>
       <c r="BH42" s="2">
         <v>4</v>
@@ -12318,7 +12347,8 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK42" s="2">
-        <v>1</v>
+        <f>BK25+1</f>
+        <v>2</v>
       </c>
       <c r="BL42" s="2">
         <v>4</v>
@@ -12367,7 +12397,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="12"/>
-        <v>51000000000,4200000000,215000,4800,45000,4400000,420000,4,3,3,3,3,1,1,1,1</v>
+        <v>51000000000,4200000000,215000,4800,45000,4400000,420000,4,3,3,3,3,2,2,2,1</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="13"/>
@@ -12541,7 +12571,8 @@
         <v>태극 영약</v>
       </c>
       <c r="BG43" s="2">
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="BH43" s="2">
         <v>4</v>
@@ -12554,7 +12585,8 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK43" s="2">
-        <v>1</v>
+        <f t="shared" ref="BK43:BK49" si="16">BK26+1</f>
+        <v>2</v>
       </c>
       <c r="BL43" s="2">
         <v>4</v>
@@ -12567,7 +12599,8 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO43" s="2">
-        <v>1</v>
+        <f>BO27+1</f>
+        <v>2</v>
       </c>
       <c r="BP43" s="2">
         <v>4</v>
@@ -12603,7 +12636,7 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="12"/>
-        <v>52000000000,4300000000,220000,4900,46000,4500000,430000,4,3,3,3,3,1,1,1,1</v>
+        <v>52000000000,4300000000,220000,4900,46000,4500000,430000,4,3,3,3,3,2,2,2,2</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="13"/>
@@ -12777,7 +12810,8 @@
         <v>태극 영약</v>
       </c>
       <c r="BG44" s="2">
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="BH44" s="2">
         <v>4</v>
@@ -12790,7 +12824,8 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK44" s="2">
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="BL44" s="2">
         <v>4</v>
@@ -12803,7 +12838,8 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO44" s="2">
-        <v>1</v>
+        <f t="shared" ref="BO44:BO49" si="17">BO28+1</f>
+        <v>2</v>
       </c>
       <c r="BP44" s="2">
         <v>4</v>
@@ -12816,7 +12852,8 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS44" s="2">
-        <v>1</v>
+        <f>BS32+1</f>
+        <v>2</v>
       </c>
       <c r="BT44" s="2">
         <v>4</v>
@@ -12839,7 +12876,7 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="12"/>
-        <v>53000000000,4400000000,225000,5000,47000,4600000,440000,4,4,3,3,3,1,1,1,1</v>
+        <v>53000000000,4400000000,225000,5000,47000,4600000,440000,4,4,3,3,3,2,2,2,2</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="13"/>
@@ -13013,7 +13050,8 @@
         <v>태극 영약</v>
       </c>
       <c r="BG45" s="2">
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="BH45" s="2">
         <v>4</v>
@@ -13026,7 +13064,8 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK45" s="2">
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="BL45" s="2">
         <v>4</v>
@@ -13039,7 +13078,8 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO45" s="2">
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="BP45" s="2">
         <v>4</v>
@@ -13052,7 +13092,8 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS45" s="2">
-        <v>1</v>
+        <f t="shared" ref="BS45:BS49" si="18">BS33+1</f>
+        <v>2</v>
       </c>
       <c r="BT45" s="2">
         <v>4</v>
@@ -13075,7 +13116,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="12"/>
-        <v>54000000000,4500000000,230000,5100,48000,4700000,450000,4,4,3,3,3,1,1,1,1</v>
+        <v>54000000000,4500000000,230000,5100,48000,4700000,450000,4,4,3,3,3,2,2,2,2</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="13"/>
@@ -13249,7 +13290,8 @@
         <v>태극 영약</v>
       </c>
       <c r="BG46" s="2">
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="BH46" s="2">
         <v>4</v>
@@ -13262,7 +13304,8 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK46" s="2">
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="BL46" s="2">
         <v>4</v>
@@ -13275,7 +13318,8 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO46" s="2">
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="BP46" s="2">
         <v>4</v>
@@ -13288,7 +13332,8 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS46" s="2">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="BT46" s="2">
         <v>4</v>
@@ -13311,7 +13356,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="12"/>
-        <v>55000000000,4600000000,235000,5200,49000,4800000,460000,4,4,4,3,3,1,1,1,1</v>
+        <v>55000000000,4600000000,235000,5200,49000,4800000,460000,4,4,4,3,3,2,2,2,2</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="13"/>
@@ -13485,7 +13530,8 @@
         <v>태극 영약</v>
       </c>
       <c r="BG47" s="2">
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="BH47" s="2">
         <v>4</v>
@@ -13498,7 +13544,8 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK47" s="2">
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="BL47" s="2">
         <v>4</v>
@@ -13511,7 +13558,8 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO47" s="2">
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="BP47" s="2">
         <v>4</v>
@@ -13524,7 +13572,8 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS47" s="2">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="BT47" s="2">
         <v>4</v>
@@ -13547,7 +13596,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="12"/>
-        <v>56000000000,4700000000,240000,5300,50000,4900000,470000,4,4,4,3,3,1,1,1,1</v>
+        <v>56000000000,4700000000,240000,5300,50000,4900000,470000,4,4,4,3,3,2,2,2,2</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="13"/>
@@ -13721,7 +13770,8 @@
         <v>태극 영약</v>
       </c>
       <c r="BG48" s="2">
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="BH48" s="2">
         <v>4</v>
@@ -13734,7 +13784,8 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK48" s="2">
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="BL48" s="2">
         <v>4</v>
@@ -13747,7 +13798,8 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO48" s="2">
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="BP48" s="2">
         <v>4</v>
@@ -13760,7 +13812,8 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS48" s="2">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="BT48" s="2">
         <v>4</v>
@@ -13783,7 +13836,7 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="12"/>
-        <v>57000000000,4800000000,245000,5400,51000,5000000,480000,4,4,4,4,3,1,1,1,1</v>
+        <v>57000000000,4800000000,245000,5400,51000,5000000,480000,4,4,4,4,3,2,2,2,2</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="13"/>
@@ -13957,7 +14010,8 @@
         <v>태극 영약</v>
       </c>
       <c r="BG49" s="2">
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="BH49" s="2">
         <v>4</v>
@@ -13970,7 +14024,8 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK49" s="2">
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="BL49" s="2">
         <v>4</v>
@@ -13983,7 +14038,8 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO49" s="2">
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="BP49" s="2">
         <v>4</v>
@@ -13996,7 +14052,8 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS49" s="2">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="BT49" s="2">
         <v>4</v>

--- a/Assets/06.Table/WeeklyBoss.xlsx
+++ b/Assets/06.Table/WeeklyBoss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20511C8C-8D9A-4496-ACCA-0F6D140310AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9488F170-66D3-4B02-8419-A78A8F09BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeeklyBoss" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="121">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +418,9 @@
   <si>
     <t>49000000000,4000000000,205000,4600,43000,4200000,400000,3,3,3,3,3,2,1,1,1</t>
   </si>
+  <si>
+    <t>50000000000,4100000000,210000,4700,44000,4300000,410000,3,3,3,3,3,2,2,1,1</t>
+  </si>
 </sst>
 </file>
 
@@ -1669,11 +1672,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1764,7 +1767,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C41" si="0">C3*10000</f>
+        <f t="shared" ref="C4:C42" si="0">C3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -2665,6 +2668,30 @@
         <v>119</v>
       </c>
       <c r="G41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999992E+231</v>
+      </c>
+      <c r="D42">
+        <v>10000</v>
+      </c>
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2675,12 +2702,12 @@
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34 C36 C38 C40">
+  <conditionalFormatting sqref="C34 C36 C38 C40 C42">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D31 C32 D32:D41">
+  <conditionalFormatting sqref="C2:D31 C32 D32:D42">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -2694,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6DE2D-0EDB-49C4-8B38-79FA81476413}">
   <dimension ref="A1:BT49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E2:G41"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/WeeklyBoss.xlsx
+++ b/Assets/06.Table/WeeklyBoss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9488F170-66D3-4B02-8419-A78A8F09BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A084888-563B-4D7A-A142-8F796C418474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="122">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,9 @@
   <si>
     <t>50000000000,4100000000,210000,4700,44000,4300000,410000,3,3,3,3,3,2,2,1,1</t>
   </si>
+  <si>
+    <t>51000000000,4200000000,215000,4800,45000,4400000,420000,4,3,3,3,3,2,2,2,1</t>
+  </si>
 </sst>
 </file>
 
@@ -1672,11 +1675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1767,7 +1770,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C42" si="0">C3*10000</f>
+        <f t="shared" ref="C4:C43" si="0">C3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -2695,9 +2698,33 @@
         <v>67</v>
       </c>
     </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999994E+235</v>
+      </c>
+      <c r="D43">
+        <v>10200</v>
+      </c>
+      <c r="E43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C33 C35 C37 C39 C41">
+  <conditionalFormatting sqref="C33 C35 C37 C39 C41 C43">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -2707,7 +2734,7 @@
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D31 C32 D32:D42">
+  <conditionalFormatting sqref="C2:D31 C32 D32:D43">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -2721,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6DE2D-0EDB-49C4-8B38-79FA81476413}">
   <dimension ref="A1:BT49"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:G42"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12419,7 +12446,7 @@
         <v>41</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="11"/>
+        <f>I43&amp;","&amp;M43&amp;","&amp;Q43&amp;","&amp;U43&amp;","&amp;Y43&amp;","&amp;AC43&amp;","&amp;AG43&amp;","&amp;AK43&amp;","&amp;AO43&amp;","&amp;AS43&amp;","&amp;AW43&amp;","&amp;BA43&amp;","&amp;BE43&amp;","&amp;BI43&amp;","&amp;BM43&amp;","&amp;BQ43</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F43" t="str">
@@ -12658,7 +12685,7 @@
         <v>42</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="11"/>
+        <f>I44&amp;","&amp;M44&amp;","&amp;Q44&amp;","&amp;U44&amp;","&amp;Y44&amp;","&amp;AC44&amp;","&amp;AG44&amp;","&amp;AK44&amp;","&amp;AO44&amp;","&amp;AS44&amp;","&amp;AW44&amp;","&amp;BA44&amp;","&amp;BE44&amp;","&amp;BI44&amp;","&amp;BM44&amp;","&amp;BQ44</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F44" t="str">

--- a/Assets/06.Table/WeeklyBoss.xlsx
+++ b/Assets/06.Table/WeeklyBoss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A084888-563B-4D7A-A142-8F796C418474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041A7F5B-8C25-41DA-9131-12971139A22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeeklyBoss" sheetId="1" r:id="rId1"/>
@@ -257,172 +257,172 @@
     <t>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
   </si>
   <si>
-    <t>10000000000,100000000,10000,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</t>
-  </si>
-  <si>
-    <t>11000000000,200000000,15000,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>12000000000,300000000,20000,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
     <t>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
   </si>
   <si>
-    <t>13000000000,400000000,25000,1000,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>14000000000,500000000,30000,1100,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>15000000000,600000000,35000,1200,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>2,5,46,9016,9026,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>16000000000,700000000,40000,1300,10000,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
     <t>2,5,46,9016,9026,9032,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
   </si>
   <si>
-    <t>17000000000,800000000,45000,1400,11000,1000000,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>18000000000,900000000,50000,1500,12000,1100000,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>2,5,46,9016,9026,9032,9043,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>19000000000,1000000000,55000,1600,13000,1200000,100000,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>20000000000,1100000000,60000,1700,14000,1300000,110000,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
     <t>2,5,46,9016,9026,9032,9043,9023,-1,-1,-1,-1,-1,-1,-1,-1</t>
   </si>
   <si>
-    <t>21000000000,1200000000,65000,1800,15000,1400000,120000,1,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>22000000000,1300000000,70000,1900,16000,1500000,130000,1,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>2,5,46,9016,9026,9032,9043,9023,9017,-1,-1,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>23000000000,1400000000,75000,2000,17000,1600000,140000,1,1,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>24000000000,1500000000,80000,2100,18000,1700000,150000,1,1,0,0,0,0,0,0,0</t>
   </si>
   <si>
     <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,-1,-1,-1,-1,-1,-1</t>
   </si>
   <si>
-    <t>25000000000,1600000000,85000,2200,19000,1800000,160000,1,1,1,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>26000000000,1700000000,90000,2300,20000,1900000,170000,1,1,1,0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,-1,-1,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>27000000000,1800000000,95000,2400,21000,2000000,180000,1,1,1,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>28000000000,1900000000,100000,2500,22000,2100000,190000,1,1,1,1,0,0,0,0,0</t>
   </si>
   <si>
     <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,-1,-1,-1,-1</t>
   </si>
   <si>
-    <t>29000000000,2000000000,105000,2600,23000,2200000,200000,1,1,1,1,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>30000000000,2100000000,110000,2700,24000,2300000,210000,1,1,1,1,1,0,0,0,0</t>
-  </si>
-  <si>
     <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>31000000000,2200000000,115000,2800,25000,2400000,220000,2,1,1,1,1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>32000000000,2300000000,120000,2900,26000,2500000,230000,2,1,1,1,1,1,0,0,0</t>
   </si>
   <si>
     <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,-1,-1</t>
   </si>
   <si>
-    <t>33000000000,2400000000,125000,3000,27000,2600000,240000,2,2,1,1,1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>34000000000,2500000000,130000,3100,28000,2700000,250000,2,2,1,1,1,1,1,0,0</t>
-  </si>
-  <si>
     <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</t>
-  </si>
-  <si>
-    <t>35000000000,2600000000,135000,3200,29000,2800000,260000,2,2,2,1,1,1,1,1,0</t>
-  </si>
-  <si>
-    <t>36000000000,2700000000,140000,3300,30000,2900000,270000,2,2,2,1,1,1,1,1,0</t>
-  </si>
-  <si>
-    <t>37000000000,2800000000,145000,3400,31000,3000000,280000,2,2,2,2,1,1,1,1,0</t>
   </si>
   <si>
     <t>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</t>
   </si>
   <si>
-    <t>40000000000,3100000000,160000,3700,34000,3300000,310000,2,2,2,2,2,1,1,1,1</t>
+    <t>10000000000,100000000,25000,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>38000000000,2900000000,150000,3500,32000,3100000,290000,2,2,2,2,1,1,1,1,0</t>
+    <t>11000000000,200000000,30000,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>39000000000,3000000000,155000,3600,33000,3200000,300000,2,2,2,2,2,1,1,1,0</t>
+    <t>12000000000,300000000,35000,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>41000000000,3200000000,165000,3800,35000,3400000,320000,3,2,2,2,2,1,1,1,1</t>
+    <t>13000000000,400000000,40000,3000,0,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>42000000000,3300000000,170000,3900,36000,3500000,330000,3,2,2,2,2,1,1,1,1</t>
+    <t>14000000000,500000000,45000,3300,0,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>43000000000,3400000000,175000,4000,37000,3600000,340000,3,3,2,2,2,1,1,1,1</t>
+    <t>15000000000,600000000,50000,3600,0,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>44000000000,3500000000,180000,4100,38000,3700000,350000,3,3,2,2,2,1,1,1,1</t>
+    <t>16000000000,700000000,55000,3900,60000,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>45000000000,3600000000,185000,4200,39000,3800000,360000,3,3,3,2,2,1,1,1,1</t>
+    <t>17000000000,800000000,60000,4200,66000,7000000,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>46000000000,3700000000,190000,4300,40000,3900000,370000,3,3,3,2,2,1,1,1,1</t>
+    <t>18000000000,900000000,65000,4500,72000,7700000,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>47000000000,3800000000,195000,4400,41000,4000000,380000,3,3,3,3,2,1,1,1,1</t>
+    <t>19000000000,1000000000,70000,4800,78000,8400000,1000000,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>48000000000,3900000000,200000,4500,42000,4100000,390000,3,3,3,3,2,1,1,1,1</t>
+    <t>20000000000,1100000000,75000,5100,84000,9100000,1100000,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>49000000000,4000000000,205000,4600,43000,4200000,400000,3,3,3,3,3,2,1,1,1</t>
+    <t>21000000000,1200000000,80000,5400,90000,9800000,1200000,1,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>50000000000,4100000000,210000,4700,44000,4300000,410000,3,3,3,3,3,2,2,1,1</t>
+    <t>22000000000,1300000000,85000,5700,96000,10500000,1300000,1,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>51000000000,4200000000,215000,4800,45000,4400000,420000,4,3,3,3,3,2,2,2,1</t>
+    <t>23000000000,1400000000,90000,6000,102000,11200000,1400000,1,1,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>24000000000,1500000000,95000,6300,108000,11900000,1500000,1,1,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>25000000000,1600000000,100000,6600,114000,12600000,1600000,1,1,1,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>26000000000,1700000000,110000,6900,120000,13300000,1700000,1,1,1,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>27000000000,1800000000,120000,7200,126000,14000000,1800000,1,1,1,1,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>28000000000,1900000000,130000,7500,132000,14700000,1900000,1,1,1,1,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>29000000000,2000000000,140000,7800,138000,15400000,2000000,1,1,1,1,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>30000000000,2100000000,150000,8100,144000,16100000,2100000,1,1,1,1,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>31000000000,2200000000,160000,8400,150000,16800000,2200000,2,1,1,1,1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>32000000000,2300000000,170000,8700,156000,17500000,2300000,2,1,1,1,1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>33000000000,2400000000,180000,9000,162000,18200000,2400000,2,2,1,1,1,1,1,0,0</t>
+  </si>
+  <si>
+    <t>34000000000,2500000000,190000,9300,168000,18900000,2500000,2,2,1,1,1,1,1,0,0</t>
+  </si>
+  <si>
+    <t>35000000000,2600000000,200000,9600,174000,19600000,2600000,2,2,2,1,1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>36000000000,2700000000,250000,9900,180000,20300000,2700000,2,2,2,1,1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>37000000000,2800000000,300000,10200,186000,21000000,2800000,2,2,2,2,1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>38000000000,2900000000,350000,10500,192000,21700000,2900000,2,2,2,2,1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>39000000000,3000000000,400000,10800,198000,22400000,3000000,2,2,2,2,2,1,1,1,0</t>
+  </si>
+  <si>
+    <t>40000000000,3100000000,450000,11100,204000,23100000,3100000,2,2,2,2,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>41000000000,3200000000,500000,11400,210000,23800000,3200000,3,2,2,2,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>42000000000,3300000000,550000,11700,216000,24500000,3300000,3,2,2,2,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>43000000000,3400000000,600000,12000,222000,25200000,3400000,3,3,2,2,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>44000000000,3500000000,650000,12300,228000,25900000,3500000,3,3,2,2,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>45000000000,3600000000,700000,12600,234000,26600000,3600000,3,3,3,2,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>46000000000,3700000000,750000,12900,240000,27300000,3700000,3,3,3,2,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>47000000000,3800000000,800000,13200,246000,28000000,3800000,3,3,3,3,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>48000000000,3900000000,850000,13500,252000,28700000,3900000,3,3,3,3,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>49000000000,4000000000,900000,13800,258000,29400000,4000000,3,3,3,3,3,2,1,1,1</t>
+  </si>
+  <si>
+    <t>50000000000,4100000000,950000,14100,264000,30100000,4100000,3,3,3,3,3,2,2,1,1</t>
+  </si>
+  <si>
+    <t>51000000000,4200000000,1000000,14400,270000,30800000,4200000,4,3,3,3,3,2,2,2,1</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +481,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -499,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,6 +528,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1678,8 +1693,8 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1732,10 +1747,10 @@
         <v>65</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
         <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1756,10 +1771,10 @@
         <v>65</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1780,10 +1795,10 @@
         <v>65</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1801,13 +1816,13 @@
         <v>2600</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1825,13 +1840,13 @@
         <v>2800</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1849,13 +1864,13 @@
         <v>3000</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1873,13 +1888,13 @@
         <v>3200</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1897,13 +1912,13 @@
         <v>3400</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1921,13 +1936,13 @@
         <v>3600</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1945,13 +1960,13 @@
         <v>3800</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1969,13 +1984,13 @@
         <v>4000</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1993,13 +2008,13 @@
         <v>4200</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2017,13 +2032,13 @@
         <v>4400</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2041,13 +2056,13 @@
         <v>4600</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2065,13 +2080,13 @@
         <v>4800</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2089,13 +2104,13 @@
         <v>5000</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -2113,13 +2128,13 @@
         <v>5200</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2137,13 +2152,13 @@
         <v>5400</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2161,13 +2176,13 @@
         <v>5600</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2185,13 +2200,13 @@
         <v>5800</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2209,13 +2224,13 @@
         <v>6000</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -2233,13 +2248,13 @@
         <v>6200</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2257,13 +2272,13 @@
         <v>6400</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2281,13 +2296,13 @@
         <v>6600</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2305,13 +2320,13 @@
         <v>6800</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2329,13 +2344,13 @@
         <v>7000</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2353,13 +2368,13 @@
         <v>7200</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2377,13 +2392,13 @@
         <v>7400</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2401,13 +2416,13 @@
         <v>7600</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2425,13 +2440,13 @@
         <v>7800</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2449,13 +2464,13 @@
         <v>8000</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2473,13 +2488,13 @@
         <v>8200</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2497,13 +2512,13 @@
         <v>8400</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2521,13 +2536,13 @@
         <v>8600</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>113</v>
       </c>
       <c r="G35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2545,13 +2560,13 @@
         <v>8800</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2569,13 +2584,13 @@
         <v>9000</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2593,13 +2608,13 @@
         <v>9200</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2617,13 +2632,13 @@
         <v>9400</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>117</v>
       </c>
       <c r="G39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2641,13 +2656,13 @@
         <v>9600</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2665,13 +2680,13 @@
         <v>9800</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>119</v>
       </c>
       <c r="G41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2689,13 +2704,13 @@
         <v>10000</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2713,13 +2728,13 @@
         <v>10200</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>121</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2749,7 +2764,7 @@
   <dimension ref="A1:BT49"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:G43"/>
+      <selection activeCell="E2" sqref="E2:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2763,7 +2778,7 @@
     <col min="23" max="23" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.25" style="2" customWidth="1"/>
     <col min="27" max="28" width="9" style="2"/>
-    <col min="31" max="31" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.25" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" style="2"/>
     <col min="35" max="36" width="9" style="2"/>
     <col min="39" max="40" width="9" style="2"/>
@@ -2999,15 +3014,15 @@
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E31" si="0">I2&amp;","&amp;M2&amp;","&amp;Q2&amp;","&amp;U2&amp;","&amp;Y2&amp;","&amp;AC2&amp;","&amp;AG2&amp;","&amp;AK2&amp;","&amp;AO2&amp;","&amp;AS2&amp;","&amp;AW2&amp;","&amp;BA2&amp;","&amp;BE2&amp;","&amp;BI2&amp;","&amp;BM2&amp;","&amp;BQ2</f>
+        <f>I2&amp;","&amp;M2&amp;","&amp;Q2&amp;","&amp;U2&amp;","&amp;Y2&amp;","&amp;AC2&amp;","&amp;AG2&amp;","&amp;AK2&amp;","&amp;AO2&amp;","&amp;AS2&amp;","&amp;AW2&amp;","&amp;BA2&amp;","&amp;BE2&amp;","&amp;BI2&amp;","&amp;BM2&amp;","&amp;BQ2</f>
         <v>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F31" si="1">K2&amp;","&amp;O2&amp;","&amp;S2&amp;","&amp;W2&amp;","&amp;AA2&amp;","&amp;AE2&amp;","&amp;AI2&amp;","&amp;AM2&amp;","&amp;AQ2&amp;","&amp;AU2&amp;","&amp;AY2&amp;","&amp;BC2&amp;","&amp;BG2&amp;","&amp;BK2&amp;","&amp;BO2&amp;","&amp;BS2</f>
-        <v>10000000000,100000000,10000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+        <f>K2&amp;","&amp;O2&amp;","&amp;S2&amp;","&amp;W2&amp;","&amp;AA2&amp;","&amp;AE2&amp;","&amp;AI2&amp;","&amp;AM2&amp;","&amp;AQ2&amp;","&amp;AU2&amp;","&amp;AY2&amp;","&amp;BC2&amp;","&amp;BG2&amp;","&amp;BK2&amp;","&amp;BO2&amp;","&amp;BS2</f>
+        <v>10000000000,100000000,25000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G31" si="2">L2&amp;","&amp;P2&amp;","&amp;T2&amp;","&amp;X2&amp;","&amp;AB2&amp;","&amp;AF2&amp;","&amp;AJ2&amp;","&amp;AN2&amp;","&amp;AR2&amp;","&amp;AV2&amp;","&amp;AZ2&amp;","&amp;BD2&amp;","&amp;BH2&amp;","&amp;BL2&amp;","&amp;BP2&amp;","&amp;BT2</f>
+        <f>L2&amp;","&amp;P2&amp;","&amp;T2&amp;","&amp;X2&amp;","&amp;AB2&amp;","&amp;AF2&amp;","&amp;AJ2&amp;","&amp;AN2&amp;","&amp;AR2&amp;","&amp;AV2&amp;","&amp;AZ2&amp;","&amp;BD2&amp;","&amp;BH2&amp;","&amp;BL2&amp;","&amp;BP2&amp;","&amp;BT2</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -3045,7 +3060,7 @@
         <v>검조각</v>
       </c>
       <c r="S2" s="2">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="T2" s="2">
         <v>1</v>
@@ -3219,15 +3234,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="0"/>
+        <f>I3&amp;","&amp;M3&amp;","&amp;Q3&amp;","&amp;U3&amp;","&amp;Y3&amp;","&amp;AC3&amp;","&amp;AG3&amp;","&amp;AK3&amp;","&amp;AO3&amp;","&amp;AS3&amp;","&amp;AW3&amp;","&amp;BA3&amp;","&amp;BE3&amp;","&amp;BI3&amp;","&amp;BM3&amp;","&amp;BQ3</f>
         <v>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="1"/>
-        <v>11000000000,200000000,15000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+        <f>K3&amp;","&amp;O3&amp;","&amp;S3&amp;","&amp;W3&amp;","&amp;AA3&amp;","&amp;AE3&amp;","&amp;AI3&amp;","&amp;AM3&amp;","&amp;AQ3&amp;","&amp;AU3&amp;","&amp;AY3&amp;","&amp;BC3&amp;","&amp;BG3&amp;","&amp;BK3&amp;","&amp;BO3&amp;","&amp;BS3</f>
+        <v>11000000000,200000000,30000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="2"/>
+        <f>L3&amp;","&amp;P3&amp;","&amp;T3&amp;","&amp;X3&amp;","&amp;AB3&amp;","&amp;AF3&amp;","&amp;AJ3&amp;","&amp;AN3&amp;","&amp;AR3&amp;","&amp;AV3&amp;","&amp;AZ3&amp;","&amp;BD3&amp;","&amp;BH3&amp;","&amp;BL3&amp;","&amp;BP3&amp;","&amp;BT3</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -3266,7 +3281,7 @@
         <v>검조각</v>
       </c>
       <c r="S3" s="2">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="T3" s="2">
         <v>1</v>
@@ -3433,22 +3448,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B49" si="3">B3*10000</f>
+        <f t="shared" ref="B4:B49" si="0">B3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f>I4&amp;","&amp;M4&amp;","&amp;Q4&amp;","&amp;U4&amp;","&amp;Y4&amp;","&amp;AC4&amp;","&amp;AG4&amp;","&amp;AK4&amp;","&amp;AO4&amp;","&amp;AS4&amp;","&amp;AW4&amp;","&amp;BA4&amp;","&amp;BE4&amp;","&amp;BI4&amp;","&amp;BM4&amp;","&amp;BQ4</f>
         <v>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
-        <v>12000000000,300000000,20000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+        <f>K4&amp;","&amp;O4&amp;","&amp;S4&amp;","&amp;W4&amp;","&amp;AA4&amp;","&amp;AE4&amp;","&amp;AI4&amp;","&amp;AM4&amp;","&amp;AQ4&amp;","&amp;AU4&amp;","&amp;AY4&amp;","&amp;BC4&amp;","&amp;BG4&amp;","&amp;BK4&amp;","&amp;BO4&amp;","&amp;BS4</f>
+        <v>12000000000,300000000,35000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="2"/>
+        <f>L4&amp;","&amp;P4&amp;","&amp;T4&amp;","&amp;X4&amp;","&amp;AB4&amp;","&amp;AF4&amp;","&amp;AJ4&amp;","&amp;AN4&amp;","&amp;AR4&amp;","&amp;AV4&amp;","&amp;AZ4&amp;","&amp;BD4&amp;","&amp;BH4&amp;","&amp;BL4&amp;","&amp;BP4&amp;","&amp;BT4</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -3487,7 +3502,7 @@
         <v>검조각</v>
       </c>
       <c r="S4" s="2">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="T4" s="2">
         <v>1</v>
@@ -3654,22 +3669,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999984E+83</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f>I5&amp;","&amp;M5&amp;","&amp;Q5&amp;","&amp;U5&amp;","&amp;Y5&amp;","&amp;AC5&amp;","&amp;AG5&amp;","&amp;AK5&amp;","&amp;AO5&amp;","&amp;AS5&amp;","&amp;AW5&amp;","&amp;BA5&amp;","&amp;BE5&amp;","&amp;BI5&amp;","&amp;BM5&amp;","&amp;BQ5</f>
         <v>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>13000000000,400000000,25000,1000,0,0,0,0,0,0,0,0,0,0,0,0</v>
+        <f>K5&amp;","&amp;O5&amp;","&amp;S5&amp;","&amp;W5&amp;","&amp;AA5&amp;","&amp;AE5&amp;","&amp;AI5&amp;","&amp;AM5&amp;","&amp;AQ5&amp;","&amp;AU5&amp;","&amp;AY5&amp;","&amp;BC5&amp;","&amp;BG5&amp;","&amp;BK5&amp;","&amp;BO5&amp;","&amp;BS5</f>
+        <v>13000000000,400000000,40000,3000,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="2"/>
+        <f>L5&amp;","&amp;P5&amp;","&amp;T5&amp;","&amp;X5&amp;","&amp;AB5&amp;","&amp;AF5&amp;","&amp;AJ5&amp;","&amp;AN5&amp;","&amp;AR5&amp;","&amp;AV5&amp;","&amp;AZ5&amp;","&amp;BD5&amp;","&amp;BH5&amp;","&amp;BL5&amp;","&amp;BP5&amp;","&amp;BT5</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -3708,7 +3723,7 @@
         <v>검조각</v>
       </c>
       <c r="S5" s="2">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="T5" s="2">
         <v>1</v>
@@ -3721,7 +3736,7 @@
         <v>수호환</v>
       </c>
       <c r="W5" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="X5" s="2">
         <v>2</v>
@@ -3876,22 +3891,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999978E+87</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f>I6&amp;","&amp;M6&amp;","&amp;Q6&amp;","&amp;U6&amp;","&amp;Y6&amp;","&amp;AC6&amp;","&amp;AG6&amp;","&amp;AK6&amp;","&amp;AO6&amp;","&amp;AS6&amp;","&amp;AW6&amp;","&amp;BA6&amp;","&amp;BE6&amp;","&amp;BI6&amp;","&amp;BM6&amp;","&amp;BQ6</f>
         <v>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>14000000000,500000000,30000,1100,0,0,0,0,0,0,0,0,0,0,0,0</v>
+        <f>K6&amp;","&amp;O6&amp;","&amp;S6&amp;","&amp;W6&amp;","&amp;AA6&amp;","&amp;AE6&amp;","&amp;AI6&amp;","&amp;AM6&amp;","&amp;AQ6&amp;","&amp;AU6&amp;","&amp;AY6&amp;","&amp;BC6&amp;","&amp;BG6&amp;","&amp;BK6&amp;","&amp;BO6&amp;","&amp;BS6</f>
+        <v>14000000000,500000000,45000,3300,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="2"/>
+        <f>L6&amp;","&amp;P6&amp;","&amp;T6&amp;","&amp;X6&amp;","&amp;AB6&amp;","&amp;AF6&amp;","&amp;AJ6&amp;","&amp;AN6&amp;","&amp;AR6&amp;","&amp;AV6&amp;","&amp;AZ6&amp;","&amp;BD6&amp;","&amp;BH6&amp;","&amp;BL6&amp;","&amp;BP6&amp;","&amp;BT6</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -3930,7 +3945,7 @@
         <v>검조각</v>
       </c>
       <c r="S6" s="2">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="T6" s="2">
         <v>1</v>
@@ -3943,7 +3958,7 @@
         <v>수호환</v>
       </c>
       <c r="W6" s="2">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="X6" s="2">
         <v>2</v>
@@ -4098,22 +4113,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999975E+91</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f>I7&amp;","&amp;M7&amp;","&amp;Q7&amp;","&amp;U7&amp;","&amp;Y7&amp;","&amp;AC7&amp;","&amp;AG7&amp;","&amp;AK7&amp;","&amp;AO7&amp;","&amp;AS7&amp;","&amp;AW7&amp;","&amp;BA7&amp;","&amp;BE7&amp;","&amp;BI7&amp;","&amp;BM7&amp;","&amp;BQ7</f>
         <v>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>15000000000,600000000,35000,1200,0,0,0,0,0,0,0,0,0,0,0,0</v>
+        <f>K7&amp;","&amp;O7&amp;","&amp;S7&amp;","&amp;W7&amp;","&amp;AA7&amp;","&amp;AE7&amp;","&amp;AI7&amp;","&amp;AM7&amp;","&amp;AQ7&amp;","&amp;AU7&amp;","&amp;AY7&amp;","&amp;BC7&amp;","&amp;BG7&amp;","&amp;BK7&amp;","&amp;BO7&amp;","&amp;BS7</f>
+        <v>15000000000,600000000,50000,3600,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="2"/>
+        <f>L7&amp;","&amp;P7&amp;","&amp;T7&amp;","&amp;X7&amp;","&amp;AB7&amp;","&amp;AF7&amp;","&amp;AJ7&amp;","&amp;AN7&amp;","&amp;AR7&amp;","&amp;AV7&amp;","&amp;AZ7&amp;","&amp;BD7&amp;","&amp;BH7&amp;","&amp;BL7&amp;","&amp;BP7&amp;","&amp;BT7</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -4152,7 +4167,7 @@
         <v>검조각</v>
       </c>
       <c r="S7" s="2">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="T7" s="2">
         <v>1</v>
@@ -4165,7 +4180,7 @@
         <v>수호환</v>
       </c>
       <c r="W7" s="2">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="X7" s="2">
         <v>2</v>
@@ -4320,22 +4335,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999981E+95</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f>I8&amp;","&amp;M8&amp;","&amp;Q8&amp;","&amp;U8&amp;","&amp;Y8&amp;","&amp;AC8&amp;","&amp;AG8&amp;","&amp;AK8&amp;","&amp;AO8&amp;","&amp;AS8&amp;","&amp;AW8&amp;","&amp;BA8&amp;","&amp;BE8&amp;","&amp;BI8&amp;","&amp;BM8&amp;","&amp;BQ8</f>
         <v>2,5,46,9016,9026,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>16000000000,700000000,40000,1300,10000,0,0,0,0,0,0,0,0,0,0,0</v>
+        <f>K8&amp;","&amp;O8&amp;","&amp;S8&amp;","&amp;W8&amp;","&amp;AA8&amp;","&amp;AE8&amp;","&amp;AI8&amp;","&amp;AM8&amp;","&amp;AQ8&amp;","&amp;AU8&amp;","&amp;AY8&amp;","&amp;BC8&amp;","&amp;BG8&amp;","&amp;BK8&amp;","&amp;BO8&amp;","&amp;BS8</f>
+        <v>16000000000,700000000,55000,3900,60000,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="2"/>
+        <f>L8&amp;","&amp;P8&amp;","&amp;T8&amp;","&amp;X8&amp;","&amp;AB8&amp;","&amp;AF8&amp;","&amp;AJ8&amp;","&amp;AN8&amp;","&amp;AR8&amp;","&amp;AV8&amp;","&amp;AZ8&amp;","&amp;BD8&amp;","&amp;BH8&amp;","&amp;BL8&amp;","&amp;BP8&amp;","&amp;BT8</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -4374,7 +4389,7 @@
         <v>검조각</v>
       </c>
       <c r="S8" s="2">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="T8" s="2">
         <v>1</v>
@@ -4387,7 +4402,7 @@
         <v>수호환</v>
       </c>
       <c r="W8" s="2">
-        <v>1300</v>
+        <v>3900</v>
       </c>
       <c r="X8" s="2">
         <v>2</v>
@@ -4400,7 +4415,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA8" s="2">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="AB8" s="2">
         <v>2</v>
@@ -4543,22 +4558,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999982E+99</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
+        <f>I9&amp;","&amp;M9&amp;","&amp;Q9&amp;","&amp;U9&amp;","&amp;Y9&amp;","&amp;AC9&amp;","&amp;AG9&amp;","&amp;AK9&amp;","&amp;AO9&amp;","&amp;AS9&amp;","&amp;AW9&amp;","&amp;BA9&amp;","&amp;BE9&amp;","&amp;BI9&amp;","&amp;BM9&amp;","&amp;BQ9</f>
         <v>2,5,46,9016,9026,9032,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>17000000000,800000000,45000,1400,11000,1000000,0,0,0,0,0,0,0,0,0,0</v>
+        <f>K9&amp;","&amp;O9&amp;","&amp;S9&amp;","&amp;W9&amp;","&amp;AA9&amp;","&amp;AE9&amp;","&amp;AI9&amp;","&amp;AM9&amp;","&amp;AQ9&amp;","&amp;AU9&amp;","&amp;AY9&amp;","&amp;BC9&amp;","&amp;BG9&amp;","&amp;BK9&amp;","&amp;BO9&amp;","&amp;BS9</f>
+        <v>17000000000,800000000,60000,4200,66000,7000000,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="2"/>
+        <f>L9&amp;","&amp;P9&amp;","&amp;T9&amp;","&amp;X9&amp;","&amp;AB9&amp;","&amp;AF9&amp;","&amp;AJ9&amp;","&amp;AN9&amp;","&amp;AR9&amp;","&amp;AV9&amp;","&amp;AZ9&amp;","&amp;BD9&amp;","&amp;BH9&amp;","&amp;BL9&amp;","&amp;BP9&amp;","&amp;BT9</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -4597,7 +4612,7 @@
         <v>검조각</v>
       </c>
       <c r="S9" s="2">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="T9" s="2">
         <v>1</v>
@@ -4610,7 +4625,7 @@
         <v>수호환</v>
       </c>
       <c r="W9" s="2">
-        <v>1400</v>
+        <v>4200</v>
       </c>
       <c r="X9" s="2">
         <v>2</v>
@@ -4623,7 +4638,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA9" s="2">
-        <v>11000</v>
+        <v>66000</v>
       </c>
       <c r="AB9" s="2">
         <v>2</v>
@@ -4636,7 +4651,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE9" s="2">
-        <v>1000000</v>
+        <v>7000000</v>
       </c>
       <c r="AF9" s="2">
         <v>2</v>
@@ -4767,22 +4782,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999984E+103</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
+        <f>I10&amp;","&amp;M10&amp;","&amp;Q10&amp;","&amp;U10&amp;","&amp;Y10&amp;","&amp;AC10&amp;","&amp;AG10&amp;","&amp;AK10&amp;","&amp;AO10&amp;","&amp;AS10&amp;","&amp;AW10&amp;","&amp;BA10&amp;","&amp;BE10&amp;","&amp;BI10&amp;","&amp;BM10&amp;","&amp;BQ10</f>
         <v>2,5,46,9016,9026,9032,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>18000000000,900000000,50000,1500,12000,1100000,0,0,0,0,0,0,0,0,0,0</v>
+        <f>K10&amp;","&amp;O10&amp;","&amp;S10&amp;","&amp;W10&amp;","&amp;AA10&amp;","&amp;AE10&amp;","&amp;AI10&amp;","&amp;AM10&amp;","&amp;AQ10&amp;","&amp;AU10&amp;","&amp;AY10&amp;","&amp;BC10&amp;","&amp;BG10&amp;","&amp;BK10&amp;","&amp;BO10&amp;","&amp;BS10</f>
+        <v>18000000000,900000000,65000,4500,72000,7700000,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="2"/>
+        <f>L10&amp;","&amp;P10&amp;","&amp;T10&amp;","&amp;X10&amp;","&amp;AB10&amp;","&amp;AF10&amp;","&amp;AJ10&amp;","&amp;AN10&amp;","&amp;AR10&amp;","&amp;AV10&amp;","&amp;AZ10&amp;","&amp;BD10&amp;","&amp;BH10&amp;","&amp;BL10&amp;","&amp;BP10&amp;","&amp;BT10</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -4821,7 +4836,7 @@
         <v>검조각</v>
       </c>
       <c r="S10" s="2">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="T10" s="2">
         <v>1</v>
@@ -4834,7 +4849,7 @@
         <v>수호환</v>
       </c>
       <c r="W10" s="2">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="X10" s="2">
         <v>2</v>
@@ -4847,7 +4862,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA10" s="2">
-        <v>12000</v>
+        <v>72000</v>
       </c>
       <c r="AB10" s="2">
         <v>2</v>
@@ -4860,7 +4875,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE10" s="2">
-        <v>1100000</v>
+        <v>7700000</v>
       </c>
       <c r="AF10" s="2">
         <v>2</v>
@@ -4991,22 +5006,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.999999999999999E+107</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
+        <f>I11&amp;","&amp;M11&amp;","&amp;Q11&amp;","&amp;U11&amp;","&amp;Y11&amp;","&amp;AC11&amp;","&amp;AG11&amp;","&amp;AK11&amp;","&amp;AO11&amp;","&amp;AS11&amp;","&amp;AW11&amp;","&amp;BA11&amp;","&amp;BE11&amp;","&amp;BI11&amp;","&amp;BM11&amp;","&amp;BQ11</f>
         <v>2,5,46,9016,9026,9032,9043,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>19000000000,1000000000,55000,1600,13000,1200000,100000,0,0,0,0,0,0,0,0,0</v>
+        <f>K11&amp;","&amp;O11&amp;","&amp;S11&amp;","&amp;W11&amp;","&amp;AA11&amp;","&amp;AE11&amp;","&amp;AI11&amp;","&amp;AM11&amp;","&amp;AQ11&amp;","&amp;AU11&amp;","&amp;AY11&amp;","&amp;BC11&amp;","&amp;BG11&amp;","&amp;BK11&amp;","&amp;BO11&amp;","&amp;BS11</f>
+        <v>19000000000,1000000000,70000,4800,78000,8400000,1000000,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="2"/>
+        <f>L11&amp;","&amp;P11&amp;","&amp;T11&amp;","&amp;X11&amp;","&amp;AB11&amp;","&amp;AF11&amp;","&amp;AJ11&amp;","&amp;AN11&amp;","&amp;AR11&amp;","&amp;AV11&amp;","&amp;AZ11&amp;","&amp;BD11&amp;","&amp;BH11&amp;","&amp;BL11&amp;","&amp;BP11&amp;","&amp;BT11</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -5045,7 +5060,7 @@
         <v>검조각</v>
       </c>
       <c r="S11" s="2">
-        <v>55000</v>
+        <v>70000</v>
       </c>
       <c r="T11" s="2">
         <v>1</v>
@@ -5058,7 +5073,7 @@
         <v>수호환</v>
       </c>
       <c r="W11" s="2">
-        <v>1600</v>
+        <v>4800</v>
       </c>
       <c r="X11" s="2">
         <v>2</v>
@@ -5071,7 +5086,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA11" s="2">
-        <v>13000</v>
+        <v>78000</v>
       </c>
       <c r="AB11" s="2">
         <v>2</v>
@@ -5084,7 +5099,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE11" s="2">
-        <v>1200000</v>
+        <v>8400000</v>
       </c>
       <c r="AF11" s="2">
         <v>2</v>
@@ -5097,7 +5112,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI11" s="2">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="AJ11" s="2">
         <v>2</v>
@@ -5216,22 +5231,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
+        <f>I12&amp;","&amp;M12&amp;","&amp;Q12&amp;","&amp;U12&amp;","&amp;Y12&amp;","&amp;AC12&amp;","&amp;AG12&amp;","&amp;AK12&amp;","&amp;AO12&amp;","&amp;AS12&amp;","&amp;AW12&amp;","&amp;BA12&amp;","&amp;BE12&amp;","&amp;BI12&amp;","&amp;BM12&amp;","&amp;BQ12</f>
         <v>2,5,46,9016,9026,9032,9043,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>20000000000,1100000000,60000,1700,14000,1300000,110000,0,0,0,0,0,0,0,0,0</v>
+        <f>K12&amp;","&amp;O12&amp;","&amp;S12&amp;","&amp;W12&amp;","&amp;AA12&amp;","&amp;AE12&amp;","&amp;AI12&amp;","&amp;AM12&amp;","&amp;AQ12&amp;","&amp;AU12&amp;","&amp;AY12&amp;","&amp;BC12&amp;","&amp;BG12&amp;","&amp;BK12&amp;","&amp;BO12&amp;","&amp;BS12</f>
+        <v>20000000000,1100000000,75000,5100,84000,9100000,1100000,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="2"/>
+        <f>L12&amp;","&amp;P12&amp;","&amp;T12&amp;","&amp;X12&amp;","&amp;AB12&amp;","&amp;AF12&amp;","&amp;AJ12&amp;","&amp;AN12&amp;","&amp;AR12&amp;","&amp;AV12&amp;","&amp;AZ12&amp;","&amp;BD12&amp;","&amp;BH12&amp;","&amp;BL12&amp;","&amp;BP12&amp;","&amp;BT12</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -5270,7 +5285,7 @@
         <v>검조각</v>
       </c>
       <c r="S12" s="2">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="T12" s="2">
         <v>1</v>
@@ -5283,7 +5298,7 @@
         <v>수호환</v>
       </c>
       <c r="W12" s="2">
-        <v>1700</v>
+        <v>5100</v>
       </c>
       <c r="X12" s="2">
         <v>2</v>
@@ -5296,7 +5311,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA12" s="2">
-        <v>14000</v>
+        <v>84000</v>
       </c>
       <c r="AB12" s="2">
         <v>2</v>
@@ -5309,7 +5324,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE12" s="2">
-        <v>1300000</v>
+        <v>9100000</v>
       </c>
       <c r="AF12" s="2">
         <v>2</v>
@@ -5322,7 +5337,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI12" s="2">
-        <v>110000</v>
+        <v>1100000</v>
       </c>
       <c r="AJ12" s="2">
         <v>2</v>
@@ -5441,22 +5456,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1E+116</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f>I13&amp;","&amp;M13&amp;","&amp;Q13&amp;","&amp;U13&amp;","&amp;Y13&amp;","&amp;AC13&amp;","&amp;AG13&amp;","&amp;AK13&amp;","&amp;AO13&amp;","&amp;AS13&amp;","&amp;AW13&amp;","&amp;BA13&amp;","&amp;BE13&amp;","&amp;BI13&amp;","&amp;BM13&amp;","&amp;BQ13</f>
         <v>2,5,46,9016,9026,9032,9043,9023,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>21000000000,1200000000,65000,1800,15000,1400000,120000,1,0,0,0,0,0,0,0,0</v>
+        <f>K13&amp;","&amp;O13&amp;","&amp;S13&amp;","&amp;W13&amp;","&amp;AA13&amp;","&amp;AE13&amp;","&amp;AI13&amp;","&amp;AM13&amp;","&amp;AQ13&amp;","&amp;AU13&amp;","&amp;AY13&amp;","&amp;BC13&amp;","&amp;BG13&amp;","&amp;BK13&amp;","&amp;BO13&amp;","&amp;BS13</f>
+        <v>21000000000,1200000000,80000,5400,90000,9800000,1200000,1,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="2"/>
+        <f>L13&amp;","&amp;P13&amp;","&amp;T13&amp;","&amp;X13&amp;","&amp;AB13&amp;","&amp;AF13&amp;","&amp;AJ13&amp;","&amp;AN13&amp;","&amp;AR13&amp;","&amp;AV13&amp;","&amp;AZ13&amp;","&amp;BD13&amp;","&amp;BH13&amp;","&amp;BL13&amp;","&amp;BP13&amp;","&amp;BT13</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -5495,7 +5510,7 @@
         <v>검조각</v>
       </c>
       <c r="S13" s="2">
-        <v>65000</v>
+        <v>80000</v>
       </c>
       <c r="T13" s="2">
         <v>1</v>
@@ -5508,7 +5523,7 @@
         <v>수호환</v>
       </c>
       <c r="W13" s="2">
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="X13" s="2">
         <v>2</v>
@@ -5521,7 +5536,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA13" s="2">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="AB13" s="2">
         <v>2</v>
@@ -5534,7 +5549,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE13" s="2">
-        <v>1400000</v>
+        <v>9800000</v>
       </c>
       <c r="AF13" s="2">
         <v>2</v>
@@ -5547,7 +5562,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI13" s="2">
-        <v>120000</v>
+        <v>1200000</v>
       </c>
       <c r="AJ13" s="2">
         <v>2</v>
@@ -5667,22 +5682,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <f>I14&amp;","&amp;M14&amp;","&amp;Q14&amp;","&amp;U14&amp;","&amp;Y14&amp;","&amp;AC14&amp;","&amp;AG14&amp;","&amp;AK14&amp;","&amp;AO14&amp;","&amp;AS14&amp;","&amp;AW14&amp;","&amp;BA14&amp;","&amp;BE14&amp;","&amp;BI14&amp;","&amp;BM14&amp;","&amp;BQ14</f>
         <v>2,5,46,9016,9026,9032,9043,9023,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>22000000000,1300000000,70000,1900,16000,1500000,130000,1,0,0,0,0,0,0,0,0</v>
+        <f>K14&amp;","&amp;O14&amp;","&amp;S14&amp;","&amp;W14&amp;","&amp;AA14&amp;","&amp;AE14&amp;","&amp;AI14&amp;","&amp;AM14&amp;","&amp;AQ14&amp;","&amp;AU14&amp;","&amp;AY14&amp;","&amp;BC14&amp;","&amp;BG14&amp;","&amp;BK14&amp;","&amp;BO14&amp;","&amp;BS14</f>
+        <v>22000000000,1300000000,85000,5700,96000,10500000,1300000,1,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="2"/>
+        <f>L14&amp;","&amp;P14&amp;","&amp;T14&amp;","&amp;X14&amp;","&amp;AB14&amp;","&amp;AF14&amp;","&amp;AJ14&amp;","&amp;AN14&amp;","&amp;AR14&amp;","&amp;AV14&amp;","&amp;AZ14&amp;","&amp;BD14&amp;","&amp;BH14&amp;","&amp;BL14&amp;","&amp;BP14&amp;","&amp;BT14</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -5721,7 +5736,7 @@
         <v>검조각</v>
       </c>
       <c r="S14" s="2">
-        <v>70000</v>
+        <v>85000</v>
       </c>
       <c r="T14" s="2">
         <v>1</v>
@@ -5734,7 +5749,7 @@
         <v>수호환</v>
       </c>
       <c r="W14" s="2">
-        <v>1900</v>
+        <v>5700</v>
       </c>
       <c r="X14" s="2">
         <v>2</v>
@@ -5747,7 +5762,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA14" s="2">
-        <v>16000</v>
+        <v>96000</v>
       </c>
       <c r="AB14" s="2">
         <v>2</v>
@@ -5760,7 +5775,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE14" s="2">
-        <v>1500000</v>
+        <v>10500000</v>
       </c>
       <c r="AF14" s="2">
         <v>2</v>
@@ -5773,7 +5788,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI14" s="2">
-        <v>130000</v>
+        <v>1300000</v>
       </c>
       <c r="AJ14" s="2">
         <v>2</v>
@@ -5893,22 +5908,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D15">
         <v>13</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f>I15&amp;","&amp;M15&amp;","&amp;Q15&amp;","&amp;U15&amp;","&amp;Y15&amp;","&amp;AC15&amp;","&amp;AG15&amp;","&amp;AK15&amp;","&amp;AO15&amp;","&amp;AS15&amp;","&amp;AW15&amp;","&amp;BA15&amp;","&amp;BE15&amp;","&amp;BI15&amp;","&amp;BM15&amp;","&amp;BQ15</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>23000000000,1400000000,75000,2000,17000,1600000,140000,1,1,0,0,0,0,0,0,0</v>
+        <f>K15&amp;","&amp;O15&amp;","&amp;S15&amp;","&amp;W15&amp;","&amp;AA15&amp;","&amp;AE15&amp;","&amp;AI15&amp;","&amp;AM15&amp;","&amp;AQ15&amp;","&amp;AU15&amp;","&amp;AY15&amp;","&amp;BC15&amp;","&amp;BG15&amp;","&amp;BK15&amp;","&amp;BO15&amp;","&amp;BS15</f>
+        <v>23000000000,1400000000,90000,6000,102000,11200000,1400000,1,1,0,0,0,0,0,0,0</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="2"/>
+        <f>L15&amp;","&amp;P15&amp;","&amp;T15&amp;","&amp;X15&amp;","&amp;AB15&amp;","&amp;AF15&amp;","&amp;AJ15&amp;","&amp;AN15&amp;","&amp;AR15&amp;","&amp;AV15&amp;","&amp;AZ15&amp;","&amp;BD15&amp;","&amp;BH15&amp;","&amp;BL15&amp;","&amp;BP15&amp;","&amp;BT15</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -5947,7 +5962,7 @@
         <v>검조각</v>
       </c>
       <c r="S15" s="2">
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="T15" s="2">
         <v>1</v>
@@ -5960,7 +5975,7 @@
         <v>수호환</v>
       </c>
       <c r="W15" s="2">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="X15" s="2">
         <v>2</v>
@@ -5973,7 +5988,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA15" s="2">
-        <v>17000</v>
+        <v>102000</v>
       </c>
       <c r="AB15" s="2">
         <v>2</v>
@@ -5986,7 +6001,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE15" s="2">
-        <v>1600000</v>
+        <v>11200000</v>
       </c>
       <c r="AF15" s="2">
         <v>2</v>
@@ -5999,7 +6014,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI15" s="2">
-        <v>140000</v>
+        <v>1400000</v>
       </c>
       <c r="AJ15" s="2">
         <v>2</v>
@@ -6120,22 +6135,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999988E+127</v>
       </c>
       <c r="D16">
         <v>14</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f>I16&amp;","&amp;M16&amp;","&amp;Q16&amp;","&amp;U16&amp;","&amp;Y16&amp;","&amp;AC16&amp;","&amp;AG16&amp;","&amp;AK16&amp;","&amp;AO16&amp;","&amp;AS16&amp;","&amp;AW16&amp;","&amp;BA16&amp;","&amp;BE16&amp;","&amp;BI16&amp;","&amp;BM16&amp;","&amp;BQ16</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
-        <v>24000000000,1500000000,80000,2100,18000,1700000,150000,1,1,0,0,0,0,0,0,0</v>
+        <f>K16&amp;","&amp;O16&amp;","&amp;S16&amp;","&amp;W16&amp;","&amp;AA16&amp;","&amp;AE16&amp;","&amp;AI16&amp;","&amp;AM16&amp;","&amp;AQ16&amp;","&amp;AU16&amp;","&amp;AY16&amp;","&amp;BC16&amp;","&amp;BG16&amp;","&amp;BK16&amp;","&amp;BO16&amp;","&amp;BS16</f>
+        <v>24000000000,1500000000,95000,6300,108000,11900000,1500000,1,1,0,0,0,0,0,0,0</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="2"/>
+        <f>L16&amp;","&amp;P16&amp;","&amp;T16&amp;","&amp;X16&amp;","&amp;AB16&amp;","&amp;AF16&amp;","&amp;AJ16&amp;","&amp;AN16&amp;","&amp;AR16&amp;","&amp;AV16&amp;","&amp;AZ16&amp;","&amp;BD16&amp;","&amp;BH16&amp;","&amp;BL16&amp;","&amp;BP16&amp;","&amp;BT16</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -6174,7 +6189,7 @@
         <v>검조각</v>
       </c>
       <c r="S16" s="2">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="T16" s="2">
         <v>1</v>
@@ -6187,7 +6202,7 @@
         <v>수호환</v>
       </c>
       <c r="W16" s="2">
-        <v>2100</v>
+        <v>6300</v>
       </c>
       <c r="X16" s="2">
         <v>2</v>
@@ -6200,7 +6215,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA16" s="2">
-        <v>18000</v>
+        <v>108000</v>
       </c>
       <c r="AB16" s="2">
         <v>2</v>
@@ -6213,7 +6228,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE16" s="2">
-        <v>1700000</v>
+        <v>11900000</v>
       </c>
       <c r="AF16" s="2">
         <v>2</v>
@@ -6226,7 +6241,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI16" s="2">
-        <v>150000</v>
+        <v>1500000</v>
       </c>
       <c r="AJ16" s="2">
         <v>2</v>
@@ -6347,22 +6362,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999983E+131</v>
       </c>
       <c r="D17">
         <v>15</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f>I17&amp;","&amp;M17&amp;","&amp;Q17&amp;","&amp;U17&amp;","&amp;Y17&amp;","&amp;AC17&amp;","&amp;AG17&amp;","&amp;AK17&amp;","&amp;AO17&amp;","&amp;AS17&amp;","&amp;AW17&amp;","&amp;BA17&amp;","&amp;BE17&amp;","&amp;BI17&amp;","&amp;BM17&amp;","&amp;BQ17</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
-        <v>25000000000,1600000000,85000,2200,19000,1800000,160000,1,1,1,0,0,0,0,0,0</v>
+        <f>K17&amp;","&amp;O17&amp;","&amp;S17&amp;","&amp;W17&amp;","&amp;AA17&amp;","&amp;AE17&amp;","&amp;AI17&amp;","&amp;AM17&amp;","&amp;AQ17&amp;","&amp;AU17&amp;","&amp;AY17&amp;","&amp;BC17&amp;","&amp;BG17&amp;","&amp;BK17&amp;","&amp;BO17&amp;","&amp;BS17</f>
+        <v>25000000000,1600000000,100000,6600,114000,12600000,1600000,1,1,1,0,0,0,0,0,0</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="2"/>
+        <f>L17&amp;","&amp;P17&amp;","&amp;T17&amp;","&amp;X17&amp;","&amp;AB17&amp;","&amp;AF17&amp;","&amp;AJ17&amp;","&amp;AN17&amp;","&amp;AR17&amp;","&amp;AV17&amp;","&amp;AZ17&amp;","&amp;BD17&amp;","&amp;BH17&amp;","&amp;BL17&amp;","&amp;BP17&amp;","&amp;BT17</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -6401,7 +6416,7 @@
         <v>검조각</v>
       </c>
       <c r="S17" s="2">
-        <v>85000</v>
+        <v>100000</v>
       </c>
       <c r="T17" s="2">
         <v>1</v>
@@ -6414,7 +6429,7 @@
         <v>수호환</v>
       </c>
       <c r="W17" s="2">
-        <v>2200</v>
+        <v>6600</v>
       </c>
       <c r="X17" s="2">
         <v>2</v>
@@ -6427,7 +6442,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA17" s="2">
-        <v>19000</v>
+        <v>114000</v>
       </c>
       <c r="AB17" s="2">
         <v>2</v>
@@ -6440,7 +6455,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE17" s="2">
-        <v>1800000</v>
+        <v>12600000</v>
       </c>
       <c r="AF17" s="2">
         <v>2</v>
@@ -6453,7 +6468,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI17" s="2">
-        <v>160000</v>
+        <v>1600000</v>
       </c>
       <c r="AJ17" s="2">
         <v>2</v>
@@ -6575,22 +6590,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.999999999999998E+135</v>
       </c>
       <c r="D18">
         <v>16</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f>I18&amp;","&amp;M18&amp;","&amp;Q18&amp;","&amp;U18&amp;","&amp;Y18&amp;","&amp;AC18&amp;","&amp;AG18&amp;","&amp;AK18&amp;","&amp;AO18&amp;","&amp;AS18&amp;","&amp;AW18&amp;","&amp;BA18&amp;","&amp;BE18&amp;","&amp;BI18&amp;","&amp;BM18&amp;","&amp;BQ18</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
-        <v>26000000000,1700000000,90000,2300,20000,1900000,170000,1,1,1,0,0,0,0,0,0</v>
+        <f>K18&amp;","&amp;O18&amp;","&amp;S18&amp;","&amp;W18&amp;","&amp;AA18&amp;","&amp;AE18&amp;","&amp;AI18&amp;","&amp;AM18&amp;","&amp;AQ18&amp;","&amp;AU18&amp;","&amp;AY18&amp;","&amp;BC18&amp;","&amp;BG18&amp;","&amp;BK18&amp;","&amp;BO18&amp;","&amp;BS18</f>
+        <v>26000000000,1700000000,110000,6900,120000,13300000,1700000,1,1,1,0,0,0,0,0,0</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="2"/>
+        <f>L18&amp;","&amp;P18&amp;","&amp;T18&amp;","&amp;X18&amp;","&amp;AB18&amp;","&amp;AF18&amp;","&amp;AJ18&amp;","&amp;AN18&amp;","&amp;AR18&amp;","&amp;AV18&amp;","&amp;AZ18&amp;","&amp;BD18&amp;","&amp;BH18&amp;","&amp;BL18&amp;","&amp;BP18&amp;","&amp;BT18</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -6629,7 +6644,7 @@
         <v>검조각</v>
       </c>
       <c r="S18" s="2">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="T18" s="2">
         <v>1</v>
@@ -6642,7 +6657,7 @@
         <v>수호환</v>
       </c>
       <c r="W18" s="2">
-        <v>2300</v>
+        <v>6900</v>
       </c>
       <c r="X18" s="2">
         <v>2</v>
@@ -6655,7 +6670,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA18" s="2">
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="AB18" s="2">
         <v>2</v>
@@ -6668,7 +6683,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE18" s="2">
-        <v>1900000</v>
+        <v>13300000</v>
       </c>
       <c r="AF18" s="2">
         <v>2</v>
@@ -6681,7 +6696,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI18" s="2">
-        <v>170000</v>
+        <v>1700000</v>
       </c>
       <c r="AJ18" s="2">
         <v>2</v>
@@ -6803,22 +6818,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999985E+139</v>
       </c>
       <c r="D19">
         <v>17</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f>I19&amp;","&amp;M19&amp;","&amp;Q19&amp;","&amp;U19&amp;","&amp;Y19&amp;","&amp;AC19&amp;","&amp;AG19&amp;","&amp;AK19&amp;","&amp;AO19&amp;","&amp;AS19&amp;","&amp;AW19&amp;","&amp;BA19&amp;","&amp;BE19&amp;","&amp;BI19&amp;","&amp;BM19&amp;","&amp;BQ19</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v>27000000000,1800000000,95000,2400,21000,2000000,180000,1,1,1,1,0,0,0,0,0</v>
+        <f>K19&amp;","&amp;O19&amp;","&amp;S19&amp;","&amp;W19&amp;","&amp;AA19&amp;","&amp;AE19&amp;","&amp;AI19&amp;","&amp;AM19&amp;","&amp;AQ19&amp;","&amp;AU19&amp;","&amp;AY19&amp;","&amp;BC19&amp;","&amp;BG19&amp;","&amp;BK19&amp;","&amp;BO19&amp;","&amp;BS19</f>
+        <v>27000000000,1800000000,120000,7200,126000,14000000,1800000,1,1,1,1,0,0,0,0,0</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="2"/>
+        <f>L19&amp;","&amp;P19&amp;","&amp;T19&amp;","&amp;X19&amp;","&amp;AB19&amp;","&amp;AF19&amp;","&amp;AJ19&amp;","&amp;AN19&amp;","&amp;AR19&amp;","&amp;AV19&amp;","&amp;AZ19&amp;","&amp;BD19&amp;","&amp;BH19&amp;","&amp;BL19&amp;","&amp;BP19&amp;","&amp;BT19</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -6857,7 +6872,7 @@
         <v>검조각</v>
       </c>
       <c r="S19" s="2">
-        <v>95000</v>
+        <v>120000</v>
       </c>
       <c r="T19" s="2">
         <v>1</v>
@@ -6870,7 +6885,7 @@
         <v>수호환</v>
       </c>
       <c r="W19" s="2">
-        <v>2400</v>
+        <v>7200</v>
       </c>
       <c r="X19" s="2">
         <v>2</v>
@@ -6883,7 +6898,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA19" s="2">
-        <v>21000</v>
+        <v>126000</v>
       </c>
       <c r="AB19" s="2">
         <v>2</v>
@@ -6896,7 +6911,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE19" s="2">
-        <v>2000000</v>
+        <v>14000000</v>
       </c>
       <c r="AF19" s="2">
         <v>2</v>
@@ -6909,7 +6924,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI19" s="2">
-        <v>180000</v>
+        <v>1800000</v>
       </c>
       <c r="AJ19" s="2">
         <v>2</v>
@@ -7032,22 +7047,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999985E+143</v>
       </c>
       <c r="D20">
         <v>18</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f>I20&amp;","&amp;M20&amp;","&amp;Q20&amp;","&amp;U20&amp;","&amp;Y20&amp;","&amp;AC20&amp;","&amp;AG20&amp;","&amp;AK20&amp;","&amp;AO20&amp;","&amp;AS20&amp;","&amp;AW20&amp;","&amp;BA20&amp;","&amp;BE20&amp;","&amp;BI20&amp;","&amp;BM20&amp;","&amp;BQ20</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v>28000000000,1900000000,100000,2500,22000,2100000,190000,1,1,1,1,0,0,0,0,0</v>
+        <f>K20&amp;","&amp;O20&amp;","&amp;S20&amp;","&amp;W20&amp;","&amp;AA20&amp;","&amp;AE20&amp;","&amp;AI20&amp;","&amp;AM20&amp;","&amp;AQ20&amp;","&amp;AU20&amp;","&amp;AY20&amp;","&amp;BC20&amp;","&amp;BG20&amp;","&amp;BK20&amp;","&amp;BO20&amp;","&amp;BS20</f>
+        <v>28000000000,1900000000,130000,7500,132000,14700000,1900000,1,1,1,1,0,0,0,0,0</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="2"/>
+        <f>L20&amp;","&amp;P20&amp;","&amp;T20&amp;","&amp;X20&amp;","&amp;AB20&amp;","&amp;AF20&amp;","&amp;AJ20&amp;","&amp;AN20&amp;","&amp;AR20&amp;","&amp;AV20&amp;","&amp;AZ20&amp;","&amp;BD20&amp;","&amp;BH20&amp;","&amp;BL20&amp;","&amp;BP20&amp;","&amp;BT20</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -7086,7 +7101,7 @@
         <v>검조각</v>
       </c>
       <c r="S20" s="2">
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="T20" s="2">
         <v>1</v>
@@ -7099,7 +7114,7 @@
         <v>수호환</v>
       </c>
       <c r="W20" s="2">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="X20" s="2">
         <v>2</v>
@@ -7112,7 +7127,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA20" s="2">
-        <v>22000</v>
+        <v>132000</v>
       </c>
       <c r="AB20" s="2">
         <v>2</v>
@@ -7125,7 +7140,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE20" s="2">
-        <v>2100000</v>
+        <v>14700000</v>
       </c>
       <c r="AF20" s="2">
         <v>2</v>
@@ -7138,7 +7153,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI20" s="2">
-        <v>190000</v>
+        <v>1900000</v>
       </c>
       <c r="AJ20" s="2">
         <v>2</v>
@@ -7261,22 +7276,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999991E+147</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f>I21&amp;","&amp;M21&amp;","&amp;Q21&amp;","&amp;U21&amp;","&amp;Y21&amp;","&amp;AC21&amp;","&amp;AG21&amp;","&amp;AK21&amp;","&amp;AO21&amp;","&amp;AS21&amp;","&amp;AW21&amp;","&amp;BA21&amp;","&amp;BE21&amp;","&amp;BI21&amp;","&amp;BM21&amp;","&amp;BQ21</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,-1,-1,-1,-1</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
-        <v>29000000000,2000000000,105000,2600,23000,2200000,200000,1,1,1,1,1,0,0,0,0</v>
+        <f>K21&amp;","&amp;O21&amp;","&amp;S21&amp;","&amp;W21&amp;","&amp;AA21&amp;","&amp;AE21&amp;","&amp;AI21&amp;","&amp;AM21&amp;","&amp;AQ21&amp;","&amp;AU21&amp;","&amp;AY21&amp;","&amp;BC21&amp;","&amp;BG21&amp;","&amp;BK21&amp;","&amp;BO21&amp;","&amp;BS21</f>
+        <v>29000000000,2000000000,140000,7800,138000,15400000,2000000,1,1,1,1,1,0,0,0,0</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="2"/>
+        <f>L21&amp;","&amp;P21&amp;","&amp;T21&amp;","&amp;X21&amp;","&amp;AB21&amp;","&amp;AF21&amp;","&amp;AJ21&amp;","&amp;AN21&amp;","&amp;AR21&amp;","&amp;AV21&amp;","&amp;AZ21&amp;","&amp;BD21&amp;","&amp;BH21&amp;","&amp;BL21&amp;","&amp;BP21&amp;","&amp;BT21</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -7315,7 +7330,7 @@
         <v>검조각</v>
       </c>
       <c r="S21" s="2">
-        <v>105000</v>
+        <v>140000</v>
       </c>
       <c r="T21" s="2">
         <v>1</v>
@@ -7328,7 +7343,7 @@
         <v>수호환</v>
       </c>
       <c r="W21" s="2">
-        <v>2600</v>
+        <v>7800</v>
       </c>
       <c r="X21" s="2">
         <v>2</v>
@@ -7341,7 +7356,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA21" s="2">
-        <v>23000</v>
+        <v>138000</v>
       </c>
       <c r="AB21" s="2">
         <v>2</v>
@@ -7354,7 +7369,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE21" s="2">
-        <v>2200000</v>
+        <v>15400000</v>
       </c>
       <c r="AF21" s="2">
         <v>2</v>
@@ -7367,7 +7382,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI21" s="2">
-        <v>200000</v>
+        <v>2000000</v>
       </c>
       <c r="AJ21" s="2">
         <v>2</v>
@@ -7491,22 +7506,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999993E+151</v>
       </c>
       <c r="D22">
         <v>20</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f>I22&amp;","&amp;M22&amp;","&amp;Q22&amp;","&amp;U22&amp;","&amp;Y22&amp;","&amp;AC22&amp;","&amp;AG22&amp;","&amp;AK22&amp;","&amp;AO22&amp;","&amp;AS22&amp;","&amp;AW22&amp;","&amp;BA22&amp;","&amp;BE22&amp;","&amp;BI22&amp;","&amp;BM22&amp;","&amp;BQ22</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,-1,-1,-1,-1</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v>30000000000,2100000000,110000,2700,24000,2300000,210000,1,1,1,1,1,0,0,0,0</v>
+        <f>K22&amp;","&amp;O22&amp;","&amp;S22&amp;","&amp;W22&amp;","&amp;AA22&amp;","&amp;AE22&amp;","&amp;AI22&amp;","&amp;AM22&amp;","&amp;AQ22&amp;","&amp;AU22&amp;","&amp;AY22&amp;","&amp;BC22&amp;","&amp;BG22&amp;","&amp;BK22&amp;","&amp;BO22&amp;","&amp;BS22</f>
+        <v>30000000000,2100000000,150000,8100,144000,16100000,2100000,1,1,1,1,1,0,0,0,0</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="2"/>
+        <f>L22&amp;","&amp;P22&amp;","&amp;T22&amp;","&amp;X22&amp;","&amp;AB22&amp;","&amp;AF22&amp;","&amp;AJ22&amp;","&amp;AN22&amp;","&amp;AR22&amp;","&amp;AV22&amp;","&amp;AZ22&amp;","&amp;BD22&amp;","&amp;BH22&amp;","&amp;BL22&amp;","&amp;BP22&amp;","&amp;BT22</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H22" s="6" t="s">
@@ -7545,7 +7560,7 @@
         <v>검조각</v>
       </c>
       <c r="S22" s="2">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="T22" s="2">
         <v>1</v>
@@ -7558,7 +7573,7 @@
         <v>수호환</v>
       </c>
       <c r="W22" s="2">
-        <v>2700</v>
+        <v>8100</v>
       </c>
       <c r="X22" s="2">
         <v>2</v>
@@ -7571,7 +7586,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA22" s="2">
-        <v>24000</v>
+        <v>144000</v>
       </c>
       <c r="AB22" s="2">
         <v>2</v>
@@ -7584,7 +7599,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE22" s="2">
-        <v>2300000</v>
+        <v>16100000</v>
       </c>
       <c r="AF22" s="2">
         <v>2</v>
@@ -7597,7 +7612,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI22" s="2">
-        <v>210000</v>
+        <v>2100000</v>
       </c>
       <c r="AJ22" s="2">
         <v>2</v>
@@ -7721,22 +7736,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="D23">
         <v>21</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f>I23&amp;","&amp;M23&amp;","&amp;Q23&amp;","&amp;U23&amp;","&amp;Y23&amp;","&amp;AC23&amp;","&amp;AG23&amp;","&amp;AK23&amp;","&amp;AO23&amp;","&amp;AS23&amp;","&amp;AW23&amp;","&amp;BA23&amp;","&amp;BE23&amp;","&amp;BI23&amp;","&amp;BM23&amp;","&amp;BQ23</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,-1,-1,-1</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
-        <v>31000000000,2200000000,115000,2800,25000,2400000,220000,2,1,1,1,1,1,0,0,0</v>
+        <f>K23&amp;","&amp;O23&amp;","&amp;S23&amp;","&amp;W23&amp;","&amp;AA23&amp;","&amp;AE23&amp;","&amp;AI23&amp;","&amp;AM23&amp;","&amp;AQ23&amp;","&amp;AU23&amp;","&amp;AY23&amp;","&amp;BC23&amp;","&amp;BG23&amp;","&amp;BK23&amp;","&amp;BO23&amp;","&amp;BS23</f>
+        <v>31000000000,2200000000,160000,8400,150000,16800000,2200000,2,1,1,1,1,1,0,0,0</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="2"/>
+        <f>L23&amp;","&amp;P23&amp;","&amp;T23&amp;","&amp;X23&amp;","&amp;AB23&amp;","&amp;AF23&amp;","&amp;AJ23&amp;","&amp;AN23&amp;","&amp;AR23&amp;","&amp;AV23&amp;","&amp;AZ23&amp;","&amp;BD23&amp;","&amp;BH23&amp;","&amp;BL23&amp;","&amp;BP23&amp;","&amp;BT23</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -7775,7 +7790,7 @@
         <v>검조각</v>
       </c>
       <c r="S23" s="2">
-        <v>115000</v>
+        <v>160000</v>
       </c>
       <c r="T23" s="2">
         <v>1</v>
@@ -7788,7 +7803,7 @@
         <v>수호환</v>
       </c>
       <c r="W23" s="2">
-        <v>2800</v>
+        <v>8400</v>
       </c>
       <c r="X23" s="2">
         <v>2</v>
@@ -7801,7 +7816,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA23" s="2">
-        <v>25000</v>
+        <v>150000</v>
       </c>
       <c r="AB23" s="2">
         <v>2</v>
@@ -7814,7 +7829,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE23" s="2">
-        <v>2400000</v>
+        <v>16800000</v>
       </c>
       <c r="AF23" s="2">
         <v>2</v>
@@ -7827,7 +7842,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI23" s="2">
-        <v>220000</v>
+        <v>2200000</v>
       </c>
       <c r="AJ23" s="2">
         <v>2</v>
@@ -7953,22 +7968,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1E+160</v>
       </c>
       <c r="D24">
         <v>22</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f>I24&amp;","&amp;M24&amp;","&amp;Q24&amp;","&amp;U24&amp;","&amp;Y24&amp;","&amp;AC24&amp;","&amp;AG24&amp;","&amp;AK24&amp;","&amp;AO24&amp;","&amp;AS24&amp;","&amp;AW24&amp;","&amp;BA24&amp;","&amp;BE24&amp;","&amp;BI24&amp;","&amp;BM24&amp;","&amp;BQ24</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,-1,-1,-1</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v>32000000000,2300000000,120000,2900,26000,2500000,230000,2,1,1,1,1,1,0,0,0</v>
+        <f>K24&amp;","&amp;O24&amp;","&amp;S24&amp;","&amp;W24&amp;","&amp;AA24&amp;","&amp;AE24&amp;","&amp;AI24&amp;","&amp;AM24&amp;","&amp;AQ24&amp;","&amp;AU24&amp;","&amp;AY24&amp;","&amp;BC24&amp;","&amp;BG24&amp;","&amp;BK24&amp;","&amp;BO24&amp;","&amp;BS24</f>
+        <v>32000000000,2300000000,170000,8700,156000,17500000,2300000,2,1,1,1,1,1,0,0,0</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="2"/>
+        <f>L24&amp;","&amp;P24&amp;","&amp;T24&amp;","&amp;X24&amp;","&amp;AB24&amp;","&amp;AF24&amp;","&amp;AJ24&amp;","&amp;AN24&amp;","&amp;AR24&amp;","&amp;AV24&amp;","&amp;AZ24&amp;","&amp;BD24&amp;","&amp;BH24&amp;","&amp;BL24&amp;","&amp;BP24&amp;","&amp;BT24</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -8007,7 +8022,7 @@
         <v>검조각</v>
       </c>
       <c r="S24" s="2">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="T24" s="2">
         <v>1</v>
@@ -8020,7 +8035,7 @@
         <v>수호환</v>
       </c>
       <c r="W24" s="2">
-        <v>2900</v>
+        <v>8700</v>
       </c>
       <c r="X24" s="2">
         <v>2</v>
@@ -8033,7 +8048,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA24" s="2">
-        <v>26000</v>
+        <v>156000</v>
       </c>
       <c r="AB24" s="2">
         <v>2</v>
@@ -8046,7 +8061,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE24" s="2">
-        <v>2500000</v>
+        <v>17500000</v>
       </c>
       <c r="AF24" s="2">
         <v>2</v>
@@ -8059,7 +8074,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI24" s="2">
-        <v>230000</v>
+        <v>2300000</v>
       </c>
       <c r="AJ24" s="2">
         <v>2</v>
@@ -8072,7 +8087,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" ref="AM24:AM49" si="4">AM14+1</f>
+        <f t="shared" ref="AM24:AM49" si="1">AM14+1</f>
         <v>2</v>
       </c>
       <c r="AN24" s="2">
@@ -8185,22 +8200,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1E+164</v>
       </c>
       <c r="D25">
         <v>23</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f>I25&amp;","&amp;M25&amp;","&amp;Q25&amp;","&amp;U25&amp;","&amp;Y25&amp;","&amp;AC25&amp;","&amp;AG25&amp;","&amp;AK25&amp;","&amp;AO25&amp;","&amp;AS25&amp;","&amp;AW25&amp;","&amp;BA25&amp;","&amp;BE25&amp;","&amp;BI25&amp;","&amp;BM25&amp;","&amp;BQ25</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,-1,-1</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v>33000000000,2400000000,125000,3000,27000,2600000,240000,2,2,1,1,1,1,1,0,0</v>
+        <f>K25&amp;","&amp;O25&amp;","&amp;S25&amp;","&amp;W25&amp;","&amp;AA25&amp;","&amp;AE25&amp;","&amp;AI25&amp;","&amp;AM25&amp;","&amp;AQ25&amp;","&amp;AU25&amp;","&amp;AY25&amp;","&amp;BC25&amp;","&amp;BG25&amp;","&amp;BK25&amp;","&amp;BO25&amp;","&amp;BS25</f>
+        <v>33000000000,2400000000,180000,9000,162000,18200000,2400000,2,2,1,1,1,1,1,0,0</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="2"/>
+        <f>L25&amp;","&amp;P25&amp;","&amp;T25&amp;","&amp;X25&amp;","&amp;AB25&amp;","&amp;AF25&amp;","&amp;AJ25&amp;","&amp;AN25&amp;","&amp;AR25&amp;","&amp;AV25&amp;","&amp;AZ25&amp;","&amp;BD25&amp;","&amp;BH25&amp;","&amp;BL25&amp;","&amp;BP25&amp;","&amp;BT25</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H25" s="6" t="s">
@@ -8239,7 +8254,7 @@
         <v>검조각</v>
       </c>
       <c r="S25" s="2">
-        <v>125000</v>
+        <v>180000</v>
       </c>
       <c r="T25" s="2">
         <v>1</v>
@@ -8252,7 +8267,7 @@
         <v>수호환</v>
       </c>
       <c r="W25" s="2">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="X25" s="2">
         <v>2</v>
@@ -8265,7 +8280,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA25" s="2">
-        <v>27000</v>
+        <v>162000</v>
       </c>
       <c r="AB25" s="2">
         <v>2</v>
@@ -8278,7 +8293,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE25" s="2">
-        <v>2600000</v>
+        <v>18200000</v>
       </c>
       <c r="AF25" s="2">
         <v>2</v>
@@ -8291,7 +8306,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI25" s="2">
-        <v>240000</v>
+        <v>2400000</v>
       </c>
       <c r="AJ25" s="2">
         <v>2</v>
@@ -8304,7 +8319,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN25" s="2">
@@ -8419,22 +8434,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="D26">
         <v>24</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f>I26&amp;","&amp;M26&amp;","&amp;Q26&amp;","&amp;U26&amp;","&amp;Y26&amp;","&amp;AC26&amp;","&amp;AG26&amp;","&amp;AK26&amp;","&amp;AO26&amp;","&amp;AS26&amp;","&amp;AW26&amp;","&amp;BA26&amp;","&amp;BE26&amp;","&amp;BI26&amp;","&amp;BM26&amp;","&amp;BQ26</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,-1,-1</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>34000000000,2500000000,130000,3100,28000,2700000,250000,2,2,1,1,1,1,1,0,0</v>
+        <f>K26&amp;","&amp;O26&amp;","&amp;S26&amp;","&amp;W26&amp;","&amp;AA26&amp;","&amp;AE26&amp;","&amp;AI26&amp;","&amp;AM26&amp;","&amp;AQ26&amp;","&amp;AU26&amp;","&amp;AY26&amp;","&amp;BC26&amp;","&amp;BG26&amp;","&amp;BK26&amp;","&amp;BO26&amp;","&amp;BS26</f>
+        <v>34000000000,2500000000,190000,9300,168000,18900000,2500000,2,2,1,1,1,1,1,0,0</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="2"/>
+        <f>L26&amp;","&amp;P26&amp;","&amp;T26&amp;","&amp;X26&amp;","&amp;AB26&amp;","&amp;AF26&amp;","&amp;AJ26&amp;","&amp;AN26&amp;","&amp;AR26&amp;","&amp;AV26&amp;","&amp;AZ26&amp;","&amp;BD26&amp;","&amp;BH26&amp;","&amp;BL26&amp;","&amp;BP26&amp;","&amp;BT26</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H26" s="6" t="s">
@@ -8473,7 +8488,7 @@
         <v>검조각</v>
       </c>
       <c r="S26" s="2">
-        <v>130000</v>
+        <v>190000</v>
       </c>
       <c r="T26" s="2">
         <v>1</v>
@@ -8486,7 +8501,7 @@
         <v>수호환</v>
       </c>
       <c r="W26" s="2">
-        <v>3100</v>
+        <v>9300</v>
       </c>
       <c r="X26" s="2">
         <v>2</v>
@@ -8499,7 +8514,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA26" s="2">
-        <v>28000</v>
+        <v>168000</v>
       </c>
       <c r="AB26" s="2">
         <v>2</v>
@@ -8512,7 +8527,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE26" s="2">
-        <v>2700000</v>
+        <v>18900000</v>
       </c>
       <c r="AF26" s="2">
         <v>2</v>
@@ -8525,7 +8540,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI26" s="2">
-        <v>250000</v>
+        <v>2500000</v>
       </c>
       <c r="AJ26" s="2">
         <v>2</v>
@@ -8538,7 +8553,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN26" s="2">
@@ -8552,7 +8567,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ26" s="2">
-        <f t="shared" ref="AQ26:AQ49" si="5">AQ16+1</f>
+        <f t="shared" ref="AQ26:AQ49" si="2">AQ16+1</f>
         <v>2</v>
       </c>
       <c r="AR26" s="2">
@@ -8653,22 +8668,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999991E+171</v>
       </c>
       <c r="D27">
         <v>25</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
+        <f>I27&amp;","&amp;M27&amp;","&amp;Q27&amp;","&amp;U27&amp;","&amp;Y27&amp;","&amp;AC27&amp;","&amp;AG27&amp;","&amp;AK27&amp;","&amp;AO27&amp;","&amp;AS27&amp;","&amp;AW27&amp;","&amp;BA27&amp;","&amp;BE27&amp;","&amp;BI27&amp;","&amp;BM27&amp;","&amp;BQ27</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>35000000000,2600000000,135000,3200,29000,2800000,260000,2,2,2,1,1,1,1,1,0</v>
+        <f>K27&amp;","&amp;O27&amp;","&amp;S27&amp;","&amp;W27&amp;","&amp;AA27&amp;","&amp;AE27&amp;","&amp;AI27&amp;","&amp;AM27&amp;","&amp;AQ27&amp;","&amp;AU27&amp;","&amp;AY27&amp;","&amp;BC27&amp;","&amp;BG27&amp;","&amp;BK27&amp;","&amp;BO27&amp;","&amp;BS27</f>
+        <v>35000000000,2600000000,200000,9600,174000,19600000,2600000,2,2,2,1,1,1,1,1,0</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="2"/>
+        <f>L27&amp;","&amp;P27&amp;","&amp;T27&amp;","&amp;X27&amp;","&amp;AB27&amp;","&amp;AF27&amp;","&amp;AJ27&amp;","&amp;AN27&amp;","&amp;AR27&amp;","&amp;AV27&amp;","&amp;AZ27&amp;","&amp;BD27&amp;","&amp;BH27&amp;","&amp;BL27&amp;","&amp;BP27&amp;","&amp;BT27</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H27" s="6" t="s">
@@ -8707,7 +8722,7 @@
         <v>검조각</v>
       </c>
       <c r="S27" s="2">
-        <v>135000</v>
+        <v>200000</v>
       </c>
       <c r="T27" s="2">
         <v>1</v>
@@ -8720,7 +8735,7 @@
         <v>수호환</v>
       </c>
       <c r="W27" s="2">
-        <v>3200</v>
+        <v>9600</v>
       </c>
       <c r="X27" s="2">
         <v>2</v>
@@ -8733,7 +8748,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA27" s="2">
-        <v>29000</v>
+        <v>174000</v>
       </c>
       <c r="AB27" s="2">
         <v>2</v>
@@ -8746,7 +8761,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE27" s="2">
-        <v>2800000</v>
+        <v>19600000</v>
       </c>
       <c r="AF27" s="2">
         <v>2</v>
@@ -8759,7 +8774,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI27" s="2">
-        <v>260000</v>
+        <v>2600000</v>
       </c>
       <c r="AJ27" s="2">
         <v>2</v>
@@ -8772,7 +8787,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN27" s="2">
@@ -8786,7 +8801,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AR27" s="2">
@@ -8889,22 +8904,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999987E+175</v>
       </c>
       <c r="D28">
         <v>26</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
+        <f>I28&amp;","&amp;M28&amp;","&amp;Q28&amp;","&amp;U28&amp;","&amp;Y28&amp;","&amp;AC28&amp;","&amp;AG28&amp;","&amp;AK28&amp;","&amp;AO28&amp;","&amp;AS28&amp;","&amp;AW28&amp;","&amp;BA28&amp;","&amp;BE28&amp;","&amp;BI28&amp;","&amp;BM28&amp;","&amp;BQ28</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v>36000000000,2700000000,140000,3300,30000,2900000,270000,2,2,2,1,1,1,1,1,0</v>
+        <f>K28&amp;","&amp;O28&amp;","&amp;S28&amp;","&amp;W28&amp;","&amp;AA28&amp;","&amp;AE28&amp;","&amp;AI28&amp;","&amp;AM28&amp;","&amp;AQ28&amp;","&amp;AU28&amp;","&amp;AY28&amp;","&amp;BC28&amp;","&amp;BG28&amp;","&amp;BK28&amp;","&amp;BO28&amp;","&amp;BS28</f>
+        <v>36000000000,2700000000,250000,9900,180000,20300000,2700000,2,2,2,1,1,1,1,1,0</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="2"/>
+        <f>L28&amp;","&amp;P28&amp;","&amp;T28&amp;","&amp;X28&amp;","&amp;AB28&amp;","&amp;AF28&amp;","&amp;AJ28&amp;","&amp;AN28&amp;","&amp;AR28&amp;","&amp;AV28&amp;","&amp;AZ28&amp;","&amp;BD28&amp;","&amp;BH28&amp;","&amp;BL28&amp;","&amp;BP28&amp;","&amp;BT28</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H28" s="6" t="s">
@@ -8943,7 +8958,7 @@
         <v>검조각</v>
       </c>
       <c r="S28" s="2">
-        <v>140000</v>
+        <v>250000</v>
       </c>
       <c r="T28" s="2">
         <v>1</v>
@@ -8956,7 +8971,7 @@
         <v>수호환</v>
       </c>
       <c r="W28" s="2">
-        <v>3300</v>
+        <v>9900</v>
       </c>
       <c r="X28" s="2">
         <v>2</v>
@@ -8969,7 +8984,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA28" s="2">
-        <v>30000</v>
+        <v>180000</v>
       </c>
       <c r="AB28" s="2">
         <v>2</v>
@@ -8982,7 +8997,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE28" s="2">
-        <v>2900000</v>
+        <v>20300000</v>
       </c>
       <c r="AF28" s="2">
         <v>2</v>
@@ -8995,7 +9010,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI28" s="2">
-        <v>270000</v>
+        <v>2700000</v>
       </c>
       <c r="AJ28" s="2">
         <v>2</v>
@@ -9008,7 +9023,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN28" s="2">
@@ -9022,7 +9037,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AR28" s="2">
@@ -9036,7 +9051,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU28" s="2">
-        <f t="shared" ref="AU28:AU49" si="6">AU18+1</f>
+        <f t="shared" ref="AU28:AU49" si="3">AU18+1</f>
         <v>2</v>
       </c>
       <c r="AV28" s="2">
@@ -9125,22 +9140,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999989E+179</v>
       </c>
       <c r="D29">
         <v>27</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
+        <f>I29&amp;","&amp;M29&amp;","&amp;Q29&amp;","&amp;U29&amp;","&amp;Y29&amp;","&amp;AC29&amp;","&amp;AG29&amp;","&amp;AK29&amp;","&amp;AO29&amp;","&amp;AS29&amp;","&amp;AW29&amp;","&amp;BA29&amp;","&amp;BE29&amp;","&amp;BI29&amp;","&amp;BM29&amp;","&amp;BQ29</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="1"/>
-        <v>37000000000,2800000000,145000,3400,31000,3000000,280000,2,2,2,2,1,1,1,1,0</v>
+        <f>K29&amp;","&amp;O29&amp;","&amp;S29&amp;","&amp;W29&amp;","&amp;AA29&amp;","&amp;AE29&amp;","&amp;AI29&amp;","&amp;AM29&amp;","&amp;AQ29&amp;","&amp;AU29&amp;","&amp;AY29&amp;","&amp;BC29&amp;","&amp;BG29&amp;","&amp;BK29&amp;","&amp;BO29&amp;","&amp;BS29</f>
+        <v>37000000000,2800000000,300000,10200,186000,21000000,2800000,2,2,2,2,1,1,1,1,0</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="2"/>
+        <f>L29&amp;","&amp;P29&amp;","&amp;T29&amp;","&amp;X29&amp;","&amp;AB29&amp;","&amp;AF29&amp;","&amp;AJ29&amp;","&amp;AN29&amp;","&amp;AR29&amp;","&amp;AV29&amp;","&amp;AZ29&amp;","&amp;BD29&amp;","&amp;BH29&amp;","&amp;BL29&amp;","&amp;BP29&amp;","&amp;BT29</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H29" s="6" t="s">
@@ -9179,7 +9194,7 @@
         <v>검조각</v>
       </c>
       <c r="S29" s="2">
-        <v>145000</v>
+        <v>300000</v>
       </c>
       <c r="T29" s="2">
         <v>1</v>
@@ -9192,7 +9207,7 @@
         <v>수호환</v>
       </c>
       <c r="W29" s="2">
-        <v>3400</v>
+        <v>10200</v>
       </c>
       <c r="X29" s="2">
         <v>2</v>
@@ -9205,7 +9220,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA29" s="2">
-        <v>31000</v>
+        <v>186000</v>
       </c>
       <c r="AB29" s="2">
         <v>2</v>
@@ -9218,7 +9233,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE29" s="2">
-        <v>3000000</v>
+        <v>21000000</v>
       </c>
       <c r="AF29" s="2">
         <v>2</v>
@@ -9231,7 +9246,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI29" s="2">
-        <v>280000</v>
+        <v>2800000</v>
       </c>
       <c r="AJ29" s="2">
         <v>2</v>
@@ -9244,7 +9259,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN29" s="2">
@@ -9258,7 +9273,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AR29" s="2">
@@ -9272,7 +9287,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AV29" s="2">
@@ -9362,22 +9377,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999983E+183</v>
       </c>
       <c r="D30">
         <v>28</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
+        <f>I30&amp;","&amp;M30&amp;","&amp;Q30&amp;","&amp;U30&amp;","&amp;Y30&amp;","&amp;AC30&amp;","&amp;AG30&amp;","&amp;AK30&amp;","&amp;AO30&amp;","&amp;AS30&amp;","&amp;AW30&amp;","&amp;BA30&amp;","&amp;BE30&amp;","&amp;BI30&amp;","&amp;BM30&amp;","&amp;BQ30</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="1"/>
-        <v>38000000000,2900000000,150000,3500,32000,3100000,290000,2,2,2,2,1,1,1,1,0</v>
+        <f>K30&amp;","&amp;O30&amp;","&amp;S30&amp;","&amp;W30&amp;","&amp;AA30&amp;","&amp;AE30&amp;","&amp;AI30&amp;","&amp;AM30&amp;","&amp;AQ30&amp;","&amp;AU30&amp;","&amp;AY30&amp;","&amp;BC30&amp;","&amp;BG30&amp;","&amp;BK30&amp;","&amp;BO30&amp;","&amp;BS30</f>
+        <v>38000000000,2900000000,350000,10500,192000,21700000,2900000,2,2,2,2,1,1,1,1,0</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="2"/>
+        <f>L30&amp;","&amp;P30&amp;","&amp;T30&amp;","&amp;X30&amp;","&amp;AB30&amp;","&amp;AF30&amp;","&amp;AJ30&amp;","&amp;AN30&amp;","&amp;AR30&amp;","&amp;AV30&amp;","&amp;AZ30&amp;","&amp;BD30&amp;","&amp;BH30&amp;","&amp;BL30&amp;","&amp;BP30&amp;","&amp;BT30</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H30" s="6" t="s">
@@ -9416,7 +9431,7 @@
         <v>검조각</v>
       </c>
       <c r="S30" s="2">
-        <v>150000</v>
+        <v>350000</v>
       </c>
       <c r="T30" s="2">
         <v>1</v>
@@ -9429,7 +9444,7 @@
         <v>수호환</v>
       </c>
       <c r="W30" s="2">
-        <v>3500</v>
+        <v>10500</v>
       </c>
       <c r="X30" s="2">
         <v>2</v>
@@ -9442,7 +9457,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA30" s="2">
-        <v>32000</v>
+        <v>192000</v>
       </c>
       <c r="AB30" s="2">
         <v>2</v>
@@ -9455,7 +9470,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE30" s="2">
-        <v>3100000</v>
+        <v>21700000</v>
       </c>
       <c r="AF30" s="2">
         <v>2</v>
@@ -9468,7 +9483,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI30" s="2">
-        <v>290000</v>
+        <v>2900000</v>
       </c>
       <c r="AJ30" s="2">
         <v>2</v>
@@ -9481,7 +9496,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN30" s="2">
@@ -9495,7 +9510,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AR30" s="2">
@@ -9509,7 +9524,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AV30" s="2">
@@ -9523,7 +9538,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY30" s="2">
-        <f t="shared" ref="AY30:AY49" si="7">AY20+1</f>
+        <f t="shared" ref="AY30:AY49" si="4">AY20+1</f>
         <v>2</v>
       </c>
       <c r="AZ30" s="2">
@@ -9599,22 +9614,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999987E+187</v>
       </c>
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
+        <f>I31&amp;","&amp;M31&amp;","&amp;Q31&amp;","&amp;U31&amp;","&amp;Y31&amp;","&amp;AC31&amp;","&amp;AG31&amp;","&amp;AK31&amp;","&amp;AO31&amp;","&amp;AS31&amp;","&amp;AW31&amp;","&amp;BA31&amp;","&amp;BE31&amp;","&amp;BI31&amp;","&amp;BM31&amp;","&amp;BQ31</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
-        <v>39000000000,3000000000,155000,3600,33000,3200000,300000,2,2,2,2,2,1,1,1,0</v>
+        <f>K31&amp;","&amp;O31&amp;","&amp;S31&amp;","&amp;W31&amp;","&amp;AA31&amp;","&amp;AE31&amp;","&amp;AI31&amp;","&amp;AM31&amp;","&amp;AQ31&amp;","&amp;AU31&amp;","&amp;AY31&amp;","&amp;BC31&amp;","&amp;BG31&amp;","&amp;BK31&amp;","&amp;BO31&amp;","&amp;BS31</f>
+        <v>39000000000,3000000000,400000,10800,198000,22400000,3000000,2,2,2,2,2,1,1,1,0</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="2"/>
+        <f>L31&amp;","&amp;P31&amp;","&amp;T31&amp;","&amp;X31&amp;","&amp;AB31&amp;","&amp;AF31&amp;","&amp;AJ31&amp;","&amp;AN31&amp;","&amp;AR31&amp;","&amp;AV31&amp;","&amp;AZ31&amp;","&amp;BD31&amp;","&amp;BH31&amp;","&amp;BL31&amp;","&amp;BP31&amp;","&amp;BT31</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H31" s="6" t="s">
@@ -9653,7 +9668,7 @@
         <v>검조각</v>
       </c>
       <c r="S31" s="2">
-        <v>155000</v>
+        <v>400000</v>
       </c>
       <c r="T31" s="2">
         <v>1</v>
@@ -9666,7 +9681,7 @@
         <v>수호환</v>
       </c>
       <c r="W31" s="2">
-        <v>3600</v>
+        <v>10800</v>
       </c>
       <c r="X31" s="2">
         <v>2</v>
@@ -9679,7 +9694,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA31" s="2">
-        <v>33000</v>
+        <v>198000</v>
       </c>
       <c r="AB31" s="2">
         <v>2</v>
@@ -9692,7 +9707,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE31" s="2">
-        <v>3200000</v>
+        <v>22400000</v>
       </c>
       <c r="AF31" s="2">
         <v>2</v>
@@ -9705,7 +9720,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI31" s="2">
-        <v>300000</v>
+        <v>3000000</v>
       </c>
       <c r="AJ31" s="2">
         <v>2</v>
@@ -9718,7 +9733,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN31" s="2">
@@ -9732,7 +9747,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AR31" s="2">
@@ -9746,7 +9761,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AV31" s="2">
@@ -9760,7 +9775,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AZ31" s="2">
@@ -9837,7 +9852,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="D32">
@@ -9849,7 +9864,7 @@
       </c>
       <c r="F32" t="str">
         <f>K32&amp;","&amp;O32&amp;","&amp;S32&amp;","&amp;W32&amp;","&amp;AA32&amp;","&amp;AE32&amp;","&amp;AI32&amp;","&amp;AM32&amp;","&amp;AQ32&amp;","&amp;AU32&amp;","&amp;AY32&amp;","&amp;BC32&amp;","&amp;BG32&amp;","&amp;BK32&amp;","&amp;BO32&amp;","&amp;BS32</f>
-        <v>40000000000,3100000000,160000,3700,34000,3300000,310000,2,2,2,2,2,1,1,1,1</v>
+        <v>40000000000,3100000000,450000,11100,204000,23100000,3100000,2,2,2,2,2,1,1,1,1</v>
       </c>
       <c r="G32" t="str">
         <f>L32&amp;","&amp;P32&amp;","&amp;T32&amp;","&amp;X32&amp;","&amp;AB32&amp;","&amp;AF32&amp;","&amp;AJ32&amp;","&amp;AN32&amp;","&amp;AR32&amp;","&amp;AV32&amp;","&amp;AZ32&amp;","&amp;BD32&amp;","&amp;BH32&amp;","&amp;BL32&amp;","&amp;BP32&amp;","&amp;BT32</f>
@@ -9891,7 +9906,7 @@
         <v>검조각</v>
       </c>
       <c r="S32" s="2">
-        <v>160000</v>
+        <v>450000</v>
       </c>
       <c r="T32" s="2">
         <v>1</v>
@@ -9904,7 +9919,7 @@
         <v>수호환</v>
       </c>
       <c r="W32" s="2">
-        <v>3700</v>
+        <v>11100</v>
       </c>
       <c r="X32" s="2">
         <v>2</v>
@@ -9917,7 +9932,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA32" s="2">
-        <v>34000</v>
+        <v>204000</v>
       </c>
       <c r="AB32" s="2">
         <v>2</v>
@@ -9930,7 +9945,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE32" s="2">
-        <v>3300000</v>
+        <v>23100000</v>
       </c>
       <c r="AF32" s="2">
         <v>2</v>
@@ -9943,7 +9958,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI32" s="2">
-        <v>310000</v>
+        <v>3100000</v>
       </c>
       <c r="AJ32" s="2">
         <v>2</v>
@@ -9956,7 +9971,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AN32" s="2">
@@ -9970,7 +9985,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AR32" s="2">
@@ -9984,7 +9999,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AV32" s="2">
@@ -9998,7 +10013,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AZ32" s="2">
@@ -10076,22 +10091,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="D33">
         <v>31</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" ref="E33" si="8">I33&amp;","&amp;M33&amp;","&amp;Q33&amp;","&amp;U33&amp;","&amp;Y33&amp;","&amp;AC33&amp;","&amp;AG33&amp;","&amp;AK33&amp;","&amp;AO33&amp;","&amp;AS33&amp;","&amp;AW33&amp;","&amp;BA33&amp;","&amp;BE33&amp;","&amp;BI33&amp;","&amp;BM33&amp;","&amp;BQ33</f>
+        <f>I33&amp;","&amp;M33&amp;","&amp;Q33&amp;","&amp;U33&amp;","&amp;Y33&amp;","&amp;AC33&amp;","&amp;AG33&amp;","&amp;AK33&amp;","&amp;AO33&amp;","&amp;AS33&amp;","&amp;AW33&amp;","&amp;BA33&amp;","&amp;BE33&amp;","&amp;BI33&amp;","&amp;BM33&amp;","&amp;BQ33</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" ref="F33" si="9">K33&amp;","&amp;O33&amp;","&amp;S33&amp;","&amp;W33&amp;","&amp;AA33&amp;","&amp;AE33&amp;","&amp;AI33&amp;","&amp;AM33&amp;","&amp;AQ33&amp;","&amp;AU33&amp;","&amp;AY33&amp;","&amp;BC33&amp;","&amp;BG33&amp;","&amp;BK33&amp;","&amp;BO33&amp;","&amp;BS33</f>
-        <v>41000000000,3200000000,165000,3800,35000,3400000,320000,3,2,2,2,2,1,1,1,1</v>
+        <f>K33&amp;","&amp;O33&amp;","&amp;S33&amp;","&amp;W33&amp;","&amp;AA33&amp;","&amp;AE33&amp;","&amp;AI33&amp;","&amp;AM33&amp;","&amp;AQ33&amp;","&amp;AU33&amp;","&amp;AY33&amp;","&amp;BC33&amp;","&amp;BG33&amp;","&amp;BK33&amp;","&amp;BO33&amp;","&amp;BS33</f>
+        <v>41000000000,3200000000,500000,11400,210000,23800000,3200000,3,2,2,2,2,1,1,1,1</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" ref="G33" si="10">L33&amp;","&amp;P33&amp;","&amp;T33&amp;","&amp;X33&amp;","&amp;AB33&amp;","&amp;AF33&amp;","&amp;AJ33&amp;","&amp;AN33&amp;","&amp;AR33&amp;","&amp;AV33&amp;","&amp;AZ33&amp;","&amp;BD33&amp;","&amp;BH33&amp;","&amp;BL33&amp;","&amp;BP33&amp;","&amp;BT33</f>
+        <f>L33&amp;","&amp;P33&amp;","&amp;T33&amp;","&amp;X33&amp;","&amp;AB33&amp;","&amp;AF33&amp;","&amp;AJ33&amp;","&amp;AN33&amp;","&amp;AR33&amp;","&amp;AV33&amp;","&amp;AZ33&amp;","&amp;BD33&amp;","&amp;BH33&amp;","&amp;BL33&amp;","&amp;BP33&amp;","&amp;BT33</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I33">
@@ -10127,7 +10142,7 @@
         <v>검조각</v>
       </c>
       <c r="S33" s="2">
-        <v>165000</v>
+        <v>500000</v>
       </c>
       <c r="T33" s="2">
         <v>1</v>
@@ -10140,7 +10155,7 @@
         <v>수호환</v>
       </c>
       <c r="W33" s="2">
-        <v>3800</v>
+        <v>11400</v>
       </c>
       <c r="X33" s="2">
         <v>2</v>
@@ -10153,7 +10168,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA33" s="2">
-        <v>35000</v>
+        <v>210000</v>
       </c>
       <c r="AB33" s="2">
         <v>2</v>
@@ -10166,7 +10181,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE33" s="2">
-        <v>3400000</v>
+        <v>23800000</v>
       </c>
       <c r="AF33" s="2">
         <v>2</v>
@@ -10179,7 +10194,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI33" s="2">
-        <v>320000</v>
+        <v>3200000</v>
       </c>
       <c r="AJ33" s="2">
         <v>2</v>
@@ -10192,7 +10207,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN33" s="2">
@@ -10206,7 +10221,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AR33" s="2">
@@ -10220,7 +10235,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AV33" s="2">
@@ -10234,7 +10249,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AZ33" s="2">
@@ -10312,7 +10327,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="D34">
@@ -10324,7 +10339,7 @@
       </c>
       <c r="F34" t="str">
         <f>K34&amp;","&amp;O34&amp;","&amp;S34&amp;","&amp;W34&amp;","&amp;AA34&amp;","&amp;AE34&amp;","&amp;AI34&amp;","&amp;AM34&amp;","&amp;AQ34&amp;","&amp;AU34&amp;","&amp;AY34&amp;","&amp;BC34&amp;","&amp;BG34&amp;","&amp;BK34&amp;","&amp;BO34&amp;","&amp;BS34</f>
-        <v>42000000000,3300000000,170000,3900,36000,3500000,330000,3,2,2,2,2,1,1,1,1</v>
+        <v>42000000000,3300000000,550000,11700,216000,24500000,3300000,3,2,2,2,2,1,1,1,1</v>
       </c>
       <c r="G34" t="str">
         <f>L34&amp;","&amp;P34&amp;","&amp;T34&amp;","&amp;X34&amp;","&amp;AB34&amp;","&amp;AF34&amp;","&amp;AJ34&amp;","&amp;AN34&amp;","&amp;AR34&amp;","&amp;AV34&amp;","&amp;AZ34&amp;","&amp;BD34&amp;","&amp;BH34&amp;","&amp;BL34&amp;","&amp;BP34&amp;","&amp;BT34</f>
@@ -10363,7 +10378,7 @@
         <v>검조각</v>
       </c>
       <c r="S34" s="2">
-        <v>170000</v>
+        <v>550000</v>
       </c>
       <c r="T34" s="2">
         <v>1</v>
@@ -10376,7 +10391,7 @@
         <v>수호환</v>
       </c>
       <c r="W34" s="2">
-        <v>3900</v>
+        <v>11700</v>
       </c>
       <c r="X34" s="2">
         <v>2</v>
@@ -10389,7 +10404,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA34" s="2">
-        <v>36000</v>
+        <v>216000</v>
       </c>
       <c r="AB34" s="2">
         <v>2</v>
@@ -10402,7 +10417,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE34" s="2">
-        <v>3500000</v>
+        <v>24500000</v>
       </c>
       <c r="AF34" s="2">
         <v>2</v>
@@ -10415,7 +10430,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI34" s="2">
-        <v>330000</v>
+        <v>3300000</v>
       </c>
       <c r="AJ34" s="2">
         <v>2</v>
@@ -10428,7 +10443,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN34" s="2">
@@ -10442,7 +10457,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AR34" s="2">
@@ -10456,7 +10471,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AV34" s="2">
@@ -10470,7 +10485,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AZ34" s="2">
@@ -10548,22 +10563,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="D35">
         <v>33</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" ref="E35:E49" si="11">I35&amp;","&amp;M35&amp;","&amp;Q35&amp;","&amp;U35&amp;","&amp;Y35&amp;","&amp;AC35&amp;","&amp;AG35&amp;","&amp;AK35&amp;","&amp;AO35&amp;","&amp;AS35&amp;","&amp;AW35&amp;","&amp;BA35&amp;","&amp;BE35&amp;","&amp;BI35&amp;","&amp;BM35&amp;","&amp;BQ35</f>
+        <f>I35&amp;","&amp;M35&amp;","&amp;Q35&amp;","&amp;U35&amp;","&amp;Y35&amp;","&amp;AC35&amp;","&amp;AG35&amp;","&amp;AK35&amp;","&amp;AO35&amp;","&amp;AS35&amp;","&amp;AW35&amp;","&amp;BA35&amp;","&amp;BE35&amp;","&amp;BI35&amp;","&amp;BM35&amp;","&amp;BQ35</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" ref="F35:F49" si="12">K35&amp;","&amp;O35&amp;","&amp;S35&amp;","&amp;W35&amp;","&amp;AA35&amp;","&amp;AE35&amp;","&amp;AI35&amp;","&amp;AM35&amp;","&amp;AQ35&amp;","&amp;AU35&amp;","&amp;AY35&amp;","&amp;BC35&amp;","&amp;BG35&amp;","&amp;BK35&amp;","&amp;BO35&amp;","&amp;BS35</f>
-        <v>43000000000,3400000000,175000,4000,37000,3600000,340000,3,3,2,2,2,1,1,1,1</v>
+        <f>K35&amp;","&amp;O35&amp;","&amp;S35&amp;","&amp;W35&amp;","&amp;AA35&amp;","&amp;AE35&amp;","&amp;AI35&amp;","&amp;AM35&amp;","&amp;AQ35&amp;","&amp;AU35&amp;","&amp;AY35&amp;","&amp;BC35&amp;","&amp;BG35&amp;","&amp;BK35&amp;","&amp;BO35&amp;","&amp;BS35</f>
+        <v>43000000000,3400000000,600000,12000,222000,25200000,3400000,3,3,2,2,2,1,1,1,1</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" ref="G35:G49" si="13">L35&amp;","&amp;P35&amp;","&amp;T35&amp;","&amp;X35&amp;","&amp;AB35&amp;","&amp;AF35&amp;","&amp;AJ35&amp;","&amp;AN35&amp;","&amp;AR35&amp;","&amp;AV35&amp;","&amp;AZ35&amp;","&amp;BD35&amp;","&amp;BH35&amp;","&amp;BL35&amp;","&amp;BP35&amp;","&amp;BT35</f>
+        <f>L35&amp;","&amp;P35&amp;","&amp;T35&amp;","&amp;X35&amp;","&amp;AB35&amp;","&amp;AF35&amp;","&amp;AJ35&amp;","&amp;AN35&amp;","&amp;AR35&amp;","&amp;AV35&amp;","&amp;AZ35&amp;","&amp;BD35&amp;","&amp;BH35&amp;","&amp;BL35&amp;","&amp;BP35&amp;","&amp;BT35</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I35">
@@ -10599,7 +10614,7 @@
         <v>검조각</v>
       </c>
       <c r="S35" s="2">
-        <v>175000</v>
+        <v>600000</v>
       </c>
       <c r="T35" s="2">
         <v>1</v>
@@ -10612,7 +10627,7 @@
         <v>수호환</v>
       </c>
       <c r="W35" s="2">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="X35" s="2">
         <v>2</v>
@@ -10625,7 +10640,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA35" s="2">
-        <v>37000</v>
+        <v>222000</v>
       </c>
       <c r="AB35" s="2">
         <v>2</v>
@@ -10638,7 +10653,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE35" s="2">
-        <v>3600000</v>
+        <v>25200000</v>
       </c>
       <c r="AF35" s="2">
         <v>2</v>
@@ -10651,7 +10666,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI35" s="2">
-        <v>340000</v>
+        <v>3400000</v>
       </c>
       <c r="AJ35" s="2">
         <v>2</v>
@@ -10664,7 +10679,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN35" s="2">
@@ -10678,7 +10693,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AR35" s="2">
@@ -10692,7 +10707,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AV35" s="2">
@@ -10706,7 +10721,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AZ35" s="2">
@@ -10720,7 +10735,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC35" s="2">
-        <f t="shared" ref="BC35:BC49" si="14">BC25+1</f>
+        <f t="shared" ref="BC35:BC49" si="5">BC25+1</f>
         <v>2</v>
       </c>
       <c r="BD35" s="2">
@@ -10784,22 +10799,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="D36">
         <v>34</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="11"/>
+        <f>I36&amp;","&amp;M36&amp;","&amp;Q36&amp;","&amp;U36&amp;","&amp;Y36&amp;","&amp;AC36&amp;","&amp;AG36&amp;","&amp;AK36&amp;","&amp;AO36&amp;","&amp;AS36&amp;","&amp;AW36&amp;","&amp;BA36&amp;","&amp;BE36&amp;","&amp;BI36&amp;","&amp;BM36&amp;","&amp;BQ36</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="12"/>
-        <v>44000000000,3500000000,180000,4100,38000,3700000,350000,3,3,2,2,2,1,1,1,1</v>
+        <f>K36&amp;","&amp;O36&amp;","&amp;S36&amp;","&amp;W36&amp;","&amp;AA36&amp;","&amp;AE36&amp;","&amp;AI36&amp;","&amp;AM36&amp;","&amp;AQ36&amp;","&amp;AU36&amp;","&amp;AY36&amp;","&amp;BC36&amp;","&amp;BG36&amp;","&amp;BK36&amp;","&amp;BO36&amp;","&amp;BS36</f>
+        <v>44000000000,3500000000,650000,12300,228000,25900000,3500000,3,3,2,2,2,1,1,1,1</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="13"/>
+        <f>L36&amp;","&amp;P36&amp;","&amp;T36&amp;","&amp;X36&amp;","&amp;AB36&amp;","&amp;AF36&amp;","&amp;AJ36&amp;","&amp;AN36&amp;","&amp;AR36&amp;","&amp;AV36&amp;","&amp;AZ36&amp;","&amp;BD36&amp;","&amp;BH36&amp;","&amp;BL36&amp;","&amp;BP36&amp;","&amp;BT36</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I36">
@@ -10835,7 +10850,7 @@
         <v>검조각</v>
       </c>
       <c r="S36" s="2">
-        <v>180000</v>
+        <v>650000</v>
       </c>
       <c r="T36" s="2">
         <v>1</v>
@@ -10848,7 +10863,7 @@
         <v>수호환</v>
       </c>
       <c r="W36" s="2">
-        <v>4100</v>
+        <v>12300</v>
       </c>
       <c r="X36" s="2">
         <v>2</v>
@@ -10861,7 +10876,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA36" s="2">
-        <v>38000</v>
+        <v>228000</v>
       </c>
       <c r="AB36" s="2">
         <v>2</v>
@@ -10874,7 +10889,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE36" s="2">
-        <v>3700000</v>
+        <v>25900000</v>
       </c>
       <c r="AF36" s="2">
         <v>2</v>
@@ -10887,7 +10902,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI36" s="2">
-        <v>350000</v>
+        <v>3500000</v>
       </c>
       <c r="AJ36" s="2">
         <v>2</v>
@@ -10900,7 +10915,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN36" s="2">
@@ -10914,7 +10929,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AR36" s="2">
@@ -10928,7 +10943,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AV36" s="2">
@@ -10942,7 +10957,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AZ36" s="2">
@@ -10956,7 +10971,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC36" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BD36" s="2">
@@ -11020,22 +11035,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="D37">
         <v>35</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="11"/>
+        <f>I37&amp;","&amp;M37&amp;","&amp;Q37&amp;","&amp;U37&amp;","&amp;Y37&amp;","&amp;AC37&amp;","&amp;AG37&amp;","&amp;AK37&amp;","&amp;AO37&amp;","&amp;AS37&amp;","&amp;AW37&amp;","&amp;BA37&amp;","&amp;BE37&amp;","&amp;BI37&amp;","&amp;BM37&amp;","&amp;BQ37</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="12"/>
-        <v>45000000000,3600000000,185000,4200,39000,3800000,360000,3,3,3,2,2,1,1,1,1</v>
+        <f>K37&amp;","&amp;O37&amp;","&amp;S37&amp;","&amp;W37&amp;","&amp;AA37&amp;","&amp;AE37&amp;","&amp;AI37&amp;","&amp;AM37&amp;","&amp;AQ37&amp;","&amp;AU37&amp;","&amp;AY37&amp;","&amp;BC37&amp;","&amp;BG37&amp;","&amp;BK37&amp;","&amp;BO37&amp;","&amp;BS37</f>
+        <v>45000000000,3600000000,700000,12600,234000,26600000,3600000,3,3,3,2,2,1,1,1,1</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="13"/>
+        <f>L37&amp;","&amp;P37&amp;","&amp;T37&amp;","&amp;X37&amp;","&amp;AB37&amp;","&amp;AF37&amp;","&amp;AJ37&amp;","&amp;AN37&amp;","&amp;AR37&amp;","&amp;AV37&amp;","&amp;AZ37&amp;","&amp;BD37&amp;","&amp;BH37&amp;","&amp;BL37&amp;","&amp;BP37&amp;","&amp;BT37</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I37">
@@ -11071,7 +11086,7 @@
         <v>검조각</v>
       </c>
       <c r="S37" s="2">
-        <v>185000</v>
+        <v>700000</v>
       </c>
       <c r="T37" s="2">
         <v>1</v>
@@ -11084,7 +11099,7 @@
         <v>수호환</v>
       </c>
       <c r="W37" s="2">
-        <v>4200</v>
+        <v>12600</v>
       </c>
       <c r="X37" s="2">
         <v>2</v>
@@ -11097,7 +11112,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA37" s="2">
-        <v>39000</v>
+        <v>234000</v>
       </c>
       <c r="AB37" s="2">
         <v>2</v>
@@ -11110,7 +11125,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE37" s="2">
-        <v>3800000</v>
+        <v>26600000</v>
       </c>
       <c r="AF37" s="2">
         <v>2</v>
@@ -11123,7 +11138,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI37" s="2">
-        <v>360000</v>
+        <v>3600000</v>
       </c>
       <c r="AJ37" s="2">
         <v>2</v>
@@ -11136,7 +11151,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN37" s="2">
@@ -11150,7 +11165,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AR37" s="2">
@@ -11164,7 +11179,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AV37" s="2">
@@ -11178,7 +11193,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AZ37" s="2">
@@ -11192,7 +11207,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BD37" s="2">
@@ -11256,22 +11271,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999987E+215</v>
       </c>
       <c r="D38">
         <v>36</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="11"/>
+        <f>I38&amp;","&amp;M38&amp;","&amp;Q38&amp;","&amp;U38&amp;","&amp;Y38&amp;","&amp;AC38&amp;","&amp;AG38&amp;","&amp;AK38&amp;","&amp;AO38&amp;","&amp;AS38&amp;","&amp;AW38&amp;","&amp;BA38&amp;","&amp;BE38&amp;","&amp;BI38&amp;","&amp;BM38&amp;","&amp;BQ38</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="12"/>
-        <v>46000000000,3700000000,190000,4300,40000,3900000,370000,3,3,3,2,2,1,1,1,1</v>
+        <f>K38&amp;","&amp;O38&amp;","&amp;S38&amp;","&amp;W38&amp;","&amp;AA38&amp;","&amp;AE38&amp;","&amp;AI38&amp;","&amp;AM38&amp;","&amp;AQ38&amp;","&amp;AU38&amp;","&amp;AY38&amp;","&amp;BC38&amp;","&amp;BG38&amp;","&amp;BK38&amp;","&amp;BO38&amp;","&amp;BS38</f>
+        <v>46000000000,3700000000,750000,12900,240000,27300000,3700000,3,3,3,2,2,1,1,1,1</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="13"/>
+        <f>L38&amp;","&amp;P38&amp;","&amp;T38&amp;","&amp;X38&amp;","&amp;AB38&amp;","&amp;AF38&amp;","&amp;AJ38&amp;","&amp;AN38&amp;","&amp;AR38&amp;","&amp;AV38&amp;","&amp;AZ38&amp;","&amp;BD38&amp;","&amp;BH38&amp;","&amp;BL38&amp;","&amp;BP38&amp;","&amp;BT38</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I38">
@@ -11307,7 +11322,7 @@
         <v>검조각</v>
       </c>
       <c r="S38" s="2">
-        <v>190000</v>
+        <v>750000</v>
       </c>
       <c r="T38" s="2">
         <v>1</v>
@@ -11320,7 +11335,7 @@
         <v>수호환</v>
       </c>
       <c r="W38" s="2">
-        <v>4300</v>
+        <v>12900</v>
       </c>
       <c r="X38" s="2">
         <v>2</v>
@@ -11333,7 +11348,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA38" s="2">
-        <v>40000</v>
+        <v>240000</v>
       </c>
       <c r="AB38" s="2">
         <v>2</v>
@@ -11346,7 +11361,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE38" s="2">
-        <v>3900000</v>
+        <v>27300000</v>
       </c>
       <c r="AF38" s="2">
         <v>2</v>
@@ -11359,7 +11374,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI38" s="2">
-        <v>370000</v>
+        <v>3700000</v>
       </c>
       <c r="AJ38" s="2">
         <v>2</v>
@@ -11372,7 +11387,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN38" s="2">
@@ -11386,7 +11401,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AR38" s="2">
@@ -11400,7 +11415,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AV38" s="2">
@@ -11414,7 +11429,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AZ38" s="2">
@@ -11428,7 +11443,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC38" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BD38" s="2">
@@ -11492,22 +11507,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999987E+219</v>
       </c>
       <c r="D39">
         <v>37</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="11"/>
+        <f>I39&amp;","&amp;M39&amp;","&amp;Q39&amp;","&amp;U39&amp;","&amp;Y39&amp;","&amp;AC39&amp;","&amp;AG39&amp;","&amp;AK39&amp;","&amp;AO39&amp;","&amp;AS39&amp;","&amp;AW39&amp;","&amp;BA39&amp;","&amp;BE39&amp;","&amp;BI39&amp;","&amp;BM39&amp;","&amp;BQ39</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="12"/>
-        <v>47000000000,3800000000,195000,4400,41000,4000000,380000,3,3,3,3,2,1,1,1,1</v>
+        <f>K39&amp;","&amp;O39&amp;","&amp;S39&amp;","&amp;W39&amp;","&amp;AA39&amp;","&amp;AE39&amp;","&amp;AI39&amp;","&amp;AM39&amp;","&amp;AQ39&amp;","&amp;AU39&amp;","&amp;AY39&amp;","&amp;BC39&amp;","&amp;BG39&amp;","&amp;BK39&amp;","&amp;BO39&amp;","&amp;BS39</f>
+        <v>47000000000,3800000000,800000,13200,246000,28000000,3800000,3,3,3,3,2,1,1,1,1</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="13"/>
+        <f>L39&amp;","&amp;P39&amp;","&amp;T39&amp;","&amp;X39&amp;","&amp;AB39&amp;","&amp;AF39&amp;","&amp;AJ39&amp;","&amp;AN39&amp;","&amp;AR39&amp;","&amp;AV39&amp;","&amp;AZ39&amp;","&amp;BD39&amp;","&amp;BH39&amp;","&amp;BL39&amp;","&amp;BP39&amp;","&amp;BT39</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I39">
@@ -11543,7 +11558,7 @@
         <v>검조각</v>
       </c>
       <c r="S39" s="2">
-        <v>195000</v>
+        <v>800000</v>
       </c>
       <c r="T39" s="2">
         <v>1</v>
@@ -11556,7 +11571,7 @@
         <v>수호환</v>
       </c>
       <c r="W39" s="2">
-        <v>4400</v>
+        <v>13200</v>
       </c>
       <c r="X39" s="2">
         <v>2</v>
@@ -11569,7 +11584,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA39" s="2">
-        <v>41000</v>
+        <v>246000</v>
       </c>
       <c r="AB39" s="2">
         <v>2</v>
@@ -11582,7 +11597,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE39" s="2">
-        <v>4000000</v>
+        <v>28000000</v>
       </c>
       <c r="AF39" s="2">
         <v>2</v>
@@ -11595,7 +11610,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI39" s="2">
-        <v>380000</v>
+        <v>3800000</v>
       </c>
       <c r="AJ39" s="2">
         <v>2</v>
@@ -11608,7 +11623,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN39" s="2">
@@ -11622,7 +11637,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AR39" s="2">
@@ -11636,7 +11651,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU39" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AV39" s="2">
@@ -11650,7 +11665,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY39" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AZ39" s="2">
@@ -11664,7 +11679,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC39" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BD39" s="2">
@@ -11728,22 +11743,22 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="D40">
         <v>38</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="11"/>
+        <f>I40&amp;","&amp;M40&amp;","&amp;Q40&amp;","&amp;U40&amp;","&amp;Y40&amp;","&amp;AC40&amp;","&amp;AG40&amp;","&amp;AK40&amp;","&amp;AO40&amp;","&amp;AS40&amp;","&amp;AW40&amp;","&amp;BA40&amp;","&amp;BE40&amp;","&amp;BI40&amp;","&amp;BM40&amp;","&amp;BQ40</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="12"/>
-        <v>48000000000,3900000000,200000,4500,42000,4100000,390000,3,3,3,3,2,1,1,1,1</v>
+        <f>K40&amp;","&amp;O40&amp;","&amp;S40&amp;","&amp;W40&amp;","&amp;AA40&amp;","&amp;AE40&amp;","&amp;AI40&amp;","&amp;AM40&amp;","&amp;AQ40&amp;","&amp;AU40&amp;","&amp;AY40&amp;","&amp;BC40&amp;","&amp;BG40&amp;","&amp;BK40&amp;","&amp;BO40&amp;","&amp;BS40</f>
+        <v>48000000000,3900000000,850000,13500,252000,28700000,3900000,3,3,3,3,2,1,1,1,1</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="13"/>
+        <f>L40&amp;","&amp;P40&amp;","&amp;T40&amp;","&amp;X40&amp;","&amp;AB40&amp;","&amp;AF40&amp;","&amp;AJ40&amp;","&amp;AN40&amp;","&amp;AR40&amp;","&amp;AV40&amp;","&amp;AZ40&amp;","&amp;BD40&amp;","&amp;BH40&amp;","&amp;BL40&amp;","&amp;BP40&amp;","&amp;BT40</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I40">
@@ -11779,7 +11794,7 @@
         <v>검조각</v>
       </c>
       <c r="S40" s="2">
-        <v>200000</v>
+        <v>850000</v>
       </c>
       <c r="T40" s="2">
         <v>1</v>
@@ -11792,7 +11807,7 @@
         <v>수호환</v>
       </c>
       <c r="W40" s="2">
-        <v>4500</v>
+        <v>13500</v>
       </c>
       <c r="X40" s="2">
         <v>2</v>
@@ -11805,7 +11820,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA40" s="2">
-        <v>42000</v>
+        <v>252000</v>
       </c>
       <c r="AB40" s="2">
         <v>2</v>
@@ -11818,7 +11833,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE40" s="2">
-        <v>4100000</v>
+        <v>28700000</v>
       </c>
       <c r="AF40" s="2">
         <v>2</v>
@@ -11831,7 +11846,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI40" s="2">
-        <v>390000</v>
+        <v>3900000</v>
       </c>
       <c r="AJ40" s="2">
         <v>2</v>
@@ -11844,7 +11859,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN40" s="2">
@@ -11858,7 +11873,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AR40" s="2">
@@ -11872,7 +11887,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU40" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AV40" s="2">
@@ -11886,7 +11901,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY40" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AZ40" s="2">
@@ -11900,7 +11915,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC40" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BD40" s="2">
@@ -11964,22 +11979,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="D41">
         <v>39</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="11"/>
+        <f>I41&amp;","&amp;M41&amp;","&amp;Q41&amp;","&amp;U41&amp;","&amp;Y41&amp;","&amp;AC41&amp;","&amp;AG41&amp;","&amp;AK41&amp;","&amp;AO41&amp;","&amp;AS41&amp;","&amp;AW41&amp;","&amp;BA41&amp;","&amp;BE41&amp;","&amp;BI41&amp;","&amp;BM41&amp;","&amp;BQ41</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="12"/>
-        <v>49000000000,4000000000,205000,4600,43000,4200000,400000,3,3,3,3,3,2,1,1,1</v>
+        <f>K41&amp;","&amp;O41&amp;","&amp;S41&amp;","&amp;W41&amp;","&amp;AA41&amp;","&amp;AE41&amp;","&amp;AI41&amp;","&amp;AM41&amp;","&amp;AQ41&amp;","&amp;AU41&amp;","&amp;AY41&amp;","&amp;BC41&amp;","&amp;BG41&amp;","&amp;BK41&amp;","&amp;BO41&amp;","&amp;BS41</f>
+        <v>49000000000,4000000000,900000,13800,258000,29400000,4000000,3,3,3,3,3,2,1,1,1</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="13"/>
+        <f>L41&amp;","&amp;P41&amp;","&amp;T41&amp;","&amp;X41&amp;","&amp;AB41&amp;","&amp;AF41&amp;","&amp;AJ41&amp;","&amp;AN41&amp;","&amp;AR41&amp;","&amp;AV41&amp;","&amp;AZ41&amp;","&amp;BD41&amp;","&amp;BH41&amp;","&amp;BL41&amp;","&amp;BP41&amp;","&amp;BT41</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I41">
@@ -12015,7 +12030,7 @@
         <v>검조각</v>
       </c>
       <c r="S41" s="2">
-        <v>205000</v>
+        <v>900000</v>
       </c>
       <c r="T41" s="2">
         <v>1</v>
@@ -12028,7 +12043,7 @@
         <v>수호환</v>
       </c>
       <c r="W41" s="2">
-        <v>4600</v>
+        <v>13800</v>
       </c>
       <c r="X41" s="2">
         <v>2</v>
@@ -12041,7 +12056,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA41" s="2">
-        <v>43000</v>
+        <v>258000</v>
       </c>
       <c r="AB41" s="2">
         <v>2</v>
@@ -12054,7 +12069,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE41" s="2">
-        <v>4200000</v>
+        <v>29400000</v>
       </c>
       <c r="AF41" s="2">
         <v>2</v>
@@ -12067,7 +12082,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI41" s="2">
-        <v>400000</v>
+        <v>4000000</v>
       </c>
       <c r="AJ41" s="2">
         <v>2</v>
@@ -12080,7 +12095,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN41" s="2">
@@ -12094,7 +12109,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AR41" s="2">
@@ -12108,7 +12123,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU41" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AV41" s="2">
@@ -12122,7 +12137,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY41" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AZ41" s="2">
@@ -12136,7 +12151,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC41" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BD41" s="2">
@@ -12201,22 +12216,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999992E+231</v>
       </c>
       <c r="D42">
         <v>40</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="11"/>
+        <f>I42&amp;","&amp;M42&amp;","&amp;Q42&amp;","&amp;U42&amp;","&amp;Y42&amp;","&amp;AC42&amp;","&amp;AG42&amp;","&amp;AK42&amp;","&amp;AO42&amp;","&amp;AS42&amp;","&amp;AW42&amp;","&amp;BA42&amp;","&amp;BE42&amp;","&amp;BI42&amp;","&amp;BM42&amp;","&amp;BQ42</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="12"/>
-        <v>50000000000,4100000000,210000,4700,44000,4300000,410000,3,3,3,3,3,2,2,1,1</v>
+        <f>K42&amp;","&amp;O42&amp;","&amp;S42&amp;","&amp;W42&amp;","&amp;AA42&amp;","&amp;AE42&amp;","&amp;AI42&amp;","&amp;AM42&amp;","&amp;AQ42&amp;","&amp;AU42&amp;","&amp;AY42&amp;","&amp;BC42&amp;","&amp;BG42&amp;","&amp;BK42&amp;","&amp;BO42&amp;","&amp;BS42</f>
+        <v>50000000000,4100000000,950000,14100,264000,30100000,4100000,3,3,3,3,3,2,2,1,1</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="13"/>
+        <f>L42&amp;","&amp;P42&amp;","&amp;T42&amp;","&amp;X42&amp;","&amp;AB42&amp;","&amp;AF42&amp;","&amp;AJ42&amp;","&amp;AN42&amp;","&amp;AR42&amp;","&amp;AV42&amp;","&amp;AZ42&amp;","&amp;BD42&amp;","&amp;BH42&amp;","&amp;BL42&amp;","&amp;BP42&amp;","&amp;BT42</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I42">
@@ -12252,7 +12267,7 @@
         <v>검조각</v>
       </c>
       <c r="S42" s="2">
-        <v>210000</v>
+        <v>950000</v>
       </c>
       <c r="T42" s="2">
         <v>1</v>
@@ -12265,7 +12280,7 @@
         <v>수호환</v>
       </c>
       <c r="W42" s="2">
-        <v>4700</v>
+        <v>14100</v>
       </c>
       <c r="X42" s="2">
         <v>2</v>
@@ -12278,7 +12293,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA42" s="2">
-        <v>44000</v>
+        <v>264000</v>
       </c>
       <c r="AB42" s="2">
         <v>2</v>
@@ -12291,7 +12306,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE42" s="2">
-        <v>4300000</v>
+        <v>30100000</v>
       </c>
       <c r="AF42" s="2">
         <v>2</v>
@@ -12304,7 +12319,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI42" s="2">
-        <v>410000</v>
+        <v>4100000</v>
       </c>
       <c r="AJ42" s="2">
         <v>2</v>
@@ -12317,7 +12332,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN42" s="2">
@@ -12331,7 +12346,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AR42" s="2">
@@ -12345,7 +12360,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AV42" s="2">
@@ -12359,7 +12374,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY42" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AZ42" s="2">
@@ -12373,7 +12388,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC42" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BD42" s="2">
@@ -12387,7 +12402,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG42" s="2">
-        <f t="shared" ref="BG42:BG49" si="15">BG24+1</f>
+        <f t="shared" ref="BG42:BG49" si="6">BG24+1</f>
         <v>2</v>
       </c>
       <c r="BH42" s="2">
@@ -12434,242 +12449,242 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:72" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="4">
-        <f t="shared" si="3"/>
+      <c r="B43" s="9">
+        <f t="shared" si="0"/>
         <v>9.9999999999999994E+235</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="8">
         <v>41</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E43" s="8" t="str">
         <f>I43&amp;","&amp;M43&amp;","&amp;Q43&amp;","&amp;U43&amp;","&amp;Y43&amp;","&amp;AC43&amp;","&amp;AG43&amp;","&amp;AK43&amp;","&amp;AO43&amp;","&amp;AS43&amp;","&amp;AW43&amp;","&amp;BA43&amp;","&amp;BE43&amp;","&amp;BI43&amp;","&amp;BM43&amp;","&amp;BQ43</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="12"/>
-        <v>51000000000,4200000000,215000,4800,45000,4400000,420000,4,3,3,3,3,2,2,2,1</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="13"/>
+      <c r="F43" s="8" t="str">
+        <f>K43&amp;","&amp;O43&amp;","&amp;S43&amp;","&amp;W43&amp;","&amp;AA43&amp;","&amp;AE43&amp;","&amp;AI43&amp;","&amp;AM43&amp;","&amp;AQ43&amp;","&amp;AU43&amp;","&amp;AY43&amp;","&amp;BC43&amp;","&amp;BG43&amp;","&amp;BK43&amp;","&amp;BO43&amp;","&amp;BS43</f>
+        <v>51000000000,4200000000,1000000,14400,270000,30800000,4200000,4,3,3,3,3,2,2,2,1</v>
+      </c>
+      <c r="G43" s="8" t="str">
+        <f>L43&amp;","&amp;P43&amp;","&amp;T43&amp;","&amp;X43&amp;","&amp;AB43&amp;","&amp;AF43&amp;","&amp;AJ43&amp;","&amp;AN43&amp;","&amp;AR43&amp;","&amp;AV43&amp;","&amp;AZ43&amp;","&amp;BD43&amp;","&amp;BH43&amp;","&amp;BL43&amp;","&amp;BP43&amp;","&amp;BT43</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
-      <c r="J43" t="str">
+      <c r="I43" s="8">
+        <v>2</v>
+      </c>
+      <c r="J43" s="8" t="str">
         <f>VLOOKUP(I43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>수련의돌</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="10">
         <v>51000000000</v>
       </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
+      <c r="L43" s="8">
+        <v>1</v>
+      </c>
+      <c r="M43" s="8">
         <v>5</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="10">
         <v>4200000000</v>
       </c>
-      <c r="P43" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q43">
+      <c r="P43" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="8">
         <v>46</v>
       </c>
-      <c r="R43" t="str">
+      <c r="R43" s="8" t="str">
         <f>VLOOKUP(Q43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>검조각</v>
       </c>
-      <c r="S43" s="2">
-        <v>215000</v>
-      </c>
-      <c r="T43" s="2">
-        <v>1</v>
-      </c>
-      <c r="U43">
+      <c r="S43" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="T43" s="10">
+        <v>1</v>
+      </c>
+      <c r="U43" s="8">
         <v>9016</v>
       </c>
-      <c r="V43" t="str">
+      <c r="V43" s="8" t="str">
         <f>VLOOKUP(U43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>수호환</v>
       </c>
-      <c r="W43" s="2">
-        <v>4800</v>
-      </c>
-      <c r="X43" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y43">
+      <c r="W43" s="10">
+        <v>14400</v>
+      </c>
+      <c r="X43" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="8">
         <v>9026</v>
       </c>
-      <c r="Z43" t="str">
+      <c r="Z43" s="8" t="str">
         <f>VLOOKUP(Y43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>여우불씨</v>
       </c>
-      <c r="AA43" s="2">
-        <v>45000</v>
-      </c>
-      <c r="AB43" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC43">
+      <c r="AA43" s="10">
+        <v>270000</v>
+      </c>
+      <c r="AB43" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC43" s="8">
         <v>9032</v>
       </c>
-      <c r="AD43" t="str">
+      <c r="AD43" s="8" t="str">
         <f>VLOOKUP(AC43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>도술꽃</v>
       </c>
-      <c r="AE43" s="2">
-        <v>4400000</v>
-      </c>
-      <c r="AF43" s="2">
-        <v>2</v>
-      </c>
-      <c r="AG43">
+      <c r="AE43" s="10">
+        <v>30800000</v>
+      </c>
+      <c r="AF43" s="10">
+        <v>2</v>
+      </c>
+      <c r="AG43" s="8">
         <v>9043</v>
       </c>
-      <c r="AH43" t="str">
+      <c r="AH43" s="8" t="str">
         <f>VLOOKUP(AG43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>심득 조각</v>
       </c>
-      <c r="AI43" s="2">
-        <v>420000</v>
-      </c>
-      <c r="AJ43" s="2">
-        <v>2</v>
-      </c>
-      <c r="AK43">
+      <c r="AI43" s="10">
+        <v>4200000</v>
+      </c>
+      <c r="AJ43" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK43" s="8">
         <v>9023</v>
       </c>
-      <c r="AL43" t="str">
+      <c r="AL43" s="8" t="str">
         <f>VLOOKUP(AK43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>영혼석 소탕권</v>
       </c>
-      <c r="AM43" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AN43" s="2">
-        <v>3</v>
-      </c>
-      <c r="AO43">
+      <c r="AM43" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AN43" s="10">
+        <v>3</v>
+      </c>
+      <c r="AO43" s="8">
         <v>9017</v>
       </c>
-      <c r="AP43" t="str">
+      <c r="AP43" s="8" t="str">
         <f>VLOOKUP(AO43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>수호환 소탕권</v>
       </c>
-      <c r="AQ43" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AR43" s="2">
-        <v>3</v>
-      </c>
-      <c r="AS43">
+      <c r="AQ43" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AR43" s="10">
+        <v>3</v>
+      </c>
+      <c r="AS43" s="8">
         <v>9027</v>
       </c>
-      <c r="AT43" t="str">
+      <c r="AT43" s="8" t="str">
         <f>VLOOKUP(AS43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>여우불씨 소탕권</v>
       </c>
-      <c r="AU43" s="2">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AV43" s="2">
-        <v>3</v>
-      </c>
-      <c r="AW43">
+      <c r="AU43" s="10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AV43" s="10">
+        <v>3</v>
+      </c>
+      <c r="AW43" s="8">
         <v>9033</v>
       </c>
-      <c r="AX43" t="str">
+      <c r="AX43" s="8" t="str">
         <f>VLOOKUP(AW43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>도술꽃 소탕권</v>
       </c>
-      <c r="AY43" s="2">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AZ43" s="2">
-        <v>3</v>
-      </c>
-      <c r="BA43">
+      <c r="AY43" s="10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AZ43" s="10">
+        <v>3</v>
+      </c>
+      <c r="BA43" s="8">
         <v>9044</v>
       </c>
-      <c r="BB43" t="str">
+      <c r="BB43" s="8" t="str">
         <f>VLOOKUP(BA43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>내면세계 입장권</v>
       </c>
-      <c r="BC43" s="2">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="BD43" s="2">
-        <v>3</v>
-      </c>
-      <c r="BE43">
+      <c r="BC43" s="10">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="BD43" s="10">
+        <v>3</v>
+      </c>
+      <c r="BE43" s="8">
         <v>9050</v>
       </c>
-      <c r="BF43" t="str">
+      <c r="BF43" s="8" t="str">
         <f>VLOOKUP(BE43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>태극 영약</v>
       </c>
-      <c r="BG43" s="2">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BH43" s="2">
-        <v>4</v>
-      </c>
-      <c r="BI43">
+      <c r="BG43" s="10">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="BH43" s="10">
+        <v>4</v>
+      </c>
+      <c r="BI43" s="8">
         <v>9053</v>
       </c>
-      <c r="BJ43" t="str">
+      <c r="BJ43" s="8" t="str">
         <f>VLOOKUP(BI43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>검은 구미호 구슬 소탕권</v>
       </c>
-      <c r="BK43" s="2">
-        <f t="shared" ref="BK43:BK49" si="16">BK26+1</f>
-        <v>2</v>
-      </c>
-      <c r="BL43" s="2">
-        <v>4</v>
-      </c>
-      <c r="BM43">
+      <c r="BK43" s="10">
+        <f t="shared" ref="BK43:BK49" si="7">BK26+1</f>
+        <v>2</v>
+      </c>
+      <c r="BL43" s="10">
+        <v>4</v>
+      </c>
+      <c r="BM43" s="8">
         <v>9055</v>
       </c>
-      <c r="BN43" t="str">
+      <c r="BN43" s="8" t="str">
         <f>VLOOKUP(BM43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>수련의 방 입장권</v>
       </c>
-      <c r="BO43" s="2">
+      <c r="BO43" s="10">
         <f>BO27+1</f>
         <v>2</v>
       </c>
-      <c r="BP43" s="2">
-        <v>4</v>
-      </c>
-      <c r="BQ43" s="2">
+      <c r="BP43" s="10">
+        <v>4</v>
+      </c>
+      <c r="BQ43" s="10">
         <v>9063</v>
       </c>
-      <c r="BR43" t="str">
+      <c r="BR43" s="8" t="str">
         <f>VLOOKUP(BQ43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>사신수 영약</v>
       </c>
-      <c r="BS43" s="2">
-        <v>1</v>
-      </c>
-      <c r="BT43" s="2">
+      <c r="BS43" s="10">
+        <v>1</v>
+      </c>
+      <c r="BT43" s="10">
         <v>4</v>
       </c>
     </row>
@@ -12678,7 +12693,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1E+240</v>
       </c>
       <c r="D44">
@@ -12689,11 +12704,11 @@
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="12"/>
-        <v>52000000000,4300000000,220000,4900,46000,4500000,430000,4,3,3,3,3,2,2,2,2</v>
+        <f>K44&amp;","&amp;O44&amp;","&amp;S44&amp;","&amp;W44&amp;","&amp;AA44&amp;","&amp;AE44&amp;","&amp;AI44&amp;","&amp;AM44&amp;","&amp;AQ44&amp;","&amp;AU44&amp;","&amp;AY44&amp;","&amp;BC44&amp;","&amp;BG44&amp;","&amp;BK44&amp;","&amp;BO44&amp;","&amp;BS44</f>
+        <v>52000000000,4300000000,1050000,14700,276000,31500000,4300000,4,3,3,3,3,2,2,2,2</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="13"/>
+        <f>L44&amp;","&amp;P44&amp;","&amp;T44&amp;","&amp;X44&amp;","&amp;AB44&amp;","&amp;AF44&amp;","&amp;AJ44&amp;","&amp;AN44&amp;","&amp;AR44&amp;","&amp;AV44&amp;","&amp;AZ44&amp;","&amp;BD44&amp;","&amp;BH44&amp;","&amp;BL44&amp;","&amp;BP44&amp;","&amp;BT44</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I44">
@@ -12729,7 +12744,7 @@
         <v>검조각</v>
       </c>
       <c r="S44" s="2">
-        <v>220000</v>
+        <v>1050000</v>
       </c>
       <c r="T44" s="2">
         <v>1</v>
@@ -12742,7 +12757,7 @@
         <v>수호환</v>
       </c>
       <c r="W44" s="2">
-        <v>4900</v>
+        <v>14700</v>
       </c>
       <c r="X44" s="2">
         <v>2</v>
@@ -12755,7 +12770,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA44" s="2">
-        <v>46000</v>
+        <v>276000</v>
       </c>
       <c r="AB44" s="2">
         <v>2</v>
@@ -12768,7 +12783,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE44" s="2">
-        <v>4500000</v>
+        <v>31500000</v>
       </c>
       <c r="AF44" s="2">
         <v>2</v>
@@ -12781,7 +12796,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI44" s="2">
-        <v>430000</v>
+        <v>4300000</v>
       </c>
       <c r="AJ44" s="2">
         <v>2</v>
@@ -12794,7 +12809,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AN44" s="2">
@@ -12808,7 +12823,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AR44" s="2">
@@ -12822,7 +12837,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AV44" s="2">
@@ -12836,7 +12851,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AZ44" s="2">
@@ -12850,7 +12865,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC44" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BD44" s="2">
@@ -12864,7 +12879,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG44" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BH44" s="2">
@@ -12878,7 +12893,7 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK44" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="BL44" s="2">
@@ -12892,7 +12907,7 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO44" s="2">
-        <f t="shared" ref="BO44:BO49" si="17">BO28+1</f>
+        <f t="shared" ref="BO44:BO49" si="8">BO28+1</f>
         <v>2</v>
       </c>
       <c r="BP44" s="2">
@@ -12918,22 +12933,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="D45">
         <v>43</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="11"/>
+        <f>I45&amp;","&amp;M45&amp;","&amp;Q45&amp;","&amp;U45&amp;","&amp;Y45&amp;","&amp;AC45&amp;","&amp;AG45&amp;","&amp;AK45&amp;","&amp;AO45&amp;","&amp;AS45&amp;","&amp;AW45&amp;","&amp;BA45&amp;","&amp;BE45&amp;","&amp;BI45&amp;","&amp;BM45&amp;","&amp;BQ45</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="12"/>
-        <v>53000000000,4400000000,225000,5000,47000,4600000,440000,4,4,3,3,3,2,2,2,2</v>
+        <f>K45&amp;","&amp;O45&amp;","&amp;S45&amp;","&amp;W45&amp;","&amp;AA45&amp;","&amp;AE45&amp;","&amp;AI45&amp;","&amp;AM45&amp;","&amp;AQ45&amp;","&amp;AU45&amp;","&amp;AY45&amp;","&amp;BC45&amp;","&amp;BG45&amp;","&amp;BK45&amp;","&amp;BO45&amp;","&amp;BS45</f>
+        <v>53000000000,4400000000,1100000,15000,282000,32200000,4400000,4,4,3,3,3,2,2,2,2</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="13"/>
+        <f>L45&amp;","&amp;P45&amp;","&amp;T45&amp;","&amp;X45&amp;","&amp;AB45&amp;","&amp;AF45&amp;","&amp;AJ45&amp;","&amp;AN45&amp;","&amp;AR45&amp;","&amp;AV45&amp;","&amp;AZ45&amp;","&amp;BD45&amp;","&amp;BH45&amp;","&amp;BL45&amp;","&amp;BP45&amp;","&amp;BT45</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I45">
@@ -12969,7 +12984,7 @@
         <v>검조각</v>
       </c>
       <c r="S45" s="2">
-        <v>225000</v>
+        <v>1100000</v>
       </c>
       <c r="T45" s="2">
         <v>1</v>
@@ -12982,7 +12997,7 @@
         <v>수호환</v>
       </c>
       <c r="W45" s="2">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="X45" s="2">
         <v>2</v>
@@ -12995,7 +13010,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA45" s="2">
-        <v>47000</v>
+        <v>282000</v>
       </c>
       <c r="AB45" s="2">
         <v>2</v>
@@ -13008,7 +13023,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE45" s="2">
-        <v>4600000</v>
+        <v>32200000</v>
       </c>
       <c r="AF45" s="2">
         <v>2</v>
@@ -13021,7 +13036,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI45" s="2">
-        <v>440000</v>
+        <v>4400000</v>
       </c>
       <c r="AJ45" s="2">
         <v>2</v>
@@ -13034,7 +13049,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AN45" s="2">
@@ -13048,7 +13063,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ45" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AR45" s="2">
@@ -13062,7 +13077,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AV45" s="2">
@@ -13076,7 +13091,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AZ45" s="2">
@@ -13090,7 +13105,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC45" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BD45" s="2">
@@ -13104,7 +13119,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG45" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BH45" s="2">
@@ -13118,7 +13133,7 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK45" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="BL45" s="2">
@@ -13132,7 +13147,7 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO45" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="BP45" s="2">
@@ -13146,7 +13161,7 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS45" s="2">
-        <f t="shared" ref="BS45:BS49" si="18">BS33+1</f>
+        <f t="shared" ref="BS45:BS49" si="9">BS33+1</f>
         <v>2</v>
       </c>
       <c r="BT45" s="2">
@@ -13158,22 +13173,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1E+248</v>
       </c>
       <c r="D46">
         <v>44</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="11"/>
+        <f>I46&amp;","&amp;M46&amp;","&amp;Q46&amp;","&amp;U46&amp;","&amp;Y46&amp;","&amp;AC46&amp;","&amp;AG46&amp;","&amp;AK46&amp;","&amp;AO46&amp;","&amp;AS46&amp;","&amp;AW46&amp;","&amp;BA46&amp;","&amp;BE46&amp;","&amp;BI46&amp;","&amp;BM46&amp;","&amp;BQ46</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="12"/>
-        <v>54000000000,4500000000,230000,5100,48000,4700000,450000,4,4,3,3,3,2,2,2,2</v>
+        <f>K46&amp;","&amp;O46&amp;","&amp;S46&amp;","&amp;W46&amp;","&amp;AA46&amp;","&amp;AE46&amp;","&amp;AI46&amp;","&amp;AM46&amp;","&amp;AQ46&amp;","&amp;AU46&amp;","&amp;AY46&amp;","&amp;BC46&amp;","&amp;BG46&amp;","&amp;BK46&amp;","&amp;BO46&amp;","&amp;BS46</f>
+        <v>54000000000,4500000000,1150000,15300,288000,32900000,4500000,4,4,3,3,3,2,2,2,2</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="13"/>
+        <f>L46&amp;","&amp;P46&amp;","&amp;T46&amp;","&amp;X46&amp;","&amp;AB46&amp;","&amp;AF46&amp;","&amp;AJ46&amp;","&amp;AN46&amp;","&amp;AR46&amp;","&amp;AV46&amp;","&amp;AZ46&amp;","&amp;BD46&amp;","&amp;BH46&amp;","&amp;BL46&amp;","&amp;BP46&amp;","&amp;BT46</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I46">
@@ -13209,7 +13224,7 @@
         <v>검조각</v>
       </c>
       <c r="S46" s="2">
-        <v>230000</v>
+        <v>1150000</v>
       </c>
       <c r="T46" s="2">
         <v>1</v>
@@ -13222,7 +13237,7 @@
         <v>수호환</v>
       </c>
       <c r="W46" s="2">
-        <v>5100</v>
+        <v>15300</v>
       </c>
       <c r="X46" s="2">
         <v>2</v>
@@ -13235,7 +13250,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA46" s="2">
-        <v>48000</v>
+        <v>288000</v>
       </c>
       <c r="AB46" s="2">
         <v>2</v>
@@ -13248,7 +13263,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE46" s="2">
-        <v>4700000</v>
+        <v>32900000</v>
       </c>
       <c r="AF46" s="2">
         <v>2</v>
@@ -13261,7 +13276,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI46" s="2">
-        <v>450000</v>
+        <v>4500000</v>
       </c>
       <c r="AJ46" s="2">
         <v>2</v>
@@ -13274,7 +13289,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AN46" s="2">
@@ -13288,7 +13303,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AR46" s="2">
@@ -13302,7 +13317,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AV46" s="2">
@@ -13316,7 +13331,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY46" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AZ46" s="2">
@@ -13330,7 +13345,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC46" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BD46" s="2">
@@ -13344,7 +13359,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG46" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BH46" s="2">
@@ -13358,7 +13373,7 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK46" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="BL46" s="2">
@@ -13372,7 +13387,7 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO46" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="BP46" s="2">
@@ -13386,7 +13401,7 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS46" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BT46" s="2">
@@ -13398,22 +13413,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+252</v>
       </c>
       <c r="D47">
         <v>45</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="11"/>
+        <f>I47&amp;","&amp;M47&amp;","&amp;Q47&amp;","&amp;U47&amp;","&amp;Y47&amp;","&amp;AC47&amp;","&amp;AG47&amp;","&amp;AK47&amp;","&amp;AO47&amp;","&amp;AS47&amp;","&amp;AW47&amp;","&amp;BA47&amp;","&amp;BE47&amp;","&amp;BI47&amp;","&amp;BM47&amp;","&amp;BQ47</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="12"/>
-        <v>55000000000,4600000000,235000,5200,49000,4800000,460000,4,4,4,3,3,2,2,2,2</v>
+        <f>K47&amp;","&amp;O47&amp;","&amp;S47&amp;","&amp;W47&amp;","&amp;AA47&amp;","&amp;AE47&amp;","&amp;AI47&amp;","&amp;AM47&amp;","&amp;AQ47&amp;","&amp;AU47&amp;","&amp;AY47&amp;","&amp;BC47&amp;","&amp;BG47&amp;","&amp;BK47&amp;","&amp;BO47&amp;","&amp;BS47</f>
+        <v>55000000000,4600000000,1200000,15600,294000,33600000,4600000,4,4,4,3,3,2,2,2,2</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="13"/>
+        <f>L47&amp;","&amp;P47&amp;","&amp;T47&amp;","&amp;X47&amp;","&amp;AB47&amp;","&amp;AF47&amp;","&amp;AJ47&amp;","&amp;AN47&amp;","&amp;AR47&amp;","&amp;AV47&amp;","&amp;AZ47&amp;","&amp;BD47&amp;","&amp;BH47&amp;","&amp;BL47&amp;","&amp;BP47&amp;","&amp;BT47</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I47">
@@ -13449,7 +13464,7 @@
         <v>검조각</v>
       </c>
       <c r="S47" s="2">
-        <v>235000</v>
+        <v>1200000</v>
       </c>
       <c r="T47" s="2">
         <v>1</v>
@@ -13462,7 +13477,7 @@
         <v>수호환</v>
       </c>
       <c r="W47" s="2">
-        <v>5200</v>
+        <v>15600</v>
       </c>
       <c r="X47" s="2">
         <v>2</v>
@@ -13475,7 +13490,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA47" s="2">
-        <v>49000</v>
+        <v>294000</v>
       </c>
       <c r="AB47" s="2">
         <v>2</v>
@@ -13488,7 +13503,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE47" s="2">
-        <v>4800000</v>
+        <v>33600000</v>
       </c>
       <c r="AF47" s="2">
         <v>2</v>
@@ -13501,7 +13516,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI47" s="2">
-        <v>460000</v>
+        <v>4600000</v>
       </c>
       <c r="AJ47" s="2">
         <v>2</v>
@@ -13514,7 +13529,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AN47" s="2">
@@ -13528,7 +13543,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AR47" s="2">
@@ -13542,7 +13557,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AV47" s="2">
@@ -13556,7 +13571,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AZ47" s="2">
@@ -13570,7 +13585,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BD47" s="2">
@@ -13584,7 +13599,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG47" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BH47" s="2">
@@ -13598,7 +13613,7 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK47" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="BL47" s="2">
@@ -13612,7 +13627,7 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO47" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="BP47" s="2">
@@ -13626,7 +13641,7 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS47" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BT47" s="2">
@@ -13638,22 +13653,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1E+256</v>
       </c>
       <c r="D48">
         <v>46</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="11"/>
+        <f>I48&amp;","&amp;M48&amp;","&amp;Q48&amp;","&amp;U48&amp;","&amp;Y48&amp;","&amp;AC48&amp;","&amp;AG48&amp;","&amp;AK48&amp;","&amp;AO48&amp;","&amp;AS48&amp;","&amp;AW48&amp;","&amp;BA48&amp;","&amp;BE48&amp;","&amp;BI48&amp;","&amp;BM48&amp;","&amp;BQ48</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="12"/>
-        <v>56000000000,4700000000,240000,5300,50000,4900000,470000,4,4,4,3,3,2,2,2,2</v>
+        <f>K48&amp;","&amp;O48&amp;","&amp;S48&amp;","&amp;W48&amp;","&amp;AA48&amp;","&amp;AE48&amp;","&amp;AI48&amp;","&amp;AM48&amp;","&amp;AQ48&amp;","&amp;AU48&amp;","&amp;AY48&amp;","&amp;BC48&amp;","&amp;BG48&amp;","&amp;BK48&amp;","&amp;BO48&amp;","&amp;BS48</f>
+        <v>56000000000,4700000000,1250000,15900,300000,34300000,4700000,4,4,4,3,3,2,2,2,2</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="13"/>
+        <f>L48&amp;","&amp;P48&amp;","&amp;T48&amp;","&amp;X48&amp;","&amp;AB48&amp;","&amp;AF48&amp;","&amp;AJ48&amp;","&amp;AN48&amp;","&amp;AR48&amp;","&amp;AV48&amp;","&amp;AZ48&amp;","&amp;BD48&amp;","&amp;BH48&amp;","&amp;BL48&amp;","&amp;BP48&amp;","&amp;BT48</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I48">
@@ -13689,7 +13704,7 @@
         <v>검조각</v>
       </c>
       <c r="S48" s="2">
-        <v>240000</v>
+        <v>1250000</v>
       </c>
       <c r="T48" s="2">
         <v>1</v>
@@ -13702,7 +13717,7 @@
         <v>수호환</v>
       </c>
       <c r="W48" s="2">
-        <v>5300</v>
+        <v>15900</v>
       </c>
       <c r="X48" s="2">
         <v>2</v>
@@ -13715,7 +13730,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA48" s="2">
-        <v>50000</v>
+        <v>300000</v>
       </c>
       <c r="AB48" s="2">
         <v>2</v>
@@ -13728,7 +13743,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE48" s="2">
-        <v>4900000</v>
+        <v>34300000</v>
       </c>
       <c r="AF48" s="2">
         <v>2</v>
@@ -13741,7 +13756,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI48" s="2">
-        <v>470000</v>
+        <v>4700000</v>
       </c>
       <c r="AJ48" s="2">
         <v>2</v>
@@ -13754,7 +13769,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AN48" s="2">
@@ -13768,7 +13783,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AR48" s="2">
@@ -13782,7 +13797,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AV48" s="2">
@@ -13796,7 +13811,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AZ48" s="2">
@@ -13810,7 +13825,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC48" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BD48" s="2">
@@ -13824,7 +13839,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG48" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BH48" s="2">
@@ -13838,7 +13853,7 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK48" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="BL48" s="2">
@@ -13852,7 +13867,7 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO48" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="BP48" s="2">
@@ -13866,7 +13881,7 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS48" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BT48" s="2">
@@ -13878,22 +13893,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+260</v>
       </c>
       <c r="D49">
         <v>47</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="11"/>
+        <f>I49&amp;","&amp;M49&amp;","&amp;Q49&amp;","&amp;U49&amp;","&amp;Y49&amp;","&amp;AC49&amp;","&amp;AG49&amp;","&amp;AK49&amp;","&amp;AO49&amp;","&amp;AS49&amp;","&amp;AW49&amp;","&amp;BA49&amp;","&amp;BE49&amp;","&amp;BI49&amp;","&amp;BM49&amp;","&amp;BQ49</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="12"/>
-        <v>57000000000,4800000000,245000,5400,51000,5000000,480000,4,4,4,4,3,2,2,2,2</v>
+        <f>K49&amp;","&amp;O49&amp;","&amp;S49&amp;","&amp;W49&amp;","&amp;AA49&amp;","&amp;AE49&amp;","&amp;AI49&amp;","&amp;AM49&amp;","&amp;AQ49&amp;","&amp;AU49&amp;","&amp;AY49&amp;","&amp;BC49&amp;","&amp;BG49&amp;","&amp;BK49&amp;","&amp;BO49&amp;","&amp;BS49</f>
+        <v>57000000000,4800000000,1300000,16200,306000,35000000,4800000,4,4,4,4,3,2,2,2,2</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="13"/>
+        <f>L49&amp;","&amp;P49&amp;","&amp;T49&amp;","&amp;X49&amp;","&amp;AB49&amp;","&amp;AF49&amp;","&amp;AJ49&amp;","&amp;AN49&amp;","&amp;AR49&amp;","&amp;AV49&amp;","&amp;AZ49&amp;","&amp;BD49&amp;","&amp;BH49&amp;","&amp;BL49&amp;","&amp;BP49&amp;","&amp;BT49</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I49">
@@ -13929,7 +13944,7 @@
         <v>검조각</v>
       </c>
       <c r="S49" s="2">
-        <v>245000</v>
+        <v>1300000</v>
       </c>
       <c r="T49" s="2">
         <v>1</v>
@@ -13942,7 +13957,7 @@
         <v>수호환</v>
       </c>
       <c r="W49" s="2">
-        <v>5400</v>
+        <v>16200</v>
       </c>
       <c r="X49" s="2">
         <v>2</v>
@@ -13955,7 +13970,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AA49" s="2">
-        <v>51000</v>
+        <v>306000</v>
       </c>
       <c r="AB49" s="2">
         <v>2</v>
@@ -13968,7 +13983,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AE49" s="2">
-        <v>5000000</v>
+        <v>35000000</v>
       </c>
       <c r="AF49" s="2">
         <v>2</v>
@@ -13981,7 +13996,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AI49" s="2">
-        <v>480000</v>
+        <v>4800000</v>
       </c>
       <c r="AJ49" s="2">
         <v>2</v>
@@ -13994,7 +14009,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AN49" s="2">
@@ -14008,7 +14023,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AR49" s="2">
@@ -14022,7 +14037,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AV49" s="2">
@@ -14036,7 +14051,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY49" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AZ49" s="2">
@@ -14050,7 +14065,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC49" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BD49" s="2">
@@ -14064,7 +14079,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG49" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BH49" s="2">
@@ -14078,7 +14093,7 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK49" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="BL49" s="2">
@@ -14092,7 +14107,7 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO49" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="BP49" s="2">
@@ -14106,7 +14121,7 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS49" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BT49" s="2">

--- a/Assets/06.Table/WeeklyBoss.xlsx
+++ b/Assets/06.Table/WeeklyBoss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041A7F5B-8C25-41DA-9131-12971139A22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB3AC00-F5AE-41EB-A145-6538554E8096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeeklyBoss" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="123">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,9 @@
   <si>
     <t>51000000000,4200000000,1000000,14400,270000,30800000,4200000,4,3,3,3,3,2,2,2,1</t>
   </si>
+  <si>
+    <t>52000000000,4300000000,1050000,14700,276000,31500000,4300000,4,3,3,3,3,2,2,2,2</t>
+  </si>
 </sst>
 </file>
 
@@ -1690,11 +1693,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1785,7 +1788,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C43" si="0">C3*10000</f>
+        <f t="shared" ref="C4:C44" si="0">C3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -2734,6 +2737,30 @@
         <v>121</v>
       </c>
       <c r="G43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="0"/>
+        <v>1E+240</v>
+      </c>
+      <c r="D44">
+        <v>10400</v>
+      </c>
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2744,12 +2771,12 @@
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34 C36 C38 C40 C42">
+  <conditionalFormatting sqref="C34 C36 C38 C40 C42 C44">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D31 C32 D32:D43">
+  <conditionalFormatting sqref="C2:D31 C32 D32:D44">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -2763,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6DE2D-0EDB-49C4-8B38-79FA81476413}">
   <dimension ref="A1:BT49"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G43"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3014,15 +3041,15 @@
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f>I2&amp;","&amp;M2&amp;","&amp;Q2&amp;","&amp;U2&amp;","&amp;Y2&amp;","&amp;AC2&amp;","&amp;AG2&amp;","&amp;AK2&amp;","&amp;AO2&amp;","&amp;AS2&amp;","&amp;AW2&amp;","&amp;BA2&amp;","&amp;BE2&amp;","&amp;BI2&amp;","&amp;BM2&amp;","&amp;BQ2</f>
+        <f t="shared" ref="E2:E49" si="0">I2&amp;","&amp;M2&amp;","&amp;Q2&amp;","&amp;U2&amp;","&amp;Y2&amp;","&amp;AC2&amp;","&amp;AG2&amp;","&amp;AK2&amp;","&amp;AO2&amp;","&amp;AS2&amp;","&amp;AW2&amp;","&amp;BA2&amp;","&amp;BE2&amp;","&amp;BI2&amp;","&amp;BM2&amp;","&amp;BQ2</f>
         <v>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F2" t="str">
-        <f>K2&amp;","&amp;O2&amp;","&amp;S2&amp;","&amp;W2&amp;","&amp;AA2&amp;","&amp;AE2&amp;","&amp;AI2&amp;","&amp;AM2&amp;","&amp;AQ2&amp;","&amp;AU2&amp;","&amp;AY2&amp;","&amp;BC2&amp;","&amp;BG2&amp;","&amp;BK2&amp;","&amp;BO2&amp;","&amp;BS2</f>
+        <f t="shared" ref="F2:F49" si="1">K2&amp;","&amp;O2&amp;","&amp;S2&amp;","&amp;W2&amp;","&amp;AA2&amp;","&amp;AE2&amp;","&amp;AI2&amp;","&amp;AM2&amp;","&amp;AQ2&amp;","&amp;AU2&amp;","&amp;AY2&amp;","&amp;BC2&amp;","&amp;BG2&amp;","&amp;BK2&amp;","&amp;BO2&amp;","&amp;BS2</f>
         <v>10000000000,100000000,25000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G2" t="str">
-        <f>L2&amp;","&amp;P2&amp;","&amp;T2&amp;","&amp;X2&amp;","&amp;AB2&amp;","&amp;AF2&amp;","&amp;AJ2&amp;","&amp;AN2&amp;","&amp;AR2&amp;","&amp;AV2&amp;","&amp;AZ2&amp;","&amp;BD2&amp;","&amp;BH2&amp;","&amp;BL2&amp;","&amp;BP2&amp;","&amp;BT2</f>
+        <f t="shared" ref="G2:G49" si="2">L2&amp;","&amp;P2&amp;","&amp;T2&amp;","&amp;X2&amp;","&amp;AB2&amp;","&amp;AF2&amp;","&amp;AJ2&amp;","&amp;AN2&amp;","&amp;AR2&amp;","&amp;AV2&amp;","&amp;AZ2&amp;","&amp;BD2&amp;","&amp;BH2&amp;","&amp;BL2&amp;","&amp;BP2&amp;","&amp;BT2</f>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -3234,15 +3261,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <f>I3&amp;","&amp;M3&amp;","&amp;Q3&amp;","&amp;U3&amp;","&amp;Y3&amp;","&amp;AC3&amp;","&amp;AG3&amp;","&amp;AK3&amp;","&amp;AO3&amp;","&amp;AS3&amp;","&amp;AW3&amp;","&amp;BA3&amp;","&amp;BE3&amp;","&amp;BI3&amp;","&amp;BM3&amp;","&amp;BQ3</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F3" t="str">
-        <f>K3&amp;","&amp;O3&amp;","&amp;S3&amp;","&amp;W3&amp;","&amp;AA3&amp;","&amp;AE3&amp;","&amp;AI3&amp;","&amp;AM3&amp;","&amp;AQ3&amp;","&amp;AU3&amp;","&amp;AY3&amp;","&amp;BC3&amp;","&amp;BG3&amp;","&amp;BK3&amp;","&amp;BO3&amp;","&amp;BS3</f>
+        <f t="shared" si="1"/>
         <v>11000000000,200000000,30000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G3" t="str">
-        <f>L3&amp;","&amp;P3&amp;","&amp;T3&amp;","&amp;X3&amp;","&amp;AB3&amp;","&amp;AF3&amp;","&amp;AJ3&amp;","&amp;AN3&amp;","&amp;AR3&amp;","&amp;AV3&amp;","&amp;AZ3&amp;","&amp;BD3&amp;","&amp;BH3&amp;","&amp;BL3&amp;","&amp;BP3&amp;","&amp;BT3</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -3448,22 +3475,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B49" si="0">B3*10000</f>
+        <f t="shared" ref="B4:B49" si="3">B3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="str">
-        <f>I4&amp;","&amp;M4&amp;","&amp;Q4&amp;","&amp;U4&amp;","&amp;Y4&amp;","&amp;AC4&amp;","&amp;AG4&amp;","&amp;AK4&amp;","&amp;AO4&amp;","&amp;AS4&amp;","&amp;AW4&amp;","&amp;BA4&amp;","&amp;BE4&amp;","&amp;BI4&amp;","&amp;BM4&amp;","&amp;BQ4</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F4" t="str">
-        <f>K4&amp;","&amp;O4&amp;","&amp;S4&amp;","&amp;W4&amp;","&amp;AA4&amp;","&amp;AE4&amp;","&amp;AI4&amp;","&amp;AM4&amp;","&amp;AQ4&amp;","&amp;AU4&amp;","&amp;AY4&amp;","&amp;BC4&amp;","&amp;BG4&amp;","&amp;BK4&amp;","&amp;BO4&amp;","&amp;BS4</f>
+        <f t="shared" si="1"/>
         <v>12000000000,300000000,35000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G4" t="str">
-        <f>L4&amp;","&amp;P4&amp;","&amp;T4&amp;","&amp;X4&amp;","&amp;AB4&amp;","&amp;AF4&amp;","&amp;AJ4&amp;","&amp;AN4&amp;","&amp;AR4&amp;","&amp;AV4&amp;","&amp;AZ4&amp;","&amp;BD4&amp;","&amp;BH4&amp;","&amp;BL4&amp;","&amp;BP4&amp;","&amp;BT4</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -3669,22 +3696,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999984E+83</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>9.9999999999999984E+83</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="str">
-        <f>I5&amp;","&amp;M5&amp;","&amp;Q5&amp;","&amp;U5&amp;","&amp;Y5&amp;","&amp;AC5&amp;","&amp;AG5&amp;","&amp;AK5&amp;","&amp;AO5&amp;","&amp;AS5&amp;","&amp;AW5&amp;","&amp;BA5&amp;","&amp;BE5&amp;","&amp;BI5&amp;","&amp;BM5&amp;","&amp;BQ5</f>
         <v>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F5" t="str">
-        <f>K5&amp;","&amp;O5&amp;","&amp;S5&amp;","&amp;W5&amp;","&amp;AA5&amp;","&amp;AE5&amp;","&amp;AI5&amp;","&amp;AM5&amp;","&amp;AQ5&amp;","&amp;AU5&amp;","&amp;AY5&amp;","&amp;BC5&amp;","&amp;BG5&amp;","&amp;BK5&amp;","&amp;BO5&amp;","&amp;BS5</f>
+        <f t="shared" si="1"/>
         <v>13000000000,400000000,40000,3000,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G5" t="str">
-        <f>L5&amp;","&amp;P5&amp;","&amp;T5&amp;","&amp;X5&amp;","&amp;AB5&amp;","&amp;AF5&amp;","&amp;AJ5&amp;","&amp;AN5&amp;","&amp;AR5&amp;","&amp;AV5&amp;","&amp;AZ5&amp;","&amp;BD5&amp;","&amp;BH5&amp;","&amp;BL5&amp;","&amp;BP5&amp;","&amp;BT5</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -3891,22 +3918,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999978E+87</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>9.9999999999999978E+87</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="str">
-        <f>I6&amp;","&amp;M6&amp;","&amp;Q6&amp;","&amp;U6&amp;","&amp;Y6&amp;","&amp;AC6&amp;","&amp;AG6&amp;","&amp;AK6&amp;","&amp;AO6&amp;","&amp;AS6&amp;","&amp;AW6&amp;","&amp;BA6&amp;","&amp;BE6&amp;","&amp;BI6&amp;","&amp;BM6&amp;","&amp;BQ6</f>
         <v>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F6" t="str">
-        <f>K6&amp;","&amp;O6&amp;","&amp;S6&amp;","&amp;W6&amp;","&amp;AA6&amp;","&amp;AE6&amp;","&amp;AI6&amp;","&amp;AM6&amp;","&amp;AQ6&amp;","&amp;AU6&amp;","&amp;AY6&amp;","&amp;BC6&amp;","&amp;BG6&amp;","&amp;BK6&amp;","&amp;BO6&amp;","&amp;BS6</f>
+        <f t="shared" si="1"/>
         <v>14000000000,500000000,45000,3300,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G6" t="str">
-        <f>L6&amp;","&amp;P6&amp;","&amp;T6&amp;","&amp;X6&amp;","&amp;AB6&amp;","&amp;AF6&amp;","&amp;AJ6&amp;","&amp;AN6&amp;","&amp;AR6&amp;","&amp;AV6&amp;","&amp;AZ6&amp;","&amp;BD6&amp;","&amp;BH6&amp;","&amp;BL6&amp;","&amp;BP6&amp;","&amp;BT6</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -4113,22 +4140,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999975E+91</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="str">
-        <f>I7&amp;","&amp;M7&amp;","&amp;Q7&amp;","&amp;U7&amp;","&amp;Y7&amp;","&amp;AC7&amp;","&amp;AG7&amp;","&amp;AK7&amp;","&amp;AO7&amp;","&amp;AS7&amp;","&amp;AW7&amp;","&amp;BA7&amp;","&amp;BE7&amp;","&amp;BI7&amp;","&amp;BM7&amp;","&amp;BQ7</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F7" t="str">
-        <f>K7&amp;","&amp;O7&amp;","&amp;S7&amp;","&amp;W7&amp;","&amp;AA7&amp;","&amp;AE7&amp;","&amp;AI7&amp;","&amp;AM7&amp;","&amp;AQ7&amp;","&amp;AU7&amp;","&amp;AY7&amp;","&amp;BC7&amp;","&amp;BG7&amp;","&amp;BK7&amp;","&amp;BO7&amp;","&amp;BS7</f>
+        <f t="shared" si="1"/>
         <v>15000000000,600000000,50000,3600,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G7" t="str">
-        <f>L7&amp;","&amp;P7&amp;","&amp;T7&amp;","&amp;X7&amp;","&amp;AB7&amp;","&amp;AF7&amp;","&amp;AJ7&amp;","&amp;AN7&amp;","&amp;AR7&amp;","&amp;AV7&amp;","&amp;AZ7&amp;","&amp;BD7&amp;","&amp;BH7&amp;","&amp;BL7&amp;","&amp;BP7&amp;","&amp;BT7</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -4335,22 +4362,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999981E+95</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="str">
-        <f>I8&amp;","&amp;M8&amp;","&amp;Q8&amp;","&amp;U8&amp;","&amp;Y8&amp;","&amp;AC8&amp;","&amp;AG8&amp;","&amp;AK8&amp;","&amp;AO8&amp;","&amp;AS8&amp;","&amp;AW8&amp;","&amp;BA8&amp;","&amp;BE8&amp;","&amp;BI8&amp;","&amp;BM8&amp;","&amp;BQ8</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F8" t="str">
-        <f>K8&amp;","&amp;O8&amp;","&amp;S8&amp;","&amp;W8&amp;","&amp;AA8&amp;","&amp;AE8&amp;","&amp;AI8&amp;","&amp;AM8&amp;","&amp;AQ8&amp;","&amp;AU8&amp;","&amp;AY8&amp;","&amp;BC8&amp;","&amp;BG8&amp;","&amp;BK8&amp;","&amp;BO8&amp;","&amp;BS8</f>
+        <f t="shared" si="1"/>
         <v>16000000000,700000000,55000,3900,60000,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G8" t="str">
-        <f>L8&amp;","&amp;P8&amp;","&amp;T8&amp;","&amp;X8&amp;","&amp;AB8&amp;","&amp;AF8&amp;","&amp;AJ8&amp;","&amp;AN8&amp;","&amp;AR8&amp;","&amp;AV8&amp;","&amp;AZ8&amp;","&amp;BD8&amp;","&amp;BH8&amp;","&amp;BL8&amp;","&amp;BP8&amp;","&amp;BT8</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -4558,22 +4585,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999982E+99</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="str">
-        <f>I9&amp;","&amp;M9&amp;","&amp;Q9&amp;","&amp;U9&amp;","&amp;Y9&amp;","&amp;AC9&amp;","&amp;AG9&amp;","&amp;AK9&amp;","&amp;AO9&amp;","&amp;AS9&amp;","&amp;AW9&amp;","&amp;BA9&amp;","&amp;BE9&amp;","&amp;BI9&amp;","&amp;BM9&amp;","&amp;BQ9</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F9" t="str">
-        <f>K9&amp;","&amp;O9&amp;","&amp;S9&amp;","&amp;W9&amp;","&amp;AA9&amp;","&amp;AE9&amp;","&amp;AI9&amp;","&amp;AM9&amp;","&amp;AQ9&amp;","&amp;AU9&amp;","&amp;AY9&amp;","&amp;BC9&amp;","&amp;BG9&amp;","&amp;BK9&amp;","&amp;BO9&amp;","&amp;BS9</f>
+        <f t="shared" si="1"/>
         <v>17000000000,800000000,60000,4200,66000,7000000,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G9" t="str">
-        <f>L9&amp;","&amp;P9&amp;","&amp;T9&amp;","&amp;X9&amp;","&amp;AB9&amp;","&amp;AF9&amp;","&amp;AJ9&amp;","&amp;AN9&amp;","&amp;AR9&amp;","&amp;AV9&amp;","&amp;AZ9&amp;","&amp;BD9&amp;","&amp;BH9&amp;","&amp;BL9&amp;","&amp;BP9&amp;","&amp;BT9</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -4782,22 +4809,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999984E+103</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10" t="str">
-        <f>I10&amp;","&amp;M10&amp;","&amp;Q10&amp;","&amp;U10&amp;","&amp;Y10&amp;","&amp;AC10&amp;","&amp;AG10&amp;","&amp;AK10&amp;","&amp;AO10&amp;","&amp;AS10&amp;","&amp;AW10&amp;","&amp;BA10&amp;","&amp;BE10&amp;","&amp;BI10&amp;","&amp;BM10&amp;","&amp;BQ10</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F10" t="str">
-        <f>K10&amp;","&amp;O10&amp;","&amp;S10&amp;","&amp;W10&amp;","&amp;AA10&amp;","&amp;AE10&amp;","&amp;AI10&amp;","&amp;AM10&amp;","&amp;AQ10&amp;","&amp;AU10&amp;","&amp;AY10&amp;","&amp;BC10&amp;","&amp;BG10&amp;","&amp;BK10&amp;","&amp;BO10&amp;","&amp;BS10</f>
+        <f t="shared" si="1"/>
         <v>18000000000,900000000,65000,4500,72000,7700000,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G10" t="str">
-        <f>L10&amp;","&amp;P10&amp;","&amp;T10&amp;","&amp;X10&amp;","&amp;AB10&amp;","&amp;AF10&amp;","&amp;AJ10&amp;","&amp;AN10&amp;","&amp;AR10&amp;","&amp;AV10&amp;","&amp;AZ10&amp;","&amp;BD10&amp;","&amp;BH10&amp;","&amp;BL10&amp;","&amp;BP10&amp;","&amp;BT10</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -5006,22 +5033,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.999999999999999E+107</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11" t="str">
-        <f>I11&amp;","&amp;M11&amp;","&amp;Q11&amp;","&amp;U11&amp;","&amp;Y11&amp;","&amp;AC11&amp;","&amp;AG11&amp;","&amp;AK11&amp;","&amp;AO11&amp;","&amp;AS11&amp;","&amp;AW11&amp;","&amp;BA11&amp;","&amp;BE11&amp;","&amp;BI11&amp;","&amp;BM11&amp;","&amp;BQ11</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F11" t="str">
-        <f>K11&amp;","&amp;O11&amp;","&amp;S11&amp;","&amp;W11&amp;","&amp;AA11&amp;","&amp;AE11&amp;","&amp;AI11&amp;","&amp;AM11&amp;","&amp;AQ11&amp;","&amp;AU11&amp;","&amp;AY11&amp;","&amp;BC11&amp;","&amp;BG11&amp;","&amp;BK11&amp;","&amp;BO11&amp;","&amp;BS11</f>
+        <f t="shared" si="1"/>
         <v>19000000000,1000000000,70000,4800,78000,8400000,1000000,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G11" t="str">
-        <f>L11&amp;","&amp;P11&amp;","&amp;T11&amp;","&amp;X11&amp;","&amp;AB11&amp;","&amp;AF11&amp;","&amp;AJ11&amp;","&amp;AN11&amp;","&amp;AR11&amp;","&amp;AV11&amp;","&amp;AZ11&amp;","&amp;BD11&amp;","&amp;BH11&amp;","&amp;BL11&amp;","&amp;BP11&amp;","&amp;BT11</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -5231,22 +5258,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="str">
-        <f>I12&amp;","&amp;M12&amp;","&amp;Q12&amp;","&amp;U12&amp;","&amp;Y12&amp;","&amp;AC12&amp;","&amp;AG12&amp;","&amp;AK12&amp;","&amp;AO12&amp;","&amp;AS12&amp;","&amp;AW12&amp;","&amp;BA12&amp;","&amp;BE12&amp;","&amp;BI12&amp;","&amp;BM12&amp;","&amp;BQ12</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F12" t="str">
-        <f>K12&amp;","&amp;O12&amp;","&amp;S12&amp;","&amp;W12&amp;","&amp;AA12&amp;","&amp;AE12&amp;","&amp;AI12&amp;","&amp;AM12&amp;","&amp;AQ12&amp;","&amp;AU12&amp;","&amp;AY12&amp;","&amp;BC12&amp;","&amp;BG12&amp;","&amp;BK12&amp;","&amp;BO12&amp;","&amp;BS12</f>
+        <f t="shared" si="1"/>
         <v>20000000000,1100000000,75000,5100,84000,9100000,1100000,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G12" t="str">
-        <f>L12&amp;","&amp;P12&amp;","&amp;T12&amp;","&amp;X12&amp;","&amp;AB12&amp;","&amp;AF12&amp;","&amp;AJ12&amp;","&amp;AN12&amp;","&amp;AR12&amp;","&amp;AV12&amp;","&amp;AZ12&amp;","&amp;BD12&amp;","&amp;BH12&amp;","&amp;BL12&amp;","&amp;BP12&amp;","&amp;BT12</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -5456,22 +5483,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+116</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13" t="str">
-        <f>I13&amp;","&amp;M13&amp;","&amp;Q13&amp;","&amp;U13&amp;","&amp;Y13&amp;","&amp;AC13&amp;","&amp;AG13&amp;","&amp;AK13&amp;","&amp;AO13&amp;","&amp;AS13&amp;","&amp;AW13&amp;","&amp;BA13&amp;","&amp;BE13&amp;","&amp;BI13&amp;","&amp;BM13&amp;","&amp;BQ13</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F13" t="str">
-        <f>K13&amp;","&amp;O13&amp;","&amp;S13&amp;","&amp;W13&amp;","&amp;AA13&amp;","&amp;AE13&amp;","&amp;AI13&amp;","&amp;AM13&amp;","&amp;AQ13&amp;","&amp;AU13&amp;","&amp;AY13&amp;","&amp;BC13&amp;","&amp;BG13&amp;","&amp;BK13&amp;","&amp;BO13&amp;","&amp;BS13</f>
+        <f t="shared" si="1"/>
         <v>21000000000,1200000000,80000,5400,90000,9800000,1200000,1,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G13" t="str">
-        <f>L13&amp;","&amp;P13&amp;","&amp;T13&amp;","&amp;X13&amp;","&amp;AB13&amp;","&amp;AF13&amp;","&amp;AJ13&amp;","&amp;AN13&amp;","&amp;AR13&amp;","&amp;AV13&amp;","&amp;AZ13&amp;","&amp;BD13&amp;","&amp;BH13&amp;","&amp;BL13&amp;","&amp;BP13&amp;","&amp;BT13</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -5682,22 +5709,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
       <c r="E14" t="str">
-        <f>I14&amp;","&amp;M14&amp;","&amp;Q14&amp;","&amp;U14&amp;","&amp;Y14&amp;","&amp;AC14&amp;","&amp;AG14&amp;","&amp;AK14&amp;","&amp;AO14&amp;","&amp;AS14&amp;","&amp;AW14&amp;","&amp;BA14&amp;","&amp;BE14&amp;","&amp;BI14&amp;","&amp;BM14&amp;","&amp;BQ14</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,-1,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F14" t="str">
-        <f>K14&amp;","&amp;O14&amp;","&amp;S14&amp;","&amp;W14&amp;","&amp;AA14&amp;","&amp;AE14&amp;","&amp;AI14&amp;","&amp;AM14&amp;","&amp;AQ14&amp;","&amp;AU14&amp;","&amp;AY14&amp;","&amp;BC14&amp;","&amp;BG14&amp;","&amp;BK14&amp;","&amp;BO14&amp;","&amp;BS14</f>
+        <f t="shared" si="1"/>
         <v>22000000000,1300000000,85000,5700,96000,10500000,1300000,1,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="G14" t="str">
-        <f>L14&amp;","&amp;P14&amp;","&amp;T14&amp;","&amp;X14&amp;","&amp;AB14&amp;","&amp;AF14&amp;","&amp;AJ14&amp;","&amp;AN14&amp;","&amp;AR14&amp;","&amp;AV14&amp;","&amp;AZ14&amp;","&amp;BD14&amp;","&amp;BH14&amp;","&amp;BL14&amp;","&amp;BP14&amp;","&amp;BT14</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -5908,22 +5935,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D15">
         <v>13</v>
       </c>
       <c r="E15" t="str">
-        <f>I15&amp;","&amp;M15&amp;","&amp;Q15&amp;","&amp;U15&amp;","&amp;Y15&amp;","&amp;AC15&amp;","&amp;AG15&amp;","&amp;AK15&amp;","&amp;AO15&amp;","&amp;AS15&amp;","&amp;AW15&amp;","&amp;BA15&amp;","&amp;BE15&amp;","&amp;BI15&amp;","&amp;BM15&amp;","&amp;BQ15</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F15" t="str">
-        <f>K15&amp;","&amp;O15&amp;","&amp;S15&amp;","&amp;W15&amp;","&amp;AA15&amp;","&amp;AE15&amp;","&amp;AI15&amp;","&amp;AM15&amp;","&amp;AQ15&amp;","&amp;AU15&amp;","&amp;AY15&amp;","&amp;BC15&amp;","&amp;BG15&amp;","&amp;BK15&amp;","&amp;BO15&amp;","&amp;BS15</f>
+        <f t="shared" si="1"/>
         <v>23000000000,1400000000,90000,6000,102000,11200000,1400000,1,1,0,0,0,0,0,0,0</v>
       </c>
       <c r="G15" t="str">
-        <f>L15&amp;","&amp;P15&amp;","&amp;T15&amp;","&amp;X15&amp;","&amp;AB15&amp;","&amp;AF15&amp;","&amp;AJ15&amp;","&amp;AN15&amp;","&amp;AR15&amp;","&amp;AV15&amp;","&amp;AZ15&amp;","&amp;BD15&amp;","&amp;BH15&amp;","&amp;BL15&amp;","&amp;BP15&amp;","&amp;BT15</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -6135,22 +6162,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999988E+127</v>
       </c>
       <c r="D16">
         <v>14</v>
       </c>
       <c r="E16" t="str">
-        <f>I16&amp;","&amp;M16&amp;","&amp;Q16&amp;","&amp;U16&amp;","&amp;Y16&amp;","&amp;AC16&amp;","&amp;AG16&amp;","&amp;AK16&amp;","&amp;AO16&amp;","&amp;AS16&amp;","&amp;AW16&amp;","&amp;BA16&amp;","&amp;BE16&amp;","&amp;BI16&amp;","&amp;BM16&amp;","&amp;BQ16</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,-1,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F16" t="str">
-        <f>K16&amp;","&amp;O16&amp;","&amp;S16&amp;","&amp;W16&amp;","&amp;AA16&amp;","&amp;AE16&amp;","&amp;AI16&amp;","&amp;AM16&amp;","&amp;AQ16&amp;","&amp;AU16&amp;","&amp;AY16&amp;","&amp;BC16&amp;","&amp;BG16&amp;","&amp;BK16&amp;","&amp;BO16&amp;","&amp;BS16</f>
+        <f t="shared" si="1"/>
         <v>24000000000,1500000000,95000,6300,108000,11900000,1500000,1,1,0,0,0,0,0,0,0</v>
       </c>
       <c r="G16" t="str">
-        <f>L16&amp;","&amp;P16&amp;","&amp;T16&amp;","&amp;X16&amp;","&amp;AB16&amp;","&amp;AF16&amp;","&amp;AJ16&amp;","&amp;AN16&amp;","&amp;AR16&amp;","&amp;AV16&amp;","&amp;AZ16&amp;","&amp;BD16&amp;","&amp;BH16&amp;","&amp;BL16&amp;","&amp;BP16&amp;","&amp;BT16</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -6362,22 +6389,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999983E+131</v>
       </c>
       <c r="D17">
         <v>15</v>
       </c>
       <c r="E17" t="str">
-        <f>I17&amp;","&amp;M17&amp;","&amp;Q17&amp;","&amp;U17&amp;","&amp;Y17&amp;","&amp;AC17&amp;","&amp;AG17&amp;","&amp;AK17&amp;","&amp;AO17&amp;","&amp;AS17&amp;","&amp;AW17&amp;","&amp;BA17&amp;","&amp;BE17&amp;","&amp;BI17&amp;","&amp;BM17&amp;","&amp;BQ17</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F17" t="str">
-        <f>K17&amp;","&amp;O17&amp;","&amp;S17&amp;","&amp;W17&amp;","&amp;AA17&amp;","&amp;AE17&amp;","&amp;AI17&amp;","&amp;AM17&amp;","&amp;AQ17&amp;","&amp;AU17&amp;","&amp;AY17&amp;","&amp;BC17&amp;","&amp;BG17&amp;","&amp;BK17&amp;","&amp;BO17&amp;","&amp;BS17</f>
+        <f t="shared" si="1"/>
         <v>25000000000,1600000000,100000,6600,114000,12600000,1600000,1,1,1,0,0,0,0,0,0</v>
       </c>
       <c r="G17" t="str">
-        <f>L17&amp;","&amp;P17&amp;","&amp;T17&amp;","&amp;X17&amp;","&amp;AB17&amp;","&amp;AF17&amp;","&amp;AJ17&amp;","&amp;AN17&amp;","&amp;AR17&amp;","&amp;AV17&amp;","&amp;AZ17&amp;","&amp;BD17&amp;","&amp;BH17&amp;","&amp;BL17&amp;","&amp;BP17&amp;","&amp;BT17</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -6590,22 +6617,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.999999999999998E+135</v>
       </c>
       <c r="D18">
         <v>16</v>
       </c>
       <c r="E18" t="str">
-        <f>I18&amp;","&amp;M18&amp;","&amp;Q18&amp;","&amp;U18&amp;","&amp;Y18&amp;","&amp;AC18&amp;","&amp;AG18&amp;","&amp;AK18&amp;","&amp;AO18&amp;","&amp;AS18&amp;","&amp;AW18&amp;","&amp;BA18&amp;","&amp;BE18&amp;","&amp;BI18&amp;","&amp;BM18&amp;","&amp;BQ18</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,-1,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F18" t="str">
-        <f>K18&amp;","&amp;O18&amp;","&amp;S18&amp;","&amp;W18&amp;","&amp;AA18&amp;","&amp;AE18&amp;","&amp;AI18&amp;","&amp;AM18&amp;","&amp;AQ18&amp;","&amp;AU18&amp;","&amp;AY18&amp;","&amp;BC18&amp;","&amp;BG18&amp;","&amp;BK18&amp;","&amp;BO18&amp;","&amp;BS18</f>
+        <f t="shared" si="1"/>
         <v>26000000000,1700000000,110000,6900,120000,13300000,1700000,1,1,1,0,0,0,0,0,0</v>
       </c>
       <c r="G18" t="str">
-        <f>L18&amp;","&amp;P18&amp;","&amp;T18&amp;","&amp;X18&amp;","&amp;AB18&amp;","&amp;AF18&amp;","&amp;AJ18&amp;","&amp;AN18&amp;","&amp;AR18&amp;","&amp;AV18&amp;","&amp;AZ18&amp;","&amp;BD18&amp;","&amp;BH18&amp;","&amp;BL18&amp;","&amp;BP18&amp;","&amp;BT18</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -6818,22 +6845,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999985E+139</v>
       </c>
       <c r="D19">
         <v>17</v>
       </c>
       <c r="E19" t="str">
-        <f>I19&amp;","&amp;M19&amp;","&amp;Q19&amp;","&amp;U19&amp;","&amp;Y19&amp;","&amp;AC19&amp;","&amp;AG19&amp;","&amp;AK19&amp;","&amp;AO19&amp;","&amp;AS19&amp;","&amp;AW19&amp;","&amp;BA19&amp;","&amp;BE19&amp;","&amp;BI19&amp;","&amp;BM19&amp;","&amp;BQ19</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F19" t="str">
-        <f>K19&amp;","&amp;O19&amp;","&amp;S19&amp;","&amp;W19&amp;","&amp;AA19&amp;","&amp;AE19&amp;","&amp;AI19&amp;","&amp;AM19&amp;","&amp;AQ19&amp;","&amp;AU19&amp;","&amp;AY19&amp;","&amp;BC19&amp;","&amp;BG19&amp;","&amp;BK19&amp;","&amp;BO19&amp;","&amp;BS19</f>
+        <f t="shared" si="1"/>
         <v>27000000000,1800000000,120000,7200,126000,14000000,1800000,1,1,1,1,0,0,0,0,0</v>
       </c>
       <c r="G19" t="str">
-        <f>L19&amp;","&amp;P19&amp;","&amp;T19&amp;","&amp;X19&amp;","&amp;AB19&amp;","&amp;AF19&amp;","&amp;AJ19&amp;","&amp;AN19&amp;","&amp;AR19&amp;","&amp;AV19&amp;","&amp;AZ19&amp;","&amp;BD19&amp;","&amp;BH19&amp;","&amp;BL19&amp;","&amp;BP19&amp;","&amp;BT19</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -7047,22 +7074,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999985E+143</v>
       </c>
       <c r="D20">
         <v>18</v>
       </c>
       <c r="E20" t="str">
-        <f>I20&amp;","&amp;M20&amp;","&amp;Q20&amp;","&amp;U20&amp;","&amp;Y20&amp;","&amp;AC20&amp;","&amp;AG20&amp;","&amp;AK20&amp;","&amp;AO20&amp;","&amp;AS20&amp;","&amp;AW20&amp;","&amp;BA20&amp;","&amp;BE20&amp;","&amp;BI20&amp;","&amp;BM20&amp;","&amp;BQ20</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,-1,-1,-1,-1,-1</v>
       </c>
       <c r="F20" t="str">
-        <f>K20&amp;","&amp;O20&amp;","&amp;S20&amp;","&amp;W20&amp;","&amp;AA20&amp;","&amp;AE20&amp;","&amp;AI20&amp;","&amp;AM20&amp;","&amp;AQ20&amp;","&amp;AU20&amp;","&amp;AY20&amp;","&amp;BC20&amp;","&amp;BG20&amp;","&amp;BK20&amp;","&amp;BO20&amp;","&amp;BS20</f>
+        <f t="shared" si="1"/>
         <v>28000000000,1900000000,130000,7500,132000,14700000,1900000,1,1,1,1,0,0,0,0,0</v>
       </c>
       <c r="G20" t="str">
-        <f>L20&amp;","&amp;P20&amp;","&amp;T20&amp;","&amp;X20&amp;","&amp;AB20&amp;","&amp;AF20&amp;","&amp;AJ20&amp;","&amp;AN20&amp;","&amp;AR20&amp;","&amp;AV20&amp;","&amp;AZ20&amp;","&amp;BD20&amp;","&amp;BH20&amp;","&amp;BL20&amp;","&amp;BP20&amp;","&amp;BT20</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -7276,22 +7303,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999991E+147</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="str">
-        <f>I21&amp;","&amp;M21&amp;","&amp;Q21&amp;","&amp;U21&amp;","&amp;Y21&amp;","&amp;AC21&amp;","&amp;AG21&amp;","&amp;AK21&amp;","&amp;AO21&amp;","&amp;AS21&amp;","&amp;AW21&amp;","&amp;BA21&amp;","&amp;BE21&amp;","&amp;BI21&amp;","&amp;BM21&amp;","&amp;BQ21</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,-1,-1,-1,-1</v>
       </c>
       <c r="F21" t="str">
-        <f>K21&amp;","&amp;O21&amp;","&amp;S21&amp;","&amp;W21&amp;","&amp;AA21&amp;","&amp;AE21&amp;","&amp;AI21&amp;","&amp;AM21&amp;","&amp;AQ21&amp;","&amp;AU21&amp;","&amp;AY21&amp;","&amp;BC21&amp;","&amp;BG21&amp;","&amp;BK21&amp;","&amp;BO21&amp;","&amp;BS21</f>
+        <f t="shared" si="1"/>
         <v>29000000000,2000000000,140000,7800,138000,15400000,2000000,1,1,1,1,1,0,0,0,0</v>
       </c>
       <c r="G21" t="str">
-        <f>L21&amp;","&amp;P21&amp;","&amp;T21&amp;","&amp;X21&amp;","&amp;AB21&amp;","&amp;AF21&amp;","&amp;AJ21&amp;","&amp;AN21&amp;","&amp;AR21&amp;","&amp;AV21&amp;","&amp;AZ21&amp;","&amp;BD21&amp;","&amp;BH21&amp;","&amp;BL21&amp;","&amp;BP21&amp;","&amp;BT21</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -7506,22 +7533,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999993E+151</v>
       </c>
       <c r="D22">
         <v>20</v>
       </c>
       <c r="E22" t="str">
-        <f>I22&amp;","&amp;M22&amp;","&amp;Q22&amp;","&amp;U22&amp;","&amp;Y22&amp;","&amp;AC22&amp;","&amp;AG22&amp;","&amp;AK22&amp;","&amp;AO22&amp;","&amp;AS22&amp;","&amp;AW22&amp;","&amp;BA22&amp;","&amp;BE22&amp;","&amp;BI22&amp;","&amp;BM22&amp;","&amp;BQ22</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,-1,-1,-1,-1</v>
       </c>
       <c r="F22" t="str">
-        <f>K22&amp;","&amp;O22&amp;","&amp;S22&amp;","&amp;W22&amp;","&amp;AA22&amp;","&amp;AE22&amp;","&amp;AI22&amp;","&amp;AM22&amp;","&amp;AQ22&amp;","&amp;AU22&amp;","&amp;AY22&amp;","&amp;BC22&amp;","&amp;BG22&amp;","&amp;BK22&amp;","&amp;BO22&amp;","&amp;BS22</f>
+        <f t="shared" si="1"/>
         <v>30000000000,2100000000,150000,8100,144000,16100000,2100000,1,1,1,1,1,0,0,0,0</v>
       </c>
       <c r="G22" t="str">
-        <f>L22&amp;","&amp;P22&amp;","&amp;T22&amp;","&amp;X22&amp;","&amp;AB22&amp;","&amp;AF22&amp;","&amp;AJ22&amp;","&amp;AN22&amp;","&amp;AR22&amp;","&amp;AV22&amp;","&amp;AZ22&amp;","&amp;BD22&amp;","&amp;BH22&amp;","&amp;BL22&amp;","&amp;BP22&amp;","&amp;BT22</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H22" s="6" t="s">
@@ -7736,22 +7763,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="D23">
         <v>21</v>
       </c>
       <c r="E23" t="str">
-        <f>I23&amp;","&amp;M23&amp;","&amp;Q23&amp;","&amp;U23&amp;","&amp;Y23&amp;","&amp;AC23&amp;","&amp;AG23&amp;","&amp;AK23&amp;","&amp;AO23&amp;","&amp;AS23&amp;","&amp;AW23&amp;","&amp;BA23&amp;","&amp;BE23&amp;","&amp;BI23&amp;","&amp;BM23&amp;","&amp;BQ23</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,-1,-1,-1</v>
       </c>
       <c r="F23" t="str">
-        <f>K23&amp;","&amp;O23&amp;","&amp;S23&amp;","&amp;W23&amp;","&amp;AA23&amp;","&amp;AE23&amp;","&amp;AI23&amp;","&amp;AM23&amp;","&amp;AQ23&amp;","&amp;AU23&amp;","&amp;AY23&amp;","&amp;BC23&amp;","&amp;BG23&amp;","&amp;BK23&amp;","&amp;BO23&amp;","&amp;BS23</f>
+        <f t="shared" si="1"/>
         <v>31000000000,2200000000,160000,8400,150000,16800000,2200000,2,1,1,1,1,1,0,0,0</v>
       </c>
       <c r="G23" t="str">
-        <f>L23&amp;","&amp;P23&amp;","&amp;T23&amp;","&amp;X23&amp;","&amp;AB23&amp;","&amp;AF23&amp;","&amp;AJ23&amp;","&amp;AN23&amp;","&amp;AR23&amp;","&amp;AV23&amp;","&amp;AZ23&amp;","&amp;BD23&amp;","&amp;BH23&amp;","&amp;BL23&amp;","&amp;BP23&amp;","&amp;BT23</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -7968,22 +7995,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+160</v>
       </c>
       <c r="D24">
         <v>22</v>
       </c>
       <c r="E24" t="str">
-        <f>I24&amp;","&amp;M24&amp;","&amp;Q24&amp;","&amp;U24&amp;","&amp;Y24&amp;","&amp;AC24&amp;","&amp;AG24&amp;","&amp;AK24&amp;","&amp;AO24&amp;","&amp;AS24&amp;","&amp;AW24&amp;","&amp;BA24&amp;","&amp;BE24&amp;","&amp;BI24&amp;","&amp;BM24&amp;","&amp;BQ24</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,-1,-1,-1</v>
       </c>
       <c r="F24" t="str">
-        <f>K24&amp;","&amp;O24&amp;","&amp;S24&amp;","&amp;W24&amp;","&amp;AA24&amp;","&amp;AE24&amp;","&amp;AI24&amp;","&amp;AM24&amp;","&amp;AQ24&amp;","&amp;AU24&amp;","&amp;AY24&amp;","&amp;BC24&amp;","&amp;BG24&amp;","&amp;BK24&amp;","&amp;BO24&amp;","&amp;BS24</f>
+        <f t="shared" si="1"/>
         <v>32000000000,2300000000,170000,8700,156000,17500000,2300000,2,1,1,1,1,1,0,0,0</v>
       </c>
       <c r="G24" t="str">
-        <f>L24&amp;","&amp;P24&amp;","&amp;T24&amp;","&amp;X24&amp;","&amp;AB24&amp;","&amp;AF24&amp;","&amp;AJ24&amp;","&amp;AN24&amp;","&amp;AR24&amp;","&amp;AV24&amp;","&amp;AZ24&amp;","&amp;BD24&amp;","&amp;BH24&amp;","&amp;BL24&amp;","&amp;BP24&amp;","&amp;BT24</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -8087,7 +8114,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" ref="AM24:AM49" si="1">AM14+1</f>
+        <f t="shared" ref="AM24:AM49" si="4">AM14+1</f>
         <v>2</v>
       </c>
       <c r="AN24" s="2">
@@ -8200,22 +8227,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+164</v>
       </c>
       <c r="D25">
         <v>23</v>
       </c>
       <c r="E25" t="str">
-        <f>I25&amp;","&amp;M25&amp;","&amp;Q25&amp;","&amp;U25&amp;","&amp;Y25&amp;","&amp;AC25&amp;","&amp;AG25&amp;","&amp;AK25&amp;","&amp;AO25&amp;","&amp;AS25&amp;","&amp;AW25&amp;","&amp;BA25&amp;","&amp;BE25&amp;","&amp;BI25&amp;","&amp;BM25&amp;","&amp;BQ25</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,-1,-1</v>
       </c>
       <c r="F25" t="str">
-        <f>K25&amp;","&amp;O25&amp;","&amp;S25&amp;","&amp;W25&amp;","&amp;AA25&amp;","&amp;AE25&amp;","&amp;AI25&amp;","&amp;AM25&amp;","&amp;AQ25&amp;","&amp;AU25&amp;","&amp;AY25&amp;","&amp;BC25&amp;","&amp;BG25&amp;","&amp;BK25&amp;","&amp;BO25&amp;","&amp;BS25</f>
+        <f t="shared" si="1"/>
         <v>33000000000,2400000000,180000,9000,162000,18200000,2400000,2,2,1,1,1,1,1,0,0</v>
       </c>
       <c r="G25" t="str">
-        <f>L25&amp;","&amp;P25&amp;","&amp;T25&amp;","&amp;X25&amp;","&amp;AB25&amp;","&amp;AF25&amp;","&amp;AJ25&amp;","&amp;AN25&amp;","&amp;AR25&amp;","&amp;AV25&amp;","&amp;AZ25&amp;","&amp;BD25&amp;","&amp;BH25&amp;","&amp;BL25&amp;","&amp;BP25&amp;","&amp;BT25</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H25" s="6" t="s">
@@ -8319,7 +8346,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN25" s="2">
@@ -8434,22 +8461,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="D26">
         <v>24</v>
       </c>
       <c r="E26" t="str">
-        <f>I26&amp;","&amp;M26&amp;","&amp;Q26&amp;","&amp;U26&amp;","&amp;Y26&amp;","&amp;AC26&amp;","&amp;AG26&amp;","&amp;AK26&amp;","&amp;AO26&amp;","&amp;AS26&amp;","&amp;AW26&amp;","&amp;BA26&amp;","&amp;BE26&amp;","&amp;BI26&amp;","&amp;BM26&amp;","&amp;BQ26</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,-1,-1</v>
       </c>
       <c r="F26" t="str">
-        <f>K26&amp;","&amp;O26&amp;","&amp;S26&amp;","&amp;W26&amp;","&amp;AA26&amp;","&amp;AE26&amp;","&amp;AI26&amp;","&amp;AM26&amp;","&amp;AQ26&amp;","&amp;AU26&amp;","&amp;AY26&amp;","&amp;BC26&amp;","&amp;BG26&amp;","&amp;BK26&amp;","&amp;BO26&amp;","&amp;BS26</f>
+        <f t="shared" si="1"/>
         <v>34000000000,2500000000,190000,9300,168000,18900000,2500000,2,2,1,1,1,1,1,0,0</v>
       </c>
       <c r="G26" t="str">
-        <f>L26&amp;","&amp;P26&amp;","&amp;T26&amp;","&amp;X26&amp;","&amp;AB26&amp;","&amp;AF26&amp;","&amp;AJ26&amp;","&amp;AN26&amp;","&amp;AR26&amp;","&amp;AV26&amp;","&amp;AZ26&amp;","&amp;BD26&amp;","&amp;BH26&amp;","&amp;BL26&amp;","&amp;BP26&amp;","&amp;BT26</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H26" s="6" t="s">
@@ -8553,7 +8580,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN26" s="2">
@@ -8567,7 +8594,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ26" s="2">
-        <f t="shared" ref="AQ26:AQ49" si="2">AQ16+1</f>
+        <f t="shared" ref="AQ26:AQ49" si="5">AQ16+1</f>
         <v>2</v>
       </c>
       <c r="AR26" s="2">
@@ -8668,22 +8695,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999991E+171</v>
       </c>
       <c r="D27">
         <v>25</v>
       </c>
       <c r="E27" t="str">
-        <f>I27&amp;","&amp;M27&amp;","&amp;Q27&amp;","&amp;U27&amp;","&amp;Y27&amp;","&amp;AC27&amp;","&amp;AG27&amp;","&amp;AK27&amp;","&amp;AO27&amp;","&amp;AS27&amp;","&amp;AW27&amp;","&amp;BA27&amp;","&amp;BE27&amp;","&amp;BI27&amp;","&amp;BM27&amp;","&amp;BQ27</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F27" t="str">
-        <f>K27&amp;","&amp;O27&amp;","&amp;S27&amp;","&amp;W27&amp;","&amp;AA27&amp;","&amp;AE27&amp;","&amp;AI27&amp;","&amp;AM27&amp;","&amp;AQ27&amp;","&amp;AU27&amp;","&amp;AY27&amp;","&amp;BC27&amp;","&amp;BG27&amp;","&amp;BK27&amp;","&amp;BO27&amp;","&amp;BS27</f>
+        <f t="shared" si="1"/>
         <v>35000000000,2600000000,200000,9600,174000,19600000,2600000,2,2,2,1,1,1,1,1,0</v>
       </c>
       <c r="G27" t="str">
-        <f>L27&amp;","&amp;P27&amp;","&amp;T27&amp;","&amp;X27&amp;","&amp;AB27&amp;","&amp;AF27&amp;","&amp;AJ27&amp;","&amp;AN27&amp;","&amp;AR27&amp;","&amp;AV27&amp;","&amp;AZ27&amp;","&amp;BD27&amp;","&amp;BH27&amp;","&amp;BL27&amp;","&amp;BP27&amp;","&amp;BT27</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H27" s="6" t="s">
@@ -8787,7 +8814,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN27" s="2">
@@ -8801,7 +8828,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AR27" s="2">
@@ -8904,22 +8931,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999987E+175</v>
       </c>
       <c r="D28">
         <v>26</v>
       </c>
       <c r="E28" t="str">
-        <f>I28&amp;","&amp;M28&amp;","&amp;Q28&amp;","&amp;U28&amp;","&amp;Y28&amp;","&amp;AC28&amp;","&amp;AG28&amp;","&amp;AK28&amp;","&amp;AO28&amp;","&amp;AS28&amp;","&amp;AW28&amp;","&amp;BA28&amp;","&amp;BE28&amp;","&amp;BI28&amp;","&amp;BM28&amp;","&amp;BQ28</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F28" t="str">
-        <f>K28&amp;","&amp;O28&amp;","&amp;S28&amp;","&amp;W28&amp;","&amp;AA28&amp;","&amp;AE28&amp;","&amp;AI28&amp;","&amp;AM28&amp;","&amp;AQ28&amp;","&amp;AU28&amp;","&amp;AY28&amp;","&amp;BC28&amp;","&amp;BG28&amp;","&amp;BK28&amp;","&amp;BO28&amp;","&amp;BS28</f>
+        <f t="shared" si="1"/>
         <v>36000000000,2700000000,250000,9900,180000,20300000,2700000,2,2,2,1,1,1,1,1,0</v>
       </c>
       <c r="G28" t="str">
-        <f>L28&amp;","&amp;P28&amp;","&amp;T28&amp;","&amp;X28&amp;","&amp;AB28&amp;","&amp;AF28&amp;","&amp;AJ28&amp;","&amp;AN28&amp;","&amp;AR28&amp;","&amp;AV28&amp;","&amp;AZ28&amp;","&amp;BD28&amp;","&amp;BH28&amp;","&amp;BL28&amp;","&amp;BP28&amp;","&amp;BT28</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H28" s="6" t="s">
@@ -9023,7 +9050,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN28" s="2">
@@ -9037,7 +9064,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AR28" s="2">
@@ -9051,7 +9078,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU28" s="2">
-        <f t="shared" ref="AU28:AU49" si="3">AU18+1</f>
+        <f t="shared" ref="AU28:AU49" si="6">AU18+1</f>
         <v>2</v>
       </c>
       <c r="AV28" s="2">
@@ -9140,22 +9167,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999989E+179</v>
       </c>
       <c r="D29">
         <v>27</v>
       </c>
       <c r="E29" t="str">
-        <f>I29&amp;","&amp;M29&amp;","&amp;Q29&amp;","&amp;U29&amp;","&amp;Y29&amp;","&amp;AC29&amp;","&amp;AG29&amp;","&amp;AK29&amp;","&amp;AO29&amp;","&amp;AS29&amp;","&amp;AW29&amp;","&amp;BA29&amp;","&amp;BE29&amp;","&amp;BI29&amp;","&amp;BM29&amp;","&amp;BQ29</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F29" t="str">
-        <f>K29&amp;","&amp;O29&amp;","&amp;S29&amp;","&amp;W29&amp;","&amp;AA29&amp;","&amp;AE29&amp;","&amp;AI29&amp;","&amp;AM29&amp;","&amp;AQ29&amp;","&amp;AU29&amp;","&amp;AY29&amp;","&amp;BC29&amp;","&amp;BG29&amp;","&amp;BK29&amp;","&amp;BO29&amp;","&amp;BS29</f>
+        <f t="shared" si="1"/>
         <v>37000000000,2800000000,300000,10200,186000,21000000,2800000,2,2,2,2,1,1,1,1,0</v>
       </c>
       <c r="G29" t="str">
-        <f>L29&amp;","&amp;P29&amp;","&amp;T29&amp;","&amp;X29&amp;","&amp;AB29&amp;","&amp;AF29&amp;","&amp;AJ29&amp;","&amp;AN29&amp;","&amp;AR29&amp;","&amp;AV29&amp;","&amp;AZ29&amp;","&amp;BD29&amp;","&amp;BH29&amp;","&amp;BL29&amp;","&amp;BP29&amp;","&amp;BT29</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H29" s="6" t="s">
@@ -9259,7 +9286,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN29" s="2">
@@ -9273,7 +9300,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AR29" s="2">
@@ -9287,7 +9314,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AV29" s="2">
@@ -9377,22 +9404,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999983E+183</v>
       </c>
       <c r="D30">
         <v>28</v>
       </c>
       <c r="E30" t="str">
-        <f>I30&amp;","&amp;M30&amp;","&amp;Q30&amp;","&amp;U30&amp;","&amp;Y30&amp;","&amp;AC30&amp;","&amp;AG30&amp;","&amp;AK30&amp;","&amp;AO30&amp;","&amp;AS30&amp;","&amp;AW30&amp;","&amp;BA30&amp;","&amp;BE30&amp;","&amp;BI30&amp;","&amp;BM30&amp;","&amp;BQ30</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F30" t="str">
-        <f>K30&amp;","&amp;O30&amp;","&amp;S30&amp;","&amp;W30&amp;","&amp;AA30&amp;","&amp;AE30&amp;","&amp;AI30&amp;","&amp;AM30&amp;","&amp;AQ30&amp;","&amp;AU30&amp;","&amp;AY30&amp;","&amp;BC30&amp;","&amp;BG30&amp;","&amp;BK30&amp;","&amp;BO30&amp;","&amp;BS30</f>
+        <f t="shared" si="1"/>
         <v>38000000000,2900000000,350000,10500,192000,21700000,2900000,2,2,2,2,1,1,1,1,0</v>
       </c>
       <c r="G30" t="str">
-        <f>L30&amp;","&amp;P30&amp;","&amp;T30&amp;","&amp;X30&amp;","&amp;AB30&amp;","&amp;AF30&amp;","&amp;AJ30&amp;","&amp;AN30&amp;","&amp;AR30&amp;","&amp;AV30&amp;","&amp;AZ30&amp;","&amp;BD30&amp;","&amp;BH30&amp;","&amp;BL30&amp;","&amp;BP30&amp;","&amp;BT30</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H30" s="6" t="s">
@@ -9496,7 +9523,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN30" s="2">
@@ -9510,7 +9537,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AR30" s="2">
@@ -9524,7 +9551,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AV30" s="2">
@@ -9538,7 +9565,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY30" s="2">
-        <f t="shared" ref="AY30:AY49" si="4">AY20+1</f>
+        <f t="shared" ref="AY30:AY49" si="7">AY20+1</f>
         <v>2</v>
       </c>
       <c r="AZ30" s="2">
@@ -9614,22 +9641,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999987E+187</v>
       </c>
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" t="str">
-        <f>I31&amp;","&amp;M31&amp;","&amp;Q31&amp;","&amp;U31&amp;","&amp;Y31&amp;","&amp;AC31&amp;","&amp;AG31&amp;","&amp;AK31&amp;","&amp;AO31&amp;","&amp;AS31&amp;","&amp;AW31&amp;","&amp;BA31&amp;","&amp;BE31&amp;","&amp;BI31&amp;","&amp;BM31&amp;","&amp;BQ31</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,-1</v>
       </c>
       <c r="F31" t="str">
-        <f>K31&amp;","&amp;O31&amp;","&amp;S31&amp;","&amp;W31&amp;","&amp;AA31&amp;","&amp;AE31&amp;","&amp;AI31&amp;","&amp;AM31&amp;","&amp;AQ31&amp;","&amp;AU31&amp;","&amp;AY31&amp;","&amp;BC31&amp;","&amp;BG31&amp;","&amp;BK31&amp;","&amp;BO31&amp;","&amp;BS31</f>
+        <f t="shared" si="1"/>
         <v>39000000000,3000000000,400000,10800,198000,22400000,3000000,2,2,2,2,2,1,1,1,0</v>
       </c>
       <c r="G31" t="str">
-        <f>L31&amp;","&amp;P31&amp;","&amp;T31&amp;","&amp;X31&amp;","&amp;AB31&amp;","&amp;AF31&amp;","&amp;AJ31&amp;","&amp;AN31&amp;","&amp;AR31&amp;","&amp;AV31&amp;","&amp;AZ31&amp;","&amp;BD31&amp;","&amp;BH31&amp;","&amp;BL31&amp;","&amp;BP31&amp;","&amp;BT31</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H31" s="6" t="s">
@@ -9733,7 +9760,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN31" s="2">
@@ -9747,7 +9774,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AR31" s="2">
@@ -9761,7 +9788,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AV31" s="2">
@@ -9775,7 +9802,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AZ31" s="2">
@@ -9852,22 +9879,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="D32">
         <v>30</v>
       </c>
       <c r="E32" t="str">
-        <f>I32&amp;","&amp;M32&amp;","&amp;Q32&amp;","&amp;U32&amp;","&amp;Y32&amp;","&amp;AC32&amp;","&amp;AG32&amp;","&amp;AK32&amp;","&amp;AO32&amp;","&amp;AS32&amp;","&amp;AW32&amp;","&amp;BA32&amp;","&amp;BE32&amp;","&amp;BI32&amp;","&amp;BM32&amp;","&amp;BQ32</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F32" t="str">
-        <f>K32&amp;","&amp;O32&amp;","&amp;S32&amp;","&amp;W32&amp;","&amp;AA32&amp;","&amp;AE32&amp;","&amp;AI32&amp;","&amp;AM32&amp;","&amp;AQ32&amp;","&amp;AU32&amp;","&amp;AY32&amp;","&amp;BC32&amp;","&amp;BG32&amp;","&amp;BK32&amp;","&amp;BO32&amp;","&amp;BS32</f>
+        <f t="shared" si="1"/>
         <v>40000000000,3100000000,450000,11100,204000,23100000,3100000,2,2,2,2,2,1,1,1,1</v>
       </c>
       <c r="G32" t="str">
-        <f>L32&amp;","&amp;P32&amp;","&amp;T32&amp;","&amp;X32&amp;","&amp;AB32&amp;","&amp;AF32&amp;","&amp;AJ32&amp;","&amp;AN32&amp;","&amp;AR32&amp;","&amp;AV32&amp;","&amp;AZ32&amp;","&amp;BD32&amp;","&amp;BH32&amp;","&amp;BL32&amp;","&amp;BP32&amp;","&amp;BT32</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="H32" s="6" t="s">
@@ -9971,7 +9998,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN32" s="2">
@@ -9985,7 +10012,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AR32" s="2">
@@ -9999,7 +10026,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AV32" s="2">
@@ -10013,7 +10040,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AZ32" s="2">
@@ -10091,22 +10118,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="D33">
         <v>31</v>
       </c>
       <c r="E33" t="str">
-        <f>I33&amp;","&amp;M33&amp;","&amp;Q33&amp;","&amp;U33&amp;","&amp;Y33&amp;","&amp;AC33&amp;","&amp;AG33&amp;","&amp;AK33&amp;","&amp;AO33&amp;","&amp;AS33&amp;","&amp;AW33&amp;","&amp;BA33&amp;","&amp;BE33&amp;","&amp;BI33&amp;","&amp;BM33&amp;","&amp;BQ33</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F33" t="str">
-        <f>K33&amp;","&amp;O33&amp;","&amp;S33&amp;","&amp;W33&amp;","&amp;AA33&amp;","&amp;AE33&amp;","&amp;AI33&amp;","&amp;AM33&amp;","&amp;AQ33&amp;","&amp;AU33&amp;","&amp;AY33&amp;","&amp;BC33&amp;","&amp;BG33&amp;","&amp;BK33&amp;","&amp;BO33&amp;","&amp;BS33</f>
+        <f t="shared" si="1"/>
         <v>41000000000,3200000000,500000,11400,210000,23800000,3200000,3,2,2,2,2,1,1,1,1</v>
       </c>
       <c r="G33" t="str">
-        <f>L33&amp;","&amp;P33&amp;","&amp;T33&amp;","&amp;X33&amp;","&amp;AB33&amp;","&amp;AF33&amp;","&amp;AJ33&amp;","&amp;AN33&amp;","&amp;AR33&amp;","&amp;AV33&amp;","&amp;AZ33&amp;","&amp;BD33&amp;","&amp;BH33&amp;","&amp;BL33&amp;","&amp;BP33&amp;","&amp;BT33</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I33">
@@ -10207,7 +10234,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN33" s="2">
@@ -10221,7 +10248,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AR33" s="2">
@@ -10235,7 +10262,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AV33" s="2">
@@ -10249,7 +10276,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AZ33" s="2">
@@ -10327,22 +10354,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="D34">
         <v>32</v>
       </c>
       <c r="E34" t="str">
-        <f>I34&amp;","&amp;M34&amp;","&amp;Q34&amp;","&amp;U34&amp;","&amp;Y34&amp;","&amp;AC34&amp;","&amp;AG34&amp;","&amp;AK34&amp;","&amp;AO34&amp;","&amp;AS34&amp;","&amp;AW34&amp;","&amp;BA34&amp;","&amp;BE34&amp;","&amp;BI34&amp;","&amp;BM34&amp;","&amp;BQ34</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F34" t="str">
-        <f>K34&amp;","&amp;O34&amp;","&amp;S34&amp;","&amp;W34&amp;","&amp;AA34&amp;","&amp;AE34&amp;","&amp;AI34&amp;","&amp;AM34&amp;","&amp;AQ34&amp;","&amp;AU34&amp;","&amp;AY34&amp;","&amp;BC34&amp;","&amp;BG34&amp;","&amp;BK34&amp;","&amp;BO34&amp;","&amp;BS34</f>
+        <f t="shared" si="1"/>
         <v>42000000000,3300000000,550000,11700,216000,24500000,3300000,3,2,2,2,2,1,1,1,1</v>
       </c>
       <c r="G34" t="str">
-        <f>L34&amp;","&amp;P34&amp;","&amp;T34&amp;","&amp;X34&amp;","&amp;AB34&amp;","&amp;AF34&amp;","&amp;AJ34&amp;","&amp;AN34&amp;","&amp;AR34&amp;","&amp;AV34&amp;","&amp;AZ34&amp;","&amp;BD34&amp;","&amp;BH34&amp;","&amp;BL34&amp;","&amp;BP34&amp;","&amp;BT34</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I34">
@@ -10443,7 +10470,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN34" s="2">
@@ -10457,7 +10484,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AR34" s="2">
@@ -10471,7 +10498,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AV34" s="2">
@@ -10485,7 +10512,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AZ34" s="2">
@@ -10563,22 +10590,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="D35">
         <v>33</v>
       </c>
       <c r="E35" t="str">
-        <f>I35&amp;","&amp;M35&amp;","&amp;Q35&amp;","&amp;U35&amp;","&amp;Y35&amp;","&amp;AC35&amp;","&amp;AG35&amp;","&amp;AK35&amp;","&amp;AO35&amp;","&amp;AS35&amp;","&amp;AW35&amp;","&amp;BA35&amp;","&amp;BE35&amp;","&amp;BI35&amp;","&amp;BM35&amp;","&amp;BQ35</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F35" t="str">
-        <f>K35&amp;","&amp;O35&amp;","&amp;S35&amp;","&amp;W35&amp;","&amp;AA35&amp;","&amp;AE35&amp;","&amp;AI35&amp;","&amp;AM35&amp;","&amp;AQ35&amp;","&amp;AU35&amp;","&amp;AY35&amp;","&amp;BC35&amp;","&amp;BG35&amp;","&amp;BK35&amp;","&amp;BO35&amp;","&amp;BS35</f>
+        <f t="shared" si="1"/>
         <v>43000000000,3400000000,600000,12000,222000,25200000,3400000,3,3,2,2,2,1,1,1,1</v>
       </c>
       <c r="G35" t="str">
-        <f>L35&amp;","&amp;P35&amp;","&amp;T35&amp;","&amp;X35&amp;","&amp;AB35&amp;","&amp;AF35&amp;","&amp;AJ35&amp;","&amp;AN35&amp;","&amp;AR35&amp;","&amp;AV35&amp;","&amp;AZ35&amp;","&amp;BD35&amp;","&amp;BH35&amp;","&amp;BL35&amp;","&amp;BP35&amp;","&amp;BT35</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I35">
@@ -10679,7 +10706,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN35" s="2">
@@ -10693,7 +10720,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR35" s="2">
@@ -10707,7 +10734,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AV35" s="2">
@@ -10721,7 +10748,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AZ35" s="2">
@@ -10735,7 +10762,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC35" s="2">
-        <f t="shared" ref="BC35:BC49" si="5">BC25+1</f>
+        <f t="shared" ref="BC35:BC49" si="8">BC25+1</f>
         <v>2</v>
       </c>
       <c r="BD35" s="2">
@@ -10799,22 +10826,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="D36">
         <v>34</v>
       </c>
       <c r="E36" t="str">
-        <f>I36&amp;","&amp;M36&amp;","&amp;Q36&amp;","&amp;U36&amp;","&amp;Y36&amp;","&amp;AC36&amp;","&amp;AG36&amp;","&amp;AK36&amp;","&amp;AO36&amp;","&amp;AS36&amp;","&amp;AW36&amp;","&amp;BA36&amp;","&amp;BE36&amp;","&amp;BI36&amp;","&amp;BM36&amp;","&amp;BQ36</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F36" t="str">
-        <f>K36&amp;","&amp;O36&amp;","&amp;S36&amp;","&amp;W36&amp;","&amp;AA36&amp;","&amp;AE36&amp;","&amp;AI36&amp;","&amp;AM36&amp;","&amp;AQ36&amp;","&amp;AU36&amp;","&amp;AY36&amp;","&amp;BC36&amp;","&amp;BG36&amp;","&amp;BK36&amp;","&amp;BO36&amp;","&amp;BS36</f>
+        <f t="shared" si="1"/>
         <v>44000000000,3500000000,650000,12300,228000,25900000,3500000,3,3,2,2,2,1,1,1,1</v>
       </c>
       <c r="G36" t="str">
-        <f>L36&amp;","&amp;P36&amp;","&amp;T36&amp;","&amp;X36&amp;","&amp;AB36&amp;","&amp;AF36&amp;","&amp;AJ36&amp;","&amp;AN36&amp;","&amp;AR36&amp;","&amp;AV36&amp;","&amp;AZ36&amp;","&amp;BD36&amp;","&amp;BH36&amp;","&amp;BL36&amp;","&amp;BP36&amp;","&amp;BT36</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I36">
@@ -10915,7 +10942,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN36" s="2">
@@ -10929,7 +10956,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR36" s="2">
@@ -10943,7 +10970,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AV36" s="2">
@@ -10957,7 +10984,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AZ36" s="2">
@@ -10971,7 +10998,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="BD36" s="2">
@@ -11035,22 +11062,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="D37">
         <v>35</v>
       </c>
       <c r="E37" t="str">
-        <f>I37&amp;","&amp;M37&amp;","&amp;Q37&amp;","&amp;U37&amp;","&amp;Y37&amp;","&amp;AC37&amp;","&amp;AG37&amp;","&amp;AK37&amp;","&amp;AO37&amp;","&amp;AS37&amp;","&amp;AW37&amp;","&amp;BA37&amp;","&amp;BE37&amp;","&amp;BI37&amp;","&amp;BM37&amp;","&amp;BQ37</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F37" t="str">
-        <f>K37&amp;","&amp;O37&amp;","&amp;S37&amp;","&amp;W37&amp;","&amp;AA37&amp;","&amp;AE37&amp;","&amp;AI37&amp;","&amp;AM37&amp;","&amp;AQ37&amp;","&amp;AU37&amp;","&amp;AY37&amp;","&amp;BC37&amp;","&amp;BG37&amp;","&amp;BK37&amp;","&amp;BO37&amp;","&amp;BS37</f>
+        <f t="shared" si="1"/>
         <v>45000000000,3600000000,700000,12600,234000,26600000,3600000,3,3,3,2,2,1,1,1,1</v>
       </c>
       <c r="G37" t="str">
-        <f>L37&amp;","&amp;P37&amp;","&amp;T37&amp;","&amp;X37&amp;","&amp;AB37&amp;","&amp;AF37&amp;","&amp;AJ37&amp;","&amp;AN37&amp;","&amp;AR37&amp;","&amp;AV37&amp;","&amp;AZ37&amp;","&amp;BD37&amp;","&amp;BH37&amp;","&amp;BL37&amp;","&amp;BP37&amp;","&amp;BT37</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I37">
@@ -11151,7 +11178,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN37" s="2">
@@ -11165,7 +11192,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR37" s="2">
@@ -11179,7 +11206,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AV37" s="2">
@@ -11193,7 +11220,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AZ37" s="2">
@@ -11207,7 +11234,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="BD37" s="2">
@@ -11271,22 +11298,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999987E+215</v>
       </c>
       <c r="D38">
         <v>36</v>
       </c>
       <c r="E38" t="str">
-        <f>I38&amp;","&amp;M38&amp;","&amp;Q38&amp;","&amp;U38&amp;","&amp;Y38&amp;","&amp;AC38&amp;","&amp;AG38&amp;","&amp;AK38&amp;","&amp;AO38&amp;","&amp;AS38&amp;","&amp;AW38&amp;","&amp;BA38&amp;","&amp;BE38&amp;","&amp;BI38&amp;","&amp;BM38&amp;","&amp;BQ38</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F38" t="str">
-        <f>K38&amp;","&amp;O38&amp;","&amp;S38&amp;","&amp;W38&amp;","&amp;AA38&amp;","&amp;AE38&amp;","&amp;AI38&amp;","&amp;AM38&amp;","&amp;AQ38&amp;","&amp;AU38&amp;","&amp;AY38&amp;","&amp;BC38&amp;","&amp;BG38&amp;","&amp;BK38&amp;","&amp;BO38&amp;","&amp;BS38</f>
+        <f t="shared" si="1"/>
         <v>46000000000,3700000000,750000,12900,240000,27300000,3700000,3,3,3,2,2,1,1,1,1</v>
       </c>
       <c r="G38" t="str">
-        <f>L38&amp;","&amp;P38&amp;","&amp;T38&amp;","&amp;X38&amp;","&amp;AB38&amp;","&amp;AF38&amp;","&amp;AJ38&amp;","&amp;AN38&amp;","&amp;AR38&amp;","&amp;AV38&amp;","&amp;AZ38&amp;","&amp;BD38&amp;","&amp;BH38&amp;","&amp;BL38&amp;","&amp;BP38&amp;","&amp;BT38</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I38">
@@ -11387,7 +11414,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN38" s="2">
@@ -11401,7 +11428,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR38" s="2">
@@ -11415,7 +11442,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AV38" s="2">
@@ -11429,7 +11456,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AZ38" s="2">
@@ -11443,7 +11470,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="BD38" s="2">
@@ -11507,22 +11534,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999987E+219</v>
       </c>
       <c r="D39">
         <v>37</v>
       </c>
       <c r="E39" t="str">
-        <f>I39&amp;","&amp;M39&amp;","&amp;Q39&amp;","&amp;U39&amp;","&amp;Y39&amp;","&amp;AC39&amp;","&amp;AG39&amp;","&amp;AK39&amp;","&amp;AO39&amp;","&amp;AS39&amp;","&amp;AW39&amp;","&amp;BA39&amp;","&amp;BE39&amp;","&amp;BI39&amp;","&amp;BM39&amp;","&amp;BQ39</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F39" t="str">
-        <f>K39&amp;","&amp;O39&amp;","&amp;S39&amp;","&amp;W39&amp;","&amp;AA39&amp;","&amp;AE39&amp;","&amp;AI39&amp;","&amp;AM39&amp;","&amp;AQ39&amp;","&amp;AU39&amp;","&amp;AY39&amp;","&amp;BC39&amp;","&amp;BG39&amp;","&amp;BK39&amp;","&amp;BO39&amp;","&amp;BS39</f>
+        <f t="shared" si="1"/>
         <v>47000000000,3800000000,800000,13200,246000,28000000,3800000,3,3,3,3,2,1,1,1,1</v>
       </c>
       <c r="G39" t="str">
-        <f>L39&amp;","&amp;P39&amp;","&amp;T39&amp;","&amp;X39&amp;","&amp;AB39&amp;","&amp;AF39&amp;","&amp;AJ39&amp;","&amp;AN39&amp;","&amp;AR39&amp;","&amp;AV39&amp;","&amp;AZ39&amp;","&amp;BD39&amp;","&amp;BH39&amp;","&amp;BL39&amp;","&amp;BP39&amp;","&amp;BT39</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I39">
@@ -11623,7 +11650,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN39" s="2">
@@ -11637,7 +11664,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR39" s="2">
@@ -11651,7 +11678,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AV39" s="2">
@@ -11665,7 +11692,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AZ39" s="2">
@@ -11679,7 +11706,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="BD39" s="2">
@@ -11743,22 +11770,22 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="D40">
         <v>38</v>
       </c>
       <c r="E40" t="str">
-        <f>I40&amp;","&amp;M40&amp;","&amp;Q40&amp;","&amp;U40&amp;","&amp;Y40&amp;","&amp;AC40&amp;","&amp;AG40&amp;","&amp;AK40&amp;","&amp;AO40&amp;","&amp;AS40&amp;","&amp;AW40&amp;","&amp;BA40&amp;","&amp;BE40&amp;","&amp;BI40&amp;","&amp;BM40&amp;","&amp;BQ40</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F40" t="str">
-        <f>K40&amp;","&amp;O40&amp;","&amp;S40&amp;","&amp;W40&amp;","&amp;AA40&amp;","&amp;AE40&amp;","&amp;AI40&amp;","&amp;AM40&amp;","&amp;AQ40&amp;","&amp;AU40&amp;","&amp;AY40&amp;","&amp;BC40&amp;","&amp;BG40&amp;","&amp;BK40&amp;","&amp;BO40&amp;","&amp;BS40</f>
+        <f t="shared" si="1"/>
         <v>48000000000,3900000000,850000,13500,252000,28700000,3900000,3,3,3,3,2,1,1,1,1</v>
       </c>
       <c r="G40" t="str">
-        <f>L40&amp;","&amp;P40&amp;","&amp;T40&amp;","&amp;X40&amp;","&amp;AB40&amp;","&amp;AF40&amp;","&amp;AJ40&amp;","&amp;AN40&amp;","&amp;AR40&amp;","&amp;AV40&amp;","&amp;AZ40&amp;","&amp;BD40&amp;","&amp;BH40&amp;","&amp;BL40&amp;","&amp;BP40&amp;","&amp;BT40</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I40">
@@ -11859,7 +11886,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN40" s="2">
@@ -11873,7 +11900,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR40" s="2">
@@ -11887,7 +11914,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AV40" s="2">
@@ -11901,7 +11928,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AZ40" s="2">
@@ -11915,7 +11942,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="BD40" s="2">
@@ -11979,22 +12006,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="D41">
         <v>39</v>
       </c>
       <c r="E41" t="str">
-        <f>I41&amp;","&amp;M41&amp;","&amp;Q41&amp;","&amp;U41&amp;","&amp;Y41&amp;","&amp;AC41&amp;","&amp;AG41&amp;","&amp;AK41&amp;","&amp;AO41&amp;","&amp;AS41&amp;","&amp;AW41&amp;","&amp;BA41&amp;","&amp;BE41&amp;","&amp;BI41&amp;","&amp;BM41&amp;","&amp;BQ41</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F41" t="str">
-        <f>K41&amp;","&amp;O41&amp;","&amp;S41&amp;","&amp;W41&amp;","&amp;AA41&amp;","&amp;AE41&amp;","&amp;AI41&amp;","&amp;AM41&amp;","&amp;AQ41&amp;","&amp;AU41&amp;","&amp;AY41&amp;","&amp;BC41&amp;","&amp;BG41&amp;","&amp;BK41&amp;","&amp;BO41&amp;","&amp;BS41</f>
+        <f t="shared" si="1"/>
         <v>49000000000,4000000000,900000,13800,258000,29400000,4000000,3,3,3,3,3,2,1,1,1</v>
       </c>
       <c r="G41" t="str">
-        <f>L41&amp;","&amp;P41&amp;","&amp;T41&amp;","&amp;X41&amp;","&amp;AB41&amp;","&amp;AF41&amp;","&amp;AJ41&amp;","&amp;AN41&amp;","&amp;AR41&amp;","&amp;AV41&amp;","&amp;AZ41&amp;","&amp;BD41&amp;","&amp;BH41&amp;","&amp;BL41&amp;","&amp;BP41&amp;","&amp;BT41</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I41">
@@ -12095,7 +12122,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN41" s="2">
@@ -12109,7 +12136,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR41" s="2">
@@ -12123,7 +12150,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AV41" s="2">
@@ -12137,7 +12164,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AZ41" s="2">
@@ -12151,7 +12178,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BD41" s="2">
@@ -12216,22 +12243,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999992E+231</v>
       </c>
       <c r="D42">
         <v>40</v>
       </c>
       <c r="E42" t="str">
-        <f>I42&amp;","&amp;M42&amp;","&amp;Q42&amp;","&amp;U42&amp;","&amp;Y42&amp;","&amp;AC42&amp;","&amp;AG42&amp;","&amp;AK42&amp;","&amp;AO42&amp;","&amp;AS42&amp;","&amp;AW42&amp;","&amp;BA42&amp;","&amp;BE42&amp;","&amp;BI42&amp;","&amp;BM42&amp;","&amp;BQ42</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F42" t="str">
-        <f>K42&amp;","&amp;O42&amp;","&amp;S42&amp;","&amp;W42&amp;","&amp;AA42&amp;","&amp;AE42&amp;","&amp;AI42&amp;","&amp;AM42&amp;","&amp;AQ42&amp;","&amp;AU42&amp;","&amp;AY42&amp;","&amp;BC42&amp;","&amp;BG42&amp;","&amp;BK42&amp;","&amp;BO42&amp;","&amp;BS42</f>
+        <f t="shared" si="1"/>
         <v>50000000000,4100000000,950000,14100,264000,30100000,4100000,3,3,3,3,3,2,2,1,1</v>
       </c>
       <c r="G42" t="str">
-        <f>L42&amp;","&amp;P42&amp;","&amp;T42&amp;","&amp;X42&amp;","&amp;AB42&amp;","&amp;AF42&amp;","&amp;AJ42&amp;","&amp;AN42&amp;","&amp;AR42&amp;","&amp;AV42&amp;","&amp;AZ42&amp;","&amp;BD42&amp;","&amp;BH42&amp;","&amp;BL42&amp;","&amp;BP42&amp;","&amp;BT42</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I42">
@@ -12332,7 +12359,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN42" s="2">
@@ -12346,7 +12373,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR42" s="2">
@@ -12360,7 +12387,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AV42" s="2">
@@ -12374,7 +12401,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AZ42" s="2">
@@ -12388,7 +12415,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BD42" s="2">
@@ -12402,7 +12429,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG42" s="2">
-        <f t="shared" ref="BG42:BG49" si="6">BG24+1</f>
+        <f t="shared" ref="BG42:BG49" si="9">BG24+1</f>
         <v>2</v>
       </c>
       <c r="BH42" s="2">
@@ -12454,22 +12481,22 @@
         <v>41</v>
       </c>
       <c r="B43" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999994E+235</v>
       </c>
       <c r="D43" s="8">
         <v>41</v>
       </c>
       <c r="E43" s="8" t="str">
-        <f>I43&amp;","&amp;M43&amp;","&amp;Q43&amp;","&amp;U43&amp;","&amp;Y43&amp;","&amp;AC43&amp;","&amp;AG43&amp;","&amp;AK43&amp;","&amp;AO43&amp;","&amp;AS43&amp;","&amp;AW43&amp;","&amp;BA43&amp;","&amp;BE43&amp;","&amp;BI43&amp;","&amp;BM43&amp;","&amp;BQ43</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F43" s="8" t="str">
-        <f>K43&amp;","&amp;O43&amp;","&amp;S43&amp;","&amp;W43&amp;","&amp;AA43&amp;","&amp;AE43&amp;","&amp;AI43&amp;","&amp;AM43&amp;","&amp;AQ43&amp;","&amp;AU43&amp;","&amp;AY43&amp;","&amp;BC43&amp;","&amp;BG43&amp;","&amp;BK43&amp;","&amp;BO43&amp;","&amp;BS43</f>
+        <f t="shared" si="1"/>
         <v>51000000000,4200000000,1000000,14400,270000,30800000,4200000,4,3,3,3,3,2,2,2,1</v>
       </c>
       <c r="G43" s="8" t="str">
-        <f>L43&amp;","&amp;P43&amp;","&amp;T43&amp;","&amp;X43&amp;","&amp;AB43&amp;","&amp;AF43&amp;","&amp;AJ43&amp;","&amp;AN43&amp;","&amp;AR43&amp;","&amp;AV43&amp;","&amp;AZ43&amp;","&amp;BD43&amp;","&amp;BH43&amp;","&amp;BL43&amp;","&amp;BP43&amp;","&amp;BT43</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I43" s="8">
@@ -12570,7 +12597,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM43" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN43" s="10">
@@ -12584,7 +12611,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ43" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR43" s="10">
@@ -12598,7 +12625,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU43" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AV43" s="10">
@@ -12612,7 +12639,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY43" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AZ43" s="10">
@@ -12626,7 +12653,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC43" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BD43" s="10">
@@ -12640,7 +12667,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG43" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BH43" s="10">
@@ -12654,7 +12681,7 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK43" s="10">
-        <f t="shared" ref="BK43:BK49" si="7">BK26+1</f>
+        <f t="shared" ref="BK43:BK49" si="10">BK26+1</f>
         <v>2</v>
       </c>
       <c r="BL43" s="10">
@@ -12693,22 +12720,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+240</v>
       </c>
       <c r="D44">
         <v>42</v>
       </c>
       <c r="E44" t="str">
-        <f>I44&amp;","&amp;M44&amp;","&amp;Q44&amp;","&amp;U44&amp;","&amp;Y44&amp;","&amp;AC44&amp;","&amp;AG44&amp;","&amp;AK44&amp;","&amp;AO44&amp;","&amp;AS44&amp;","&amp;AW44&amp;","&amp;BA44&amp;","&amp;BE44&amp;","&amp;BI44&amp;","&amp;BM44&amp;","&amp;BQ44</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F44" t="str">
-        <f>K44&amp;","&amp;O44&amp;","&amp;S44&amp;","&amp;W44&amp;","&amp;AA44&amp;","&amp;AE44&amp;","&amp;AI44&amp;","&amp;AM44&amp;","&amp;AQ44&amp;","&amp;AU44&amp;","&amp;AY44&amp;","&amp;BC44&amp;","&amp;BG44&amp;","&amp;BK44&amp;","&amp;BO44&amp;","&amp;BS44</f>
+        <f t="shared" si="1"/>
         <v>52000000000,4300000000,1050000,14700,276000,31500000,4300000,4,3,3,3,3,2,2,2,2</v>
       </c>
       <c r="G44" t="str">
-        <f>L44&amp;","&amp;P44&amp;","&amp;T44&amp;","&amp;X44&amp;","&amp;AB44&amp;","&amp;AF44&amp;","&amp;AJ44&amp;","&amp;AN44&amp;","&amp;AR44&amp;","&amp;AV44&amp;","&amp;AZ44&amp;","&amp;BD44&amp;","&amp;BH44&amp;","&amp;BL44&amp;","&amp;BP44&amp;","&amp;BT44</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I44">
@@ -12809,7 +12836,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN44" s="2">
@@ -12823,7 +12850,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR44" s="2">
@@ -12837,7 +12864,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AV44" s="2">
@@ -12851,7 +12878,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AZ44" s="2">
@@ -12865,7 +12892,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BD44" s="2">
@@ -12879,7 +12906,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BH44" s="2">
@@ -12893,7 +12920,7 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="BL44" s="2">
@@ -12907,7 +12934,7 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO44" s="2">
-        <f t="shared" ref="BO44:BO49" si="8">BO28+1</f>
+        <f t="shared" ref="BO44:BO49" si="11">BO28+1</f>
         <v>2</v>
       </c>
       <c r="BP44" s="2">
@@ -12933,22 +12960,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="D45">
         <v>43</v>
       </c>
       <c r="E45" t="str">
-        <f>I45&amp;","&amp;M45&amp;","&amp;Q45&amp;","&amp;U45&amp;","&amp;Y45&amp;","&amp;AC45&amp;","&amp;AG45&amp;","&amp;AK45&amp;","&amp;AO45&amp;","&amp;AS45&amp;","&amp;AW45&amp;","&amp;BA45&amp;","&amp;BE45&amp;","&amp;BI45&amp;","&amp;BM45&amp;","&amp;BQ45</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F45" t="str">
-        <f>K45&amp;","&amp;O45&amp;","&amp;S45&amp;","&amp;W45&amp;","&amp;AA45&amp;","&amp;AE45&amp;","&amp;AI45&amp;","&amp;AM45&amp;","&amp;AQ45&amp;","&amp;AU45&amp;","&amp;AY45&amp;","&amp;BC45&amp;","&amp;BG45&amp;","&amp;BK45&amp;","&amp;BO45&amp;","&amp;BS45</f>
+        <f t="shared" si="1"/>
         <v>53000000000,4400000000,1100000,15000,282000,32200000,4400000,4,4,3,3,3,2,2,2,2</v>
       </c>
       <c r="G45" t="str">
-        <f>L45&amp;","&amp;P45&amp;","&amp;T45&amp;","&amp;X45&amp;","&amp;AB45&amp;","&amp;AF45&amp;","&amp;AJ45&amp;","&amp;AN45&amp;","&amp;AR45&amp;","&amp;AV45&amp;","&amp;AZ45&amp;","&amp;BD45&amp;","&amp;BH45&amp;","&amp;BL45&amp;","&amp;BP45&amp;","&amp;BT45</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I45">
@@ -13049,7 +13076,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN45" s="2">
@@ -13063,7 +13090,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AR45" s="2">
@@ -13077,7 +13104,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AV45" s="2">
@@ -13091,7 +13118,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AZ45" s="2">
@@ -13105,7 +13132,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC45" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BD45" s="2">
@@ -13119,7 +13146,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BH45" s="2">
@@ -13133,7 +13160,7 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="BL45" s="2">
@@ -13147,7 +13174,7 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="BP45" s="2">
@@ -13161,7 +13188,7 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS45" s="2">
-        <f t="shared" ref="BS45:BS49" si="9">BS33+1</f>
+        <f t="shared" ref="BS45:BS49" si="12">BS33+1</f>
         <v>2</v>
       </c>
       <c r="BT45" s="2">
@@ -13173,22 +13200,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+248</v>
       </c>
       <c r="D46">
         <v>44</v>
       </c>
       <c r="E46" t="str">
-        <f>I46&amp;","&amp;M46&amp;","&amp;Q46&amp;","&amp;U46&amp;","&amp;Y46&amp;","&amp;AC46&amp;","&amp;AG46&amp;","&amp;AK46&amp;","&amp;AO46&amp;","&amp;AS46&amp;","&amp;AW46&amp;","&amp;BA46&amp;","&amp;BE46&amp;","&amp;BI46&amp;","&amp;BM46&amp;","&amp;BQ46</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F46" t="str">
-        <f>K46&amp;","&amp;O46&amp;","&amp;S46&amp;","&amp;W46&amp;","&amp;AA46&amp;","&amp;AE46&amp;","&amp;AI46&amp;","&amp;AM46&amp;","&amp;AQ46&amp;","&amp;AU46&amp;","&amp;AY46&amp;","&amp;BC46&amp;","&amp;BG46&amp;","&amp;BK46&amp;","&amp;BO46&amp;","&amp;BS46</f>
+        <f t="shared" si="1"/>
         <v>54000000000,4500000000,1150000,15300,288000,32900000,4500000,4,4,3,3,3,2,2,2,2</v>
       </c>
       <c r="G46" t="str">
-        <f>L46&amp;","&amp;P46&amp;","&amp;T46&amp;","&amp;X46&amp;","&amp;AB46&amp;","&amp;AF46&amp;","&amp;AJ46&amp;","&amp;AN46&amp;","&amp;AR46&amp;","&amp;AV46&amp;","&amp;AZ46&amp;","&amp;BD46&amp;","&amp;BH46&amp;","&amp;BL46&amp;","&amp;BP46&amp;","&amp;BT46</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I46">
@@ -13289,7 +13316,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN46" s="2">
@@ -13303,7 +13330,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AR46" s="2">
@@ -13317,7 +13344,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AV46" s="2">
@@ -13331,7 +13358,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AZ46" s="2">
@@ -13345,7 +13372,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BD46" s="2">
@@ -13359,7 +13386,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BH46" s="2">
@@ -13373,7 +13400,7 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK46" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="BL46" s="2">
@@ -13387,7 +13414,7 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO46" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="BP46" s="2">
@@ -13401,7 +13428,7 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="BT46" s="2">
@@ -13413,22 +13440,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+252</v>
       </c>
       <c r="D47">
         <v>45</v>
       </c>
       <c r="E47" t="str">
-        <f>I47&amp;","&amp;M47&amp;","&amp;Q47&amp;","&amp;U47&amp;","&amp;Y47&amp;","&amp;AC47&amp;","&amp;AG47&amp;","&amp;AK47&amp;","&amp;AO47&amp;","&amp;AS47&amp;","&amp;AW47&amp;","&amp;BA47&amp;","&amp;BE47&amp;","&amp;BI47&amp;","&amp;BM47&amp;","&amp;BQ47</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F47" t="str">
-        <f>K47&amp;","&amp;O47&amp;","&amp;S47&amp;","&amp;W47&amp;","&amp;AA47&amp;","&amp;AE47&amp;","&amp;AI47&amp;","&amp;AM47&amp;","&amp;AQ47&amp;","&amp;AU47&amp;","&amp;AY47&amp;","&amp;BC47&amp;","&amp;BG47&amp;","&amp;BK47&amp;","&amp;BO47&amp;","&amp;BS47</f>
+        <f t="shared" si="1"/>
         <v>55000000000,4600000000,1200000,15600,294000,33600000,4600000,4,4,4,3,3,2,2,2,2</v>
       </c>
       <c r="G47" t="str">
-        <f>L47&amp;","&amp;P47&amp;","&amp;T47&amp;","&amp;X47&amp;","&amp;AB47&amp;","&amp;AF47&amp;","&amp;AJ47&amp;","&amp;AN47&amp;","&amp;AR47&amp;","&amp;AV47&amp;","&amp;AZ47&amp;","&amp;BD47&amp;","&amp;BH47&amp;","&amp;BL47&amp;","&amp;BP47&amp;","&amp;BT47</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I47">
@@ -13529,7 +13556,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN47" s="2">
@@ -13543,7 +13570,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AR47" s="2">
@@ -13557,7 +13584,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AV47" s="2">
@@ -13571,7 +13598,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AZ47" s="2">
@@ -13585,7 +13612,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BD47" s="2">
@@ -13599,7 +13626,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BH47" s="2">
@@ -13613,7 +13640,7 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="BL47" s="2">
@@ -13627,7 +13654,7 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO47" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="BP47" s="2">
@@ -13641,7 +13668,7 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS47" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="BT47" s="2">
@@ -13653,22 +13680,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+256</v>
       </c>
       <c r="D48">
         <v>46</v>
       </c>
       <c r="E48" t="str">
-        <f>I48&amp;","&amp;M48&amp;","&amp;Q48&amp;","&amp;U48&amp;","&amp;Y48&amp;","&amp;AC48&amp;","&amp;AG48&amp;","&amp;AK48&amp;","&amp;AO48&amp;","&amp;AS48&amp;","&amp;AW48&amp;","&amp;BA48&amp;","&amp;BE48&amp;","&amp;BI48&amp;","&amp;BM48&amp;","&amp;BQ48</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F48" t="str">
-        <f>K48&amp;","&amp;O48&amp;","&amp;S48&amp;","&amp;W48&amp;","&amp;AA48&amp;","&amp;AE48&amp;","&amp;AI48&amp;","&amp;AM48&amp;","&amp;AQ48&amp;","&amp;AU48&amp;","&amp;AY48&amp;","&amp;BC48&amp;","&amp;BG48&amp;","&amp;BK48&amp;","&amp;BO48&amp;","&amp;BS48</f>
+        <f t="shared" si="1"/>
         <v>56000000000,4700000000,1250000,15900,300000,34300000,4700000,4,4,4,3,3,2,2,2,2</v>
       </c>
       <c r="G48" t="str">
-        <f>L48&amp;","&amp;P48&amp;","&amp;T48&amp;","&amp;X48&amp;","&amp;AB48&amp;","&amp;AF48&amp;","&amp;AJ48&amp;","&amp;AN48&amp;","&amp;AR48&amp;","&amp;AV48&amp;","&amp;AZ48&amp;","&amp;BD48&amp;","&amp;BH48&amp;","&amp;BL48&amp;","&amp;BP48&amp;","&amp;BT48</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I48">
@@ -13769,7 +13796,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN48" s="2">
@@ -13783,7 +13810,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AR48" s="2">
@@ -13797,7 +13824,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AV48" s="2">
@@ -13811,7 +13838,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AZ48" s="2">
@@ -13825,7 +13852,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BD48" s="2">
@@ -13839,7 +13866,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BH48" s="2">
@@ -13853,7 +13880,7 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="BL48" s="2">
@@ -13867,7 +13894,7 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO48" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="BP48" s="2">
@@ -13881,7 +13908,7 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS48" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="BT48" s="2">
@@ -13893,22 +13920,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+260</v>
       </c>
       <c r="D49">
         <v>47</v>
       </c>
       <c r="E49" t="str">
-        <f>I49&amp;","&amp;M49&amp;","&amp;Q49&amp;","&amp;U49&amp;","&amp;Y49&amp;","&amp;AC49&amp;","&amp;AG49&amp;","&amp;AK49&amp;","&amp;AO49&amp;","&amp;AS49&amp;","&amp;AW49&amp;","&amp;BA49&amp;","&amp;BE49&amp;","&amp;BI49&amp;","&amp;BM49&amp;","&amp;BQ49</f>
+        <f t="shared" si="0"/>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F49" t="str">
-        <f>K49&amp;","&amp;O49&amp;","&amp;S49&amp;","&amp;W49&amp;","&amp;AA49&amp;","&amp;AE49&amp;","&amp;AI49&amp;","&amp;AM49&amp;","&amp;AQ49&amp;","&amp;AU49&amp;","&amp;AY49&amp;","&amp;BC49&amp;","&amp;BG49&amp;","&amp;BK49&amp;","&amp;BO49&amp;","&amp;BS49</f>
+        <f t="shared" si="1"/>
         <v>57000000000,4800000000,1300000,16200,306000,35000000,4800000,4,4,4,4,3,2,2,2,2</v>
       </c>
       <c r="G49" t="str">
-        <f>L49&amp;","&amp;P49&amp;","&amp;T49&amp;","&amp;X49&amp;","&amp;AB49&amp;","&amp;AF49&amp;","&amp;AJ49&amp;","&amp;AN49&amp;","&amp;AR49&amp;","&amp;AV49&amp;","&amp;AZ49&amp;","&amp;BD49&amp;","&amp;BH49&amp;","&amp;BL49&amp;","&amp;BP49&amp;","&amp;BT49</f>
+        <f t="shared" si="2"/>
         <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
       </c>
       <c r="I49">
@@ -14009,7 +14036,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN49" s="2">
@@ -14023,7 +14050,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AR49" s="2">
@@ -14037,7 +14064,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AV49" s="2">
@@ -14051,7 +14078,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AZ49" s="2">
@@ -14065,7 +14092,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BD49" s="2">
@@ -14079,7 +14106,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BH49" s="2">
@@ -14093,7 +14120,7 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK49" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="BL49" s="2">
@@ -14107,7 +14134,7 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO49" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="BP49" s="2">
@@ -14121,7 +14148,7 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS49" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="BT49" s="2">

--- a/Assets/06.Table/WeeklyBoss.xlsx
+++ b/Assets/06.Table/WeeklyBoss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB3AC00-F5AE-41EB-A145-6538554E8096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17A4312-C27B-45EF-81AD-EF7464D5DAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="125">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +427,12 @@
   <si>
     <t>52000000000,4300000000,1050000,14700,276000,31500000,4300000,4,3,3,3,3,2,2,2,2</t>
   </si>
+  <si>
+    <t>53000000000,4400000000,1100000,15000,282000,32200000,4400000,4,4,3,3,3,2,2,2,2</t>
+  </si>
+  <si>
+    <t>54000000000,4500000000,1150000,15300,288000,32900000,4500000,4,4,3,3,3,2,2,2,2</t>
+  </si>
 </sst>
 </file>
 
@@ -1693,11 +1699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1788,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C44" si="0">C3*10000</f>
+        <f t="shared" ref="C4:C46" si="0">C3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -2761,6 +2767,54 @@
         <v>122</v>
       </c>
       <c r="G44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="D45">
+        <v>10600</v>
+      </c>
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" si="0"/>
+        <v>1E+248</v>
+      </c>
+      <c r="D46">
+        <v>10800</v>
+      </c>
+      <c r="E46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2771,12 +2825,12 @@
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34 C36 C38 C40 C42 C44">
+  <conditionalFormatting sqref="C34 C36 C38 C40 C42 C44:C46">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D31 C32 D32:D44">
+  <conditionalFormatting sqref="C2:D31 C32 D32:D46">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -2790,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6DE2D-0EDB-49C4-8B38-79FA81476413}">
   <dimension ref="A1:BT49"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:G44"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/WeeklyBoss.xlsx
+++ b/Assets/06.Table/WeeklyBoss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17A4312-C27B-45EF-81AD-EF7464D5DAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D202D63-CF7C-4DDE-A690-01C50B689953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="126">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,6 +433,9 @@
   <si>
     <t>54000000000,4500000000,1150000,15300,288000,32900000,4500000,4,4,3,3,3,2,2,2,2</t>
   </si>
+  <si>
+    <t>55000000000,4600000000,1200000,15600,294000,33600000,4600000,4,4,4,3,3,2,2,2,2</t>
+  </si>
 </sst>
 </file>
 
@@ -1699,11 +1702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1794,7 +1797,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C46" si="0">C3*10000</f>
+        <f t="shared" ref="C4:C47" si="0">C3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -2818,9 +2821,33 @@
         <v>66</v>
       </c>
     </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="D47">
+        <v>11000</v>
+      </c>
+      <c r="E47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C33 C35 C37 C39 C41 C43">
+  <conditionalFormatting sqref="C33 C35 C37 C39 C41 C43 C47">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -2830,7 +2857,7 @@
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D31 C32 D32:D46">
+  <conditionalFormatting sqref="C2:D31 C32 D32:D47">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -2844,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6DE2D-0EDB-49C4-8B38-79FA81476413}">
   <dimension ref="A1:BT49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:G46"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/WeeklyBoss.xlsx
+++ b/Assets/06.Table/WeeklyBoss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D202D63-CF7C-4DDE-A690-01C50B689953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D9104A-2611-4412-B3C4-334EA9F8C4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="129">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,6 +436,15 @@
   <si>
     <t>55000000000,4600000000,1200000,15600,294000,33600000,4600000,4,4,4,3,3,2,2,2,2</t>
   </si>
+  <si>
+    <t>56000000000,4700000000,1250000,15900,300000,34300000,4700000,4,4,4,3,3,2,2,2,2</t>
+  </si>
+  <si>
+    <t>57000000000,4800000000,1300000,16200,306000,35000000,4800000,4,4,4,4,3,2,2,2,2</t>
+  </si>
+  <si>
+    <t>58000000000,4900000000,1350000,16500,312000,35700000,4900000,4,4,4,4,3,2,2,2,2</t>
+  </si>
 </sst>
 </file>
 
@@ -1054,348 +1063,439 @@
           </cell>
         </row>
         <row r="49">
+          <cell r="C49">
+            <v>9065</v>
+          </cell>
           <cell r="D49" t="str">
-            <v>명상(수련-명상)</v>
+            <v>혈의 기운</v>
           </cell>
         </row>
         <row r="50">
-          <cell r="C50"/>
+          <cell r="C50">
+            <v>9066</v>
+          </cell>
           <cell r="D50" t="str">
-            <v>여우 정수(메뉴-특수성장)</v>
+            <v>제자 혈자리 전수권</v>
           </cell>
         </row>
         <row r="51">
+          <cell r="C51">
+            <v>9067</v>
+          </cell>
           <cell r="D51" t="str">
-            <v>야차 강화(메뉴-특수성장)</v>
+            <v>임무 증표</v>
           </cell>
         </row>
         <row r="52">
+          <cell r="C52">
+            <v>9068</v>
+          </cell>
           <cell r="D52" t="str">
-            <v>귀문 개방(메뉴-특수성장)</v>
+            <v>초월 광산 소탕권</v>
           </cell>
         </row>
         <row r="53">
+          <cell r="C53">
+            <v>15001</v>
+          </cell>
           <cell r="D53" t="str">
-            <v>도술(메뉴-특수성장)</v>
+            <v>시간 조각</v>
           </cell>
         </row>
         <row r="54">
+          <cell r="C54">
+            <v>15000</v>
+          </cell>
           <cell r="D54" t="str">
-            <v>유물 복원(메뉴-특수성장)</v>
+            <v>시간 정수</v>
           </cell>
         </row>
         <row r="55">
+          <cell r="C55">
+            <v>15002</v>
+          </cell>
           <cell r="D55" t="str">
-            <v>태극 심법(메뉴-특수성장)</v>
+            <v>시간 소탕권</v>
           </cell>
         </row>
         <row r="56">
           <cell r="D56" t="str">
-            <v>환골 탈태(메뉴-특수성장)</v>
+            <v>명상(수련-명상)</v>
           </cell>
         </row>
         <row r="57">
           <cell r="D57" t="str">
-            <v>요도 해방(메뉴-특수성장)</v>
+            <v>여우 정수(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="58">
           <cell r="D58" t="str">
-            <v>제자(메뉴-특수성장)</v>
+            <v>야차 강화(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="59">
           <cell r="D59" t="str">
-            <v>요력 개방(메뉴-특수성장)</v>
+            <v>귀문 개방(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="60">
           <cell r="D60" t="str">
-            <v>사신수의 힘(메뉴-특수성장)</v>
+            <v>도술(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="61">
           <cell r="D61" t="str">
-            <v>업적(메뉴)</v>
+            <v>유물 복원(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="62">
           <cell r="D62" t="str">
-            <v>환수파견(메뉴)</v>
+            <v>태극 심법(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="63">
           <cell r="D63" t="str">
-            <v>강철이전(메뉴)</v>
+            <v>환골 탈태(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="64">
           <cell r="D64" t="str">
-            <v>푸른 강철이(메뉴)</v>
+            <v>요도 해방(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="65">
           <cell r="C65"/>
           <cell r="D65" t="str">
-            <v>적안 마수(메뉴)</v>
+            <v>제자(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="66">
           <cell r="D66" t="str">
-            <v>비무대회(메뉴)</v>
+            <v>요력 개방(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="67">
           <cell r="D67" t="str">
-            <v>검의 산(가방 )</v>
+            <v>사신수의 힘(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="68">
           <cell r="D68" t="str">
-            <v>검의 영혼(가방)</v>
+            <v>업적(메뉴)</v>
           </cell>
         </row>
         <row r="69">
           <cell r="D69" t="str">
-            <v>노리개 수호령(가방)</v>
+            <v>환수파견(메뉴)</v>
           </cell>
         </row>
         <row r="70">
           <cell r="D70" t="str">
-            <v>붉은구미호전(문파)</v>
+            <v>강철이전(메뉴)</v>
           </cell>
         </row>
         <row r="71">
           <cell r="D71" t="str">
-            <v>대산군(문파)</v>
+            <v>푸른 강철이(메뉴)</v>
           </cell>
         </row>
         <row r="72">
           <cell r="C72"/>
           <cell r="D72" t="str">
-            <v>문파 동굴(문파)</v>
+            <v>적안 마수(메뉴)</v>
           </cell>
         </row>
         <row r="73">
-          <cell r="C73">
-            <v>0</v>
-          </cell>
+          <cell r="C73"/>
           <cell r="D73" t="str">
-            <v>반딧불전(요괴사냥-한계돌파)</v>
+            <v>특별 임무(메뉴)</v>
           </cell>
         </row>
         <row r="74">
           <cell r="D74" t="str">
-            <v>요괴도장(요괴사냥-한계돌파)</v>
+            <v>시간의 틈(메뉴)</v>
           </cell>
         </row>
         <row r="75">
           <cell r="D75" t="str">
-            <v>고양이요괴전(요괴사냥-보스도전)</v>
+            <v>비무 대회(메뉴)</v>
           </cell>
         </row>
         <row r="76">
           <cell r="D76" t="str">
-            <v>도깨비전(요괴사냥-한계돌파)</v>
+            <v>검의 산(가방 )</v>
           </cell>
         </row>
         <row r="77">
           <cell r="D77" t="str">
-            <v>도깨비 대장간(요괴사냥-한계돌파)</v>
+            <v>검의 영혼(가방)</v>
           </cell>
         </row>
         <row r="78">
           <cell r="D78" t="str">
-            <v>영혼의숲(요괴사냥-한계돌파)</v>
+            <v>노리개 수호령(가방)</v>
           </cell>
         </row>
         <row r="79">
           <cell r="D79" t="str">
-            <v>태극도장(요괴사냥-한계돌파)</v>
+            <v>붉은구미호전(문파)</v>
           </cell>
         </row>
         <row r="80">
           <cell r="D80" t="str">
-            <v>12요괴전(요괴사냥-보스도전)</v>
+            <v>대산군(문파)</v>
           </cell>
         </row>
         <row r="81">
           <cell r="D81" t="str">
-            <v>백귀야행(요괴사냥-한계돌파)</v>
+            <v>문파 동굴(문파)</v>
           </cell>
         </row>
         <row r="82">
+          <cell r="C82">
+            <v>0</v>
+          </cell>
           <cell r="D82" t="str">
-            <v>구미호전(요괴사냥-보스도전)</v>
+            <v>반딧불전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="83">
           <cell r="D83" t="str">
-            <v>부처님전(요괴사냥-한계돌파)</v>
+            <v>요괴도장(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="84">
           <cell r="D84" t="str">
-            <v>악귀퇴치/악의씨앗(요괴사냥-한계돌파)</v>
+            <v>고양이요괴전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="85">
           <cell r="D85" t="str">
-            <v>신요괴전(요괴사냥-보스도전)</v>
+            <v>도깨비전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="86">
           <cell r="D86" t="str">
-            <v>요괴탈/귀신나무(요괴사냥-한계돌파)</v>
+            <v>도깨비 대장간(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="87">
           <cell r="D87" t="str">
-            <v>수호신(요괴사냥-보스도전)</v>
+            <v>영혼의숲(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="88">
           <cell r="D88" t="str">
-            <v>요괴지옥(요괴사냥-삼천세계)</v>
+            <v>태극도장(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="89">
           <cell r="D89" t="str">
-            <v>십만대산(요괴사냥)</v>
+            <v>12요괴전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="90">
           <cell r="D90" t="str">
-            <v>천상계(요괴사냥-삼천세계)</v>
+            <v>백귀야행(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="91">
           <cell r="D91" t="str">
-            <v>왕의 시련(요괴사냥-한계돌파)</v>
+            <v>구미호전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="92">
           <cell r="D92" t="str">
-            <v>사냥꾼시험(요괴사냥-한계돌파)</v>
+            <v>부처님전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="93">
           <cell r="D93" t="str">
-            <v>비전 전수(요괴사냥-한계돌파)</v>
+            <v>악귀퇴치/악의씨앗(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="94">
           <cell r="D94" t="str">
-            <v>도깨비나라(요괴사냥-삼천세계)</v>
+            <v>신요괴전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="95">
           <cell r="D95" t="str">
-            <v>사신수별자리(요괴사냥-보스도전)</v>
+            <v>요괴탈/귀신나무(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="96">
           <cell r="D96" t="str">
-            <v>수호동물전(요괴사냥-한계돌파)</v>
+            <v>수호신(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="97">
           <cell r="D97" t="str">
-            <v>여우굴(요괴사냥-한계돌파)</v>
+            <v>요괴지옥(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="98">
           <cell r="D98" t="str">
-            <v>초월동굴(요괴사냥-한계돌파)</v>
+            <v>십만대산(요괴사냥)</v>
           </cell>
         </row>
         <row r="99">
           <cell r="D99" t="str">
-            <v>사흉수(요괴사냥-보스도전)</v>
+            <v>천상계(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="100">
           <cell r="D100" t="str">
-            <v>수미산(요괴사냥-삼천세계)</v>
+            <v>왕의 시련(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="101">
           <cell r="D101" t="str">
-            <v>신의 시련(요괴사냥-한계돌파)</v>
+            <v>사냥꾼시험(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="102">
           <cell r="D102" t="str">
-            <v>사룡전(요괴사냥-보스도전)</v>
+            <v>비전 전수(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="103">
           <cell r="D103" t="str">
-            <v>단전강화(요괴사냥-한계돌파)</v>
+            <v>도깨비나라(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="104">
           <cell r="D104" t="str">
-            <v>여우전(요괴사냥-보스도전)</v>
+            <v>사신수별자리(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="105">
           <cell r="D105" t="str">
-            <v>도적단(요괴사냥-삼천세계)</v>
+            <v>수호동물전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="106">
           <cell r="D106" t="str">
-            <v>심연(요괴사냥-삼천세계)</v>
+            <v>여우굴(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="107">
           <cell r="D107" t="str">
-            <v>폐관수련(요괴사냥-한계돌파)</v>
+            <v>초월동굴(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="108">
           <cell r="D108" t="str">
-            <v>산군전(요괴사냥-보스도전)</v>
+            <v>사흉수(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="109">
           <cell r="D109" t="str">
-            <v>검은구미호전(요괴사냥-한계돌파)</v>
+            <v>수미산(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="110">
           <cell r="D110" t="str">
-            <v>천구전(요괴사냥-보스도전)</v>
+            <v>신의 시련(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="111">
           <cell r="D111" t="str">
-            <v>수인전(요괴사냥-보스도전)</v>
+            <v>사룡전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="112">
           <cell r="D112" t="str">
-            <v>수호의 시련(요괴사냥-보스도전)</v>
+            <v>단전강화(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="113">
           <cell r="D113" t="str">
-            <v>신선계(요괴사냥-삼천세계)</v>
+            <v>여우전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="114">
           <cell r="D114" t="str">
-            <v>현상수배(요괴사냥)</v>
+            <v>도적단(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="115">
           <cell r="D115" t="str">
-            <v>데미지 단위</v>
+            <v>심연(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="116">
           <cell r="D116" t="str">
+            <v>폐관수련(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="D117" t="str">
+            <v>산군전(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="D118" t="str">
+            <v>검은구미호전(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="D119" t="str">
+            <v>천구전(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="D120" t="str">
+            <v>초월광산(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="D121" t="str">
+            <v>수인전(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="D122" t="str">
+            <v>수호의 시련(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="D123" t="str">
+            <v>신선계(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="D124" t="str">
+            <v>용인계(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="D125" t="str">
+            <v>용궁(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="D126" t="str">
+            <v>무림고수(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="D127" t="str">
+            <v>극락(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="D128" t="str">
+            <v>현상수배(요괴사냥)</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="D129" t="str">
+            <v>데미지 단위</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="D130" t="str">
             <v>스테이지</v>
           </cell>
         </row>
@@ -1702,11 +1802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1797,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C47" si="0">C3*10000</f>
+        <f t="shared" ref="C4:C50" si="0">C3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -2845,19 +2945,91 @@
         <v>66</v>
       </c>
     </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="0"/>
+        <v>1E+256</v>
+      </c>
+      <c r="D48">
+        <v>11200</v>
+      </c>
+      <c r="E48" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="D49">
+        <v>11400</v>
+      </c>
+      <c r="E49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="0"/>
+        <v>1E+264</v>
+      </c>
+      <c r="D50">
+        <v>11600</v>
+      </c>
+      <c r="E50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C33 C35 C37 C39 C41 C43 C47">
+  <conditionalFormatting sqref="C33 C35 C37 C39 C41 C43 C47:C48">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34 C36 C38 C40 C42 C44:C46">
+  <conditionalFormatting sqref="C34 C36 C38 C40 C42 C44:C46 C49:C50">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D31 C32 D32:D47">
+  <conditionalFormatting sqref="C2:D31 C32 D32:D50">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>#REF!=5</formula>
     </cfRule>
@@ -2869,10 +3041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6DE2D-0EDB-49C4-8B38-79FA81476413}">
-  <dimension ref="A1:BT49"/>
+  <dimension ref="A1:BT66"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47:G47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3556,7 +3728,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B49" si="3">B3*10000</f>
+        <f t="shared" ref="B4:B59" si="3">B3*10000</f>
         <v>9.9999999999999987E+79</v>
       </c>
       <c r="D4">
@@ -8195,7 +8367,7 @@
         <v>영혼석 소탕권</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" ref="AM24:AM49" si="4">AM14+1</f>
+        <f t="shared" ref="AM24:AM66" si="4">AM14+1</f>
         <v>2</v>
       </c>
       <c r="AN24" s="2">
@@ -8675,7 +8847,7 @@
         <v>수호환 소탕권</v>
       </c>
       <c r="AQ26" s="2">
-        <f t="shared" ref="AQ26:AQ49" si="5">AQ16+1</f>
+        <f t="shared" ref="AQ26:AQ66" si="5">AQ16+1</f>
         <v>2</v>
       </c>
       <c r="AR26" s="2">
@@ -9159,7 +9331,7 @@
         <v>여우불씨 소탕권</v>
       </c>
       <c r="AU28" s="2">
-        <f t="shared" ref="AU28:AU49" si="6">AU18+1</f>
+        <f t="shared" ref="AU28:AU66" si="6">AU18+1</f>
         <v>2</v>
       </c>
       <c r="AV28" s="2">
@@ -9646,7 +9818,7 @@
         <v>도술꽃 소탕권</v>
       </c>
       <c r="AY30" s="2">
-        <f t="shared" ref="AY30:AY49" si="7">AY20+1</f>
+        <f t="shared" ref="AY30:AY66" si="7">AY20+1</f>
         <v>2</v>
       </c>
       <c r="AZ30" s="2">
@@ -10843,7 +11015,7 @@
         <v>내면세계 입장권</v>
       </c>
       <c r="BC35" s="2">
-        <f t="shared" ref="BC35:BC49" si="8">BC25+1</f>
+        <f t="shared" ref="BC35:BC66" si="8">BC25+1</f>
         <v>2</v>
       </c>
       <c r="BD35" s="2">
@@ -12510,7 +12682,7 @@
         <v>태극 영약</v>
       </c>
       <c r="BG42" s="2">
-        <f t="shared" ref="BG42:BG49" si="9">BG24+1</f>
+        <f t="shared" ref="BG42:BG66" si="9">BG24+1</f>
         <v>2</v>
       </c>
       <c r="BH42" s="2">
@@ -12762,7 +12934,7 @@
         <v>검은 구미호 구슬 소탕권</v>
       </c>
       <c r="BK43" s="10">
-        <f t="shared" ref="BK43:BK49" si="10">BK26+1</f>
+        <f t="shared" ref="BK43:BK66" si="10">BK26+1</f>
         <v>2</v>
       </c>
       <c r="BL43" s="10">
@@ -13015,7 +13187,7 @@
         <v>수련의 방 입장권</v>
       </c>
       <c r="BO44" s="2">
-        <f t="shared" ref="BO44:BO49" si="11">BO28+1</f>
+        <f t="shared" ref="BO44:BO66" si="11">BO28+1</f>
         <v>2</v>
       </c>
       <c r="BP44" s="2">
@@ -13269,7 +13441,7 @@
         <v>사신수 영약</v>
       </c>
       <c r="BS45" s="2">
-        <f t="shared" ref="BS45:BS49" si="12">BS33+1</f>
+        <f t="shared" ref="BS45:BS66" si="12">BS33+1</f>
         <v>2</v>
       </c>
       <c r="BT45" s="2">
@@ -13768,7 +13940,7 @@
         <v>46</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="0"/>
+        <f>I48&amp;","&amp;M48&amp;","&amp;Q48&amp;","&amp;U48&amp;","&amp;Y48&amp;","&amp;AC48&amp;","&amp;AG48&amp;","&amp;AK48&amp;","&amp;AO48&amp;","&amp;AS48&amp;","&amp;AW48&amp;","&amp;BA48&amp;","&amp;BE48&amp;","&amp;BI48&amp;","&amp;BM48&amp;","&amp;BQ48</f>
         <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
       </c>
       <c r="F48" t="str">
@@ -14233,6 +14405,3932 @@
         <v>2</v>
       </c>
       <c r="BT49" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" si="3"/>
+        <v>1E+264</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" ref="E50:E59" si="13">I50&amp;","&amp;M50&amp;","&amp;Q50&amp;","&amp;U50&amp;","&amp;Y50&amp;","&amp;AC50&amp;","&amp;AG50&amp;","&amp;AK50&amp;","&amp;AO50&amp;","&amp;AS50&amp;","&amp;AW50&amp;","&amp;BA50&amp;","&amp;BE50&amp;","&amp;BI50&amp;","&amp;BM50&amp;","&amp;BQ50</f>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" ref="F50:F59" si="14">K50&amp;","&amp;O50&amp;","&amp;S50&amp;","&amp;W50&amp;","&amp;AA50&amp;","&amp;AE50&amp;","&amp;AI50&amp;","&amp;AM50&amp;","&amp;AQ50&amp;","&amp;AU50&amp;","&amp;AY50&amp;","&amp;BC50&amp;","&amp;BG50&amp;","&amp;BK50&amp;","&amp;BO50&amp;","&amp;BS50</f>
+        <v>58000000000,4900000000,1350000,16500,312000,35700000,4900000,4,4,4,4,3,2,2,2,2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" ref="G50:G59" si="15">L50&amp;","&amp;P50&amp;","&amp;T50&amp;","&amp;X50&amp;","&amp;AB50&amp;","&amp;AF50&amp;","&amp;AJ50&amp;","&amp;AN50&amp;","&amp;AR50&amp;","&amp;AV50&amp;","&amp;AZ50&amp;","&amp;BD50&amp;","&amp;BH50&amp;","&amp;BL50&amp;","&amp;BP50&amp;","&amp;BT50</f>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50" t="str">
+        <f>VLOOKUP(I50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K50" s="2">
+        <v>58000000000</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>59</v>
+      </c>
+      <c r="O50" s="2">
+        <v>4900000000</v>
+      </c>
+      <c r="P50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>46</v>
+      </c>
+      <c r="R50" t="str">
+        <f>VLOOKUP(Q50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S50" s="2">
+        <v>1350000</v>
+      </c>
+      <c r="T50" s="2">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>9016</v>
+      </c>
+      <c r="V50" t="str">
+        <f>VLOOKUP(U50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W50" s="2">
+        <v>16500</v>
+      </c>
+      <c r="X50" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y50">
+        <v>9026</v>
+      </c>
+      <c r="Z50" t="str">
+        <f>VLOOKUP(Y50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>312000</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC50">
+        <v>9032</v>
+      </c>
+      <c r="AD50" t="str">
+        <f>VLOOKUP(AC50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>35700000</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG50">
+        <v>9043</v>
+      </c>
+      <c r="AH50" t="str">
+        <f>VLOOKUP(AG50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI50" s="2">
+        <v>4900000</v>
+      </c>
+      <c r="AJ50" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK50">
+        <v>9023</v>
+      </c>
+      <c r="AL50" t="str">
+        <f>VLOOKUP(AK50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM50" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>9017</v>
+      </c>
+      <c r="AP50" t="str">
+        <f>VLOOKUP(AO50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ50" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AR50" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS50">
+        <v>9027</v>
+      </c>
+      <c r="AT50" t="str">
+        <f>VLOOKUP(AS50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU50" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AV50" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW50">
+        <v>9033</v>
+      </c>
+      <c r="AX50" t="str">
+        <f>VLOOKUP(AW50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY50" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AZ50" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA50">
+        <v>9044</v>
+      </c>
+      <c r="BB50" t="str">
+        <f>VLOOKUP(BA50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC50" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BD50" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE50">
+        <v>9050</v>
+      </c>
+      <c r="BF50" t="str">
+        <f>VLOOKUP(BE50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG50" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BH50" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI50">
+        <v>9053</v>
+      </c>
+      <c r="BJ50" t="str">
+        <f>VLOOKUP(BI50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK50" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BL50" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM50">
+        <v>9055</v>
+      </c>
+      <c r="BN50" t="str">
+        <f>VLOOKUP(BM50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO50" s="2">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BP50" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ50" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR50" t="str">
+        <f>VLOOKUP(BQ50,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS50" s="2">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BT50" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999997E+267</v>
+      </c>
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="13"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="14"/>
+        <v>59000000000,5000000000,1400000,16800,318000,36400000,5000000,4,4,4,4,4,2,2,2,2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="15"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51" t="str">
+        <f>VLOOKUP(I51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K51" s="2">
+        <v>59000000000</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>59</v>
+      </c>
+      <c r="O51" s="2">
+        <v>5000000000</v>
+      </c>
+      <c r="P51" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>46</v>
+      </c>
+      <c r="R51" t="str">
+        <f>VLOOKUP(Q51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S51" s="2">
+        <v>1400000</v>
+      </c>
+      <c r="T51" s="2">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>9016</v>
+      </c>
+      <c r="V51" t="str">
+        <f>VLOOKUP(U51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W51" s="2">
+        <v>16800</v>
+      </c>
+      <c r="X51" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y51">
+        <v>9026</v>
+      </c>
+      <c r="Z51" t="str">
+        <f>VLOOKUP(Y51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>318000</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC51">
+        <v>9032</v>
+      </c>
+      <c r="AD51" t="str">
+        <f>VLOOKUP(AC51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>36400000</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG51">
+        <v>9043</v>
+      </c>
+      <c r="AH51" t="str">
+        <f>VLOOKUP(AG51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI51" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="AJ51" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK51">
+        <v>9023</v>
+      </c>
+      <c r="AL51" t="str">
+        <f>VLOOKUP(AK51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM51" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AN51" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO51">
+        <v>9017</v>
+      </c>
+      <c r="AP51" t="str">
+        <f>VLOOKUP(AO51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ51" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AR51" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS51">
+        <v>9027</v>
+      </c>
+      <c r="AT51" t="str">
+        <f>VLOOKUP(AS51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU51" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AV51" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>9033</v>
+      </c>
+      <c r="AX51" t="str">
+        <f>VLOOKUP(AW51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY51" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AZ51" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA51">
+        <v>9044</v>
+      </c>
+      <c r="BB51" t="str">
+        <f>VLOOKUP(BA51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC51" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="BD51" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE51">
+        <v>9050</v>
+      </c>
+      <c r="BF51" t="str">
+        <f>VLOOKUP(BE51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG51" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BH51" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI51">
+        <v>9053</v>
+      </c>
+      <c r="BJ51" t="str">
+        <f>VLOOKUP(BI51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK51" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BL51" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM51">
+        <v>9055</v>
+      </c>
+      <c r="BN51" t="str">
+        <f>VLOOKUP(BM51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO51" s="2">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BP51" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ51" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR51" t="str">
+        <f>VLOOKUP(BQ51,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS51" s="2">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BT51" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999992E+271</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="13"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="14"/>
+        <v>60000000000,5100000000,1450000,17100,324000,37100000,5100000,4,4,4,4,4,2,2,2,2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="15"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="str">
+        <f>VLOOKUP(I52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K52" s="2">
+        <v>60000000000</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>59</v>
+      </c>
+      <c r="O52" s="2">
+        <v>5100000000</v>
+      </c>
+      <c r="P52" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>46</v>
+      </c>
+      <c r="R52" t="str">
+        <f>VLOOKUP(Q52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S52" s="2">
+        <v>1450000</v>
+      </c>
+      <c r="T52" s="2">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>9016</v>
+      </c>
+      <c r="V52" t="str">
+        <f>VLOOKUP(U52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W52" s="2">
+        <v>17100</v>
+      </c>
+      <c r="X52" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y52">
+        <v>9026</v>
+      </c>
+      <c r="Z52" t="str">
+        <f>VLOOKUP(Y52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>324000</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC52">
+        <v>9032</v>
+      </c>
+      <c r="AD52" t="str">
+        <f>VLOOKUP(AC52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE52" s="2">
+        <v>37100000</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG52">
+        <v>9043</v>
+      </c>
+      <c r="AH52" t="str">
+        <f>VLOOKUP(AG52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI52" s="2">
+        <v>5100000</v>
+      </c>
+      <c r="AJ52" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK52">
+        <v>9023</v>
+      </c>
+      <c r="AL52" t="str">
+        <f>VLOOKUP(AK52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM52" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AN52" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <v>9017</v>
+      </c>
+      <c r="AP52" t="str">
+        <f>VLOOKUP(AO52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ52" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AR52" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS52">
+        <v>9027</v>
+      </c>
+      <c r="AT52" t="str">
+        <f>VLOOKUP(AS52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU52" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AV52" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW52">
+        <v>9033</v>
+      </c>
+      <c r="AX52" t="str">
+        <f>VLOOKUP(AW52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY52" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AZ52" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA52">
+        <v>9044</v>
+      </c>
+      <c r="BB52" t="str">
+        <f>VLOOKUP(BA52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC52" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="BD52" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE52">
+        <v>9050</v>
+      </c>
+      <c r="BF52" t="str">
+        <f>VLOOKUP(BE52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG52" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BH52" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI52">
+        <v>9053</v>
+      </c>
+      <c r="BJ52" t="str">
+        <f>VLOOKUP(BI52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK52" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BL52" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM52">
+        <v>9055</v>
+      </c>
+      <c r="BN52" t="str">
+        <f>VLOOKUP(BM52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO52" s="2">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BP52" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ52" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR52" t="str">
+        <f>VLOOKUP(BQ52,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS52" s="2">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BT52" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999993E+275</v>
+      </c>
+      <c r="D53">
+        <v>51</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="13"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="14"/>
+        <v>61000000000,5200000000,1500000,17400,330000,37800000,5200000,5,4,4,4,4,2,2,2,2</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="15"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" t="str">
+        <f>VLOOKUP(I53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K53" s="2">
+        <v>61000000000</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>59</v>
+      </c>
+      <c r="O53" s="2">
+        <v>5200000000</v>
+      </c>
+      <c r="P53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>46</v>
+      </c>
+      <c r="R53" t="str">
+        <f>VLOOKUP(Q53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S53" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="T53" s="2">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>9016</v>
+      </c>
+      <c r="V53" t="str">
+        <f>VLOOKUP(U53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W53" s="2">
+        <v>17400</v>
+      </c>
+      <c r="X53" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y53">
+        <v>9026</v>
+      </c>
+      <c r="Z53" t="str">
+        <f>VLOOKUP(Y53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>330000</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC53">
+        <v>9032</v>
+      </c>
+      <c r="AD53" t="str">
+        <f>VLOOKUP(AC53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>37800000</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG53">
+        <v>9043</v>
+      </c>
+      <c r="AH53" t="str">
+        <f>VLOOKUP(AG53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI53" s="2">
+        <v>5200000</v>
+      </c>
+      <c r="AJ53" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK53">
+        <v>9023</v>
+      </c>
+      <c r="AL53" t="str">
+        <f>VLOOKUP(AK53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM53" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AN53" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO53">
+        <v>9017</v>
+      </c>
+      <c r="AP53" t="str">
+        <f>VLOOKUP(AO53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ53" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AR53" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS53">
+        <v>9027</v>
+      </c>
+      <c r="AT53" t="str">
+        <f>VLOOKUP(AS53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU53" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AV53" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW53">
+        <v>9033</v>
+      </c>
+      <c r="AX53" t="str">
+        <f>VLOOKUP(AW53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY53" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AZ53" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA53">
+        <v>9044</v>
+      </c>
+      <c r="BB53" t="str">
+        <f>VLOOKUP(BA53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC53" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="BD53" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE53">
+        <v>9050</v>
+      </c>
+      <c r="BF53" t="str">
+        <f>VLOOKUP(BE53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG53" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BH53" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI53">
+        <v>9053</v>
+      </c>
+      <c r="BJ53" t="str">
+        <f>VLOOKUP(BI53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK53" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BL53" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM53">
+        <v>9055</v>
+      </c>
+      <c r="BN53" t="str">
+        <f>VLOOKUP(BM53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO53" s="2">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BP53" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ53" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR53" t="str">
+        <f>VLOOKUP(BQ53,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS53" s="2">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BT53" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999983E+279</v>
+      </c>
+      <c r="D54">
+        <v>52</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="13"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="14"/>
+        <v>62000000000,5300000000,1550000,17700,336000,38500000,5300000,5,4,4,4,4,2,2,2,2</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="15"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54" t="str">
+        <f>VLOOKUP(I54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K54" s="2">
+        <v>62000000000</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O54" s="2">
+        <v>5300000000</v>
+      </c>
+      <c r="P54" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>46</v>
+      </c>
+      <c r="R54" t="str">
+        <f>VLOOKUP(Q54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S54" s="2">
+        <v>1550000</v>
+      </c>
+      <c r="T54" s="2">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>9016</v>
+      </c>
+      <c r="V54" t="str">
+        <f>VLOOKUP(U54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W54" s="2">
+        <v>17700</v>
+      </c>
+      <c r="X54" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y54">
+        <v>9026</v>
+      </c>
+      <c r="Z54" t="str">
+        <f>VLOOKUP(Y54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>336000</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC54">
+        <v>9032</v>
+      </c>
+      <c r="AD54" t="str">
+        <f>VLOOKUP(AC54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE54" s="2">
+        <v>38500000</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG54">
+        <v>9043</v>
+      </c>
+      <c r="AH54" t="str">
+        <f>VLOOKUP(AG54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI54" s="2">
+        <v>5300000</v>
+      </c>
+      <c r="AJ54" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK54">
+        <v>9023</v>
+      </c>
+      <c r="AL54" t="str">
+        <f>VLOOKUP(AK54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM54" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO54">
+        <v>9017</v>
+      </c>
+      <c r="AP54" t="str">
+        <f>VLOOKUP(AO54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ54" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AR54" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS54">
+        <v>9027</v>
+      </c>
+      <c r="AT54" t="str">
+        <f>VLOOKUP(AS54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU54" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AV54" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW54">
+        <v>9033</v>
+      </c>
+      <c r="AX54" t="str">
+        <f>VLOOKUP(AW54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY54" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AZ54" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA54">
+        <v>9044</v>
+      </c>
+      <c r="BB54" t="str">
+        <f>VLOOKUP(BA54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC54" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="BD54" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE54">
+        <v>9050</v>
+      </c>
+      <c r="BF54" t="str">
+        <f>VLOOKUP(BE54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG54" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BH54" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI54">
+        <v>9053</v>
+      </c>
+      <c r="BJ54" t="str">
+        <f>VLOOKUP(BI54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK54" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BL54" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM54">
+        <v>9055</v>
+      </c>
+      <c r="BN54" t="str">
+        <f>VLOOKUP(BM54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO54" s="2">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BP54" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ54" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR54" t="str">
+        <f>VLOOKUP(BQ54,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS54" s="2">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BT54" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999975E+283</v>
+      </c>
+      <c r="D55">
+        <v>53</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="13"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="14"/>
+        <v>63000000000,5400000000,1600000,18000,342000,39200000,5400000,5,5,4,4,4,2,2,2,2</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="15"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55" t="str">
+        <f>VLOOKUP(I55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K55" s="2">
+        <v>63000000000</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>59</v>
+      </c>
+      <c r="O55" s="2">
+        <v>5400000000</v>
+      </c>
+      <c r="P55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>46</v>
+      </c>
+      <c r="R55" t="str">
+        <f>VLOOKUP(Q55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S55" s="2">
+        <v>1600000</v>
+      </c>
+      <c r="T55" s="2">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>9016</v>
+      </c>
+      <c r="V55" t="str">
+        <f>VLOOKUP(U55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W55" s="2">
+        <v>18000</v>
+      </c>
+      <c r="X55" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y55">
+        <v>9026</v>
+      </c>
+      <c r="Z55" t="str">
+        <f>VLOOKUP(Y55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>342000</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC55">
+        <v>9032</v>
+      </c>
+      <c r="AD55" t="str">
+        <f>VLOOKUP(AC55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE55" s="2">
+        <v>39200000</v>
+      </c>
+      <c r="AF55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG55">
+        <v>9043</v>
+      </c>
+      <c r="AH55" t="str">
+        <f>VLOOKUP(AG55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI55" s="2">
+        <v>5400000</v>
+      </c>
+      <c r="AJ55" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>9023</v>
+      </c>
+      <c r="AL55" t="str">
+        <f>VLOOKUP(AK55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM55" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AN55" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO55">
+        <v>9017</v>
+      </c>
+      <c r="AP55" t="str">
+        <f>VLOOKUP(AO55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ55" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AR55" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS55">
+        <v>9027</v>
+      </c>
+      <c r="AT55" t="str">
+        <f>VLOOKUP(AS55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU55" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AV55" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW55">
+        <v>9033</v>
+      </c>
+      <c r="AX55" t="str">
+        <f>VLOOKUP(AW55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY55" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AZ55" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA55">
+        <v>9044</v>
+      </c>
+      <c r="BB55" t="str">
+        <f>VLOOKUP(BA55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC55" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="BD55" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE55">
+        <v>9050</v>
+      </c>
+      <c r="BF55" t="str">
+        <f>VLOOKUP(BE55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG55" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BH55" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI55">
+        <v>9053</v>
+      </c>
+      <c r="BJ55" t="str">
+        <f>VLOOKUP(BI55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK55" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BL55" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM55">
+        <v>9055</v>
+      </c>
+      <c r="BN55" t="str">
+        <f>VLOOKUP(BM55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO55" s="2">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BP55" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ55" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR55" t="str">
+        <f>VLOOKUP(BQ55,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS55" s="2">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BT55" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999974E+287</v>
+      </c>
+      <c r="D56">
+        <v>54</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="13"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="14"/>
+        <v>64000000000,5500000000,1650000,18300,348000,39900000,5500000,5,5,4,4,4,2,2,2,3</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="15"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56" t="str">
+        <f>VLOOKUP(I56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K56" s="2">
+        <v>64000000000</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>59</v>
+      </c>
+      <c r="O56" s="2">
+        <v>5500000000</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>46</v>
+      </c>
+      <c r="R56" t="str">
+        <f>VLOOKUP(Q56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S56" s="2">
+        <v>1650000</v>
+      </c>
+      <c r="T56" s="2">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>9016</v>
+      </c>
+      <c r="V56" t="str">
+        <f>VLOOKUP(U56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W56" s="2">
+        <v>18300</v>
+      </c>
+      <c r="X56" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y56">
+        <v>9026</v>
+      </c>
+      <c r="Z56" t="str">
+        <f>VLOOKUP(Y56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>348000</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC56">
+        <v>9032</v>
+      </c>
+      <c r="AD56" t="str">
+        <f>VLOOKUP(AC56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE56" s="2">
+        <v>39900000</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG56">
+        <v>9043</v>
+      </c>
+      <c r="AH56" t="str">
+        <f>VLOOKUP(AG56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI56" s="2">
+        <v>5500000</v>
+      </c>
+      <c r="AJ56" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK56">
+        <v>9023</v>
+      </c>
+      <c r="AL56" t="str">
+        <f>VLOOKUP(AK56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM56" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AN56" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO56">
+        <v>9017</v>
+      </c>
+      <c r="AP56" t="str">
+        <f>VLOOKUP(AO56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ56" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AR56" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS56">
+        <v>9027</v>
+      </c>
+      <c r="AT56" t="str">
+        <f>VLOOKUP(AS56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU56" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AV56" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW56">
+        <v>9033</v>
+      </c>
+      <c r="AX56" t="str">
+        <f>VLOOKUP(AW56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY56" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AZ56" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA56">
+        <v>9044</v>
+      </c>
+      <c r="BB56" t="str">
+        <f>VLOOKUP(BA56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC56" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="BD56" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE56">
+        <v>9050</v>
+      </c>
+      <c r="BF56" t="str">
+        <f>VLOOKUP(BE56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG56" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BH56" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI56">
+        <v>9053</v>
+      </c>
+      <c r="BJ56" t="str">
+        <f>VLOOKUP(BI56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK56" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BL56" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM56">
+        <v>9055</v>
+      </c>
+      <c r="BN56" t="str">
+        <f>VLOOKUP(BM56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO56" s="2">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BP56" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ56" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR56" t="str">
+        <f>VLOOKUP(BQ56,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS56" s="2">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BT56" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999979E+291</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="13"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="14"/>
+        <v>65000000000,5600000000,1700000,18600,354000,40600000,5600000,5,5,5,4,4,2,2,2,3</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="15"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57" t="str">
+        <f>VLOOKUP(I57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K57" s="2">
+        <v>65000000000</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>59</v>
+      </c>
+      <c r="O57" s="2">
+        <v>5600000000</v>
+      </c>
+      <c r="P57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>46</v>
+      </c>
+      <c r="R57" t="str">
+        <f>VLOOKUP(Q57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S57" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="T57" s="2">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>9016</v>
+      </c>
+      <c r="V57" t="str">
+        <f>VLOOKUP(U57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W57" s="2">
+        <v>18600</v>
+      </c>
+      <c r="X57" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y57">
+        <v>9026</v>
+      </c>
+      <c r="Z57" t="str">
+        <f>VLOOKUP(Y57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>354000</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC57">
+        <v>9032</v>
+      </c>
+      <c r="AD57" t="str">
+        <f>VLOOKUP(AC57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE57" s="2">
+        <v>40600000</v>
+      </c>
+      <c r="AF57" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG57">
+        <v>9043</v>
+      </c>
+      <c r="AH57" t="str">
+        <f>VLOOKUP(AG57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI57" s="2">
+        <v>5600000</v>
+      </c>
+      <c r="AJ57" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK57">
+        <v>9023</v>
+      </c>
+      <c r="AL57" t="str">
+        <f>VLOOKUP(AK57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM57" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AN57" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO57">
+        <v>9017</v>
+      </c>
+      <c r="AP57" t="str">
+        <f>VLOOKUP(AO57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ57" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AR57" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS57">
+        <v>9027</v>
+      </c>
+      <c r="AT57" t="str">
+        <f>VLOOKUP(AS57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU57" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AV57" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW57">
+        <v>9033</v>
+      </c>
+      <c r="AX57" t="str">
+        <f>VLOOKUP(AW57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY57" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AZ57" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA57">
+        <v>9044</v>
+      </c>
+      <c r="BB57" t="str">
+        <f>VLOOKUP(BA57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC57" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="BD57" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE57">
+        <v>9050</v>
+      </c>
+      <c r="BF57" t="str">
+        <f>VLOOKUP(BE57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG57" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BH57" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI57">
+        <v>9053</v>
+      </c>
+      <c r="BJ57" t="str">
+        <f>VLOOKUP(BI57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK57" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BL57" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM57">
+        <v>9055</v>
+      </c>
+      <c r="BN57" t="str">
+        <f>VLOOKUP(BM57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO57" s="2">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BP57" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ57" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR57" t="str">
+        <f>VLOOKUP(BQ57,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS57" s="2">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BT57" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" si="3"/>
+        <v>9.999999999999998E+295</v>
+      </c>
+      <c r="D58">
+        <v>56</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="13"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="14"/>
+        <v>66000000000,5700000000,1750000,18900,360000,41300000,5700000,5,5,5,4,4,2,2,2,3</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="15"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58" t="str">
+        <f>VLOOKUP(I58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K58" s="2">
+        <v>66000000000</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>59</v>
+      </c>
+      <c r="O58" s="2">
+        <v>5700000000</v>
+      </c>
+      <c r="P58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>46</v>
+      </c>
+      <c r="R58" t="str">
+        <f>VLOOKUP(Q58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S58" s="2">
+        <v>1750000</v>
+      </c>
+      <c r="T58" s="2">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>9016</v>
+      </c>
+      <c r="V58" t="str">
+        <f>VLOOKUP(U58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W58" s="2">
+        <v>18900</v>
+      </c>
+      <c r="X58" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y58">
+        <v>9026</v>
+      </c>
+      <c r="Z58" t="str">
+        <f>VLOOKUP(Y58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>360000</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC58">
+        <v>9032</v>
+      </c>
+      <c r="AD58" t="str">
+        <f>VLOOKUP(AC58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE58" s="2">
+        <v>41300000</v>
+      </c>
+      <c r="AF58" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG58">
+        <v>9043</v>
+      </c>
+      <c r="AH58" t="str">
+        <f>VLOOKUP(AG58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI58" s="2">
+        <v>5700000</v>
+      </c>
+      <c r="AJ58" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK58">
+        <v>9023</v>
+      </c>
+      <c r="AL58" t="str">
+        <f>VLOOKUP(AK58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM58" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AN58" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO58">
+        <v>9017</v>
+      </c>
+      <c r="AP58" t="str">
+        <f>VLOOKUP(AO58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ58" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AR58" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS58">
+        <v>9027</v>
+      </c>
+      <c r="AT58" t="str">
+        <f>VLOOKUP(AS58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU58" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AV58" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW58">
+        <v>9033</v>
+      </c>
+      <c r="AX58" t="str">
+        <f>VLOOKUP(AW58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY58" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AZ58" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA58">
+        <v>9044</v>
+      </c>
+      <c r="BB58" t="str">
+        <f>VLOOKUP(BA58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC58" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="BD58" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE58">
+        <v>9050</v>
+      </c>
+      <c r="BF58" t="str">
+        <f>VLOOKUP(BE58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG58" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BH58" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI58">
+        <v>9053</v>
+      </c>
+      <c r="BJ58" t="str">
+        <f>VLOOKUP(BI58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK58" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BL58" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM58">
+        <v>9055</v>
+      </c>
+      <c r="BN58" t="str">
+        <f>VLOOKUP(BM58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO58" s="2">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BP58" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ58" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR58" t="str">
+        <f>VLOOKUP(BQ58,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS58" s="2">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BT58" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999976E+299</v>
+      </c>
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="13"/>
+        <v>2,5,46,9016,9026,9032,9043,9023,9017,9027,9033,9044,9050,9053,9055,9063</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="14"/>
+        <v>67000000000,5800000000,1800000,19200,366000,42000000,5800000,5,5,5,5,4,3,3,3,3</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="15"/>
+        <v>1,1,1,2,2,2,2,3,3,3,3,3,4,4,4,4</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59" t="str">
+        <f>VLOOKUP(I59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K59" s="2">
+        <v>67000000000</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>59</v>
+      </c>
+      <c r="O59" s="2">
+        <v>5800000000</v>
+      </c>
+      <c r="P59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>46</v>
+      </c>
+      <c r="R59" t="str">
+        <f>VLOOKUP(Q59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S59" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="T59" s="2">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>9016</v>
+      </c>
+      <c r="V59" t="str">
+        <f>VLOOKUP(U59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W59" s="2">
+        <v>19200</v>
+      </c>
+      <c r="X59" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y59">
+        <v>9026</v>
+      </c>
+      <c r="Z59" t="str">
+        <f>VLOOKUP(Y59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>366000</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC59">
+        <v>9032</v>
+      </c>
+      <c r="AD59" t="str">
+        <f>VLOOKUP(AC59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE59" s="2">
+        <v>42000000</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG59">
+        <v>9043</v>
+      </c>
+      <c r="AH59" t="str">
+        <f>VLOOKUP(AG59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI59" s="2">
+        <v>5800000</v>
+      </c>
+      <c r="AJ59" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK59">
+        <v>9023</v>
+      </c>
+      <c r="AL59" t="str">
+        <f>VLOOKUP(AK59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM59" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AN59" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO59">
+        <v>9017</v>
+      </c>
+      <c r="AP59" t="str">
+        <f>VLOOKUP(AO59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ59" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AR59" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS59">
+        <v>9027</v>
+      </c>
+      <c r="AT59" t="str">
+        <f>VLOOKUP(AS59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU59" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AV59" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>9033</v>
+      </c>
+      <c r="AX59" t="str">
+        <f>VLOOKUP(AW59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY59" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AZ59" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA59">
+        <v>9044</v>
+      </c>
+      <c r="BB59" t="str">
+        <f>VLOOKUP(BA59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC59" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="BD59" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE59">
+        <v>9050</v>
+      </c>
+      <c r="BF59" t="str">
+        <f>VLOOKUP(BE59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG59" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BH59" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI59">
+        <v>9053</v>
+      </c>
+      <c r="BJ59" t="str">
+        <f>VLOOKUP(BI59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK59" s="2">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BL59" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM59">
+        <v>9055</v>
+      </c>
+      <c r="BN59" t="str">
+        <f>VLOOKUP(BM59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO59" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BP59" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ59" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR59" t="str">
+        <f>VLOOKUP(BQ59,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS59" s="2">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BT59" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60" t="str">
+        <f>VLOOKUP(I60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K60" s="2">
+        <v>68000000000</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>59</v>
+      </c>
+      <c r="O60" s="2">
+        <v>5900000000</v>
+      </c>
+      <c r="P60" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>46</v>
+      </c>
+      <c r="R60" t="str">
+        <f>VLOOKUP(Q60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S60" s="2">
+        <v>1850000</v>
+      </c>
+      <c r="T60" s="2">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>9016</v>
+      </c>
+      <c r="V60" t="str">
+        <f>VLOOKUP(U60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W60" s="2">
+        <v>19500</v>
+      </c>
+      <c r="X60" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y60">
+        <v>9026</v>
+      </c>
+      <c r="Z60" t="str">
+        <f>VLOOKUP(Y60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>372000</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC60">
+        <v>9032</v>
+      </c>
+      <c r="AD60" t="str">
+        <f>VLOOKUP(AC60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE60" s="2">
+        <v>42700000</v>
+      </c>
+      <c r="AF60" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG60">
+        <v>9043</v>
+      </c>
+      <c r="AH60" t="str">
+        <f>VLOOKUP(AG60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI60" s="2">
+        <v>5900000</v>
+      </c>
+      <c r="AJ60" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK60">
+        <v>9023</v>
+      </c>
+      <c r="AL60" t="str">
+        <f>VLOOKUP(AK60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM60" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AN60" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO60">
+        <v>9017</v>
+      </c>
+      <c r="AP60" t="str">
+        <f>VLOOKUP(AO60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ60" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AR60" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS60">
+        <v>9027</v>
+      </c>
+      <c r="AT60" t="str">
+        <f>VLOOKUP(AS60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU60" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AV60" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW60">
+        <v>9033</v>
+      </c>
+      <c r="AX60" t="str">
+        <f>VLOOKUP(AW60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY60" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AZ60" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA60">
+        <v>9044</v>
+      </c>
+      <c r="BB60" t="str">
+        <f>VLOOKUP(BA60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC60" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="BD60" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE60">
+        <v>9050</v>
+      </c>
+      <c r="BF60" t="str">
+        <f>VLOOKUP(BE60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG60" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BH60" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI60">
+        <v>9053</v>
+      </c>
+      <c r="BJ60" t="str">
+        <f>VLOOKUP(BI60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK60" s="2">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BL60" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM60">
+        <v>9055</v>
+      </c>
+      <c r="BN60" t="str">
+        <f>VLOOKUP(BM60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO60" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BP60" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ60" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR60" t="str">
+        <f>VLOOKUP(BQ60,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS60" s="2">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BT60" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61" t="str">
+        <f>VLOOKUP(I61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K61" s="2">
+        <v>69000000000</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>59</v>
+      </c>
+      <c r="O61" s="2">
+        <v>6000000000</v>
+      </c>
+      <c r="P61" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>46</v>
+      </c>
+      <c r="R61" t="str">
+        <f>VLOOKUP(Q61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S61" s="2">
+        <v>1900000</v>
+      </c>
+      <c r="T61" s="2">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>9016</v>
+      </c>
+      <c r="V61" t="str">
+        <f>VLOOKUP(U61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W61" s="2">
+        <v>19800</v>
+      </c>
+      <c r="X61" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y61">
+        <v>9026</v>
+      </c>
+      <c r="Z61" t="str">
+        <f>VLOOKUP(Y61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>378000</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC61">
+        <v>9032</v>
+      </c>
+      <c r="AD61" t="str">
+        <f>VLOOKUP(AC61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>43400000</v>
+      </c>
+      <c r="AF61" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG61">
+        <v>9043</v>
+      </c>
+      <c r="AH61" t="str">
+        <f>VLOOKUP(AG61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI61" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="AJ61" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK61">
+        <v>9023</v>
+      </c>
+      <c r="AL61" t="str">
+        <f>VLOOKUP(AK61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM61" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AN61" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO61">
+        <v>9017</v>
+      </c>
+      <c r="AP61" t="str">
+        <f>VLOOKUP(AO61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ61" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AR61" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS61">
+        <v>9027</v>
+      </c>
+      <c r="AT61" t="str">
+        <f>VLOOKUP(AS61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU61" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AV61" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>9033</v>
+      </c>
+      <c r="AX61" t="str">
+        <f>VLOOKUP(AW61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY61" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AZ61" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA61">
+        <v>9044</v>
+      </c>
+      <c r="BB61" t="str">
+        <f>VLOOKUP(BA61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC61" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="BD61" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE61">
+        <v>9050</v>
+      </c>
+      <c r="BF61" t="str">
+        <f>VLOOKUP(BE61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG61" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BH61" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI61">
+        <v>9053</v>
+      </c>
+      <c r="BJ61" t="str">
+        <f>VLOOKUP(BI61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK61" s="2">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BL61" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM61">
+        <v>9055</v>
+      </c>
+      <c r="BN61" t="str">
+        <f>VLOOKUP(BM61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO61" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BP61" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ61" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR61" t="str">
+        <f>VLOOKUP(BQ61,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS61" s="2">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BT61" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" t="str">
+        <f>VLOOKUP(I62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K62" s="2">
+        <v>70000000000</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>59</v>
+      </c>
+      <c r="O62" s="2">
+        <v>6100000000</v>
+      </c>
+      <c r="P62" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>46</v>
+      </c>
+      <c r="R62" t="str">
+        <f>VLOOKUP(Q62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S62" s="2">
+        <v>1950000</v>
+      </c>
+      <c r="T62" s="2">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>9016</v>
+      </c>
+      <c r="V62" t="str">
+        <f>VLOOKUP(U62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W62" s="2">
+        <v>20100</v>
+      </c>
+      <c r="X62" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y62">
+        <v>9026</v>
+      </c>
+      <c r="Z62" t="str">
+        <f>VLOOKUP(Y62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>384000</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC62">
+        <v>9032</v>
+      </c>
+      <c r="AD62" t="str">
+        <f>VLOOKUP(AC62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE62" s="2">
+        <v>44100000</v>
+      </c>
+      <c r="AF62" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG62">
+        <v>9043</v>
+      </c>
+      <c r="AH62" t="str">
+        <f>VLOOKUP(AG62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI62" s="2">
+        <v>6100000</v>
+      </c>
+      <c r="AJ62" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>9023</v>
+      </c>
+      <c r="AL62" t="str">
+        <f>VLOOKUP(AK62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM62" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AN62" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO62">
+        <v>9017</v>
+      </c>
+      <c r="AP62" t="str">
+        <f>VLOOKUP(AO62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ62" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AR62" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS62">
+        <v>9027</v>
+      </c>
+      <c r="AT62" t="str">
+        <f>VLOOKUP(AS62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU62" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AV62" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>9033</v>
+      </c>
+      <c r="AX62" t="str">
+        <f>VLOOKUP(AW62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY62" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AZ62" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA62">
+        <v>9044</v>
+      </c>
+      <c r="BB62" t="str">
+        <f>VLOOKUP(BA62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC62" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="BD62" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE62">
+        <v>9050</v>
+      </c>
+      <c r="BF62" t="str">
+        <f>VLOOKUP(BE62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG62" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BH62" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI62">
+        <v>9053</v>
+      </c>
+      <c r="BJ62" t="str">
+        <f>VLOOKUP(BI62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK62" s="2">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BL62" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM62">
+        <v>9055</v>
+      </c>
+      <c r="BN62" t="str">
+        <f>VLOOKUP(BM62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO62" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BP62" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ62" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR62" t="str">
+        <f>VLOOKUP(BQ62,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS62" s="2">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BT62" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="str">
+        <f>VLOOKUP(I63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K63" s="2">
+        <v>71000000000</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>59</v>
+      </c>
+      <c r="O63" s="2">
+        <v>6200000000</v>
+      </c>
+      <c r="P63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>46</v>
+      </c>
+      <c r="R63" t="str">
+        <f>VLOOKUP(Q63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S63" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="T63" s="2">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>9016</v>
+      </c>
+      <c r="V63" t="str">
+        <f>VLOOKUP(U63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W63" s="2">
+        <v>20400</v>
+      </c>
+      <c r="X63" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y63">
+        <v>9026</v>
+      </c>
+      <c r="Z63" t="str">
+        <f>VLOOKUP(Y63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>390000</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC63">
+        <v>9032</v>
+      </c>
+      <c r="AD63" t="str">
+        <f>VLOOKUP(AC63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE63" s="2">
+        <v>44800000</v>
+      </c>
+      <c r="AF63" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG63">
+        <v>9043</v>
+      </c>
+      <c r="AH63" t="str">
+        <f>VLOOKUP(AG63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI63" s="2">
+        <v>6200000</v>
+      </c>
+      <c r="AJ63" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK63">
+        <v>9023</v>
+      </c>
+      <c r="AL63" t="str">
+        <f>VLOOKUP(AK63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM63" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AN63" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO63">
+        <v>9017</v>
+      </c>
+      <c r="AP63" t="str">
+        <f>VLOOKUP(AO63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ63" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AR63" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS63">
+        <v>9027</v>
+      </c>
+      <c r="AT63" t="str">
+        <f>VLOOKUP(AS63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU63" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AV63" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>9033</v>
+      </c>
+      <c r="AX63" t="str">
+        <f>VLOOKUP(AW63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY63" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AZ63" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA63">
+        <v>9044</v>
+      </c>
+      <c r="BB63" t="str">
+        <f>VLOOKUP(BA63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC63" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="BD63" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE63">
+        <v>9050</v>
+      </c>
+      <c r="BF63" t="str">
+        <f>VLOOKUP(BE63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG63" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BH63" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI63">
+        <v>9053</v>
+      </c>
+      <c r="BJ63" t="str">
+        <f>VLOOKUP(BI63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK63" s="2">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BL63" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM63">
+        <v>9055</v>
+      </c>
+      <c r="BN63" t="str">
+        <f>VLOOKUP(BM63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO63" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BP63" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ63" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR63" t="str">
+        <f>VLOOKUP(BQ63,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS63" s="2">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BT63" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64" t="str">
+        <f>VLOOKUP(I64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K64" s="2">
+        <v>72000000000</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>59</v>
+      </c>
+      <c r="O64" s="2">
+        <v>6300000000</v>
+      </c>
+      <c r="P64" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>46</v>
+      </c>
+      <c r="R64" t="str">
+        <f>VLOOKUP(Q64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S64" s="2">
+        <v>2050000</v>
+      </c>
+      <c r="T64" s="2">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>9016</v>
+      </c>
+      <c r="V64" t="str">
+        <f>VLOOKUP(U64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W64" s="2">
+        <v>20700</v>
+      </c>
+      <c r="X64" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y64">
+        <v>9026</v>
+      </c>
+      <c r="Z64" t="str">
+        <f>VLOOKUP(Y64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>396000</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC64">
+        <v>9032</v>
+      </c>
+      <c r="AD64" t="str">
+        <f>VLOOKUP(AC64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE64" s="2">
+        <v>45500000</v>
+      </c>
+      <c r="AF64" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG64">
+        <v>9043</v>
+      </c>
+      <c r="AH64" t="str">
+        <f>VLOOKUP(AG64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI64" s="2">
+        <v>6300000</v>
+      </c>
+      <c r="AJ64" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK64">
+        <v>9023</v>
+      </c>
+      <c r="AL64" t="str">
+        <f>VLOOKUP(AK64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM64" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AN64" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO64">
+        <v>9017</v>
+      </c>
+      <c r="AP64" t="str">
+        <f>VLOOKUP(AO64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ64" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AR64" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS64">
+        <v>9027</v>
+      </c>
+      <c r="AT64" t="str">
+        <f>VLOOKUP(AS64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU64" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AV64" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>9033</v>
+      </c>
+      <c r="AX64" t="str">
+        <f>VLOOKUP(AW64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY64" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AZ64" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA64">
+        <v>9044</v>
+      </c>
+      <c r="BB64" t="str">
+        <f>VLOOKUP(BA64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC64" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="BD64" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE64">
+        <v>9050</v>
+      </c>
+      <c r="BF64" t="str">
+        <f>VLOOKUP(BE64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG64" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BH64" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI64">
+        <v>9053</v>
+      </c>
+      <c r="BJ64" t="str">
+        <f>VLOOKUP(BI64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK64" s="2">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BL64" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM64">
+        <v>9055</v>
+      </c>
+      <c r="BN64" t="str">
+        <f>VLOOKUP(BM64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO64" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BP64" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ64" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR64" t="str">
+        <f>VLOOKUP(BQ64,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS64" s="2">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BT64" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="9:72" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65" t="str">
+        <f>VLOOKUP(I65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K65" s="2">
+        <v>73000000000</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>59</v>
+      </c>
+      <c r="O65" s="2">
+        <v>6400000000</v>
+      </c>
+      <c r="P65" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>46</v>
+      </c>
+      <c r="R65" t="str">
+        <f>VLOOKUP(Q65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S65" s="2">
+        <v>2100000</v>
+      </c>
+      <c r="T65" s="2">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>9016</v>
+      </c>
+      <c r="V65" t="str">
+        <f>VLOOKUP(U65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W65" s="2">
+        <v>21000</v>
+      </c>
+      <c r="X65" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y65">
+        <v>9026</v>
+      </c>
+      <c r="Z65" t="str">
+        <f>VLOOKUP(Y65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>402000</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC65">
+        <v>9032</v>
+      </c>
+      <c r="AD65" t="str">
+        <f>VLOOKUP(AC65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE65" s="2">
+        <v>46200000</v>
+      </c>
+      <c r="AF65" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG65">
+        <v>9043</v>
+      </c>
+      <c r="AH65" t="str">
+        <f>VLOOKUP(AG65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI65" s="2">
+        <v>6400000</v>
+      </c>
+      <c r="AJ65" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK65">
+        <v>9023</v>
+      </c>
+      <c r="AL65" t="str">
+        <f>VLOOKUP(AK65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM65" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AN65" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO65">
+        <v>9017</v>
+      </c>
+      <c r="AP65" t="str">
+        <f>VLOOKUP(AO65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ65" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AR65" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS65">
+        <v>9027</v>
+      </c>
+      <c r="AT65" t="str">
+        <f>VLOOKUP(AS65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU65" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AV65" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>9033</v>
+      </c>
+      <c r="AX65" t="str">
+        <f>VLOOKUP(AW65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY65" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AZ65" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA65">
+        <v>9044</v>
+      </c>
+      <c r="BB65" t="str">
+        <f>VLOOKUP(BA65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC65" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="BD65" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE65">
+        <v>9050</v>
+      </c>
+      <c r="BF65" t="str">
+        <f>VLOOKUP(BE65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG65" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BH65" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI65">
+        <v>9053</v>
+      </c>
+      <c r="BJ65" t="str">
+        <f>VLOOKUP(BI65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK65" s="2">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BL65" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM65">
+        <v>9055</v>
+      </c>
+      <c r="BN65" t="str">
+        <f>VLOOKUP(BM65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO65" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BP65" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ65" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR65" t="str">
+        <f>VLOOKUP(BQ65,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS65" s="2">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BT65" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="9:72" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66" t="str">
+        <f>VLOOKUP(I66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의돌</v>
+      </c>
+      <c r="K66" s="2">
+        <v>74000000000</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>59</v>
+      </c>
+      <c r="O66" s="2">
+        <v>6500000000</v>
+      </c>
+      <c r="P66" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>46</v>
+      </c>
+      <c r="R66" t="str">
+        <f>VLOOKUP(Q66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검조각</v>
+      </c>
+      <c r="S66" s="2">
+        <v>2150000</v>
+      </c>
+      <c r="T66" s="2">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>9016</v>
+      </c>
+      <c r="V66" t="str">
+        <f>VLOOKUP(U66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환</v>
+      </c>
+      <c r="W66" s="2">
+        <v>21300</v>
+      </c>
+      <c r="X66" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y66">
+        <v>9026</v>
+      </c>
+      <c r="Z66" t="str">
+        <f>VLOOKUP(Y66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>408000</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC66">
+        <v>9032</v>
+      </c>
+      <c r="AD66" t="str">
+        <f>VLOOKUP(AC66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃</v>
+      </c>
+      <c r="AE66" s="2">
+        <v>46900000</v>
+      </c>
+      <c r="AF66" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG66">
+        <v>9043</v>
+      </c>
+      <c r="AH66" t="str">
+        <f>VLOOKUP(AG66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>심득 조각</v>
+      </c>
+      <c r="AI66" s="2">
+        <v>6500000</v>
+      </c>
+      <c r="AJ66" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK66">
+        <v>9023</v>
+      </c>
+      <c r="AL66" t="str">
+        <f>VLOOKUP(AK66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>영혼석 소탕권</v>
+      </c>
+      <c r="AM66" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AN66" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO66">
+        <v>9017</v>
+      </c>
+      <c r="AP66" t="str">
+        <f>VLOOKUP(AO66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수호환 소탕권</v>
+      </c>
+      <c r="AQ66" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AR66" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS66">
+        <v>9027</v>
+      </c>
+      <c r="AT66" t="str">
+        <f>VLOOKUP(AS66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>여우불씨 소탕권</v>
+      </c>
+      <c r="AU66" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AV66" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW66">
+        <v>9033</v>
+      </c>
+      <c r="AX66" t="str">
+        <f>VLOOKUP(AW66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>도술꽃 소탕권</v>
+      </c>
+      <c r="AY66" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AZ66" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA66">
+        <v>9044</v>
+      </c>
+      <c r="BB66" t="str">
+        <f>VLOOKUP(BA66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>내면세계 입장권</v>
+      </c>
+      <c r="BC66" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="BD66" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE66">
+        <v>9050</v>
+      </c>
+      <c r="BF66" t="str">
+        <f>VLOOKUP(BE66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>태극 영약</v>
+      </c>
+      <c r="BG66" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="BH66" s="2">
+        <v>4</v>
+      </c>
+      <c r="BI66">
+        <v>9053</v>
+      </c>
+      <c r="BJ66" t="str">
+        <f>VLOOKUP(BI66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>검은 구미호 구슬 소탕권</v>
+      </c>
+      <c r="BK66" s="2">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BL66" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM66">
+        <v>9055</v>
+      </c>
+      <c r="BN66" t="str">
+        <f>VLOOKUP(BM66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>수련의 방 입장권</v>
+      </c>
+      <c r="BO66" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BP66" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ66" s="2">
+        <v>9063</v>
+      </c>
+      <c r="BR66" t="str">
+        <f>VLOOKUP(BQ66,[1]ChoboTable!$C:$D,2,FALSE)</f>
+        <v>사신수 영약</v>
+      </c>
+      <c r="BS66" s="2">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BT66" s="2">
         <v>4</v>
       </c>
     </row>
